--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP wiki Open Source\Requirements\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C04E1E8D-A561-4B54-B0FD-7F612C26EFD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48265009-98F6-4E15-9729-062A8C45CB11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>MINDTREE:</t>
         </r>
@@ -122,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 design current sprint, next sprit dev</t>
@@ -6626,17 +6626,17 @@
     <t>P2 - To be decided in the next sprint based on the location hierarchy decision from other modules</t>
   </si>
   <si>
-    <t>Discussion Needed</t>
-  </si>
-  <si>
     <t>Prioritisation on &lt;07 15&gt;</t>
+  </si>
+  <si>
+    <t>Discussion Needed on the use case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6751,19 +6751,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -7790,6 +7777,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7814,6 +7819,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7825,15 +7839,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7869,24 +7874,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15037,7 +15024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15955,18 +15942,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -16416,7 +16403,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="199" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16448,7 +16435,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="195"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="4" t="s">
         <v>1362</v>
       </c>
@@ -16788,19 +16775,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="198"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="153" t="s">
@@ -22115,18 +22102,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>1732</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -22164,7 +22151,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="218" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22190,7 +22177,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="213"/>
+      <c r="B4" s="219"/>
       <c r="C4" s="4" t="s">
         <v>1736</v>
       </c>
@@ -22212,7 +22199,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="218" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22238,7 +22225,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="214"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="19" t="s">
         <v>1741</v>
       </c>
@@ -22262,7 +22249,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="214"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22284,7 +22271,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="214"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22306,7 +22293,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="214"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22328,7 +22315,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="214"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="19" t="s">
         <v>1750</v>
       </c>
@@ -22350,7 +22337,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="214"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="19" t="s">
         <v>1752</v>
       </c>
@@ -22372,7 +22359,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="214"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="19" t="s">
         <v>1754</v>
       </c>
@@ -22394,7 +22381,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="214"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="19" t="s">
         <v>1756</v>
       </c>
@@ -22416,7 +22403,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="214"/>
+      <c r="B14" s="220"/>
       <c r="C14" s="19" t="s">
         <v>1758</v>
       </c>
@@ -22440,7 +22427,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="19" t="s">
         <v>1761</v>
       </c>
@@ -22464,7 +22451,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="213"/>
+      <c r="B16" s="219"/>
       <c r="C16" s="19" t="s">
         <v>1763</v>
       </c>
@@ -22586,7 +22573,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="218" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22610,7 +22597,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="214"/>
+      <c r="B22" s="220"/>
       <c r="C22" s="4" t="s">
         <v>1771</v>
       </c>
@@ -22632,7 +22619,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="214"/>
+      <c r="B23" s="220"/>
       <c r="C23" s="4" t="s">
         <v>1773</v>
       </c>
@@ -22654,7 +22641,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="214"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="4" t="s">
         <v>1775</v>
       </c>
@@ -22676,7 +22663,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="214"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="4" t="s">
         <v>1777</v>
       </c>
@@ -22698,7 +22685,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="213"/>
+      <c r="B26" s="219"/>
       <c r="C26" s="4" t="s">
         <v>1779</v>
       </c>
@@ -22720,7 +22707,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="218" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -22744,7 +22731,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="213"/>
+      <c r="B28" s="219"/>
       <c r="C28" s="4" t="s">
         <v>1783</v>
       </c>
@@ -22766,7 +22753,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="212" t="s">
+      <c r="B29" s="218" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -22790,7 +22777,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="213"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="4" t="s">
         <v>1787</v>
       </c>
@@ -22812,7 +22799,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="218" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -22836,7 +22823,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="214"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="4" t="s">
         <v>1791</v>
       </c>
@@ -22858,7 +22845,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="214"/>
+      <c r="B33" s="220"/>
       <c r="C33" s="4" t="s">
         <v>1793</v>
       </c>
@@ -22880,7 +22867,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="214"/>
+      <c r="B34" s="220"/>
       <c r="C34" s="4" t="s">
         <v>1795</v>
       </c>
@@ -22902,7 +22889,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="213"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="4" t="s">
         <v>1797</v>
       </c>
@@ -22924,7 +22911,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="212" t="s">
+      <c r="B36" s="218" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -22948,7 +22935,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="214"/>
+      <c r="B37" s="220"/>
       <c r="C37" s="4" t="s">
         <v>1801</v>
       </c>
@@ -22970,7 +22957,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="214"/>
+      <c r="B38" s="220"/>
       <c r="C38" s="4" t="s">
         <v>1803</v>
       </c>
@@ -22992,7 +22979,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="213"/>
+      <c r="B39" s="219"/>
       <c r="C39" s="4" t="s">
         <v>1805</v>
       </c>
@@ -23014,7 +23001,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="212" t="s">
+      <c r="B40" s="218" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23038,7 +23025,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="213"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="4" t="s">
         <v>1809</v>
       </c>
@@ -23084,7 +23071,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="212" t="s">
+      <c r="B43" s="218" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23108,7 +23095,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="214"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="4" t="s">
         <v>1814</v>
       </c>
@@ -23130,7 +23117,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="214"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="4" t="s">
         <v>1816</v>
       </c>
@@ -23152,7 +23139,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="214"/>
+      <c r="B46" s="220"/>
       <c r="C46" s="4" t="s">
         <v>1818</v>
       </c>
@@ -23176,7 +23163,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="214"/>
+      <c r="B47" s="220"/>
       <c r="C47" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23198,7 +23185,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="214"/>
+      <c r="B48" s="220"/>
       <c r="C48" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23220,7 +23207,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="214"/>
+      <c r="B49" s="220"/>
       <c r="C49" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23242,7 +23229,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="214"/>
+      <c r="B50" s="220"/>
       <c r="C50" s="4" t="s">
         <v>1827</v>
       </c>
@@ -23266,7 +23253,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="214"/>
+      <c r="B51" s="220"/>
       <c r="C51" s="4" t="s">
         <v>1829</v>
       </c>
@@ -23288,7 +23275,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="214"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="4" t="s">
         <v>1831</v>
       </c>
@@ -23310,7 +23297,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="214"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="4" t="s">
         <v>1833</v>
       </c>
@@ -23332,7 +23319,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="213"/>
+      <c r="B54" s="219"/>
       <c r="C54" s="4" t="s">
         <v>1835</v>
       </c>
@@ -23365,16 +23352,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23415,26 +23402,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="192"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="198"/>
     </row>
     <row r="3" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -25619,7 +25606,7 @@
       <c r="C68" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="188" t="s">
+      <c r="D68" s="194" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="124"/>
@@ -25653,7 +25640,7 @@
       <c r="C69" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="188"/>
+      <c r="D69" s="194"/>
       <c r="E69" s="124"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -35398,12 +35385,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="195" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="192"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -36968,18 +36955,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -37020,7 +37007,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="199" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -37055,7 +37042,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="194"/>
+      <c r="B4" s="200"/>
       <c r="C4" s="22" t="s">
         <v>920</v>
       </c>
@@ -37088,7 +37075,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="194"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="4" t="s">
         <v>924</v>
       </c>
@@ -37121,7 +37108,7 @@
       <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="194"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="4" t="s">
         <v>927</v>
       </c>
@@ -37154,7 +37141,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="194"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="4" t="s">
         <v>930</v>
       </c>
@@ -37185,7 +37172,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="194"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="4" t="s">
         <v>934</v>
       </c>
@@ -37210,7 +37197,7 @@
       <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B9" s="195"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="4" t="s">
         <v>936</v>
       </c>
@@ -37464,7 +37451,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="199" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37497,7 +37484,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="195"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37528,7 +37515,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="193" t="s">
+      <c r="B19" s="199" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37561,7 +37548,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="195"/>
+      <c r="B20" s="201"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37818,18 +37805,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -37903,7 +37890,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="202" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -37934,7 +37921,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="201"/>
+      <c r="B5" s="203"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38033,7 +38020,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="202" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38066,7 +38053,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="201"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38225,7 +38212,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="202" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38258,7 +38245,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="201"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38493,7 +38480,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="200" t="s">
+      <c r="B22" s="202" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38526,7 +38513,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="202"/>
+      <c r="B23" s="204"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38556,7 +38543,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="201"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38748,7 +38735,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="202" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -38781,7 +38768,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="201"/>
+      <c r="B31" s="203"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -38812,7 +38799,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="200" t="s">
+      <c r="B32" s="202" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -38845,7 +38832,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="201"/>
+      <c r="B33" s="203"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39107,7 +39094,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="200" t="s">
+      <c r="B41" s="202" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39140,7 +39127,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="201"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39204,7 +39191,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="200" t="s">
+      <c r="B44" s="202" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39237,7 +39224,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="201"/>
+      <c r="B45" s="203"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39332,7 +39319,7 @@
       <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="200" t="s">
+      <c r="B48" s="202" t="s">
         <v>271</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -39356,7 +39343,7 @@
       <c r="I48" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="203" t="s">
+      <c r="J48" s="209" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="90" t="s">
@@ -39367,7 +39354,7 @@
       <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="202"/>
+      <c r="B49" s="204"/>
       <c r="C49" s="4" t="s">
         <v>1060</v>
       </c>
@@ -39389,7 +39376,7 @@
       <c r="I49" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="203"/>
+      <c r="J49" s="209"/>
       <c r="K49" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39398,7 +39385,7 @@
       <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="202"/>
+      <c r="B50" s="204"/>
       <c r="C50" s="4" t="s">
         <v>1064</v>
       </c>
@@ -39420,7 +39407,7 @@
       <c r="I50" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="203"/>
+      <c r="J50" s="209"/>
       <c r="K50" s="135" t="s">
         <v>349</v>
       </c>
@@ -39429,7 +39416,7 @@
       <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="202"/>
+      <c r="B51" s="204"/>
       <c r="C51" s="4" t="s">
         <v>1067</v>
       </c>
@@ -39451,7 +39438,7 @@
       <c r="I51" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="203"/>
+      <c r="J51" s="209"/>
       <c r="K51" s="135" t="s">
         <v>1070</v>
       </c>
@@ -39460,7 +39447,7 @@
       <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="202"/>
+      <c r="B52" s="204"/>
       <c r="C52" s="4" t="s">
         <v>1071</v>
       </c>
@@ -39482,7 +39469,7 @@
       <c r="I52" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="203"/>
+      <c r="J52" s="209"/>
       <c r="K52" s="135" t="s">
         <v>1074</v>
       </c>
@@ -39491,7 +39478,7 @@
       <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="202"/>
+      <c r="B53" s="204"/>
       <c r="C53" s="4" t="s">
         <v>1075</v>
       </c>
@@ -39513,7 +39500,7 @@
       <c r="I53" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="203"/>
+      <c r="J53" s="209"/>
       <c r="K53" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39522,7 +39509,7 @@
       <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="202"/>
+      <c r="B54" s="204"/>
       <c r="C54" s="4" t="s">
         <v>1078</v>
       </c>
@@ -39544,7 +39531,7 @@
       <c r="I54" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="203"/>
+      <c r="J54" s="209"/>
       <c r="K54" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39553,7 +39540,7 @@
       <c r="A55" s="36">
         <v>53</v>
       </c>
-      <c r="B55" s="202"/>
+      <c r="B55" s="204"/>
       <c r="C55" s="4" t="s">
         <v>1081</v>
       </c>
@@ -39575,7 +39562,7 @@
       <c r="I55" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="203"/>
+      <c r="J55" s="209"/>
       <c r="K55" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39584,7 +39571,7 @@
       <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="202"/>
+      <c r="B56" s="204"/>
       <c r="C56" s="4" t="s">
         <v>1084</v>
       </c>
@@ -39602,7 +39589,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="89"/>
-      <c r="J56" s="203"/>
+      <c r="J56" s="209"/>
       <c r="K56" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39611,7 +39598,7 @@
       <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="201"/>
+      <c r="B57" s="203"/>
       <c r="C57" s="4" t="s">
         <v>1087</v>
       </c>
@@ -39633,7 +39620,7 @@
       <c r="I57" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="203"/>
+      <c r="J57" s="209"/>
       <c r="K57" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39642,7 +39629,7 @@
       <c r="A58" s="36">
         <v>56</v>
       </c>
-      <c r="B58" s="196" t="s">
+      <c r="B58" s="205" t="s">
         <v>271</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -39666,7 +39653,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="199" t="s">
+      <c r="J58" s="208" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="135" t="s">
@@ -39677,7 +39664,7 @@
       <c r="A59" s="36">
         <v>57</v>
       </c>
-      <c r="B59" s="197"/>
+      <c r="B59" s="206"/>
       <c r="C59" s="4" t="s">
         <v>1093</v>
       </c>
@@ -39699,7 +39686,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="199"/>
+      <c r="J59" s="208"/>
       <c r="K59" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39708,7 +39695,7 @@
       <c r="A60" s="36">
         <v>58</v>
       </c>
-      <c r="B60" s="197"/>
+      <c r="B60" s="206"/>
       <c r="C60" s="4" t="s">
         <v>1096</v>
       </c>
@@ -39730,7 +39717,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="199"/>
+      <c r="J60" s="208"/>
       <c r="K60" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39739,7 +39726,7 @@
       <c r="A61" s="36">
         <v>59</v>
       </c>
-      <c r="B61" s="197"/>
+      <c r="B61" s="206"/>
       <c r="C61" s="4" t="s">
         <v>1099</v>
       </c>
@@ -39761,7 +39748,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="199"/>
+      <c r="J61" s="208"/>
       <c r="K61" s="139" t="s">
         <v>66</v>
       </c>
@@ -39770,7 +39757,7 @@
       <c r="A62" s="36">
         <v>60</v>
       </c>
-      <c r="B62" s="197"/>
+      <c r="B62" s="206"/>
       <c r="C62" s="4" t="s">
         <v>1102</v>
       </c>
@@ -39792,7 +39779,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="199"/>
+      <c r="J62" s="208"/>
       <c r="K62" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39801,7 +39788,7 @@
       <c r="A63" s="36">
         <v>61</v>
       </c>
-      <c r="B63" s="197"/>
+      <c r="B63" s="206"/>
       <c r="C63" s="4" t="s">
         <v>1104</v>
       </c>
@@ -39823,7 +39810,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="199"/>
+      <c r="J63" s="208"/>
       <c r="K63" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39832,7 +39819,7 @@
       <c r="A64" s="36">
         <v>62</v>
       </c>
-      <c r="B64" s="197"/>
+      <c r="B64" s="206"/>
       <c r="C64" s="4" t="s">
         <v>963</v>
       </c>
@@ -39854,7 +39841,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="199"/>
+      <c r="J64" s="208"/>
       <c r="K64" s="139" t="s">
         <v>1109</v>
       </c>
@@ -39863,7 +39850,7 @@
       <c r="A65" s="36">
         <v>63</v>
       </c>
-      <c r="B65" s="197"/>
+      <c r="B65" s="206"/>
       <c r="C65" s="4" t="s">
         <v>1110</v>
       </c>
@@ -39885,14 +39872,14 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="199"/>
+      <c r="J65" s="208"/>
       <c r="K65" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
-      <c r="B66" s="197"/>
+      <c r="B66" s="206"/>
       <c r="C66" s="4" t="s">
         <v>1113</v>
       </c>
@@ -39912,14 +39899,14 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="199"/>
+      <c r="J66" s="208"/>
       <c r="K66" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
-      <c r="B67" s="197"/>
+      <c r="B67" s="206"/>
       <c r="C67" s="41" t="s">
         <v>1116</v>
       </c>
@@ -39939,7 +39926,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="199"/>
+      <c r="J67" s="208"/>
       <c r="K67" s="139" t="s">
         <v>1119</v>
       </c>
@@ -39948,7 +39935,7 @@
       <c r="A68" s="36">
         <v>64</v>
       </c>
-      <c r="B68" s="197"/>
+      <c r="B68" s="206"/>
       <c r="C68" s="131" t="s">
         <v>1120</v>
       </c>
@@ -39970,7 +39957,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="199"/>
+      <c r="J68" s="208"/>
       <c r="K68" s="139" t="s">
         <v>1123</v>
       </c>
@@ -39979,7 +39966,7 @@
       <c r="A69" s="36">
         <v>65</v>
       </c>
-      <c r="B69" s="197"/>
+      <c r="B69" s="206"/>
       <c r="C69" s="4" t="s">
         <v>1124</v>
       </c>
@@ -40001,7 +39988,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="199"/>
+      <c r="J69" s="208"/>
       <c r="K69" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40010,7 +39997,7 @@
       <c r="A70" s="36">
         <v>66</v>
       </c>
-      <c r="B70" s="197"/>
+      <c r="B70" s="206"/>
       <c r="C70" s="4" t="s">
         <v>1127</v>
       </c>
@@ -40032,7 +40019,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="199"/>
+      <c r="J70" s="208"/>
       <c r="K70" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40041,7 +40028,7 @@
       <c r="A71" s="36">
         <v>67</v>
       </c>
-      <c r="B71" s="197"/>
+      <c r="B71" s="206"/>
       <c r="C71" s="4" t="s">
         <v>1130</v>
       </c>
@@ -40063,7 +40050,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="199"/>
+      <c r="J71" s="208"/>
       <c r="K71" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40072,7 +40059,7 @@
       <c r="A72" s="36">
         <v>68</v>
       </c>
-      <c r="B72" s="197"/>
+      <c r="B72" s="206"/>
       <c r="C72" s="4" t="s">
         <v>1133</v>
       </c>
@@ -40094,7 +40081,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="199"/>
+      <c r="J72" s="208"/>
       <c r="K72" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40103,7 +40090,7 @@
       <c r="A73" s="36">
         <v>69</v>
       </c>
-      <c r="B73" s="197"/>
+      <c r="B73" s="206"/>
       <c r="C73" s="4" t="s">
         <v>1135</v>
       </c>
@@ -40125,7 +40112,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="199"/>
+      <c r="J73" s="208"/>
       <c r="K73" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40134,7 +40121,7 @@
       <c r="A74" s="36">
         <v>70</v>
       </c>
-      <c r="B74" s="197"/>
+      <c r="B74" s="206"/>
       <c r="C74" s="131" t="s">
         <v>1138</v>
       </c>
@@ -40154,7 +40141,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="199"/>
+      <c r="J74" s="208"/>
       <c r="K74" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40163,7 +40150,7 @@
       <c r="A75" s="36">
         <v>70</v>
       </c>
-      <c r="B75" s="198"/>
+      <c r="B75" s="207"/>
       <c r="C75" s="131"/>
       <c r="D75" s="39"/>
       <c r="E75" s="131"/>
@@ -40171,7 +40158,7 @@
       <c r="G75" s="88"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="199"/>
+      <c r="J75" s="208"/>
       <c r="K75" s="72"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -40375,6 +40362,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="B58:B75"/>
+    <mergeCell ref="J58:J75"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="J48:J57"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:B15"/>
@@ -40382,12 +40375,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B58:B75"/>
-    <mergeCell ref="J58:J75"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="J48:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -40423,18 +40410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -41689,18 +41676,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="211" t="s">
         <v>1226</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="208"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="214"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -41733,11 +41720,11 @@
       <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="219" t="s">
+      <c r="K2" s="192" t="s">
         <v>886</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
@@ -41857,7 +41844,7 @@
       <c r="C6" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="191" t="s">
         <v>371</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -41887,7 +41874,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="209" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -41923,7 +41910,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="209"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="4" t="s">
         <v>1234</v>
       </c>
@@ -41957,7 +41944,7 @@
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="209"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="4" t="s">
         <v>1237</v>
       </c>
@@ -41991,7 +41978,7 @@
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="209"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="4" t="s">
         <v>1239</v>
       </c>
@@ -42025,7 +42012,7 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="209"/>
+      <c r="B11" s="215"/>
       <c r="C11" s="4" t="s">
         <v>1242</v>
       </c>
@@ -42059,7 +42046,7 @@
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="209"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="4" t="s">
         <v>1245</v>
       </c>
@@ -42093,7 +42080,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="209"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="4" t="s">
         <v>1248</v>
       </c>
@@ -42127,7 +42114,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="209"/>
+      <c r="B14" s="215"/>
       <c r="C14" s="4" t="s">
         <v>1251</v>
       </c>
@@ -42404,7 +42391,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="209" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -42440,7 +42427,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="210"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="61" t="s">
         <v>1265</v>
       </c>
@@ -42471,7 +42458,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="209"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42503,7 +42490,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="209"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="22" t="s">
         <v>1271</v>
       </c>
@@ -42535,7 +42522,7 @@
       <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="210"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="61" t="s">
         <v>1274</v>
       </c>
@@ -42566,7 +42553,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="209"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42670,7 +42657,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="203" t="s">
+      <c r="B30" s="209" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -42706,7 +42693,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="209"/>
+      <c r="B31" s="215"/>
       <c r="C31" s="4" t="s">
         <v>1285</v>
       </c>
@@ -42740,7 +42727,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="209"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="4" t="s">
         <v>1288</v>
       </c>
@@ -42774,7 +42761,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="209"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="4" t="s">
         <v>1291</v>
       </c>
@@ -42814,7 +42801,7 @@
       <c r="C34" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="D34" s="216" t="s">
+      <c r="D34" s="189" t="s">
         <v>413</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -42994,7 +42981,7 @@
       <c r="A39" s="60">
         <v>37</v>
       </c>
-      <c r="B39" s="202" t="s">
+      <c r="B39" s="204" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="52" t="s">
@@ -43025,7 +43012,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="210"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="4" t="s">
         <v>1304</v>
       </c>
@@ -43054,7 +43041,7 @@
       <c r="A41" s="54">
         <v>39</v>
       </c>
-      <c r="B41" s="210"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="53" t="s">
         <v>1307</v>
       </c>
@@ -43081,7 +43068,7 @@
     </row>
     <row r="42" spans="1:12" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
-      <c r="B42" s="204" t="s">
+      <c r="B42" s="210" t="s">
         <v>1310</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -43117,7 +43104,7 @@
     </row>
     <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
-      <c r="B43" s="204"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="4" t="s">
         <v>1314</v>
       </c>
@@ -43145,7 +43132,7 @@
     </row>
     <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
-      <c r="B44" s="204"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="4" t="s">
         <v>1317</v>
       </c>
@@ -43173,13 +43160,13 @@
     </row>
     <row r="45" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" s="204" t="s">
+      <c r="B45" s="210" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="D45" s="215" t="s">
+      <c r="D45" s="188" t="s">
         <v>1321</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -43203,11 +43190,11 @@
     </row>
     <row r="46" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
-      <c r="B46" s="204"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="D46" s="215" t="s">
+      <c r="D46" s="188" t="s">
         <v>1324</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -43257,628 +43244,628 @@
       <c r="L48" s="187"/>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L49" s="220"/>
+      <c r="L49" s="193"/>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L50" s="220"/>
+      <c r="L50" s="193"/>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L51" s="220"/>
+      <c r="L51" s="193"/>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L52" s="220"/>
+      <c r="L52" s="193"/>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L53" s="220"/>
+      <c r="L53" s="193"/>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L54" s="220"/>
+      <c r="L54" s="193"/>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L55" s="220"/>
+      <c r="L55" s="193"/>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L56" s="220"/>
+      <c r="L56" s="193"/>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L57" s="220"/>
+      <c r="L57" s="193"/>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L58" s="220"/>
+      <c r="L58" s="193"/>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L59" s="220"/>
+      <c r="L59" s="193"/>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L60" s="220"/>
+      <c r="L60" s="193"/>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L61" s="220"/>
+      <c r="L61" s="193"/>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L62" s="220"/>
+      <c r="L62" s="193"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L63" s="220"/>
+      <c r="L63" s="193"/>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L64" s="220"/>
+      <c r="L64" s="193"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L65" s="220"/>
+      <c r="L65" s="193"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L66" s="220"/>
+      <c r="L66" s="193"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L67" s="220"/>
+      <c r="L67" s="193"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L68" s="220"/>
+      <c r="L68" s="193"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L69" s="220"/>
+      <c r="L69" s="193"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L70" s="220"/>
+      <c r="L70" s="193"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L71" s="220"/>
+      <c r="L71" s="193"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L72" s="220"/>
+      <c r="L72" s="193"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L73" s="220"/>
+      <c r="L73" s="193"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L74" s="220"/>
+      <c r="L74" s="193"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L75" s="220"/>
+      <c r="L75" s="193"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L76" s="220"/>
+      <c r="L76" s="193"/>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L77" s="220"/>
+      <c r="L77" s="193"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L78" s="220"/>
+      <c r="L78" s="193"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L79" s="220"/>
+      <c r="L79" s="193"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L80" s="220"/>
+      <c r="L80" s="193"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L81" s="220"/>
+      <c r="L81" s="193"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L82" s="220"/>
+      <c r="L82" s="193"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L83" s="220"/>
+      <c r="L83" s="193"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L84" s="220"/>
+      <c r="L84" s="193"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L85" s="220"/>
+      <c r="L85" s="193"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L86" s="220"/>
+      <c r="L86" s="193"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L87" s="220"/>
+      <c r="L87" s="193"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L88" s="220"/>
+      <c r="L88" s="193"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L89" s="220"/>
+      <c r="L89" s="193"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L90" s="220"/>
+      <c r="L90" s="193"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L91" s="220"/>
+      <c r="L91" s="193"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L92" s="220"/>
+      <c r="L92" s="193"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L93" s="220"/>
+      <c r="L93" s="193"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L94" s="220"/>
+      <c r="L94" s="193"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L95" s="220"/>
+      <c r="L95" s="193"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L96" s="220"/>
+      <c r="L96" s="193"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L97" s="220"/>
+      <c r="L97" s="193"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L98" s="220"/>
+      <c r="L98" s="193"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L99" s="220"/>
+      <c r="L99" s="193"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L100" s="220"/>
+      <c r="L100" s="193"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L101" s="220"/>
+      <c r="L101" s="193"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L102" s="220"/>
+      <c r="L102" s="193"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L103" s="220"/>
+      <c r="L103" s="193"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L104" s="220"/>
+      <c r="L104" s="193"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L105" s="220"/>
+      <c r="L105" s="193"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L106" s="220"/>
+      <c r="L106" s="193"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L107" s="220"/>
+      <c r="L107" s="193"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L108" s="220"/>
+      <c r="L108" s="193"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L109" s="220"/>
+      <c r="L109" s="193"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L110" s="220"/>
+      <c r="L110" s="193"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L111" s="220"/>
+      <c r="L111" s="193"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L112" s="220"/>
+      <c r="L112" s="193"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L113" s="220"/>
+      <c r="L113" s="193"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L114" s="220"/>
+      <c r="L114" s="193"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L115" s="220"/>
+      <c r="L115" s="193"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L116" s="220"/>
+      <c r="L116" s="193"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L117" s="220"/>
+      <c r="L117" s="193"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L118" s="220"/>
+      <c r="L118" s="193"/>
     </row>
     <row r="119" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L119" s="220"/>
+      <c r="L119" s="193"/>
     </row>
     <row r="120" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L120" s="220"/>
+      <c r="L120" s="193"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L121" s="220"/>
+      <c r="L121" s="193"/>
     </row>
     <row r="122" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L122" s="220"/>
+      <c r="L122" s="193"/>
     </row>
     <row r="123" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L123" s="220"/>
+      <c r="L123" s="193"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L124" s="220"/>
+      <c r="L124" s="193"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L125" s="220"/>
+      <c r="L125" s="193"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L126" s="220"/>
+      <c r="L126" s="193"/>
     </row>
     <row r="127" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L127" s="220"/>
+      <c r="L127" s="193"/>
     </row>
     <row r="128" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L128" s="220"/>
+      <c r="L128" s="193"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L129" s="220"/>
+      <c r="L129" s="193"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L130" s="220"/>
+      <c r="L130" s="193"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L131" s="220"/>
+      <c r="L131" s="193"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L132" s="220"/>
+      <c r="L132" s="193"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L133" s="220"/>
+      <c r="L133" s="193"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L134" s="220"/>
+      <c r="L134" s="193"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L135" s="220"/>
+      <c r="L135" s="193"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L136" s="220"/>
+      <c r="L136" s="193"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L137" s="220"/>
+      <c r="L137" s="193"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L138" s="220"/>
+      <c r="L138" s="193"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L139" s="220"/>
+      <c r="L139" s="193"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L140" s="220"/>
+      <c r="L140" s="193"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L141" s="220"/>
+      <c r="L141" s="193"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L142" s="220"/>
+      <c r="L142" s="193"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L143" s="220"/>
+      <c r="L143" s="193"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L144" s="220"/>
+      <c r="L144" s="193"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L145" s="220"/>
+      <c r="L145" s="193"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L146" s="220"/>
+      <c r="L146" s="193"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L147" s="220"/>
+      <c r="L147" s="193"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L148" s="220"/>
+      <c r="L148" s="193"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L149" s="220"/>
+      <c r="L149" s="193"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L150" s="220"/>
+      <c r="L150" s="193"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L151" s="220"/>
+      <c r="L151" s="193"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L152" s="220"/>
+      <c r="L152" s="193"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L153" s="220"/>
+      <c r="L153" s="193"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L154" s="220"/>
+      <c r="L154" s="193"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L155" s="220"/>
+      <c r="L155" s="193"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L156" s="220"/>
+      <c r="L156" s="193"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L157" s="220"/>
+      <c r="L157" s="193"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L158" s="220"/>
+      <c r="L158" s="193"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L159" s="220"/>
+      <c r="L159" s="193"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L160" s="220"/>
+      <c r="L160" s="193"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L161" s="220"/>
+      <c r="L161" s="193"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L162" s="220"/>
+      <c r="L162" s="193"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L163" s="220"/>
+      <c r="L163" s="193"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L164" s="220"/>
+      <c r="L164" s="193"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L165" s="220"/>
+      <c r="L165" s="193"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L166" s="220"/>
+      <c r="L166" s="193"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L167" s="220"/>
+      <c r="L167" s="193"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L168" s="220"/>
+      <c r="L168" s="193"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L169" s="220"/>
+      <c r="L169" s="193"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L170" s="220"/>
+      <c r="L170" s="193"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L171" s="220"/>
+      <c r="L171" s="193"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L172" s="220"/>
+      <c r="L172" s="193"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L173" s="220"/>
+      <c r="L173" s="193"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L174" s="220"/>
+      <c r="L174" s="193"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L175" s="220"/>
+      <c r="L175" s="193"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L176" s="220"/>
+      <c r="L176" s="193"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L177" s="220"/>
+      <c r="L177" s="193"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L178" s="220"/>
+      <c r="L178" s="193"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L179" s="220"/>
+      <c r="L179" s="193"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L180" s="220"/>
+      <c r="L180" s="193"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L181" s="220"/>
+      <c r="L181" s="193"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L182" s="220"/>
+      <c r="L182" s="193"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L183" s="220"/>
+      <c r="L183" s="193"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L184" s="220"/>
+      <c r="L184" s="193"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L185" s="220"/>
+      <c r="L185" s="193"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L186" s="220"/>
+      <c r="L186" s="193"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L187" s="220"/>
+      <c r="L187" s="193"/>
     </row>
     <row r="188" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L188" s="220"/>
+      <c r="L188" s="193"/>
     </row>
     <row r="189" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L189" s="220"/>
+      <c r="L189" s="193"/>
     </row>
     <row r="190" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L190" s="220"/>
+      <c r="L190" s="193"/>
     </row>
     <row r="191" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L191" s="220"/>
+      <c r="L191" s="193"/>
     </row>
     <row r="192" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L192" s="220"/>
+      <c r="L192" s="193"/>
     </row>
     <row r="193" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L193" s="220"/>
+      <c r="L193" s="193"/>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L194" s="220"/>
+      <c r="L194" s="193"/>
     </row>
     <row r="195" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L195" s="220"/>
+      <c r="L195" s="193"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L196" s="220"/>
+      <c r="L196" s="193"/>
     </row>
     <row r="197" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L197" s="220"/>
+      <c r="L197" s="193"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L198" s="220"/>
+      <c r="L198" s="193"/>
     </row>
     <row r="199" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L199" s="220"/>
+      <c r="L199" s="193"/>
     </row>
     <row r="200" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L200" s="220"/>
+      <c r="L200" s="193"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L201" s="220"/>
+      <c r="L201" s="193"/>
     </row>
     <row r="202" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L202" s="220"/>
+      <c r="L202" s="193"/>
     </row>
     <row r="203" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L203" s="220"/>
+      <c r="L203" s="193"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L204" s="220"/>
+      <c r="L204" s="193"/>
     </row>
     <row r="205" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L205" s="220"/>
+      <c r="L205" s="193"/>
     </row>
     <row r="206" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L206" s="220"/>
+      <c r="L206" s="193"/>
     </row>
     <row r="207" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L207" s="220"/>
+      <c r="L207" s="193"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L208" s="220"/>
+      <c r="L208" s="193"/>
     </row>
     <row r="209" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L209" s="220"/>
+      <c r="L209" s="193"/>
     </row>
     <row r="210" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L210" s="220"/>
+      <c r="L210" s="193"/>
     </row>
     <row r="211" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L211" s="220"/>
+      <c r="L211" s="193"/>
     </row>
     <row r="212" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L212" s="220"/>
+      <c r="L212" s="193"/>
     </row>
     <row r="213" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L213" s="220"/>
+      <c r="L213" s="193"/>
     </row>
     <row r="214" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L214" s="220"/>
+      <c r="L214" s="193"/>
     </row>
     <row r="215" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L215" s="220"/>
+      <c r="L215" s="193"/>
     </row>
     <row r="216" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L216" s="220"/>
+      <c r="L216" s="193"/>
     </row>
     <row r="217" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L217" s="220"/>
+      <c r="L217" s="193"/>
     </row>
     <row r="218" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L218" s="220"/>
+      <c r="L218" s="193"/>
     </row>
     <row r="219" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L219" s="220"/>
+      <c r="L219" s="193"/>
     </row>
     <row r="220" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L220" s="220"/>
+      <c r="L220" s="193"/>
     </row>
     <row r="221" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L221" s="220"/>
+      <c r="L221" s="193"/>
     </row>
     <row r="222" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L222" s="220"/>
+      <c r="L222" s="193"/>
     </row>
     <row r="223" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L223" s="220"/>
+      <c r="L223" s="193"/>
     </row>
     <row r="224" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L224" s="220"/>
+      <c r="L224" s="193"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L225" s="220"/>
+      <c r="L225" s="193"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L226" s="220"/>
+      <c r="L226" s="193"/>
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L227" s="220"/>
+      <c r="L227" s="193"/>
     </row>
     <row r="228" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L228" s="220"/>
+      <c r="L228" s="193"/>
     </row>
     <row r="229" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L229" s="220"/>
+      <c r="L229" s="193"/>
     </row>
     <row r="230" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L230" s="220"/>
+      <c r="L230" s="193"/>
     </row>
     <row r="231" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L231" s="220"/>
+      <c r="L231" s="193"/>
     </row>
     <row r="232" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L232" s="220"/>
+      <c r="L232" s="193"/>
     </row>
     <row r="233" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L233" s="220"/>
+      <c r="L233" s="193"/>
     </row>
     <row r="234" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L234" s="220"/>
+      <c r="L234" s="193"/>
     </row>
     <row r="235" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L235" s="220"/>
+      <c r="L235" s="193"/>
     </row>
     <row r="236" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L236" s="220"/>
+      <c r="L236" s="193"/>
     </row>
     <row r="237" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L237" s="220"/>
+      <c r="L237" s="193"/>
     </row>
     <row r="238" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L238" s="220"/>
+      <c r="L238" s="193"/>
     </row>
     <row r="239" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L239" s="220"/>
+      <c r="L239" s="193"/>
     </row>
     <row r="240" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L240" s="220"/>
+      <c r="L240" s="193"/>
     </row>
     <row r="241" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L241" s="220"/>
+      <c r="L241" s="193"/>
     </row>
     <row r="242" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L242" s="220"/>
+      <c r="L242" s="193"/>
     </row>
     <row r="243" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L243" s="220"/>
+      <c r="L243" s="193"/>
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L244" s="220"/>
+      <c r="L244" s="193"/>
     </row>
     <row r="245" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L245" s="220"/>
+      <c r="L245" s="193"/>
     </row>
     <row r="246" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L246" s="220"/>
+      <c r="L246" s="193"/>
     </row>
     <row r="247" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L247" s="220"/>
+      <c r="L247" s="193"/>
     </row>
     <row r="248" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L248" s="220"/>
+      <c r="L248" s="193"/>
     </row>
     <row r="249" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L249" s="220"/>
+      <c r="L249" s="193"/>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L250" s="220"/>
+      <c r="L250" s="193"/>
     </row>
     <row r="251" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L251" s="220"/>
+      <c r="L251" s="193"/>
     </row>
     <row r="252" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L252" s="220"/>
+      <c r="L252" s="193"/>
     </row>
     <row r="253" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L253" s="220"/>
+      <c r="L253" s="193"/>
     </row>
     <row r="254" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L254" s="220"/>
+      <c r="L254" s="193"/>
     </row>
     <row r="255" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L255" s="220"/>
+      <c r="L255" s="193"/>
     </row>
     <row r="256" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L256" s="220"/>
+      <c r="L256" s="193"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K46" xr:uid="{00000000-0009-0000-0000-000006000000}">
@@ -43911,7 +43898,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -43932,18 +43919,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>1883</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="192"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="198"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -43980,7 +43967,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -44022,13 +44009,13 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="202" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="191" t="s">
         <v>1327</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -44056,11 +44043,11 @@
       <c r="A5" s="54">
         <v>41</v>
       </c>
-      <c r="B5" s="202"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="53" t="s">
         <v>1329</v>
       </c>
-      <c r="D5" s="217" t="s">
+      <c r="D5" s="190" t="s">
         <v>1330</v>
       </c>
       <c r="E5" s="132" t="s">
@@ -44110,8 +44097,8 @@
         <v>444</v>
       </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="39" t="s">
-        <v>1897</v>
+      <c r="L6" s="4" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -44181,18 +44168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="208"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="214"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -44676,41 +44663,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -44917,32 +44869,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44959,4 +44921,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP wiki Open Source\Requirements\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48265009-98F6-4E15-9729-062A8C45CB11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{78C8ABE2-335A-4BD8-B1D9-D707CC80DB9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Admin!$A$2:$K$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$B$3:$S$350</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ID-Authentication'!$A$2:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ID-Authentication'!$A$2:$L$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$J$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$J$22</definedName>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1898">
   <si>
     <t>Category</t>
   </si>
@@ -6601,12 +6601,6 @@
     <t>P2. Dependency task to be added based on Ramesh mail on PM pending tasks</t>
   </si>
   <si>
-    <t>Yes - P1</t>
-  </si>
-  <si>
-    <t>Dependency on kernel - P2</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -6616,10 +6610,6 @@
     <t>P0 - high priority, once dep is meet need to take it up asap</t>
   </si>
   <si>
-    <t>Note: Admin high priority 
-P2</t>
-  </si>
-  <si>
     <t>Requires Discussion on Test Authentication Client</t>
   </si>
   <si>
@@ -6630,6 +6620,14 @@
   </si>
   <si>
     <t>Discussion Needed on the use case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+P2
+Note: Admin high priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P2 -Dependency on kernel </t>
   </si>
 </sst>
 </file>
@@ -6826,7 +6824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -7230,11 +7228,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7819,15 +7826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7839,6 +7837,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7874,6 +7881,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15024,7 +15037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -23352,16 +23365,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26493,7 +26506,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="2:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" ht="57" x14ac:dyDescent="0.25">
       <c r="B94" s="96">
         <v>91</v>
       </c>
@@ -27465,7 +27478,7 @@
       <c r="R121" s="94"/>
       <c r="S121" s="47"/>
     </row>
-    <row r="122" spans="2:19" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:19" ht="114" x14ac:dyDescent="0.25">
       <c r="B122" s="96">
         <v>119</v>
       </c>
@@ -27757,7 +27770,7 @@
       <c r="R129" s="94"/>
       <c r="S129" s="47"/>
     </row>
-    <row r="130" spans="2:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B130" s="96">
         <v>127</v>
       </c>
@@ -27935,7 +27948,7 @@
       <c r="R134" s="94"/>
       <c r="S134" s="47"/>
     </row>
-    <row r="135" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B135" s="96">
         <v>132</v>
       </c>
@@ -28149,7 +28162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="2:19" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B141" s="96">
         <v>138</v>
       </c>
@@ -28403,7 +28416,7 @@
       <c r="R147" s="94"/>
       <c r="S147" s="47"/>
     </row>
-    <row r="148" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B148" s="96">
         <v>145</v>
       </c>
@@ -28727,7 +28740,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B157" s="96">
         <v>154</v>
       </c>
@@ -32965,7 +32978,7 @@
       <c r="T281" s="55"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="2:21" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:21" ht="57" x14ac:dyDescent="0.25">
       <c r="B282" s="96">
         <v>279</v>
       </c>
@@ -37890,7 +37903,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="206" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -37921,7 +37934,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="203"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38020,7 +38033,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="206" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38053,7 +38066,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="203"/>
+      <c r="B9" s="207"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38212,7 +38225,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="206" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38245,7 +38258,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="203"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38480,7 +38493,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="202" t="s">
+      <c r="B22" s="206" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38513,7 +38526,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="204"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38543,7 +38556,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="203"/>
+      <c r="B24" s="207"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38735,7 +38748,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="202" t="s">
+      <c r="B30" s="206" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -38768,7 +38781,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="203"/>
+      <c r="B31" s="207"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -38799,7 +38812,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="206" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -38832,7 +38845,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="203"/>
+      <c r="B33" s="207"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39094,7 +39107,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="202" t="s">
+      <c r="B41" s="206" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39127,7 +39140,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="203"/>
+      <c r="B42" s="207"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39191,7 +39204,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="202" t="s">
+      <c r="B44" s="206" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39224,7 +39237,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="203"/>
+      <c r="B45" s="207"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39319,7 +39332,7 @@
       <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="202" t="s">
+      <c r="B48" s="206" t="s">
         <v>271</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -39354,7 +39367,7 @@
       <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="204"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="4" t="s">
         <v>1060</v>
       </c>
@@ -39381,11 +39394,11 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="57" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="204"/>
+      <c r="B50" s="208"/>
       <c r="C50" s="4" t="s">
         <v>1064</v>
       </c>
@@ -39416,7 +39429,7 @@
       <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="204"/>
+      <c r="B51" s="208"/>
       <c r="C51" s="4" t="s">
         <v>1067</v>
       </c>
@@ -39447,7 +39460,7 @@
       <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="204"/>
+      <c r="B52" s="208"/>
       <c r="C52" s="4" t="s">
         <v>1071</v>
       </c>
@@ -39478,7 +39491,7 @@
       <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="204"/>
+      <c r="B53" s="208"/>
       <c r="C53" s="4" t="s">
         <v>1075</v>
       </c>
@@ -39509,7 +39522,7 @@
       <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="204"/>
+      <c r="B54" s="208"/>
       <c r="C54" s="4" t="s">
         <v>1078</v>
       </c>
@@ -39540,7 +39553,7 @@
       <c r="A55" s="36">
         <v>53</v>
       </c>
-      <c r="B55" s="204"/>
+      <c r="B55" s="208"/>
       <c r="C55" s="4" t="s">
         <v>1081</v>
       </c>
@@ -39571,7 +39584,7 @@
       <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="204"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="4" t="s">
         <v>1084</v>
       </c>
@@ -39598,7 +39611,7 @@
       <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="203"/>
+      <c r="B57" s="207"/>
       <c r="C57" s="4" t="s">
         <v>1087</v>
       </c>
@@ -39629,7 +39642,7 @@
       <c r="A58" s="36">
         <v>56</v>
       </c>
-      <c r="B58" s="205" t="s">
+      <c r="B58" s="202" t="s">
         <v>271</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -39653,7 +39666,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="208" t="s">
+      <c r="J58" s="205" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="135" t="s">
@@ -39664,7 +39677,7 @@
       <c r="A59" s="36">
         <v>57</v>
       </c>
-      <c r="B59" s="206"/>
+      <c r="B59" s="203"/>
       <c r="C59" s="4" t="s">
         <v>1093</v>
       </c>
@@ -39686,7 +39699,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="208"/>
+      <c r="J59" s="205"/>
       <c r="K59" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39695,7 +39708,7 @@
       <c r="A60" s="36">
         <v>58</v>
       </c>
-      <c r="B60" s="206"/>
+      <c r="B60" s="203"/>
       <c r="C60" s="4" t="s">
         <v>1096</v>
       </c>
@@ -39717,7 +39730,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="208"/>
+      <c r="J60" s="205"/>
       <c r="K60" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39726,7 +39739,7 @@
       <c r="A61" s="36">
         <v>59</v>
       </c>
-      <c r="B61" s="206"/>
+      <c r="B61" s="203"/>
       <c r="C61" s="4" t="s">
         <v>1099</v>
       </c>
@@ -39748,7 +39761,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="208"/>
+      <c r="J61" s="205"/>
       <c r="K61" s="139" t="s">
         <v>66</v>
       </c>
@@ -39757,7 +39770,7 @@
       <c r="A62" s="36">
         <v>60</v>
       </c>
-      <c r="B62" s="206"/>
+      <c r="B62" s="203"/>
       <c r="C62" s="4" t="s">
         <v>1102</v>
       </c>
@@ -39779,7 +39792,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="208"/>
+      <c r="J62" s="205"/>
       <c r="K62" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39788,7 +39801,7 @@
       <c r="A63" s="36">
         <v>61</v>
       </c>
-      <c r="B63" s="206"/>
+      <c r="B63" s="203"/>
       <c r="C63" s="4" t="s">
         <v>1104</v>
       </c>
@@ -39810,7 +39823,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="208"/>
+      <c r="J63" s="205"/>
       <c r="K63" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39819,7 +39832,7 @@
       <c r="A64" s="36">
         <v>62</v>
       </c>
-      <c r="B64" s="206"/>
+      <c r="B64" s="203"/>
       <c r="C64" s="4" t="s">
         <v>963</v>
       </c>
@@ -39841,7 +39854,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="208"/>
+      <c r="J64" s="205"/>
       <c r="K64" s="139" t="s">
         <v>1109</v>
       </c>
@@ -39850,7 +39863,7 @@
       <c r="A65" s="36">
         <v>63</v>
       </c>
-      <c r="B65" s="206"/>
+      <c r="B65" s="203"/>
       <c r="C65" s="4" t="s">
         <v>1110</v>
       </c>
@@ -39872,14 +39885,14 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="208"/>
+      <c r="J65" s="205"/>
       <c r="K65" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="114" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
-      <c r="B66" s="206"/>
+      <c r="B66" s="203"/>
       <c r="C66" s="4" t="s">
         <v>1113</v>
       </c>
@@ -39899,14 +39912,14 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="208"/>
+      <c r="J66" s="205"/>
       <c r="K66" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
-      <c r="B67" s="206"/>
+      <c r="B67" s="203"/>
       <c r="C67" s="41" t="s">
         <v>1116</v>
       </c>
@@ -39926,7 +39939,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="208"/>
+      <c r="J67" s="205"/>
       <c r="K67" s="139" t="s">
         <v>1119</v>
       </c>
@@ -39935,7 +39948,7 @@
       <c r="A68" s="36">
         <v>64</v>
       </c>
-      <c r="B68" s="206"/>
+      <c r="B68" s="203"/>
       <c r="C68" s="131" t="s">
         <v>1120</v>
       </c>
@@ -39957,7 +39970,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="208"/>
+      <c r="J68" s="205"/>
       <c r="K68" s="139" t="s">
         <v>1123</v>
       </c>
@@ -39966,7 +39979,7 @@
       <c r="A69" s="36">
         <v>65</v>
       </c>
-      <c r="B69" s="206"/>
+      <c r="B69" s="203"/>
       <c r="C69" s="4" t="s">
         <v>1124</v>
       </c>
@@ -39988,7 +40001,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="208"/>
+      <c r="J69" s="205"/>
       <c r="K69" s="139" t="s">
         <v>1063</v>
       </c>
@@ -39997,7 +40010,7 @@
       <c r="A70" s="36">
         <v>66</v>
       </c>
-      <c r="B70" s="206"/>
+      <c r="B70" s="203"/>
       <c r="C70" s="4" t="s">
         <v>1127</v>
       </c>
@@ -40019,7 +40032,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="208"/>
+      <c r="J70" s="205"/>
       <c r="K70" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40028,7 +40041,7 @@
       <c r="A71" s="36">
         <v>67</v>
       </c>
-      <c r="B71" s="206"/>
+      <c r="B71" s="203"/>
       <c r="C71" s="4" t="s">
         <v>1130</v>
       </c>
@@ -40050,7 +40063,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="208"/>
+      <c r="J71" s="205"/>
       <c r="K71" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40059,7 +40072,7 @@
       <c r="A72" s="36">
         <v>68</v>
       </c>
-      <c r="B72" s="206"/>
+      <c r="B72" s="203"/>
       <c r="C72" s="4" t="s">
         <v>1133</v>
       </c>
@@ -40081,7 +40094,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="208"/>
+      <c r="J72" s="205"/>
       <c r="K72" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40090,7 +40103,7 @@
       <c r="A73" s="36">
         <v>69</v>
       </c>
-      <c r="B73" s="206"/>
+      <c r="B73" s="203"/>
       <c r="C73" s="4" t="s">
         <v>1135</v>
       </c>
@@ -40112,7 +40125,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="208"/>
+      <c r="J73" s="205"/>
       <c r="K73" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40121,7 +40134,7 @@
       <c r="A74" s="36">
         <v>70</v>
       </c>
-      <c r="B74" s="206"/>
+      <c r="B74" s="203"/>
       <c r="C74" s="131" t="s">
         <v>1138</v>
       </c>
@@ -40141,7 +40154,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="208"/>
+      <c r="J74" s="205"/>
       <c r="K74" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40150,7 +40163,7 @@
       <c r="A75" s="36">
         <v>70</v>
       </c>
-      <c r="B75" s="207"/>
+      <c r="B75" s="204"/>
       <c r="C75" s="131"/>
       <c r="D75" s="39"/>
       <c r="E75" s="131"/>
@@ -40158,7 +40171,7 @@
       <c r="G75" s="88"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="208"/>
+      <c r="J75" s="205"/>
       <c r="K75" s="72"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -40362,12 +40375,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="B58:B75"/>
-    <mergeCell ref="J58:J75"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="J48:J57"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:B15"/>
@@ -40375,6 +40382,12 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B58:B75"/>
+    <mergeCell ref="J58:J75"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="J48:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -41655,7 +41668,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -41724,7 +41737,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
@@ -41756,7 +41769,7 @@
         <v>973</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L3" s="39" t="s">
@@ -41792,7 +41805,7 @@
         <v>1229</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L4" s="39" t="s">
@@ -41830,9 +41843,10 @@
       <c r="J5" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="221" t="s">
         <v>349</v>
       </c>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
@@ -41863,11 +41877,11 @@
         <v>1229</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="99.75" x14ac:dyDescent="0.25">
@@ -41899,11 +41913,11 @@
         <v>1229</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.25">
@@ -41933,11 +41947,11 @@
         <v>1229</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
@@ -41967,14 +41981,14 @@
         <v>1229</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -42001,14 +42015,14 @@
         <v>1229</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -42035,11 +42049,11 @@
         <v>1229</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="99.75" x14ac:dyDescent="0.25">
@@ -42069,14 +42083,14 @@
         <v>1229</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -42103,11 +42117,11 @@
         <v>1229</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
@@ -42137,11 +42151,11 @@
         <v>918</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="92" t="s">
         <v>349</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
@@ -42176,6 +42190,7 @@
       <c r="K15" s="41" t="s">
         <v>349</v>
       </c>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
@@ -42211,6 +42226,7 @@
       <c r="K16" s="41" t="s">
         <v>349</v>
       </c>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
@@ -42246,6 +42262,7 @@
       <c r="K17" s="41" t="s">
         <v>349</v>
       </c>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
@@ -42276,11 +42293,11 @@
         <v>1229</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="85" t="s">
+      <c r="K18" s="222" t="s">
         <v>474</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -42315,6 +42332,7 @@
       <c r="K19" s="41" t="s">
         <v>349</v>
       </c>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
@@ -42350,6 +42368,7 @@
       <c r="K20" s="28" t="s">
         <v>474</v>
       </c>
+      <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
@@ -42380,11 +42399,11 @@
         <v>973</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="128.25" x14ac:dyDescent="0.25">
@@ -42418,7 +42437,7 @@
       <c r="J22" s="112" t="s">
         <v>1264</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L22" s="4"/>
@@ -42453,6 +42472,7 @@
         <v>56</v>
       </c>
       <c r="K23" s="41"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
@@ -42481,7 +42501,7 @@
         <v>1229</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L24" s="4"/>
@@ -42513,7 +42533,7 @@
         <v>1229</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L25" s="4"/>
@@ -42548,6 +42568,7 @@
         <v>56</v>
       </c>
       <c r="K26" s="41"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
@@ -42576,7 +42597,7 @@
         <v>973</v>
       </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L27" s="4"/>
@@ -42610,7 +42631,7 @@
         <v>973</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -42646,7 +42667,7 @@
         <v>1229</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -42682,7 +42703,7 @@
         <v>1229</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -42716,7 +42737,7 @@
         <v>973</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -42750,7 +42771,7 @@
         <v>1229</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -42784,7 +42805,7 @@
         <v>1229</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -42822,11 +42843,11 @@
       <c r="J34" s="112" t="s">
         <v>415</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="114" x14ac:dyDescent="0.25">
@@ -42860,11 +42881,11 @@
       <c r="J35" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -42898,11 +42919,11 @@
       <c r="J36" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -42934,11 +42955,11 @@
         <v>1229</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="57" x14ac:dyDescent="0.25">
@@ -42970,18 +42991,18 @@
         <v>1229</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60">
         <v>37</v>
       </c>
-      <c r="B39" s="204" t="s">
+      <c r="B39" s="208" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="52" t="s">
@@ -43007,6 +43028,7 @@
       <c r="K39" s="41" t="s">
         <v>902</v>
       </c>
+      <c r="L39" s="39"/>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
@@ -43036,6 +43058,7 @@
       <c r="K40" s="41" t="s">
         <v>902</v>
       </c>
+      <c r="L40" s="39"/>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
@@ -43065,6 +43088,7 @@
       <c r="K41" s="41" t="s">
         <v>902</v>
       </c>
+      <c r="L41" s="39"/>
     </row>
     <row r="42" spans="1:12" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
@@ -43095,11 +43119,11 @@
       <c r="J42" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="87" t="s">
         <v>902</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -43125,7 +43149,7 @@
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="39"/>
+      <c r="K43" s="87"/>
       <c r="L43" s="4" t="s">
         <v>1887</v>
       </c>
@@ -43153,9 +43177,9 @@
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="39"/>
+      <c r="K44" s="87"/>
       <c r="L44" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="57" x14ac:dyDescent="0.25">
@@ -43183,9 +43207,9 @@
       </c>
       <c r="I45" s="56"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="39"/>
+      <c r="K45" s="87"/>
       <c r="L45" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="57" x14ac:dyDescent="0.25">
@@ -43211,9 +43235,9 @@
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="39"/>
+      <c r="K46" s="87"/>
       <c r="L46" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -43235,7 +43259,7 @@
       </c>
       <c r="H47" s="36"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="39"/>
+      <c r="K47" s="87"/>
       <c r="L47" s="4" t="s">
         <v>1887</v>
       </c>
@@ -43868,7 +43892,7 @@
       <c r="L256" s="193"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K46" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A2:L47" xr:uid="{83965C4A-B8AA-4AB6-9432-148FE2887E50}">
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
@@ -43898,7 +43922,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -43967,7 +43991,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -44009,7 +44033,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="206" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -44036,14 +44060,14 @@
         <v>902</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>41</v>
       </c>
-      <c r="B5" s="204"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="53" t="s">
         <v>1329</v>
       </c>
@@ -44068,7 +44092,7 @@
         <v>902</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -44098,7 +44122,7 @@
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="4" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -44126,7 +44150,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
@@ -44663,6 +44687,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -44869,15 +44902,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -44905,6 +44929,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44919,14 +44951,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A61F10-F909-4D7F-816D-94D521FBF8A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67231E0-79BC-4679-BA44-8BCD1B52FBDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -34,13 +34,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$J$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Registration Processor'!$A$2:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Registration Processor'!$A$2:$J$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Resident Services'!$A$2:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoadmapFeatures!$B$3:$E$37</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5208" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5227" uniqueCount="1904">
   <si>
     <t>Category</t>
   </si>
@@ -6648,6 +6648,9 @@
   </si>
   <si>
     <t>Requiered for all Modules</t>
+  </si>
+  <si>
+    <t>P!</t>
   </si>
 </sst>
 </file>
@@ -7261,7 +7264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7762,9 +7765,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7794,12 +7794,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7831,6 +7825,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7855,15 +7852,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7875,6 +7863,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7910,6 +7907,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15060,7 +15069,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15978,18 +15987,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16439,7 +16448,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="200" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16471,7 +16480,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="204"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="4" t="s">
         <v>1362</v>
       </c>
@@ -16811,19 +16820,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="199"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="153" t="s">
@@ -22138,18 +22147,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1732</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22187,7 +22196,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="219" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22213,7 +22222,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="222"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="4" t="s">
         <v>1736</v>
       </c>
@@ -22235,7 +22244,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="219" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22261,7 +22270,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="223"/>
+      <c r="B6" s="221"/>
       <c r="C6" s="19" t="s">
         <v>1741</v>
       </c>
@@ -22285,7 +22294,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="223"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22307,7 +22316,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="223"/>
+      <c r="B8" s="221"/>
       <c r="C8" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22329,7 +22338,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="223"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22351,7 +22360,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="223"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="19" t="s">
         <v>1750</v>
       </c>
@@ -22373,7 +22382,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="19" t="s">
         <v>1752</v>
       </c>
@@ -22395,7 +22404,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="223"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="19" t="s">
         <v>1754</v>
       </c>
@@ -22417,7 +22426,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="223"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="19" t="s">
         <v>1756</v>
       </c>
@@ -22439,7 +22448,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="223"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="19" t="s">
         <v>1758</v>
       </c>
@@ -22463,7 +22472,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="223"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="19" t="s">
         <v>1761</v>
       </c>
@@ -22487,7 +22496,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="222"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="19" t="s">
         <v>1763</v>
       </c>
@@ -22609,7 +22618,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="219" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22633,7 +22642,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="223"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="4" t="s">
         <v>1771</v>
       </c>
@@ -22655,7 +22664,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="223"/>
+      <c r="B23" s="221"/>
       <c r="C23" s="4" t="s">
         <v>1773</v>
       </c>
@@ -22677,7 +22686,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="223"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="4" t="s">
         <v>1775</v>
       </c>
@@ -22699,7 +22708,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="4" t="s">
         <v>1777</v>
       </c>
@@ -22721,7 +22730,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="222"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="4" t="s">
         <v>1779</v>
       </c>
@@ -22743,7 +22752,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="219" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -22767,7 +22776,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="222"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="4" t="s">
         <v>1783</v>
       </c>
@@ -22789,7 +22798,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="221" t="s">
+      <c r="B29" s="219" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -22813,7 +22822,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="222"/>
+      <c r="B30" s="220"/>
       <c r="C30" s="4" t="s">
         <v>1787</v>
       </c>
@@ -22835,7 +22844,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="221" t="s">
+      <c r="B31" s="219" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -22859,7 +22868,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="223"/>
+      <c r="B32" s="221"/>
       <c r="C32" s="4" t="s">
         <v>1791</v>
       </c>
@@ -22881,7 +22890,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="223"/>
+      <c r="B33" s="221"/>
       <c r="C33" s="4" t="s">
         <v>1793</v>
       </c>
@@ -22903,7 +22912,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="223"/>
+      <c r="B34" s="221"/>
       <c r="C34" s="4" t="s">
         <v>1795</v>
       </c>
@@ -22925,7 +22934,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="222"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="4" t="s">
         <v>1797</v>
       </c>
@@ -22947,7 +22956,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="221" t="s">
+      <c r="B36" s="219" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -22971,7 +22980,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="223"/>
+      <c r="B37" s="221"/>
       <c r="C37" s="4" t="s">
         <v>1801</v>
       </c>
@@ -22993,7 +23002,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="223"/>
+      <c r="B38" s="221"/>
       <c r="C38" s="4" t="s">
         <v>1803</v>
       </c>
@@ -23015,7 +23024,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="222"/>
+      <c r="B39" s="220"/>
       <c r="C39" s="4" t="s">
         <v>1805</v>
       </c>
@@ -23037,7 +23046,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="221" t="s">
+      <c r="B40" s="219" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23061,7 +23070,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="222"/>
+      <c r="B41" s="220"/>
       <c r="C41" s="4" t="s">
         <v>1809</v>
       </c>
@@ -23107,7 +23116,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="219" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23131,7 +23140,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="223"/>
+      <c r="B44" s="221"/>
       <c r="C44" s="4" t="s">
         <v>1814</v>
       </c>
@@ -23153,7 +23162,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="223"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="4" t="s">
         <v>1816</v>
       </c>
@@ -23175,7 +23184,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="223"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="4" t="s">
         <v>1818</v>
       </c>
@@ -23199,7 +23208,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="223"/>
+      <c r="B47" s="221"/>
       <c r="C47" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23221,7 +23230,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="223"/>
+      <c r="B48" s="221"/>
       <c r="C48" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23243,7 +23252,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="223"/>
+      <c r="B49" s="221"/>
       <c r="C49" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23265,7 +23274,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="223"/>
+      <c r="B50" s="221"/>
       <c r="C50" s="4" t="s">
         <v>1827</v>
       </c>
@@ -23289,7 +23298,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="223"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="4" t="s">
         <v>1829</v>
       </c>
@@ -23311,7 +23320,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="223"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="4" t="s">
         <v>1831</v>
       </c>
@@ -23333,7 +23342,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="223"/>
+      <c r="B53" s="221"/>
       <c r="C53" s="4" t="s">
         <v>1833</v>
       </c>
@@ -23355,7 +23364,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="222"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="4" t="s">
         <v>1835</v>
       </c>
@@ -23388,16 +23397,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23438,26 +23447,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="201"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="199"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25459,7 +25468,7 @@
       <c r="R62" s="94"/>
       <c r="S62" s="47"/>
     </row>
-    <row r="63" spans="2:19" ht="168" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" ht="154" x14ac:dyDescent="0.35">
       <c r="B63" s="96">
         <v>60</v>
       </c>
@@ -25642,7 +25651,7 @@
       <c r="C68" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="197" t="s">
+      <c r="D68" s="195" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="124"/>
@@ -25676,7 +25685,7 @@
       <c r="C69" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="197"/>
+      <c r="D69" s="195"/>
       <c r="E69" s="124"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -27049,7 +27058,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" ht="28" x14ac:dyDescent="0.35">
       <c r="B109" s="96">
         <v>106</v>
       </c>
@@ -27085,7 +27094,7 @@
       <c r="R109" s="94"/>
       <c r="S109" s="47"/>
     </row>
-    <row r="110" spans="2:19" ht="70" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" ht="56" x14ac:dyDescent="0.35">
       <c r="B110" s="96">
         <v>107</v>
       </c>
@@ -27861,7 +27870,7 @@
       <c r="R131" s="94"/>
       <c r="S131" s="47"/>
     </row>
-    <row r="132" spans="2:19" ht="154" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:19" ht="140" x14ac:dyDescent="0.35">
       <c r="B132" s="96">
         <v>129</v>
       </c>
@@ -35421,12 +35430,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="196" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="201"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="199"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -36991,18 +37000,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37043,7 +37052,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="200" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -37078,7 +37087,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="203"/>
+      <c r="B4" s="201"/>
       <c r="C4" s="22" t="s">
         <v>920</v>
       </c>
@@ -37111,7 +37120,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="203"/>
+      <c r="B5" s="201"/>
       <c r="C5" s="4" t="s">
         <v>924</v>
       </c>
@@ -37144,7 +37153,7 @@
       <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="203"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="4" t="s">
         <v>927</v>
       </c>
@@ -37177,7 +37186,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="203"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="4" t="s">
         <v>930</v>
       </c>
@@ -37208,7 +37217,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="203"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="4" t="s">
         <v>934</v>
       </c>
@@ -37233,7 +37242,7 @@
       <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B9" s="204"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="4" t="s">
         <v>936</v>
       </c>
@@ -37487,7 +37496,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="200" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37520,7 +37529,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="204"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37551,7 +37560,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="200" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37584,7 +37593,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="204"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37841,18 +37850,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37926,7 +37935,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="207" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -37957,7 +37966,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38056,7 +38065,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="207" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38089,7 +38098,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="206"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38248,7 +38257,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="207" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38281,7 +38290,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="206"/>
+      <c r="B15" s="208"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38516,7 +38525,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="207" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38549,7 +38558,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="207"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38579,7 +38588,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="206"/>
+      <c r="B24" s="208"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38771,7 +38780,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="207" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -38804,7 +38813,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="206"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -38835,7 +38844,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="205" t="s">
+      <c r="B32" s="207" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -38868,7 +38877,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="206"/>
+      <c r="B33" s="208"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39130,7 +39139,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="207" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39163,7 +39172,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="206"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39227,7 +39236,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="207" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39260,7 +39269,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="206"/>
+      <c r="B45" s="208"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39351,11 +39360,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="98" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="84" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="205" t="s">
+      <c r="B48" s="207" t="s">
         <v>271</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -39379,7 +39388,7 @@
       <c r="I48" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="212" t="s">
+      <c r="J48" s="210" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="90" t="s">
@@ -39390,7 +39399,7 @@
       <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="207"/>
+      <c r="B49" s="209"/>
       <c r="C49" s="4" t="s">
         <v>1060</v>
       </c>
@@ -39412,7 +39421,7 @@
       <c r="I49" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="212"/>
+      <c r="J49" s="210"/>
       <c r="K49" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39421,7 +39430,7 @@
       <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="207"/>
+      <c r="B50" s="209"/>
       <c r="C50" s="4" t="s">
         <v>1064</v>
       </c>
@@ -39443,7 +39452,7 @@
       <c r="I50" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="212"/>
+      <c r="J50" s="210"/>
       <c r="K50" s="135" t="s">
         <v>349</v>
       </c>
@@ -39452,7 +39461,7 @@
       <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="207"/>
+      <c r="B51" s="209"/>
       <c r="C51" s="4" t="s">
         <v>1067</v>
       </c>
@@ -39474,7 +39483,7 @@
       <c r="I51" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="212"/>
+      <c r="J51" s="210"/>
       <c r="K51" s="135" t="s">
         <v>1070</v>
       </c>
@@ -39483,7 +39492,7 @@
       <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="207"/>
+      <c r="B52" s="209"/>
       <c r="C52" s="4" t="s">
         <v>1071</v>
       </c>
@@ -39505,7 +39514,7 @@
       <c r="I52" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="212"/>
+      <c r="J52" s="210"/>
       <c r="K52" s="135" t="s">
         <v>1074</v>
       </c>
@@ -39514,7 +39523,7 @@
       <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="207"/>
+      <c r="B53" s="209"/>
       <c r="C53" s="4" t="s">
         <v>1075</v>
       </c>
@@ -39536,7 +39545,7 @@
       <c r="I53" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="212"/>
+      <c r="J53" s="210"/>
       <c r="K53" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39545,7 +39554,7 @@
       <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="207"/>
+      <c r="B54" s="209"/>
       <c r="C54" s="4" t="s">
         <v>1078</v>
       </c>
@@ -39567,7 +39576,7 @@
       <c r="I54" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="212"/>
+      <c r="J54" s="210"/>
       <c r="K54" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39576,7 +39585,7 @@
       <c r="A55" s="36">
         <v>53</v>
       </c>
-      <c r="B55" s="207"/>
+      <c r="B55" s="209"/>
       <c r="C55" s="4" t="s">
         <v>1081</v>
       </c>
@@ -39598,7 +39607,7 @@
       <c r="I55" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="212"/>
+      <c r="J55" s="210"/>
       <c r="K55" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39607,7 +39616,7 @@
       <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="207"/>
+      <c r="B56" s="209"/>
       <c r="C56" s="4" t="s">
         <v>1084</v>
       </c>
@@ -39625,7 +39634,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="89"/>
-      <c r="J56" s="212"/>
+      <c r="J56" s="210"/>
       <c r="K56" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39634,7 +39643,7 @@
       <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="206"/>
+      <c r="B57" s="208"/>
       <c r="C57" s="4" t="s">
         <v>1087</v>
       </c>
@@ -39656,7 +39665,7 @@
       <c r="I57" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="212"/>
+      <c r="J57" s="210"/>
       <c r="K57" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39665,7 +39674,7 @@
       <c r="A58" s="36">
         <v>56</v>
       </c>
-      <c r="B58" s="208" t="s">
+      <c r="B58" s="203" t="s">
         <v>271</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -39689,7 +39698,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="211" t="s">
+      <c r="J58" s="206" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="135" t="s">
@@ -39700,7 +39709,7 @@
       <c r="A59" s="36">
         <v>57</v>
       </c>
-      <c r="B59" s="209"/>
+      <c r="B59" s="204"/>
       <c r="C59" s="4" t="s">
         <v>1093</v>
       </c>
@@ -39722,7 +39731,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="211"/>
+      <c r="J59" s="206"/>
       <c r="K59" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39731,7 +39740,7 @@
       <c r="A60" s="36">
         <v>58</v>
       </c>
-      <c r="B60" s="209"/>
+      <c r="B60" s="204"/>
       <c r="C60" s="4" t="s">
         <v>1096</v>
       </c>
@@ -39753,7 +39762,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="211"/>
+      <c r="J60" s="206"/>
       <c r="K60" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39762,7 +39771,7 @@
       <c r="A61" s="36">
         <v>59</v>
       </c>
-      <c r="B61" s="209"/>
+      <c r="B61" s="204"/>
       <c r="C61" s="4" t="s">
         <v>1099</v>
       </c>
@@ -39784,16 +39793,16 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="211"/>
+      <c r="J61" s="206"/>
       <c r="K61" s="139" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="28" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>60</v>
       </c>
-      <c r="B62" s="209"/>
+      <c r="B62" s="204"/>
       <c r="C62" s="4" t="s">
         <v>1102</v>
       </c>
@@ -39815,7 +39824,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="211"/>
+      <c r="J62" s="206"/>
       <c r="K62" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39824,7 +39833,7 @@
       <c r="A63" s="36">
         <v>61</v>
       </c>
-      <c r="B63" s="209"/>
+      <c r="B63" s="204"/>
       <c r="C63" s="4" t="s">
         <v>1104</v>
       </c>
@@ -39846,7 +39855,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="211"/>
+      <c r="J63" s="206"/>
       <c r="K63" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39855,7 +39864,7 @@
       <c r="A64" s="36">
         <v>62</v>
       </c>
-      <c r="B64" s="209"/>
+      <c r="B64" s="204"/>
       <c r="C64" s="4" t="s">
         <v>963</v>
       </c>
@@ -39877,7 +39886,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="211"/>
+      <c r="J64" s="206"/>
       <c r="K64" s="139" t="s">
         <v>1109</v>
       </c>
@@ -39886,7 +39895,7 @@
       <c r="A65" s="36">
         <v>63</v>
       </c>
-      <c r="B65" s="209"/>
+      <c r="B65" s="204"/>
       <c r="C65" s="4" t="s">
         <v>1110</v>
       </c>
@@ -39908,14 +39917,14 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="211"/>
+      <c r="J65" s="206"/>
       <c r="K65" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="98" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
-      <c r="B66" s="209"/>
+      <c r="B66" s="204"/>
       <c r="C66" s="4" t="s">
         <v>1113</v>
       </c>
@@ -39935,14 +39944,14 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="211"/>
+      <c r="J66" s="206"/>
       <c r="K66" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="70" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
-      <c r="B67" s="209"/>
+      <c r="B67" s="204"/>
       <c r="C67" s="41" t="s">
         <v>1116</v>
       </c>
@@ -39962,7 +39971,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="211"/>
+      <c r="J67" s="206"/>
       <c r="K67" s="139" t="s">
         <v>1119</v>
       </c>
@@ -39971,7 +39980,7 @@
       <c r="A68" s="36">
         <v>64</v>
       </c>
-      <c r="B68" s="209"/>
+      <c r="B68" s="204"/>
       <c r="C68" s="131" t="s">
         <v>1120</v>
       </c>
@@ -39993,7 +40002,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="211"/>
+      <c r="J68" s="206"/>
       <c r="K68" s="139" t="s">
         <v>1123</v>
       </c>
@@ -40002,7 +40011,7 @@
       <c r="A69" s="36">
         <v>65</v>
       </c>
-      <c r="B69" s="209"/>
+      <c r="B69" s="204"/>
       <c r="C69" s="4" t="s">
         <v>1124</v>
       </c>
@@ -40024,7 +40033,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="211"/>
+      <c r="J69" s="206"/>
       <c r="K69" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40033,7 +40042,7 @@
       <c r="A70" s="36">
         <v>66</v>
       </c>
-      <c r="B70" s="209"/>
+      <c r="B70" s="204"/>
       <c r="C70" s="4" t="s">
         <v>1127</v>
       </c>
@@ -40055,7 +40064,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="211"/>
+      <c r="J70" s="206"/>
       <c r="K70" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40064,7 +40073,7 @@
       <c r="A71" s="36">
         <v>67</v>
       </c>
-      <c r="B71" s="209"/>
+      <c r="B71" s="204"/>
       <c r="C71" s="4" t="s">
         <v>1130</v>
       </c>
@@ -40086,7 +40095,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="211"/>
+      <c r="J71" s="206"/>
       <c r="K71" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40095,7 +40104,7 @@
       <c r="A72" s="36">
         <v>68</v>
       </c>
-      <c r="B72" s="209"/>
+      <c r="B72" s="204"/>
       <c r="C72" s="4" t="s">
         <v>1133</v>
       </c>
@@ -40117,7 +40126,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="211"/>
+      <c r="J72" s="206"/>
       <c r="K72" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40126,7 +40135,7 @@
       <c r="A73" s="36">
         <v>69</v>
       </c>
-      <c r="B73" s="209"/>
+      <c r="B73" s="204"/>
       <c r="C73" s="4" t="s">
         <v>1135</v>
       </c>
@@ -40148,7 +40157,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="211"/>
+      <c r="J73" s="206"/>
       <c r="K73" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40157,7 +40166,7 @@
       <c r="A74" s="36">
         <v>70</v>
       </c>
-      <c r="B74" s="209"/>
+      <c r="B74" s="204"/>
       <c r="C74" s="131" t="s">
         <v>1138</v>
       </c>
@@ -40177,7 +40186,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="211"/>
+      <c r="J74" s="206"/>
       <c r="K74" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40186,7 +40195,7 @@
       <c r="A75" s="36">
         <v>70</v>
       </c>
-      <c r="B75" s="210"/>
+      <c r="B75" s="205"/>
       <c r="C75" s="131"/>
       <c r="D75" s="39"/>
       <c r="E75" s="131"/>
@@ -40194,7 +40203,7 @@
       <c r="G75" s="88"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="211"/>
+      <c r="J75" s="206"/>
       <c r="K75" s="72"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40398,12 +40407,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="B58:B75"/>
-    <mergeCell ref="J58:J75"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="J48:J57"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:B15"/>
@@ -40411,6 +40414,12 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B58:B75"/>
+    <mergeCell ref="J58:J75"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="J48:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -40419,13 +40428,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:J1"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -40441,23 +40451,23 @@
     <col min="9" max="9" width="13.453125" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="67.453125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="42.7265625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="41" customWidth="1"/>
     <col min="13" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -40493,6 +40503,9 @@
       <c r="K2" s="37" t="s">
         <v>1148</v>
       </c>
+      <c r="L2" s="65" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="168" x14ac:dyDescent="0.35">
       <c r="A3" s="170">
@@ -40528,7 +40541,9 @@
       <c r="K3" s="172" t="s">
         <v>1152</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="4" t="s">
+        <v>1890</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.35">
       <c r="A4" s="170">
@@ -40564,6 +40579,9 @@
       <c r="K4" s="172" t="s">
         <v>1156</v>
       </c>
+      <c r="L4" s="39" t="s">
+        <v>1890</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="170">
@@ -40599,6 +40617,9 @@
       <c r="K5" s="172" t="s">
         <v>1160</v>
       </c>
+      <c r="L5" s="39" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="98" x14ac:dyDescent="0.35">
       <c r="A6" s="170">
@@ -40634,7 +40655,9 @@
       <c r="K6" s="172" t="s">
         <v>1164</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="4" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="98" x14ac:dyDescent="0.35">
       <c r="A7" s="170">
@@ -40669,6 +40692,9 @@
       </c>
       <c r="K7" s="172" t="s">
         <v>1168</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="168" x14ac:dyDescent="0.35">
@@ -40705,6 +40731,9 @@
       <c r="K8" s="172" t="s">
         <v>1172</v>
       </c>
+      <c r="L8" s="39" t="s">
+        <v>1890</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="98" x14ac:dyDescent="0.35">
       <c r="A9" s="170">
@@ -40740,13 +40769,15 @@
       <c r="K9" s="172" t="s">
         <v>1175</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="140" x14ac:dyDescent="0.35">
+      <c r="L9" s="4" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="170">
         <v>8</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="174" t="s">
         <v>1176</v>
       </c>
       <c r="C10" s="172" t="s">
@@ -40770,14 +40801,14 @@
       <c r="I10" s="45" t="s">
         <v>939</v>
       </c>
-      <c r="J10" s="176" t="s">
+      <c r="J10" s="175" t="s">
         <v>1178</v>
       </c>
       <c r="K10" s="172" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="170">
         <v>9</v>
       </c>
@@ -40809,7 +40840,7 @@
       <c r="K11" s="169"/>
       <c r="L11" s="41"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="170">
         <v>10</v>
       </c>
@@ -40841,7 +40872,7 @@
       <c r="K12" s="169"/>
       <c r="L12" s="41"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="170">
         <v>11</v>
       </c>
@@ -40907,6 +40938,9 @@
       <c r="K14" s="172" t="s">
         <v>1184</v>
       </c>
+      <c r="L14" s="39" t="s">
+        <v>1889</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="170">
@@ -40940,6 +40974,9 @@
         <v>902</v>
       </c>
       <c r="K15" s="45"/>
+      <c r="L15" s="39" t="s">
+        <v>1887</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="170">
@@ -40973,6 +41010,9 @@
         <v>902</v>
       </c>
       <c r="K16" s="45"/>
+      <c r="L16" s="39" t="s">
+        <v>1887</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A17" s="170">
@@ -40981,13 +41021,13 @@
       <c r="B17" s="171" t="s">
         <v>1187</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="176" t="s">
         <v>316</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="175" t="s">
         <v>317</v>
       </c>
       <c r="F17" s="45" t="s">
@@ -41008,8 +41048,11 @@
       <c r="K17" s="172" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+      <c r="L17" s="39" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="170">
         <v>16</v>
       </c>
@@ -41073,8 +41116,11 @@
       <c r="K19" s="172" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+      <c r="L19" s="39" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="170">
         <v>18</v>
       </c>
@@ -41106,11 +41152,11 @@
       <c r="K20" s="169"/>
       <c r="L20" s="41"/>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="170">
         <v>19</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="177" t="s">
         <v>328</v>
       </c>
       <c r="C21" s="172"/>
@@ -41128,7 +41174,7 @@
       <c r="K21" s="169"/>
       <c r="L21" s="41"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="170">
         <v>20</v>
       </c>
@@ -41160,7 +41206,7 @@
       <c r="K22" s="169"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="170">
         <v>21</v>
       </c>
@@ -41182,7 +41228,7 @@
       <c r="G23" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="179"/>
+      <c r="H23" s="178"/>
       <c r="I23" s="45" t="s">
         <v>939</v>
       </c>
@@ -41192,39 +41238,39 @@
       <c r="K23" s="169"/>
       <c r="L23" s="41"/>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
-      <c r="A24" s="180">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="179">
         <v>22</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="180" t="s">
         <v>1195</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="178" t="s">
         <v>1196</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="181" t="s">
         <v>1197</v>
       </c>
-      <c r="E24" s="179" t="s">
+      <c r="E24" s="178" t="s">
         <v>1198</v>
       </c>
-      <c r="F24" s="182" t="s">
+      <c r="F24" s="181" t="s">
         <v>917</v>
       </c>
-      <c r="G24" s="182" t="s">
+      <c r="G24" s="181" t="s">
         <v>1199</v>
       </c>
       <c r="H24" s="45"/>
-      <c r="I24" s="182" t="s">
+      <c r="I24" s="181" t="s">
         <v>939</v>
       </c>
-      <c r="J24" s="183" t="s">
+      <c r="J24" s="182" t="s">
         <v>56</v>
       </c>
       <c r="K24" s="169"/>
       <c r="L24" s="41"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="170">
         <v>23</v>
       </c>
@@ -41250,13 +41296,13 @@
       <c r="I25" s="45" t="s">
         <v>939</v>
       </c>
-      <c r="J25" s="176" t="s">
+      <c r="J25" s="175" t="s">
         <v>1201</v>
       </c>
       <c r="K25" s="169"/>
       <c r="L25" s="41"/>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="170">
         <v>24</v>
       </c>
@@ -41278,7 +41324,7 @@
       <c r="G26" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="182"/>
+      <c r="H26" s="181"/>
       <c r="I26" s="45" t="s">
         <v>939</v>
       </c>
@@ -41298,10 +41344,10 @@
       <c r="C27" s="172" t="s">
         <v>1203</v>
       </c>
-      <c r="D27" s="176" t="s">
+      <c r="D27" s="175" t="s">
         <v>344</v>
       </c>
-      <c r="E27" s="184" t="s">
+      <c r="E27" s="183" t="s">
         <v>345</v>
       </c>
       <c r="F27" s="45" t="s">
@@ -41310,7 +41356,7 @@
       <c r="G27" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="178">
+      <c r="H27" s="177">
         <v>0</v>
       </c>
       <c r="I27" s="45" t="s">
@@ -41322,103 +41368,105 @@
       <c r="K27" s="172" t="s">
         <v>1204</v>
       </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
-      <c r="A28" s="180">
+      <c r="L27" s="4" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="179">
         <v>26</v>
       </c>
-      <c r="B28" s="181" t="s">
+      <c r="B28" s="180" t="s">
         <v>1205</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="178" t="s">
         <v>1206</v>
       </c>
-      <c r="D28" s="182" t="s">
+      <c r="D28" s="181" t="s">
         <v>1207</v>
       </c>
-      <c r="E28" s="179" t="s">
+      <c r="E28" s="178" t="s">
         <v>1208</v>
       </c>
-      <c r="F28" s="182" t="s">
+      <c r="F28" s="181" t="s">
         <v>917</v>
       </c>
-      <c r="G28" s="182" t="s">
+      <c r="G28" s="181" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="172"/>
-      <c r="I28" s="182" t="s">
+      <c r="I28" s="181" t="s">
         <v>939</v>
       </c>
-      <c r="J28" s="179" t="s">
+      <c r="J28" s="178" t="s">
         <v>1209</v>
       </c>
       <c r="K28" s="169"/>
       <c r="L28" s="41"/>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
-      <c r="A29" s="180">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="179">
         <v>27</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="180" t="s">
         <v>1210</v>
       </c>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="178" t="s">
         <v>1211</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="181" t="s">
         <v>1212</v>
       </c>
-      <c r="E29" s="179" t="s">
+      <c r="E29" s="178" t="s">
         <v>1213</v>
       </c>
-      <c r="F29" s="182" t="s">
+      <c r="F29" s="181" t="s">
         <v>917</v>
       </c>
-      <c r="G29" s="182" t="s">
+      <c r="G29" s="181" t="s">
         <v>73</v>
       </c>
       <c r="H29" s="172"/>
-      <c r="I29" s="182" t="s">
+      <c r="I29" s="181" t="s">
         <v>939</v>
       </c>
-      <c r="J29" s="179" t="s">
+      <c r="J29" s="178" t="s">
         <v>1209</v>
       </c>
       <c r="K29" s="169"/>
       <c r="L29" s="41"/>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
-      <c r="A30" s="180">
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="179">
         <v>28</v>
       </c>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="180" t="s">
         <v>1214</v>
       </c>
-      <c r="C30" s="179" t="s">
+      <c r="C30" s="178" t="s">
         <v>1215</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="181" t="s">
         <v>1216</v>
       </c>
-      <c r="E30" s="179" t="s">
+      <c r="E30" s="178" t="s">
         <v>1217</v>
       </c>
-      <c r="F30" s="182" t="s">
+      <c r="F30" s="181" t="s">
         <v>917</v>
       </c>
-      <c r="G30" s="182" t="s">
+      <c r="G30" s="181" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="172"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="179" t="s">
+      <c r="I30" s="181"/>
+      <c r="J30" s="178" t="s">
         <v>1209</v>
       </c>
       <c r="K30" s="169"/>
       <c r="L30" s="41"/>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="170">
         <v>29</v>
       </c>
@@ -41450,7 +41498,7 @@
       <c r="K31" s="169"/>
       <c r="L31" s="41"/>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="170">
         <v>30</v>
       </c>
@@ -41478,7 +41526,7 @@
       <c r="K32" s="169"/>
       <c r="L32" s="41"/>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="170">
         <v>31</v>
       </c>
@@ -41505,7 +41553,7 @@
       </c>
       <c r="K33" s="169"/>
     </row>
-    <row r="34" spans="1:11" ht="112" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="112" x14ac:dyDescent="0.35">
       <c r="A34" s="170">
         <v>32</v>
       </c>
@@ -41535,8 +41583,11 @@
       <c r="K34" s="172" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" s="39" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="170">
         <v>33</v>
       </c>
@@ -41564,116 +41615,135 @@
       <c r="I35" s="172"/>
       <c r="J35" s="172"/>
       <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="A36" s="170">
+      <c r="L35" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A36" s="222">
         <v>34</v>
       </c>
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="223" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="172" t="s">
+      <c r="D36" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="172" t="s">
+      <c r="E36" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="225" t="s">
         <v>1224</v>
       </c>
-      <c r="G36" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="170" t="s">
+      <c r="G36" s="225" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="222" t="s">
         <v>1225</v>
       </c>
       <c r="I36" s="172"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="225"/>
+      <c r="K36" s="225" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="A37" s="185">
+      <c r="L36" s="39" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A37" s="170">
         <v>35</v>
       </c>
-      <c r="B37" s="186" t="s">
+      <c r="B37" s="171" t="s">
         <v>1869</v>
       </c>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="172" t="s">
         <v>1870</v>
       </c>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="45" t="s">
         <v>1873</v>
       </c>
-      <c r="E37" s="174" t="s">
+      <c r="E37" s="172" t="s">
         <v>1870</v>
       </c>
-      <c r="F37" s="169" t="s">
+      <c r="F37" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="G37" s="169" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="185"/>
+      <c r="G37" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="170"/>
       <c r="I37" s="169"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="169" t="s">
+      <c r="J37" s="172"/>
+      <c r="K37" s="45" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="A38" s="185">
+      <c r="L37" s="194" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A38" s="170">
         <v>36</v>
       </c>
-      <c r="B38" s="186" t="s">
+      <c r="B38" s="171" t="s">
         <v>1869</v>
       </c>
-      <c r="C38" s="174" t="s">
+      <c r="C38" s="172" t="s">
         <v>1871</v>
       </c>
-      <c r="D38" s="169" t="s">
+      <c r="D38" s="45" t="s">
         <v>1872</v>
       </c>
-      <c r="E38" s="174" t="s">
+      <c r="E38" s="172" t="s">
         <v>1871</v>
       </c>
-      <c r="F38" s="169" t="s">
+      <c r="F38" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="G38" s="169" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="185"/>
+      <c r="G38" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="170"/>
       <c r="I38" s="169"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="169" t="s">
+      <c r="J38" s="172"/>
+      <c r="K38" s="45" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" s="39" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I40" s="41"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I41" s="41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I42" s="41"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I43" s="41"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I44" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J36" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A2:J38" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Vital"/>
+        <filter val="Vital?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
@@ -41688,10 +41758,10 @@
   <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41712,18 +41782,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="212" t="s">
         <v>1226</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="217"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="215"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41756,7 +41826,7 @@
       <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="192" t="s">
+      <c r="K2" s="189" t="s">
         <v>886</v>
       </c>
       <c r="L2" s="64" t="s">
@@ -41866,7 +41936,7 @@
       <c r="J5" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="K5" s="195" t="s">
+      <c r="K5" s="192" t="s">
         <v>349</v>
       </c>
       <c r="L5" s="39"/>
@@ -41881,7 +41951,7 @@
       <c r="C6" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="188" t="s">
         <v>371</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -41911,7 +41981,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="210" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -41947,7 +42017,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="218"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="4" t="s">
         <v>1234</v>
       </c>
@@ -41977,11 +42047,11 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="218"/>
+      <c r="B9" s="216"/>
       <c r="C9" s="4" t="s">
         <v>1237</v>
       </c>
@@ -42015,7 +42085,7 @@
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="218"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="4" t="s">
         <v>1239</v>
       </c>
@@ -42049,7 +42119,7 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="218"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="4" t="s">
         <v>1242</v>
       </c>
@@ -42083,7 +42153,7 @@
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="218"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="4" t="s">
         <v>1245</v>
       </c>
@@ -42117,7 +42187,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="218"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="4" t="s">
         <v>1248</v>
       </c>
@@ -42151,7 +42221,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="218"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="4" t="s">
         <v>1251</v>
       </c>
@@ -42287,7 +42357,7 @@
       </c>
       <c r="L17" s="39"/>
     </row>
-    <row r="18" spans="1:12" ht="126" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="112" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -42316,7 +42386,7 @@
         <v>1229</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="K18" s="196" t="s">
+      <c r="K18" s="193" t="s">
         <v>474</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -42433,7 +42503,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="210" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -42469,7 +42539,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="219"/>
+      <c r="B23" s="217"/>
       <c r="C23" s="61" t="s">
         <v>1265</v>
       </c>
@@ -42501,7 +42571,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="218"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42533,7 +42603,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="218"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="22" t="s">
         <v>1271</v>
       </c>
@@ -42565,7 +42635,7 @@
       <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="219"/>
+      <c r="B26" s="217"/>
       <c r="C26" s="61" t="s">
         <v>1274</v>
       </c>
@@ -42597,7 +42667,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="218"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42701,7 +42771,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -42737,7 +42807,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="218"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="4" t="s">
         <v>1285</v>
       </c>
@@ -42771,7 +42841,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="218"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="4" t="s">
         <v>1288</v>
       </c>
@@ -42805,7 +42875,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="218"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="4" t="s">
         <v>1291</v>
       </c>
@@ -42845,7 +42915,7 @@
       <c r="C34" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="D34" s="189" t="s">
+      <c r="D34" s="186" t="s">
         <v>413</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -43025,7 +43095,7 @@
       <c r="A39" s="60">
         <v>37</v>
       </c>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="209" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="52" t="s">
@@ -43057,7 +43127,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="219"/>
+      <c r="B40" s="217"/>
       <c r="C40" s="4" t="s">
         <v>1304</v>
       </c>
@@ -43087,7 +43157,7 @@
       <c r="A41" s="54">
         <v>39</v>
       </c>
-      <c r="B41" s="219"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="53" t="s">
         <v>1307</v>
       </c>
@@ -43115,7 +43185,7 @@
     </row>
     <row r="42" spans="1:12" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
-      <c r="B42" s="213" t="s">
+      <c r="B42" s="211" t="s">
         <v>1310</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -43151,7 +43221,7 @@
     </row>
     <row r="43" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
-      <c r="B43" s="213"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="4" t="s">
         <v>1314</v>
       </c>
@@ -43179,7 +43249,7 @@
     </row>
     <row r="44" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
-      <c r="B44" s="213"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="4" t="s">
         <v>1317</v>
       </c>
@@ -43207,13 +43277,13 @@
     </row>
     <row r="45" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="211" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="185" t="s">
         <v>1321</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -43237,11 +43307,11 @@
     </row>
     <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="213"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="185" t="s">
         <v>1324</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -43288,631 +43358,631 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L48" s="187"/>
+      <c r="L48" s="184"/>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L49" s="193"/>
+      <c r="L49" s="190"/>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L50" s="193"/>
+      <c r="L50" s="190"/>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L51" s="193"/>
+      <c r="L51" s="190"/>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L52" s="193"/>
+      <c r="L52" s="190"/>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L53" s="193"/>
+      <c r="L53" s="190"/>
     </row>
     <row r="54" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L54" s="193"/>
+      <c r="L54" s="190"/>
     </row>
     <row r="55" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L55" s="193"/>
+      <c r="L55" s="190"/>
     </row>
     <row r="56" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L56" s="193"/>
+      <c r="L56" s="190"/>
     </row>
     <row r="57" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L57" s="193"/>
+      <c r="L57" s="190"/>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L58" s="193"/>
+      <c r="L58" s="190"/>
     </row>
     <row r="59" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L59" s="193"/>
+      <c r="L59" s="190"/>
     </row>
     <row r="60" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L60" s="193"/>
+      <c r="L60" s="190"/>
     </row>
     <row r="61" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L61" s="193"/>
+      <c r="L61" s="190"/>
     </row>
     <row r="62" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L62" s="193"/>
+      <c r="L62" s="190"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L63" s="193"/>
+      <c r="L63" s="190"/>
     </row>
     <row r="64" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L64" s="193"/>
+      <c r="L64" s="190"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L65" s="193"/>
+      <c r="L65" s="190"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L66" s="193"/>
+      <c r="L66" s="190"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L67" s="193"/>
+      <c r="L67" s="190"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L68" s="193"/>
+      <c r="L68" s="190"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L69" s="193"/>
+      <c r="L69" s="190"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L70" s="193"/>
+      <c r="L70" s="190"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L71" s="193"/>
+      <c r="L71" s="190"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L72" s="193"/>
+      <c r="L72" s="190"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L73" s="193"/>
+      <c r="L73" s="190"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L74" s="193"/>
+      <c r="L74" s="190"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L75" s="193"/>
+      <c r="L75" s="190"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L76" s="193"/>
+      <c r="L76" s="190"/>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L77" s="193"/>
+      <c r="L77" s="190"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L78" s="193"/>
+      <c r="L78" s="190"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L79" s="193"/>
+      <c r="L79" s="190"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L80" s="193"/>
+      <c r="L80" s="190"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L81" s="193"/>
+      <c r="L81" s="190"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L82" s="193"/>
+      <c r="L82" s="190"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L83" s="193"/>
+      <c r="L83" s="190"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L84" s="193"/>
+      <c r="L84" s="190"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L85" s="193"/>
+      <c r="L85" s="190"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L86" s="193"/>
+      <c r="L86" s="190"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L87" s="193"/>
+      <c r="L87" s="190"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L88" s="193"/>
+      <c r="L88" s="190"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L89" s="193"/>
+      <c r="L89" s="190"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L90" s="193"/>
+      <c r="L90" s="190"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L91" s="193"/>
+      <c r="L91" s="190"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L92" s="193"/>
+      <c r="L92" s="190"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L93" s="193"/>
+      <c r="L93" s="190"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L94" s="193"/>
+      <c r="L94" s="190"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L95" s="193"/>
+      <c r="L95" s="190"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L96" s="193"/>
+      <c r="L96" s="190"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L97" s="193"/>
+      <c r="L97" s="190"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L98" s="193"/>
+      <c r="L98" s="190"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L99" s="193"/>
+      <c r="L99" s="190"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L100" s="193"/>
+      <c r="L100" s="190"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L101" s="193"/>
+      <c r="L101" s="190"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L102" s="193"/>
+      <c r="L102" s="190"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L103" s="193"/>
+      <c r="L103" s="190"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L104" s="193"/>
+      <c r="L104" s="190"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L105" s="193"/>
+      <c r="L105" s="190"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L106" s="193"/>
+      <c r="L106" s="190"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L107" s="193"/>
+      <c r="L107" s="190"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L108" s="193"/>
+      <c r="L108" s="190"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L109" s="193"/>
+      <c r="L109" s="190"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L110" s="193"/>
+      <c r="L110" s="190"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L111" s="193"/>
+      <c r="L111" s="190"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L112" s="193"/>
+      <c r="L112" s="190"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L113" s="193"/>
+      <c r="L113" s="190"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L114" s="193"/>
+      <c r="L114" s="190"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L115" s="193"/>
+      <c r="L115" s="190"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L116" s="193"/>
+      <c r="L116" s="190"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L117" s="193"/>
+      <c r="L117" s="190"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L118" s="193"/>
+      <c r="L118" s="190"/>
     </row>
     <row r="119" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L119" s="193"/>
+      <c r="L119" s="190"/>
     </row>
     <row r="120" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L120" s="193"/>
+      <c r="L120" s="190"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L121" s="193"/>
+      <c r="L121" s="190"/>
     </row>
     <row r="122" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L122" s="193"/>
+      <c r="L122" s="190"/>
     </row>
     <row r="123" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L123" s="193"/>
+      <c r="L123" s="190"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L124" s="193"/>
+      <c r="L124" s="190"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L125" s="193"/>
+      <c r="L125" s="190"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L126" s="193"/>
+      <c r="L126" s="190"/>
     </row>
     <row r="127" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L127" s="193"/>
+      <c r="L127" s="190"/>
     </row>
     <row r="128" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L128" s="193"/>
+      <c r="L128" s="190"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L129" s="193"/>
+      <c r="L129" s="190"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L130" s="193"/>
+      <c r="L130" s="190"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L131" s="193"/>
+      <c r="L131" s="190"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L132" s="193"/>
+      <c r="L132" s="190"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L133" s="193"/>
+      <c r="L133" s="190"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L134" s="193"/>
+      <c r="L134" s="190"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L135" s="193"/>
+      <c r="L135" s="190"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L136" s="193"/>
+      <c r="L136" s="190"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L137" s="193"/>
+      <c r="L137" s="190"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L138" s="193"/>
+      <c r="L138" s="190"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L139" s="193"/>
+      <c r="L139" s="190"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L140" s="193"/>
+      <c r="L140" s="190"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L141" s="193"/>
+      <c r="L141" s="190"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L142" s="193"/>
+      <c r="L142" s="190"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L143" s="193"/>
+      <c r="L143" s="190"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L144" s="193"/>
+      <c r="L144" s="190"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L145" s="193"/>
+      <c r="L145" s="190"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L146" s="193"/>
+      <c r="L146" s="190"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L147" s="193"/>
+      <c r="L147" s="190"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L148" s="193"/>
+      <c r="L148" s="190"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L149" s="193"/>
+      <c r="L149" s="190"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L150" s="193"/>
+      <c r="L150" s="190"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L151" s="193"/>
+      <c r="L151" s="190"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L152" s="193"/>
+      <c r="L152" s="190"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L153" s="193"/>
+      <c r="L153" s="190"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L154" s="193"/>
+      <c r="L154" s="190"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L155" s="193"/>
+      <c r="L155" s="190"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L156" s="193"/>
+      <c r="L156" s="190"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L157" s="193"/>
+      <c r="L157" s="190"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L158" s="193"/>
+      <c r="L158" s="190"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L159" s="193"/>
+      <c r="L159" s="190"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L160" s="193"/>
+      <c r="L160" s="190"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L161" s="193"/>
+      <c r="L161" s="190"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L162" s="193"/>
+      <c r="L162" s="190"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L163" s="193"/>
+      <c r="L163" s="190"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L164" s="193"/>
+      <c r="L164" s="190"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L165" s="193"/>
+      <c r="L165" s="190"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L166" s="193"/>
+      <c r="L166" s="190"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L167" s="193"/>
+      <c r="L167" s="190"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L168" s="193"/>
+      <c r="L168" s="190"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L169" s="193"/>
+      <c r="L169" s="190"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L170" s="193"/>
+      <c r="L170" s="190"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L171" s="193"/>
+      <c r="L171" s="190"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L172" s="193"/>
+      <c r="L172" s="190"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L173" s="193"/>
+      <c r="L173" s="190"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L174" s="193"/>
+      <c r="L174" s="190"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L175" s="193"/>
+      <c r="L175" s="190"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L176" s="193"/>
+      <c r="L176" s="190"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L177" s="193"/>
+      <c r="L177" s="190"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L178" s="193"/>
+      <c r="L178" s="190"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L179" s="193"/>
+      <c r="L179" s="190"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L180" s="193"/>
+      <c r="L180" s="190"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L181" s="193"/>
+      <c r="L181" s="190"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L182" s="193"/>
+      <c r="L182" s="190"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L183" s="193"/>
+      <c r="L183" s="190"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L184" s="193"/>
+      <c r="L184" s="190"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L185" s="193"/>
+      <c r="L185" s="190"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L186" s="193"/>
+      <c r="L186" s="190"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L187" s="193"/>
+      <c r="L187" s="190"/>
     </row>
     <row r="188" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L188" s="193"/>
+      <c r="L188" s="190"/>
     </row>
     <row r="189" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L189" s="193"/>
+      <c r="L189" s="190"/>
     </row>
     <row r="190" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L190" s="193"/>
+      <c r="L190" s="190"/>
     </row>
     <row r="191" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L191" s="193"/>
+      <c r="L191" s="190"/>
     </row>
     <row r="192" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L192" s="193"/>
+      <c r="L192" s="190"/>
     </row>
     <row r="193" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L193" s="193"/>
+      <c r="L193" s="190"/>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L194" s="193"/>
+      <c r="L194" s="190"/>
     </row>
     <row r="195" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L195" s="193"/>
+      <c r="L195" s="190"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L196" s="193"/>
+      <c r="L196" s="190"/>
     </row>
     <row r="197" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L197" s="193"/>
+      <c r="L197" s="190"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L198" s="193"/>
+      <c r="L198" s="190"/>
     </row>
     <row r="199" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L199" s="193"/>
+      <c r="L199" s="190"/>
     </row>
     <row r="200" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L200" s="193"/>
+      <c r="L200" s="190"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L201" s="193"/>
+      <c r="L201" s="190"/>
     </row>
     <row r="202" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L202" s="193"/>
+      <c r="L202" s="190"/>
     </row>
     <row r="203" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L203" s="193"/>
+      <c r="L203" s="190"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L204" s="193"/>
+      <c r="L204" s="190"/>
     </row>
     <row r="205" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L205" s="193"/>
+      <c r="L205" s="190"/>
     </row>
     <row r="206" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L206" s="193"/>
+      <c r="L206" s="190"/>
     </row>
     <row r="207" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L207" s="193"/>
+      <c r="L207" s="190"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L208" s="193"/>
+      <c r="L208" s="190"/>
     </row>
     <row r="209" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L209" s="193"/>
+      <c r="L209" s="190"/>
     </row>
     <row r="210" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L210" s="193"/>
+      <c r="L210" s="190"/>
     </row>
     <row r="211" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L211" s="193"/>
+      <c r="L211" s="190"/>
     </row>
     <row r="212" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L212" s="193"/>
+      <c r="L212" s="190"/>
     </row>
     <row r="213" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L213" s="193"/>
+      <c r="L213" s="190"/>
     </row>
     <row r="214" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L214" s="193"/>
+      <c r="L214" s="190"/>
     </row>
     <row r="215" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L215" s="193"/>
+      <c r="L215" s="190"/>
     </row>
     <row r="216" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L216" s="193"/>
+      <c r="L216" s="190"/>
     </row>
     <row r="217" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L217" s="193"/>
+      <c r="L217" s="190"/>
     </row>
     <row r="218" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L218" s="193"/>
+      <c r="L218" s="190"/>
     </row>
     <row r="219" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L219" s="193"/>
+      <c r="L219" s="190"/>
     </row>
     <row r="220" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L220" s="193"/>
+      <c r="L220" s="190"/>
     </row>
     <row r="221" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L221" s="193"/>
+      <c r="L221" s="190"/>
     </row>
     <row r="222" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L222" s="193"/>
+      <c r="L222" s="190"/>
     </row>
     <row r="223" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L223" s="193"/>
+      <c r="L223" s="190"/>
     </row>
     <row r="224" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L224" s="193"/>
+      <c r="L224" s="190"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L225" s="193"/>
+      <c r="L225" s="190"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L226" s="193"/>
+      <c r="L226" s="190"/>
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L227" s="193"/>
+      <c r="L227" s="190"/>
     </row>
     <row r="228" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L228" s="193"/>
+      <c r="L228" s="190"/>
     </row>
     <row r="229" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L229" s="193"/>
+      <c r="L229" s="190"/>
     </row>
     <row r="230" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L230" s="193"/>
+      <c r="L230" s="190"/>
     </row>
     <row r="231" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L231" s="193"/>
+      <c r="L231" s="190"/>
     </row>
     <row r="232" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L232" s="193"/>
+      <c r="L232" s="190"/>
     </row>
     <row r="233" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L233" s="193"/>
+      <c r="L233" s="190"/>
     </row>
     <row r="234" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L234" s="193"/>
+      <c r="L234" s="190"/>
     </row>
     <row r="235" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L235" s="193"/>
+      <c r="L235" s="190"/>
     </row>
     <row r="236" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L236" s="193"/>
+      <c r="L236" s="190"/>
     </row>
     <row r="237" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L237" s="193"/>
+      <c r="L237" s="190"/>
     </row>
     <row r="238" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L238" s="193"/>
+      <c r="L238" s="190"/>
     </row>
     <row r="239" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L239" s="193"/>
+      <c r="L239" s="190"/>
     </row>
     <row r="240" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L240" s="193"/>
+      <c r="L240" s="190"/>
     </row>
     <row r="241" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L241" s="193"/>
+      <c r="L241" s="190"/>
     </row>
     <row r="242" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L242" s="193"/>
+      <c r="L242" s="190"/>
     </row>
     <row r="243" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L243" s="193"/>
+      <c r="L243" s="190"/>
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L244" s="193"/>
+      <c r="L244" s="190"/>
     </row>
     <row r="245" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L245" s="193"/>
+      <c r="L245" s="190"/>
     </row>
     <row r="246" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L246" s="193"/>
+      <c r="L246" s="190"/>
     </row>
     <row r="247" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L247" s="193"/>
+      <c r="L247" s="190"/>
     </row>
     <row r="248" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L248" s="193"/>
+      <c r="L248" s="190"/>
     </row>
     <row r="249" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L249" s="193"/>
+      <c r="L249" s="190"/>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L250" s="193"/>
+      <c r="L250" s="190"/>
     </row>
     <row r="251" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L251" s="193"/>
+      <c r="L251" s="190"/>
     </row>
     <row r="252" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L252" s="193"/>
+      <c r="L252" s="190"/>
     </row>
     <row r="253" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L253" s="193"/>
+      <c r="L253" s="190"/>
     </row>
     <row r="254" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L254" s="193"/>
+      <c r="L254" s="190"/>
     </row>
     <row r="255" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L255" s="193"/>
+      <c r="L255" s="190"/>
     </row>
     <row r="256" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L256" s="193"/>
+      <c r="L256" s="190"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L47" xr:uid="{83965C4A-B8AA-4AB6-9432-148FE2887E50}">
@@ -43944,8 +44014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -43966,18 +44036,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1883</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="201"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44056,13 +44126,13 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="207" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="D4" s="191" t="s">
+      <c r="D4" s="188" t="s">
         <v>1327</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -44090,11 +44160,11 @@
       <c r="A5" s="54">
         <v>41</v>
       </c>
-      <c r="B5" s="207"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="53" t="s">
         <v>1329</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="187" t="s">
         <v>1330</v>
       </c>
       <c r="E5" s="132" t="s">
@@ -44178,7 +44248,7 @@
     </row>
     <row r="8" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="191" t="s">
         <v>1900</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -44245,18 +44315,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="196" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="217"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="215"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44740,32 +44810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -44972,6 +45016,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -44982,23 +45052,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45017,6 +45070,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A9AC511-A1FA-4ACE-B668-FF452FB20305}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8577BD1-EBC5-4BCC-A606-B25E589F7CAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Admin!$A$2:$K$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$B$3:$S$350</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ID-Authentication'!$A$2:$L$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$J$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$J$78</definedName>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="5" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5247" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="1923">
   <si>
     <t>Category</t>
   </si>
@@ -6694,6 +6694,18 @@
   </si>
   <si>
     <t>This inclused the Paswword using PKI</t>
+  </si>
+  <si>
+    <t>Digital Certificate Manager</t>
+  </si>
+  <si>
+    <t>Implement Digital Certificate Manager to have Certificate based Digital Signature</t>
+  </si>
+  <si>
+    <t>MOS-27314</t>
+  </si>
+  <si>
+    <t>Need for design analysis for estimation</t>
   </si>
 </sst>
 </file>
@@ -7307,7 +7319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7889,6 +7901,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7913,6 +7931,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7924,15 +7951,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -15118,7 +15136,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16036,18 +16054,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16497,7 +16515,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="208" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16529,7 +16547,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="208"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="4" t="s">
         <v>1362</v>
       </c>
@@ -16869,19 +16887,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="207"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="153" t="s">
@@ -22196,18 +22214,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>1732</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22245,7 +22263,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="227" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22271,7 +22289,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="226"/>
+      <c r="B4" s="228"/>
       <c r="C4" s="4" t="s">
         <v>1736</v>
       </c>
@@ -22293,7 +22311,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="227" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22319,7 +22337,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="227"/>
+      <c r="B6" s="229"/>
       <c r="C6" s="19" t="s">
         <v>1741</v>
       </c>
@@ -22343,7 +22361,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="227"/>
+      <c r="B7" s="229"/>
       <c r="C7" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22365,7 +22383,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="227"/>
+      <c r="B8" s="229"/>
       <c r="C8" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22387,7 +22405,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="227"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22409,7 +22427,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="227"/>
+      <c r="B10" s="229"/>
       <c r="C10" s="19" t="s">
         <v>1750</v>
       </c>
@@ -22431,7 +22449,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="227"/>
+      <c r="B11" s="229"/>
       <c r="C11" s="19" t="s">
         <v>1752</v>
       </c>
@@ -22453,7 +22471,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="227"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="19" t="s">
         <v>1754</v>
       </c>
@@ -22475,7 +22493,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="227"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="19" t="s">
         <v>1756</v>
       </c>
@@ -22497,7 +22515,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="227"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="19" t="s">
         <v>1758</v>
       </c>
@@ -22521,7 +22539,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="227"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="19" t="s">
         <v>1761</v>
       </c>
@@ -22545,7 +22563,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="226"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="19" t="s">
         <v>1763</v>
       </c>
@@ -22667,7 +22685,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="227" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22691,7 +22709,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="227"/>
+      <c r="B22" s="229"/>
       <c r="C22" s="4" t="s">
         <v>1771</v>
       </c>
@@ -22713,7 +22731,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="227"/>
+      <c r="B23" s="229"/>
       <c r="C23" s="4" t="s">
         <v>1773</v>
       </c>
@@ -22735,7 +22753,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="227"/>
+      <c r="B24" s="229"/>
       <c r="C24" s="4" t="s">
         <v>1775</v>
       </c>
@@ -22757,7 +22775,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="227"/>
+      <c r="B25" s="229"/>
       <c r="C25" s="4" t="s">
         <v>1777</v>
       </c>
@@ -22779,7 +22797,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="226"/>
+      <c r="B26" s="228"/>
       <c r="C26" s="4" t="s">
         <v>1779</v>
       </c>
@@ -22801,7 +22819,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="225" t="s">
+      <c r="B27" s="227" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -22825,7 +22843,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="226"/>
+      <c r="B28" s="228"/>
       <c r="C28" s="4" t="s">
         <v>1783</v>
       </c>
@@ -22847,7 +22865,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="227" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -22871,7 +22889,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="226"/>
+      <c r="B30" s="228"/>
       <c r="C30" s="4" t="s">
         <v>1787</v>
       </c>
@@ -22893,7 +22911,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="227" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -22917,7 +22935,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="227"/>
+      <c r="B32" s="229"/>
       <c r="C32" s="4" t="s">
         <v>1791</v>
       </c>
@@ -22939,7 +22957,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="227"/>
+      <c r="B33" s="229"/>
       <c r="C33" s="4" t="s">
         <v>1793</v>
       </c>
@@ -22961,7 +22979,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="227"/>
+      <c r="B34" s="229"/>
       <c r="C34" s="4" t="s">
         <v>1795</v>
       </c>
@@ -22983,7 +23001,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="226"/>
+      <c r="B35" s="228"/>
       <c r="C35" s="4" t="s">
         <v>1797</v>
       </c>
@@ -23005,7 +23023,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="225" t="s">
+      <c r="B36" s="227" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23029,7 +23047,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="227"/>
+      <c r="B37" s="229"/>
       <c r="C37" s="4" t="s">
         <v>1801</v>
       </c>
@@ -23051,7 +23069,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="227"/>
+      <c r="B38" s="229"/>
       <c r="C38" s="4" t="s">
         <v>1803</v>
       </c>
@@ -23073,7 +23091,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="226"/>
+      <c r="B39" s="228"/>
       <c r="C39" s="4" t="s">
         <v>1805</v>
       </c>
@@ -23095,7 +23113,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="225" t="s">
+      <c r="B40" s="227" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23119,7 +23137,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="226"/>
+      <c r="B41" s="228"/>
       <c r="C41" s="4" t="s">
         <v>1809</v>
       </c>
@@ -23165,7 +23183,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="225" t="s">
+      <c r="B43" s="227" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23189,7 +23207,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="227"/>
+      <c r="B44" s="229"/>
       <c r="C44" s="4" t="s">
         <v>1814</v>
       </c>
@@ -23211,7 +23229,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="227"/>
+      <c r="B45" s="229"/>
       <c r="C45" s="4" t="s">
         <v>1816</v>
       </c>
@@ -23233,7 +23251,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="227"/>
+      <c r="B46" s="229"/>
       <c r="C46" s="4" t="s">
         <v>1818</v>
       </c>
@@ -23257,7 +23275,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="227"/>
+      <c r="B47" s="229"/>
       <c r="C47" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23279,7 +23297,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="227"/>
+      <c r="B48" s="229"/>
       <c r="C48" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23301,7 +23319,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="227"/>
+      <c r="B49" s="229"/>
       <c r="C49" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23323,7 +23341,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="227"/>
+      <c r="B50" s="229"/>
       <c r="C50" s="4" t="s">
         <v>1827</v>
       </c>
@@ -23347,7 +23365,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="227"/>
+      <c r="B51" s="229"/>
       <c r="C51" s="4" t="s">
         <v>1829</v>
       </c>
@@ -23369,7 +23387,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="227"/>
+      <c r="B52" s="229"/>
       <c r="C52" s="4" t="s">
         <v>1831</v>
       </c>
@@ -23391,7 +23409,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="227"/>
+      <c r="B53" s="229"/>
       <c r="C53" s="4" t="s">
         <v>1833</v>
       </c>
@@ -23413,7 +23431,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="226"/>
+      <c r="B54" s="228"/>
       <c r="C54" s="4" t="s">
         <v>1835</v>
       </c>
@@ -23446,16 +23464,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23496,26 +23514,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="207"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25700,7 +25718,7 @@
       <c r="C68" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="201" t="s">
+      <c r="D68" s="203" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="124"/>
@@ -25734,7 +25752,7 @@
       <c r="C69" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="201"/>
+      <c r="D69" s="203"/>
       <c r="E69" s="124"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -35479,12 +35497,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="204" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37025,7 +37043,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -37049,18 +37067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37101,7 +37119,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="208" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -37136,7 +37154,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="207"/>
+      <c r="B4" s="209"/>
       <c r="C4" s="22" t="s">
         <v>920</v>
       </c>
@@ -37169,7 +37187,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="207"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="4" t="s">
         <v>924</v>
       </c>
@@ -37202,7 +37220,7 @@
       <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="207"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="4" t="s">
         <v>927</v>
       </c>
@@ -37235,7 +37253,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="207"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="4" t="s">
         <v>930</v>
       </c>
@@ -37266,7 +37284,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="207"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="4" t="s">
         <v>934</v>
       </c>
@@ -37291,7 +37309,7 @@
       <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B9" s="208"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="4" t="s">
         <v>936</v>
       </c>
@@ -37545,7 +37563,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="206" t="s">
+      <c r="B17" s="208" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37578,7 +37596,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="208"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37609,7 +37627,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="206" t="s">
+      <c r="B19" s="208" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37642,7 +37660,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="208"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37917,18 +37935,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38002,7 +38020,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="211" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38033,7 +38051,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="214"/>
+      <c r="B5" s="212"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38132,7 +38150,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="211" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38165,7 +38183,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="214"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38324,7 +38342,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="211" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38357,7 +38375,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38592,7 +38610,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="213" t="s">
+      <c r="B22" s="211" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38625,7 +38643,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="213"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38655,7 +38673,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="214"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38847,7 +38865,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="211" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -38880,7 +38898,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="214"/>
+      <c r="B31" s="212"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -38911,7 +38929,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="211" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -38944,7 +38962,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="214"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39206,7 +39224,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="211" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39239,7 +39257,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="214"/>
+      <c r="B42" s="212"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39303,7 +39321,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="213" t="s">
+      <c r="B44" s="211" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39336,7 +39354,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="214"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39431,7 +39449,7 @@
       <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="211" t="s">
         <v>271</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -39455,7 +39473,7 @@
       <c r="I48" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="216" t="s">
+      <c r="J48" s="218" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="90" t="s">
@@ -39466,7 +39484,7 @@
       <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="215"/>
+      <c r="B49" s="213"/>
       <c r="C49" s="4" t="s">
         <v>1060</v>
       </c>
@@ -39488,7 +39506,7 @@
       <c r="I49" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="216"/>
+      <c r="J49" s="218"/>
       <c r="K49" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39497,7 +39515,7 @@
       <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="215"/>
+      <c r="B50" s="213"/>
       <c r="C50" s="4" t="s">
         <v>1064</v>
       </c>
@@ -39519,7 +39537,7 @@
       <c r="I50" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="216"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="135" t="s">
         <v>349</v>
       </c>
@@ -39528,7 +39546,7 @@
       <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="215"/>
+      <c r="B51" s="213"/>
       <c r="C51" s="4" t="s">
         <v>1067</v>
       </c>
@@ -39550,7 +39568,7 @@
       <c r="I51" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="216"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="135" t="s">
         <v>1070</v>
       </c>
@@ -39559,7 +39577,7 @@
       <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="215"/>
+      <c r="B52" s="213"/>
       <c r="C52" s="4" t="s">
         <v>1071</v>
       </c>
@@ -39581,7 +39599,7 @@
       <c r="I52" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="216"/>
+      <c r="J52" s="218"/>
       <c r="K52" s="135" t="s">
         <v>1074</v>
       </c>
@@ -39590,7 +39608,7 @@
       <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="215"/>
+      <c r="B53" s="213"/>
       <c r="C53" s="4" t="s">
         <v>1075</v>
       </c>
@@ -39612,7 +39630,7 @@
       <c r="I53" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="216"/>
+      <c r="J53" s="218"/>
       <c r="K53" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39621,7 +39639,7 @@
       <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="215"/>
+      <c r="B54" s="213"/>
       <c r="C54" s="4" t="s">
         <v>1078</v>
       </c>
@@ -39643,7 +39661,7 @@
       <c r="I54" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="216"/>
+      <c r="J54" s="218"/>
       <c r="K54" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39652,7 +39670,7 @@
       <c r="A55" s="36">
         <v>53</v>
       </c>
-      <c r="B55" s="215"/>
+      <c r="B55" s="213"/>
       <c r="C55" s="4" t="s">
         <v>1081</v>
       </c>
@@ -39674,7 +39692,7 @@
       <c r="I55" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="216"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39683,7 +39701,7 @@
       <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="215"/>
+      <c r="B56" s="213"/>
       <c r="C56" s="4" t="s">
         <v>1084</v>
       </c>
@@ -39701,7 +39719,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="89"/>
-      <c r="J56" s="216"/>
+      <c r="J56" s="218"/>
       <c r="K56" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39710,7 +39728,7 @@
       <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="214"/>
+      <c r="B57" s="212"/>
       <c r="C57" s="4" t="s">
         <v>1087</v>
       </c>
@@ -39732,7 +39750,7 @@
       <c r="I57" s="89" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="216"/>
+      <c r="J57" s="218"/>
       <c r="K57" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39741,7 +39759,7 @@
       <c r="A58" s="36">
         <v>56</v>
       </c>
-      <c r="B58" s="209" t="s">
+      <c r="B58" s="214" t="s">
         <v>271</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -39765,7 +39783,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="212" t="s">
+      <c r="J58" s="217" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="135" t="s">
@@ -39776,7 +39794,7 @@
       <c r="A59" s="36">
         <v>57</v>
       </c>
-      <c r="B59" s="210"/>
+      <c r="B59" s="215"/>
       <c r="C59" s="4" t="s">
         <v>1093</v>
       </c>
@@ -39798,7 +39816,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="212"/>
+      <c r="J59" s="217"/>
       <c r="K59" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39807,7 +39825,7 @@
       <c r="A60" s="36">
         <v>58</v>
       </c>
-      <c r="B60" s="210"/>
+      <c r="B60" s="215"/>
       <c r="C60" s="4" t="s">
         <v>1096</v>
       </c>
@@ -39829,7 +39847,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="212"/>
+      <c r="J60" s="217"/>
       <c r="K60" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39838,7 +39856,7 @@
       <c r="A61" s="36">
         <v>59</v>
       </c>
-      <c r="B61" s="210"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="4" t="s">
         <v>1099</v>
       </c>
@@ -39860,7 +39878,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="212"/>
+      <c r="J61" s="217"/>
       <c r="K61" s="139" t="s">
         <v>66</v>
       </c>
@@ -39869,7 +39887,7 @@
       <c r="A62" s="36">
         <v>60</v>
       </c>
-      <c r="B62" s="210"/>
+      <c r="B62" s="215"/>
       <c r="C62" s="4" t="s">
         <v>1102</v>
       </c>
@@ -39891,7 +39909,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="212"/>
+      <c r="J62" s="217"/>
       <c r="K62" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39900,7 +39918,7 @@
       <c r="A63" s="36">
         <v>61</v>
       </c>
-      <c r="B63" s="210"/>
+      <c r="B63" s="215"/>
       <c r="C63" s="4" t="s">
         <v>1104</v>
       </c>
@@ -39922,7 +39940,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="212"/>
+      <c r="J63" s="217"/>
       <c r="K63" s="135" t="s">
         <v>1063</v>
       </c>
@@ -39931,7 +39949,7 @@
       <c r="A64" s="36">
         <v>62</v>
       </c>
-      <c r="B64" s="210"/>
+      <c r="B64" s="215"/>
       <c r="C64" s="4" t="s">
         <v>963</v>
       </c>
@@ -39953,7 +39971,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="212"/>
+      <c r="J64" s="217"/>
       <c r="K64" s="139" t="s">
         <v>1109</v>
       </c>
@@ -39962,7 +39980,7 @@
       <c r="A65" s="36">
         <v>63</v>
       </c>
-      <c r="B65" s="210"/>
+      <c r="B65" s="215"/>
       <c r="C65" s="4" t="s">
         <v>1110</v>
       </c>
@@ -39984,14 +40002,14 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="212"/>
+      <c r="J65" s="217"/>
       <c r="K65" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="98" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
-      <c r="B66" s="210"/>
+      <c r="B66" s="215"/>
       <c r="C66" s="4" t="s">
         <v>1113</v>
       </c>
@@ -40011,14 +40029,14 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="212"/>
+      <c r="J66" s="217"/>
       <c r="K66" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="70" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
-      <c r="B67" s="210"/>
+      <c r="B67" s="215"/>
       <c r="C67" s="41" t="s">
         <v>1116</v>
       </c>
@@ -40038,7 +40056,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="212"/>
+      <c r="J67" s="217"/>
       <c r="K67" s="139" t="s">
         <v>1119</v>
       </c>
@@ -40047,7 +40065,7 @@
       <c r="A68" s="36">
         <v>64</v>
       </c>
-      <c r="B68" s="210"/>
+      <c r="B68" s="215"/>
       <c r="C68" s="131" t="s">
         <v>1120</v>
       </c>
@@ -40069,7 +40087,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="212"/>
+      <c r="J68" s="217"/>
       <c r="K68" s="139" t="s">
         <v>1123</v>
       </c>
@@ -40078,7 +40096,7 @@
       <c r="A69" s="36">
         <v>65</v>
       </c>
-      <c r="B69" s="210"/>
+      <c r="B69" s="215"/>
       <c r="C69" s="4" t="s">
         <v>1124</v>
       </c>
@@ -40100,7 +40118,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="212"/>
+      <c r="J69" s="217"/>
       <c r="K69" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40109,7 +40127,7 @@
       <c r="A70" s="36">
         <v>66</v>
       </c>
-      <c r="B70" s="210"/>
+      <c r="B70" s="215"/>
       <c r="C70" s="4" t="s">
         <v>1127</v>
       </c>
@@ -40131,7 +40149,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="212"/>
+      <c r="J70" s="217"/>
       <c r="K70" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40140,7 +40158,7 @@
       <c r="A71" s="36">
         <v>67</v>
       </c>
-      <c r="B71" s="210"/>
+      <c r="B71" s="215"/>
       <c r="C71" s="4" t="s">
         <v>1130</v>
       </c>
@@ -40162,7 +40180,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="212"/>
+      <c r="J71" s="217"/>
       <c r="K71" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40171,7 +40189,7 @@
       <c r="A72" s="36">
         <v>68</v>
       </c>
-      <c r="B72" s="210"/>
+      <c r="B72" s="215"/>
       <c r="C72" s="4" t="s">
         <v>1133</v>
       </c>
@@ -40193,7 +40211,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="212"/>
+      <c r="J72" s="217"/>
       <c r="K72" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40202,7 +40220,7 @@
       <c r="A73" s="36">
         <v>69</v>
       </c>
-      <c r="B73" s="210"/>
+      <c r="B73" s="215"/>
       <c r="C73" s="4" t="s">
         <v>1135</v>
       </c>
@@ -40224,7 +40242,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="212"/>
+      <c r="J73" s="217"/>
       <c r="K73" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40233,7 +40251,7 @@
       <c r="A74" s="36">
         <v>70</v>
       </c>
-      <c r="B74" s="210"/>
+      <c r="B74" s="215"/>
       <c r="C74" s="131" t="s">
         <v>1138</v>
       </c>
@@ -40253,7 +40271,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="212"/>
+      <c r="J74" s="217"/>
       <c r="K74" s="139" t="s">
         <v>1063</v>
       </c>
@@ -40262,7 +40280,7 @@
       <c r="A75" s="36">
         <v>70</v>
       </c>
-      <c r="B75" s="211"/>
+      <c r="B75" s="216"/>
       <c r="C75" s="131"/>
       <c r="D75" s="39"/>
       <c r="E75" s="131"/>
@@ -40270,7 +40288,7 @@
       <c r="G75" s="88"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="212"/>
+      <c r="J75" s="217"/>
       <c r="K75" s="72"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40474,6 +40492,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="B58:B75"/>
+    <mergeCell ref="J58:J75"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="J48:J57"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:B15"/>
@@ -40481,12 +40505,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B58:B75"/>
-    <mergeCell ref="J58:J75"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="J48:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -40523,18 +40541,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41849,18 +41867,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="220" t="s">
         <v>1226</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="221"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="223"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42048,7 +42066,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="218" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -42084,7 +42102,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="222"/>
+      <c r="B8" s="224"/>
       <c r="C8" s="4" t="s">
         <v>1234</v>
       </c>
@@ -42118,7 +42136,7 @@
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="222"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="4" t="s">
         <v>1237</v>
       </c>
@@ -42152,7 +42170,7 @@
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="222"/>
+      <c r="B10" s="224"/>
       <c r="C10" s="4" t="s">
         <v>1239</v>
       </c>
@@ -42186,7 +42204,7 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="222"/>
+      <c r="B11" s="224"/>
       <c r="C11" s="4" t="s">
         <v>1242</v>
       </c>
@@ -42220,7 +42238,7 @@
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="222"/>
+      <c r="B12" s="224"/>
       <c r="C12" s="4" t="s">
         <v>1245</v>
       </c>
@@ -42254,7 +42272,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="224"/>
       <c r="C13" s="4" t="s">
         <v>1248</v>
       </c>
@@ -42288,7 +42306,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="222"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="4" t="s">
         <v>1251</v>
       </c>
@@ -42570,7 +42588,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="218" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -42606,7 +42624,7 @@
       <c r="A23" s="58">
         <v>21</v>
       </c>
-      <c r="B23" s="223"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="61" t="s">
         <v>1265</v>
       </c>
@@ -42638,7 +42656,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="222"/>
+      <c r="B24" s="224"/>
       <c r="C24" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42670,7 +42688,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="222"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="22" t="s">
         <v>1271</v>
       </c>
@@ -42702,7 +42720,7 @@
       <c r="A26" s="58">
         <v>24</v>
       </c>
-      <c r="B26" s="223"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="61" t="s">
         <v>1274</v>
       </c>
@@ -42734,7 +42752,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="222"/>
+      <c r="B27" s="224"/>
       <c r="C27" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42838,7 +42856,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="216" t="s">
+      <c r="B30" s="218" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -42874,7 +42892,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="222"/>
+      <c r="B31" s="224"/>
       <c r="C31" s="4" t="s">
         <v>1285</v>
       </c>
@@ -42908,7 +42926,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="222"/>
+      <c r="B32" s="224"/>
       <c r="C32" s="4" t="s">
         <v>1288</v>
       </c>
@@ -42942,7 +42960,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="222"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="4" t="s">
         <v>1291</v>
       </c>
@@ -43162,7 +43180,7 @@
       <c r="A39" s="60">
         <v>37</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="213" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="52" t="s">
@@ -43194,7 +43212,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="223"/>
+      <c r="B40" s="225"/>
       <c r="C40" s="4" t="s">
         <v>1304</v>
       </c>
@@ -43224,7 +43242,7 @@
       <c r="A41" s="54">
         <v>39</v>
       </c>
-      <c r="B41" s="223"/>
+      <c r="B41" s="225"/>
       <c r="C41" s="53" t="s">
         <v>1307</v>
       </c>
@@ -43252,7 +43270,7 @@
     </row>
     <row r="42" spans="1:12" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
-      <c r="B42" s="217" t="s">
+      <c r="B42" s="219" t="s">
         <v>1310</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -43288,7 +43306,7 @@
     </row>
     <row r="43" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
-      <c r="B43" s="217"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="4" t="s">
         <v>1314</v>
       </c>
@@ -43316,7 +43334,7 @@
     </row>
     <row r="44" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
-      <c r="B44" s="217"/>
+      <c r="B44" s="219"/>
       <c r="C44" s="4" t="s">
         <v>1317</v>
       </c>
@@ -43344,7 +43362,7 @@
     </row>
     <row r="45" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="217" t="s">
+      <c r="B45" s="219" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -43374,7 +43392,7 @@
     </row>
     <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="217"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="4" t="s">
         <v>1323</v>
       </c>
@@ -44103,18 +44121,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>1883</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="207"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44193,7 +44211,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="211" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -44227,7 +44245,7 @@
       <c r="A5" s="54">
         <v>41</v>
       </c>
-      <c r="B5" s="215"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="53" t="s">
         <v>1329</v>
       </c>
@@ -44358,11 +44376,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:J1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -44382,18 +44400,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="221"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="223"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44862,40 +44880,62 @@
       <c r="J16" s="39"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="129"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+      <c r="A17" s="36">
+        <v>15</v>
+      </c>
+      <c r="B17" s="202" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G17" s="201" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="J17" s="39" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H18" s="129"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H19" s="129"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H20" s="129"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H21" s="129"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H23" s="78"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H26" s="79"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H28" s="129"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H29" s="129"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H30" s="129"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H31" s="129"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H32" s="129"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.35">
@@ -44926,7 +44966,7 @@
       <c r="H44" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J13" xr:uid="{00000000-0009-0000-0000-000008000000}">
+  <autoFilter ref="A2:J17" xr:uid="{00000000-0009-0000-0000-000008000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
@@ -44942,6 +44982,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -45148,56 +45223,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45220,9 +45249,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{211A2041-03AB-4C5C-A72E-52C17E929ABD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE0CD3C6-1C0F-4C21-922D-91BFA8E78FCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -32,15 +32,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ID-Authentication'!$A$2:$L$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$J$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$J$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$J$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$J$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Registration Processor'!$A$2:$J$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Resident Services'!$A$2:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoadmapFeatures!$B$3:$E$37</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId13"/>
+    <pivotCache cacheId="8" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5292" uniqueCount="1925">
   <si>
     <t>Category</t>
   </si>
@@ -6520,9 +6520,6 @@
     <t>Yet to analyze for estimates</t>
   </si>
   <si>
-    <t>Password Protected PDF</t>
-  </si>
-  <si>
     <t>As the MOSIP System, I should be able to generate Password Protected PDF</t>
   </si>
   <si>
@@ -6634,16 +6631,10 @@
     <t>P2 - dependency on kernel</t>
   </si>
   <si>
-    <t>Key Expiry Error In Crypto-Manager</t>
-  </si>
-  <si>
     <t>As the MOSIP System, I should be able to respond with an error if a Key is expired</t>
   </si>
   <si>
     <t>MOS-27307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix error messages - OTP Validator </t>
   </si>
   <si>
     <t>Fix error messages format in OTP Validator Component</t>
@@ -6700,6 +6691,29 @@
   </si>
   <si>
     <t>Yet to be analyzed for estimates</t>
+  </si>
+  <si>
+    <t>Terminology Update</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>This story is to update the field names in Demographic page and across Registration Client as below:
+1. CNIE/EC Number - Change to “Reference Identity Number”
+2. Local Administrative Authority - Change to “Zone”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Resident Service Dependency) Password Protected PDF - </t>
+  </si>
+  <si>
+    <t>(IDA Dependency) Key Expiry Error In Crypto-Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IDA Dependency) Fix error messages - OTP Validator </t>
+  </si>
+  <si>
+    <t>Prioritisation on &lt;07 16&gt;</t>
   </si>
 </sst>
 </file>
@@ -6896,7 +6910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -6990,15 +7004,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -7294,7 +7299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7438,7 +7443,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7450,13 +7455,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7495,10 +7500,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7522,10 +7527,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7537,25 +7542,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7606,7 +7611,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7630,7 +7635,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -7674,10 +7679,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7718,43 +7723,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7823,7 +7828,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7832,10 +7837,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7857,13 +7862,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7875,6 +7874,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7895,22 +7914,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7923,10 +7927,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7934,10 +7944,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7958,22 +7965,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -15117,7 +15147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15301,7 +15331,7 @@
     <dataField name="Sum of Estimates - Incl. Testing (PDs)" fld="7" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15310,7 +15340,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1">
@@ -15319,7 +15349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -15335,7 +15365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -15345,7 +15375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
   </formats>
@@ -16035,18 +16065,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="207" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16496,7 +16526,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="211" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16528,7 +16558,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="207"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="4" t="s">
         <v>1362</v>
       </c>
@@ -16868,19 +16898,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="207" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="210"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="147" t="s">
@@ -22001,7 +22031,7 @@
         <v>6.5</v>
       </c>
       <c r="I177" s="39"/>
-      <c r="J177" s="197" t="s">
+      <c r="J177" s="195" t="s">
         <v>1862</v>
       </c>
       <c r="K177" s="68"/>
@@ -22030,7 +22060,7 @@
         <v>2.6</v>
       </c>
       <c r="I178" s="39"/>
-      <c r="J178" s="197" t="s">
+      <c r="J178" s="195" t="s">
         <v>1862</v>
       </c>
       <c r="K178" s="68"/>
@@ -22059,7 +22089,7 @@
         <v>2.6</v>
       </c>
       <c r="I179" s="39"/>
-      <c r="J179" s="197" t="s">
+      <c r="J179" s="195" t="s">
         <v>1862</v>
       </c>
       <c r="K179" s="68"/>
@@ -22088,7 +22118,7 @@
         <v>5.2</v>
       </c>
       <c r="I180" s="39"/>
-      <c r="J180" s="197" t="s">
+      <c r="J180" s="195" t="s">
         <v>1862</v>
       </c>
       <c r="K180" s="68"/>
@@ -22117,52 +22147,52 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="I181" s="39"/>
-      <c r="J181" s="197" t="s">
+      <c r="J181" s="195" t="s">
         <v>1862</v>
       </c>
       <c r="K181" s="68"/>
     </row>
     <row r="182" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="227">
+      <c r="A182" s="201">
         <v>180</v>
       </c>
-      <c r="B182" s="228" t="s">
+      <c r="B182" s="202" t="s">
         <v>1849</v>
       </c>
-      <c r="C182" s="229" t="s">
+      <c r="C182" s="203" t="s">
         <v>1856</v>
       </c>
-      <c r="D182" s="199" t="s">
+      <c r="D182" s="197" t="s">
         <v>1861</v>
       </c>
-      <c r="E182" s="199"/>
-      <c r="F182" s="199" t="s">
+      <c r="E182" s="197"/>
+      <c r="F182" s="197" t="s">
         <v>917</v>
       </c>
-      <c r="G182" s="199" t="s">
-        <v>5</v>
-      </c>
-      <c r="H182" s="230">
+      <c r="G182" s="197" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="204">
         <v>2.6</v>
       </c>
-      <c r="I182" s="199"/>
-      <c r="J182" s="196" t="s">
+      <c r="I182" s="197"/>
+      <c r="J182" s="194" t="s">
         <v>1862</v>
       </c>
-      <c r="K182" s="231"/>
+      <c r="K182" s="205"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="36">
         <v>181</v>
       </c>
-      <c r="B183" s="198" t="s">
-        <v>1917</v>
+      <c r="B183" s="196" t="s">
+        <v>1914</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D183" s="39" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="E183" s="39"/>
       <c r="F183" s="39" t="s">
@@ -22173,9 +22203,9 @@
       </c>
       <c r="H183" s="36"/>
       <c r="I183" s="39"/>
-      <c r="J183" s="197"/>
+      <c r="J183" s="195"/>
       <c r="K183" s="39" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
@@ -22222,18 +22252,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="207" t="s">
         <v>1732</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22271,7 +22301,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="226" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22297,7 +22327,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="225"/>
+      <c r="B4" s="227"/>
       <c r="C4" s="4" t="s">
         <v>1736</v>
       </c>
@@ -22319,7 +22349,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="224" t="s">
+      <c r="B5" s="226" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22345,7 +22375,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="226"/>
+      <c r="B6" s="228"/>
       <c r="C6" s="19" t="s">
         <v>1741</v>
       </c>
@@ -22369,7 +22399,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="226"/>
+      <c r="B7" s="228"/>
       <c r="C7" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22391,7 +22421,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="226"/>
+      <c r="B8" s="228"/>
       <c r="C8" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22413,7 +22443,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="226"/>
+      <c r="B9" s="228"/>
       <c r="C9" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22435,7 +22465,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="226"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="19" t="s">
         <v>1750</v>
       </c>
@@ -22457,7 +22487,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="226"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="19" t="s">
         <v>1752</v>
       </c>
@@ -22479,7 +22509,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="226"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="19" t="s">
         <v>1754</v>
       </c>
@@ -22501,7 +22531,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="226"/>
+      <c r="B13" s="228"/>
       <c r="C13" s="19" t="s">
         <v>1756</v>
       </c>
@@ -22523,7 +22553,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="226"/>
+      <c r="B14" s="228"/>
       <c r="C14" s="19" t="s">
         <v>1758</v>
       </c>
@@ -22547,7 +22577,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="226"/>
+      <c r="B15" s="228"/>
       <c r="C15" s="19" t="s">
         <v>1761</v>
       </c>
@@ -22571,7 +22601,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="225"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="19" t="s">
         <v>1763</v>
       </c>
@@ -22693,7 +22723,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="224" t="s">
+      <c r="B21" s="226" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22717,7 +22747,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="226"/>
+      <c r="B22" s="228"/>
       <c r="C22" s="4" t="s">
         <v>1771</v>
       </c>
@@ -22739,7 +22769,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="226"/>
+      <c r="B23" s="228"/>
       <c r="C23" s="4" t="s">
         <v>1773</v>
       </c>
@@ -22761,7 +22791,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="226"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="4" t="s">
         <v>1775</v>
       </c>
@@ -22783,7 +22813,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="226"/>
+      <c r="B25" s="228"/>
       <c r="C25" s="4" t="s">
         <v>1777</v>
       </c>
@@ -22805,7 +22835,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="225"/>
+      <c r="B26" s="227"/>
       <c r="C26" s="4" t="s">
         <v>1779</v>
       </c>
@@ -22827,7 +22857,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="224" t="s">
+      <c r="B27" s="226" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -22851,7 +22881,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="225"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="4" t="s">
         <v>1783</v>
       </c>
@@ -22873,7 +22903,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="224" t="s">
+      <c r="B29" s="226" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -22897,7 +22927,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="225"/>
+      <c r="B30" s="227"/>
       <c r="C30" s="4" t="s">
         <v>1787</v>
       </c>
@@ -22919,7 +22949,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="224" t="s">
+      <c r="B31" s="226" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -22943,7 +22973,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="226"/>
+      <c r="B32" s="228"/>
       <c r="C32" s="4" t="s">
         <v>1791</v>
       </c>
@@ -22965,7 +22995,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="226"/>
+      <c r="B33" s="228"/>
       <c r="C33" s="4" t="s">
         <v>1793</v>
       </c>
@@ -22987,7 +23017,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="226"/>
+      <c r="B34" s="228"/>
       <c r="C34" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23009,7 +23039,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="225"/>
+      <c r="B35" s="227"/>
       <c r="C35" s="4" t="s">
         <v>1797</v>
       </c>
@@ -23031,7 +23061,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="224" t="s">
+      <c r="B36" s="226" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23055,7 +23085,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="226"/>
+      <c r="B37" s="228"/>
       <c r="C37" s="4" t="s">
         <v>1801</v>
       </c>
@@ -23077,7 +23107,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="226"/>
+      <c r="B38" s="228"/>
       <c r="C38" s="4" t="s">
         <v>1803</v>
       </c>
@@ -23099,7 +23129,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="225"/>
+      <c r="B39" s="227"/>
       <c r="C39" s="4" t="s">
         <v>1805</v>
       </c>
@@ -23121,7 +23151,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="224" t="s">
+      <c r="B40" s="226" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23145,7 +23175,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="225"/>
+      <c r="B41" s="227"/>
       <c r="C41" s="4" t="s">
         <v>1809</v>
       </c>
@@ -23191,7 +23221,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="224" t="s">
+      <c r="B43" s="226" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23215,7 +23245,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="226"/>
+      <c r="B44" s="228"/>
       <c r="C44" s="4" t="s">
         <v>1814</v>
       </c>
@@ -23237,7 +23267,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="226"/>
+      <c r="B45" s="228"/>
       <c r="C45" s="4" t="s">
         <v>1816</v>
       </c>
@@ -23259,7 +23289,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="226"/>
+      <c r="B46" s="228"/>
       <c r="C46" s="4" t="s">
         <v>1818</v>
       </c>
@@ -23283,7 +23313,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="226"/>
+      <c r="B47" s="228"/>
       <c r="C47" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23305,7 +23335,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="226"/>
+      <c r="B48" s="228"/>
       <c r="C48" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23327,7 +23357,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="226"/>
+      <c r="B49" s="228"/>
       <c r="C49" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23349,7 +23379,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="226"/>
+      <c r="B50" s="228"/>
       <c r="C50" s="4" t="s">
         <v>1827</v>
       </c>
@@ -23373,7 +23403,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="226"/>
+      <c r="B51" s="228"/>
       <c r="C51" s="4" t="s">
         <v>1829</v>
       </c>
@@ -23395,7 +23425,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="226"/>
+      <c r="B52" s="228"/>
       <c r="C52" s="4" t="s">
         <v>1831</v>
       </c>
@@ -23417,7 +23447,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="226"/>
+      <c r="B53" s="228"/>
       <c r="C53" s="4" t="s">
         <v>1833</v>
       </c>
@@ -23439,7 +23469,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="225"/>
+      <c r="B54" s="227"/>
       <c r="C54" s="4" t="s">
         <v>1835</v>
       </c>
@@ -23472,16 +23502,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23493,7 +23523,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:U352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -23522,26 +23552,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="204"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="210"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25726,7 +25756,7 @@
       <c r="C68" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="200" t="s">
+      <c r="D68" s="206" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="120"/>
@@ -25760,7 +25790,7 @@
       <c r="C69" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="200"/>
+      <c r="D69" s="206"/>
       <c r="E69" s="120"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -35505,12 +35535,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="207" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="204"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="210"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37055,7 +37085,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -37075,18 +37105,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="207" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37123,11 +37153,11 @@
         <v>886</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="56" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="198" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -37158,11 +37188,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="206"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="22" t="s">
         <v>920</v>
       </c>
@@ -37191,11 +37221,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="112" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="4" t="s">
         <v>924</v>
       </c>
@@ -37224,11 +37254,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="206"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="4" t="s">
         <v>927</v>
       </c>
@@ -37257,11 +37287,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="56" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="206"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="4" t="s">
         <v>930</v>
       </c>
@@ -37292,7 +37322,9 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="206"/>
+      <c r="B8" s="229" t="s">
+        <v>116</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>934</v>
       </c>
@@ -37313,11 +37345,13 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B9" s="207"/>
+      <c r="B9" s="200" t="s">
+        <v>116</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>936</v>
       </c>
@@ -37344,7 +37378,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>7</v>
       </c>
@@ -37571,7 +37605,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="211" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37604,7 +37638,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="207"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37635,7 +37669,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="205" t="s">
+      <c r="B19" s="211" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37668,7 +37702,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="207"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37695,7 +37729,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="84" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>18</v>
       </c>
@@ -37765,17 +37799,17 @@
       <c r="A23" s="40">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="230" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>1908</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1911</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="41" t="s">
@@ -37895,7 +37929,10 @@
       <c r="I45" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J22" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A2:J23" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="1"/>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
@@ -37903,9 +37940,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B9"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
   </mergeCells>
@@ -37943,18 +37979,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="207" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37995,7 +38031,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="231" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -38028,7 +38064,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="213" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38059,7 +38095,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="213"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38084,7 +38120,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -38119,7 +38155,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -38158,7 +38194,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="213" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38191,7 +38227,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="213"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38350,7 +38386,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="213" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38383,7 +38419,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="213"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38410,7 +38446,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="84" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -38445,7 +38481,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -38480,7 +38516,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -38515,7 +38551,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -38548,7 +38584,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -38581,7 +38617,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -38614,11 +38650,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="213" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38647,11 +38683,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="214"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38677,11 +38713,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="213"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38708,7 +38744,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -38803,7 +38839,7 @@
       </c>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -38873,7 +38909,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="213" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -38906,7 +38942,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="213"/>
+      <c r="B31" s="214"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -38937,7 +38973,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="213" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -38970,7 +39006,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="213"/>
+      <c r="B33" s="214"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39030,7 +39066,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -39162,7 +39198,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="84" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -39232,7 +39268,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="212" t="s">
+      <c r="B41" s="213" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39265,7 +39301,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="213"/>
+      <c r="B42" s="214"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39329,7 +39365,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="212" t="s">
+      <c r="B44" s="213" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39362,7 +39398,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="213"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39453,11 +39489,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="98" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="212" t="s">
+      <c r="B48" s="51" t="s">
         <v>271</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -39481,18 +39517,20 @@
       <c r="I48" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="215" t="s">
+      <c r="J48" s="217" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="86" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="84" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="214"/>
+      <c r="B49" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C49" s="4" t="s">
         <v>1060</v>
       </c>
@@ -39514,16 +39552,18 @@
       <c r="I49" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="215"/>
+      <c r="J49" s="217"/>
       <c r="K49" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="214"/>
+      <c r="B50" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C50" s="4" t="s">
         <v>1064</v>
       </c>
@@ -39545,16 +39585,18 @@
       <c r="I50" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="215"/>
+      <c r="J50" s="217"/>
       <c r="K50" s="131" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="214"/>
+      <c r="B51" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C51" s="4" t="s">
         <v>1067</v>
       </c>
@@ -39576,16 +39618,18 @@
       <c r="I51" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="215"/>
+      <c r="J51" s="217"/>
       <c r="K51" s="131" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="56" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="214"/>
+      <c r="B52" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C52" s="4" t="s">
         <v>1071</v>
       </c>
@@ -39607,16 +39651,18 @@
       <c r="I52" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="215"/>
+      <c r="J52" s="217"/>
       <c r="K52" s="131" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="168" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="168" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="214"/>
+      <c r="B53" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C53" s="4" t="s">
         <v>1075</v>
       </c>
@@ -39638,16 +39684,18 @@
       <c r="I53" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="215"/>
+      <c r="J53" s="217"/>
       <c r="K53" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="214"/>
+      <c r="B54" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C54" s="4" t="s">
         <v>1078</v>
       </c>
@@ -39669,16 +39717,18 @@
       <c r="I54" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="215"/>
+      <c r="J54" s="217"/>
       <c r="K54" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="98" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>53</v>
       </c>
-      <c r="B55" s="214"/>
+      <c r="B55" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C55" s="4" t="s">
         <v>1081</v>
       </c>
@@ -39700,16 +39750,18 @@
       <c r="I55" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="215"/>
+      <c r="J55" s="217"/>
       <c r="K55" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>54</v>
       </c>
-      <c r="B56" s="214"/>
+      <c r="B56" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C56" s="4" t="s">
         <v>1084</v>
       </c>
@@ -39727,7 +39779,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="85"/>
-      <c r="J56" s="215"/>
+      <c r="J56" s="217"/>
       <c r="K56" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39736,7 +39788,9 @@
       <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="213"/>
+      <c r="B57" s="233" t="s">
+        <v>271</v>
+      </c>
       <c r="C57" s="4" t="s">
         <v>1087</v>
       </c>
@@ -39750,7 +39804,7 @@
         <v>917</v>
       </c>
       <c r="G57" s="132" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="H57" s="134">
         <v>0</v>
@@ -39758,16 +39812,16 @@
       <c r="I57" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="215"/>
+      <c r="J57" s="217"/>
       <c r="K57" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>56</v>
       </c>
-      <c r="B58" s="208" t="s">
+      <c r="B58" s="51" t="s">
         <v>271</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -39791,18 +39845,20 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="211" t="s">
+      <c r="J58" s="216" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>57</v>
       </c>
-      <c r="B59" s="209"/>
+      <c r="B59" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C59" s="4" t="s">
         <v>1093</v>
       </c>
@@ -39824,16 +39880,18 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="211"/>
+      <c r="J59" s="216"/>
       <c r="K59" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>58</v>
       </c>
-      <c r="B60" s="209"/>
+      <c r="B60" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C60" s="4" t="s">
         <v>1096</v>
       </c>
@@ -39855,16 +39913,18 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="211"/>
+      <c r="J60" s="216"/>
       <c r="K60" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>59</v>
       </c>
-      <c r="B61" s="209"/>
+      <c r="B61" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C61" s="4" t="s">
         <v>1099</v>
       </c>
@@ -39886,16 +39946,18 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="211"/>
+      <c r="J61" s="216"/>
       <c r="K61" s="135" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>60</v>
       </c>
-      <c r="B62" s="209"/>
+      <c r="B62" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C62" s="4" t="s">
         <v>1102</v>
       </c>
@@ -39917,16 +39979,18 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="211"/>
+      <c r="J62" s="216"/>
       <c r="K62" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>61</v>
       </c>
-      <c r="B63" s="209"/>
+      <c r="B63" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C63" s="4" t="s">
         <v>1104</v>
       </c>
@@ -39948,16 +40012,18 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="211"/>
+      <c r="J63" s="216"/>
       <c r="K63" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>62</v>
       </c>
-      <c r="B64" s="209"/>
+      <c r="B64" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C64" s="4" t="s">
         <v>963</v>
       </c>
@@ -39979,16 +40045,18 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="211"/>
+      <c r="J64" s="216"/>
       <c r="K64" s="135" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="70" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>63</v>
       </c>
-      <c r="B65" s="209"/>
+      <c r="B65" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>1110</v>
       </c>
@@ -40010,14 +40078,16 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="211"/>
+      <c r="J65" s="216"/>
       <c r="K65" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="98" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
-      <c r="B66" s="209"/>
+      <c r="B66" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C66" s="4" t="s">
         <v>1113</v>
       </c>
@@ -40037,14 +40107,16 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="211"/>
+      <c r="J66" s="216"/>
       <c r="K66" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="70" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
-      <c r="B67" s="209"/>
+      <c r="B67" s="233" t="s">
+        <v>271</v>
+      </c>
       <c r="C67" s="41" t="s">
         <v>1116</v>
       </c>
@@ -40064,16 +40136,18 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="211"/>
+      <c r="J67" s="216"/>
       <c r="K67" s="135" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>64</v>
       </c>
-      <c r="B68" s="209"/>
+      <c r="B68" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C68" s="127" t="s">
         <v>1120</v>
       </c>
@@ -40095,16 +40169,18 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="211"/>
+      <c r="J68" s="216"/>
       <c r="K68" s="135" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="154" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>65</v>
       </c>
-      <c r="B69" s="209"/>
+      <c r="B69" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C69" s="4" t="s">
         <v>1124</v>
       </c>
@@ -40126,16 +40202,18 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="211"/>
+      <c r="J69" s="216"/>
       <c r="K69" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>66</v>
       </c>
-      <c r="B70" s="209"/>
+      <c r="B70" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C70" s="4" t="s">
         <v>1127</v>
       </c>
@@ -40157,16 +40235,18 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="211"/>
+      <c r="J70" s="216"/>
       <c r="K70" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>67</v>
       </c>
-      <c r="B71" s="209"/>
+      <c r="B71" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C71" s="4" t="s">
         <v>1130</v>
       </c>
@@ -40188,16 +40268,18 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="211"/>
+      <c r="J71" s="216"/>
       <c r="K71" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>68</v>
       </c>
-      <c r="B72" s="209"/>
+      <c r="B72" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C72" s="4" t="s">
         <v>1133</v>
       </c>
@@ -40219,16 +40301,18 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="211"/>
+      <c r="J72" s="216"/>
       <c r="K72" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>69</v>
       </c>
-      <c r="B73" s="209"/>
+      <c r="B73" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C73" s="4" t="s">
         <v>1135</v>
       </c>
@@ -40250,16 +40334,18 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="211"/>
+      <c r="J73" s="216"/>
       <c r="K73" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>70</v>
       </c>
-      <c r="B74" s="209"/>
+      <c r="B74" s="51" t="s">
+        <v>271</v>
+      </c>
       <c r="C74" s="127" t="s">
         <v>1138</v>
       </c>
@@ -40279,16 +40365,16 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="211"/>
+      <c r="J74" s="216"/>
       <c r="K74" s="135" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>70</v>
       </c>
-      <c r="B75" s="210"/>
+      <c r="B75" s="232"/>
       <c r="C75" s="127"/>
       <c r="D75" s="39"/>
       <c r="E75" s="127"/>
@@ -40296,7 +40382,7 @@
       <c r="G75" s="84"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="211"/>
+      <c r="J75" s="216"/>
       <c r="K75" s="70"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40330,7 +40416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>72</v>
       </c>
@@ -40388,8 +40474,25 @@
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="5"/>
+    <row r="79" spans="1:11" ht="98" x14ac:dyDescent="0.35">
+      <c r="A79" s="40">
+        <v>74</v>
+      </c>
+      <c r="B79" s="234" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>5</v>
+      </c>
       <c r="I79" s="41"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -40489,17 +40592,22 @@
       <c r="I103" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J78" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="A2:J79" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
+        <filter val="Vital/NA?"/>
       </filters>
     </filterColumn>
-    <sortState ref="A3:J75">
-      <sortCondition ref="B2:B75"/>
-    </sortState>
   </autoFilter>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="J58:J75"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="J48:J57"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:B15"/>
@@ -40507,12 +40615,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B58:B75"/>
-    <mergeCell ref="J58:J75"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="J48:J57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -40525,7 +40627,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
@@ -40549,18 +40651,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="207" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -40635,7 +40737,7 @@
         <v>1152</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.35">
@@ -40673,7 +40775,7 @@
         <v>1156</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.35">
@@ -40749,7 +40851,7 @@
         <v>1164</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="98" x14ac:dyDescent="0.35">
@@ -40787,7 +40889,7 @@
         <v>1168</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="168" x14ac:dyDescent="0.35">
@@ -40825,7 +40927,7 @@
         <v>1172</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="98" x14ac:dyDescent="0.35">
@@ -40863,7 +40965,7 @@
         <v>1175</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="140" hidden="1" x14ac:dyDescent="0.35">
@@ -41032,7 +41134,7 @@
         <v>1184</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -41068,7 +41170,7 @@
       </c>
       <c r="K15" s="45"/>
       <c r="L15" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -41104,7 +41206,7 @@
       </c>
       <c r="K16" s="45"/>
       <c r="L16" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="84" x14ac:dyDescent="0.35">
@@ -41142,7 +41244,7 @@
         <v>1188</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -41210,7 +41312,7 @@
         <v>1191</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -41462,7 +41564,7 @@
         <v>1204</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
@@ -41677,7 +41779,7 @@
         <v>1222</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -41743,7 +41845,7 @@
         <v>1225</v>
       </c>
       <c r="L36" s="39" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -41775,7 +41877,7 @@
         <v>1868</v>
       </c>
       <c r="L37" s="187" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -41807,7 +41909,7 @@
         <v>1868</v>
       </c>
       <c r="L38" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -41851,10 +41953,10 @@
   <dimension ref="A1:L256"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41875,18 +41977,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>1226</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="222"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41923,7 +42025,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="70" x14ac:dyDescent="0.35">
@@ -41940,7 +42042,7 @@
         <v>362</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>917</v>
@@ -41959,7 +42061,7 @@
         <v>349</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41995,7 +42097,7 @@
         <v>349</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
@@ -42067,14 +42169,14 @@
         <v>349</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -42084,7 +42186,7 @@
         <v>1233</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>917</v>
@@ -42103,14 +42205,14 @@
         <v>349</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="221"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="4" t="s">
         <v>1234</v>
       </c>
@@ -42137,14 +42239,14 @@
         <v>349</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="112" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="221"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="4" t="s">
         <v>1237</v>
       </c>
@@ -42152,7 +42254,7 @@
         <v>1238</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>917</v>
@@ -42171,14 +42273,14 @@
         <v>349</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="221"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="4" t="s">
         <v>1239</v>
       </c>
@@ -42205,14 +42307,14 @@
         <v>349</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="221"/>
+      <c r="B11" s="223"/>
       <c r="C11" s="4" t="s">
         <v>1242</v>
       </c>
@@ -42239,14 +42341,14 @@
         <v>349</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="221"/>
+      <c r="B12" s="223"/>
       <c r="C12" s="4" t="s">
         <v>1245</v>
       </c>
@@ -42273,14 +42375,14 @@
         <v>349</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="221"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="4" t="s">
         <v>1248</v>
       </c>
@@ -42307,14 +42409,14 @@
         <v>349</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="221"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="4" t="s">
         <v>1251</v>
       </c>
@@ -42341,7 +42443,7 @@
         <v>349</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
@@ -42483,7 +42585,7 @@
         <v>474</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
@@ -42589,14 +42691,14 @@
         <v>902</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="112" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="217" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -42632,7 +42734,7 @@
       <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="222"/>
+      <c r="B23" s="224"/>
       <c r="C23" s="59" t="s">
         <v>1265</v>
       </c>
@@ -42664,7 +42766,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="221"/>
+      <c r="B24" s="223"/>
       <c r="C24" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42696,7 +42798,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="221"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="22" t="s">
         <v>1271</v>
       </c>
@@ -42728,7 +42830,7 @@
       <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="222"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="59" t="s">
         <v>1274</v>
       </c>
@@ -42760,7 +42862,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="221"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42821,7 +42923,7 @@
         <v>902</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="98" x14ac:dyDescent="0.35">
@@ -42857,14 +42959,14 @@
         <v>902</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="215" t="s">
+      <c r="B30" s="217" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -42893,14 +42995,14 @@
         <v>902</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="221"/>
+      <c r="B31" s="223"/>
       <c r="C31" s="4" t="s">
         <v>1285</v>
       </c>
@@ -42927,14 +43029,14 @@
         <v>902</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="221"/>
+      <c r="B32" s="223"/>
       <c r="C32" s="4" t="s">
         <v>1288</v>
       </c>
@@ -42961,14 +43063,14 @@
         <v>902</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="221"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="4" t="s">
         <v>1291</v>
       </c>
@@ -42995,7 +43097,7 @@
         <v>902</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="112" x14ac:dyDescent="0.35">
@@ -43033,7 +43135,7 @@
         <v>902</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="112" x14ac:dyDescent="0.35">
@@ -43071,7 +43173,7 @@
         <v>902</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -43109,7 +43211,7 @@
         <v>902</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -43145,7 +43247,7 @@
         <v>902</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="42" x14ac:dyDescent="0.35">
@@ -43181,14 +43283,14 @@
         <v>902</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="58">
         <v>37</v>
       </c>
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="215" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="50" t="s">
@@ -43220,7 +43322,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="222"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="4" t="s">
         <v>1304</v>
       </c>
@@ -43250,7 +43352,7 @@
       <c r="A41" s="52">
         <v>39</v>
       </c>
-      <c r="B41" s="222"/>
+      <c r="B41" s="224"/>
       <c r="C41" s="51" t="s">
         <v>1307</v>
       </c>
@@ -43278,7 +43380,7 @@
     </row>
     <row r="42" spans="1:12" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
-      <c r="B42" s="216" t="s">
+      <c r="B42" s="218" t="s">
         <v>1310</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -43309,12 +43411,12 @@
         <v>902</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
-      <c r="B43" s="216"/>
+      <c r="B43" s="218"/>
       <c r="C43" s="4" t="s">
         <v>1314</v>
       </c>
@@ -43337,12 +43439,12 @@
       <c r="J43" s="4"/>
       <c r="K43" s="83"/>
       <c r="L43" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
-      <c r="B44" s="216"/>
+      <c r="B44" s="218"/>
       <c r="C44" s="4" t="s">
         <v>1317</v>
       </c>
@@ -43365,12 +43467,12 @@
       <c r="J44" s="4"/>
       <c r="K44" s="83"/>
       <c r="L44" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="216" t="s">
+      <c r="B45" s="218" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -43395,12 +43497,12 @@
       <c r="J45" s="4"/>
       <c r="K45" s="83"/>
       <c r="L45" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="216"/>
+      <c r="B46" s="218"/>
       <c r="C46" s="4" t="s">
         <v>1323</v>
       </c>
@@ -43423,31 +43525,31 @@
       <c r="J46" s="4"/>
       <c r="K46" s="83"/>
       <c r="L46" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
       <c r="B47" s="9" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>1874</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="44" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>1875</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>1873</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>1876</v>
-      </c>
       <c r="G47" s="39" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H47" s="36"/>
       <c r="J47" s="4"/>
       <c r="K47" s="83"/>
       <c r="L47" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -44129,18 +44231,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
-        <v>1877</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="204"/>
+      <c r="A1" s="207" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="210"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44177,7 +44279,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="42" x14ac:dyDescent="0.35">
@@ -44212,14 +44314,14 @@
         <v>349</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="213" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -44246,14 +44348,14 @@
         <v>902</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="214"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="51" t="s">
         <v>1329</v>
       </c>
@@ -44278,7 +44380,7 @@
         <v>902</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -44308,7 +44410,7 @@
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -44336,22 +44438,22 @@
       <c r="J7" s="4"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="184" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>1892</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1893</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39" t="s">
@@ -44362,11 +44464,11 @@
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
   </sheetData>
@@ -44382,13 +44484,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -44404,24 +44506,25 @@
     <col min="9" max="9" width="8" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="45.7265625" style="41" customWidth="1"/>
     <col min="11" max="11" width="23.1796875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="41"/>
+    <col min="12" max="12" width="15.90625" style="41" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="207" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="220"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+      <c r="B1" s="208"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="222"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -44455,8 +44558,11 @@
       <c r="K2" s="63" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="62" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -44487,7 +44593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -44518,7 +44624,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -44553,7 +44659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -44588,7 +44694,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -44621,7 +44727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -44654,7 +44760,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -44689,7 +44795,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -44720,7 +44826,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -44749,7 +44855,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -44778,21 +44884,21 @@
         <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="231" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="39" t="s">
         <v>1870</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>1871</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="141" t="s">
@@ -44803,25 +44909,25 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="231" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>1899</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>1901</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="192" t="s">
@@ -44834,21 +44940,21 @@
       <c r="J14" s="39"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="193" t="s">
-        <v>1902</v>
+      <c r="B15" s="231" t="s">
+        <v>1923</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="192" t="s">
@@ -44861,21 +44967,21 @@
       <c r="J15" s="39"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="193" t="s">
-        <v>1905</v>
+      <c r="B16" s="231" t="s">
+        <v>1902</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="192" t="s">
@@ -44892,24 +44998,24 @@
       <c r="A17" s="36">
         <v>15</v>
       </c>
-      <c r="B17" s="195" t="s">
-        <v>1913</v>
+      <c r="B17" s="231" t="s">
+        <v>1910</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1914</v>
-      </c>
-      <c r="G17" s="194" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G17" s="193" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="9"/>
       <c r="J17" s="39" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -44978,6 +45084,7 @@
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
+        <filter val="Vital?"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -44990,6 +45097,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -45013,15 +45129,6 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45232,6 +45339,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -45244,14 +45359,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE0CD3C6-1C0F-4C21-922D-91BFA8E78FCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E90CC11-31A0-4BFB-AA07-08931B5CEC6A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId13"/>
+    <pivotCache cacheId="11" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5292" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5304" uniqueCount="1926">
   <si>
     <t>Category</t>
   </si>
@@ -6714,6 +6714,9 @@
   </si>
   <si>
     <t>Prioritisation on &lt;07 16&gt;</t>
+  </si>
+  <si>
+    <t>P1/P2 (DEPENDING ON BANDWIDTH)</t>
   </si>
 </sst>
 </file>
@@ -7896,6 +7899,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7917,19 +7938,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7964,24 +7985,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15147,7 +15150,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16065,18 +16068,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16526,7 +16529,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="217" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16558,7 +16561,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="212"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="4" t="s">
         <v>1362</v>
       </c>
@@ -16898,19 +16901,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="216"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="147" t="s">
@@ -22252,18 +22255,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>1732</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22301,7 +22304,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="232" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22327,7 +22330,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="227"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="4" t="s">
         <v>1736</v>
       </c>
@@ -22349,7 +22352,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="232" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22375,7 +22378,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="228"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="19" t="s">
         <v>1741</v>
       </c>
@@ -22399,7 +22402,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="228"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22421,7 +22424,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="228"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22443,7 +22446,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="228"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22465,7 +22468,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="228"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="19" t="s">
         <v>1750</v>
       </c>
@@ -22487,7 +22490,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="228"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="19" t="s">
         <v>1752</v>
       </c>
@@ -22509,7 +22512,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="228"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="19" t="s">
         <v>1754</v>
       </c>
@@ -22531,7 +22534,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="228"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="19" t="s">
         <v>1756</v>
       </c>
@@ -22553,7 +22556,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="228"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="19" t="s">
         <v>1758</v>
       </c>
@@ -22577,7 +22580,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="228"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="19" t="s">
         <v>1761</v>
       </c>
@@ -22601,7 +22604,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="227"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="19" t="s">
         <v>1763</v>
       </c>
@@ -22723,7 +22726,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="232" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22747,7 +22750,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="228"/>
+      <c r="B22" s="234"/>
       <c r="C22" s="4" t="s">
         <v>1771</v>
       </c>
@@ -22769,7 +22772,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="228"/>
+      <c r="B23" s="234"/>
       <c r="C23" s="4" t="s">
         <v>1773</v>
       </c>
@@ -22791,7 +22794,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="228"/>
+      <c r="B24" s="234"/>
       <c r="C24" s="4" t="s">
         <v>1775</v>
       </c>
@@ -22813,7 +22816,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="228"/>
+      <c r="B25" s="234"/>
       <c r="C25" s="4" t="s">
         <v>1777</v>
       </c>
@@ -22835,7 +22838,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="227"/>
+      <c r="B26" s="233"/>
       <c r="C26" s="4" t="s">
         <v>1779</v>
       </c>
@@ -22857,7 +22860,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="226" t="s">
+      <c r="B27" s="232" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -22881,7 +22884,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="227"/>
+      <c r="B28" s="233"/>
       <c r="C28" s="4" t="s">
         <v>1783</v>
       </c>
@@ -22903,7 +22906,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="226" t="s">
+      <c r="B29" s="232" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -22927,7 +22930,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="227"/>
+      <c r="B30" s="233"/>
       <c r="C30" s="4" t="s">
         <v>1787</v>
       </c>
@@ -22949,7 +22952,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="226" t="s">
+      <c r="B31" s="232" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -22973,7 +22976,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="228"/>
+      <c r="B32" s="234"/>
       <c r="C32" s="4" t="s">
         <v>1791</v>
       </c>
@@ -22995,7 +22998,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="228"/>
+      <c r="B33" s="234"/>
       <c r="C33" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23017,7 +23020,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="228"/>
+      <c r="B34" s="234"/>
       <c r="C34" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23039,7 +23042,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="227"/>
+      <c r="B35" s="233"/>
       <c r="C35" s="4" t="s">
         <v>1797</v>
       </c>
@@ -23061,7 +23064,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="226" t="s">
+      <c r="B36" s="232" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23085,7 +23088,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="228"/>
+      <c r="B37" s="234"/>
       <c r="C37" s="4" t="s">
         <v>1801</v>
       </c>
@@ -23107,7 +23110,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="228"/>
+      <c r="B38" s="234"/>
       <c r="C38" s="4" t="s">
         <v>1803</v>
       </c>
@@ -23129,7 +23132,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="227"/>
+      <c r="B39" s="233"/>
       <c r="C39" s="4" t="s">
         <v>1805</v>
       </c>
@@ -23151,7 +23154,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="226" t="s">
+      <c r="B40" s="232" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23175,7 +23178,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="227"/>
+      <c r="B41" s="233"/>
       <c r="C41" s="4" t="s">
         <v>1809</v>
       </c>
@@ -23221,7 +23224,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="226" t="s">
+      <c r="B43" s="232" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23245,7 +23248,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="228"/>
+      <c r="B44" s="234"/>
       <c r="C44" s="4" t="s">
         <v>1814</v>
       </c>
@@ -23267,7 +23270,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="228"/>
+      <c r="B45" s="234"/>
       <c r="C45" s="4" t="s">
         <v>1816</v>
       </c>
@@ -23289,7 +23292,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="228"/>
+      <c r="B46" s="234"/>
       <c r="C46" s="4" t="s">
         <v>1818</v>
       </c>
@@ -23313,7 +23316,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="228"/>
+      <c r="B47" s="234"/>
       <c r="C47" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23335,7 +23338,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="228"/>
+      <c r="B48" s="234"/>
       <c r="C48" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23357,7 +23360,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="228"/>
+      <c r="B49" s="234"/>
       <c r="C49" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23379,7 +23382,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="228"/>
+      <c r="B50" s="234"/>
       <c r="C50" s="4" t="s">
         <v>1827</v>
       </c>
@@ -23403,7 +23406,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="228"/>
+      <c r="B51" s="234"/>
       <c r="C51" s="4" t="s">
         <v>1829</v>
       </c>
@@ -23425,7 +23428,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="228"/>
+      <c r="B52" s="234"/>
       <c r="C52" s="4" t="s">
         <v>1831</v>
       </c>
@@ -23447,7 +23450,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="228"/>
+      <c r="B53" s="234"/>
       <c r="C53" s="4" t="s">
         <v>1833</v>
       </c>
@@ -23469,7 +23472,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="227"/>
+      <c r="B54" s="233"/>
       <c r="C54" s="4" t="s">
         <v>1835</v>
       </c>
@@ -23502,16 +23505,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23552,26 +23555,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="210"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="216"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25756,7 +25759,7 @@
       <c r="C68" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="206" t="s">
+      <c r="D68" s="212" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="120"/>
@@ -25790,7 +25793,7 @@
       <c r="C69" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="206"/>
+      <c r="D69" s="212"/>
       <c r="E69" s="120"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -35535,12 +35538,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="213" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="210"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="216"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37105,18 +37108,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37322,7 +37325,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="206" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -37605,7 +37608,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="217" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37638,7 +37641,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="212"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37669,7 +37672,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="217" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37702,7 +37705,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="212"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37799,7 +37802,7 @@
       <c r="A23" s="40">
         <v>20</v>
       </c>
-      <c r="B23" s="230" t="s">
+      <c r="B23" s="207" t="s">
         <v>1905</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -37979,18 +37982,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38031,7 +38034,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="208" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -38064,7 +38067,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="220" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38095,7 +38098,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="214"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38194,7 +38197,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="220" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38227,7 +38230,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="214"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38386,7 +38389,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="220" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38419,7 +38422,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38654,7 +38657,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="213" t="s">
+      <c r="B22" s="220" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38687,7 +38690,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38717,7 +38720,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="214"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38909,7 +38912,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="220" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -38942,7 +38945,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="214"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -38973,7 +38976,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="220" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39006,7 +39009,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="214"/>
+      <c r="B33" s="221"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39268,7 +39271,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="220" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39301,7 +39304,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="214"/>
+      <c r="B42" s="221"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39365,7 +39368,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="213" t="s">
+      <c r="B44" s="220" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39398,7 +39401,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="214"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39517,7 +39520,7 @@
       <c r="I48" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="217" t="s">
+      <c r="J48" s="222" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="86" t="s">
@@ -39552,7 +39555,7 @@
       <c r="I49" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="217"/>
+      <c r="J49" s="222"/>
       <c r="K49" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39585,7 +39588,7 @@
       <c r="I50" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="217"/>
+      <c r="J50" s="222"/>
       <c r="K50" s="131" t="s">
         <v>349</v>
       </c>
@@ -39618,7 +39621,7 @@
       <c r="I51" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="217"/>
+      <c r="J51" s="222"/>
       <c r="K51" s="131" t="s">
         <v>1070</v>
       </c>
@@ -39651,7 +39654,7 @@
       <c r="I52" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="217"/>
+      <c r="J52" s="222"/>
       <c r="K52" s="131" t="s">
         <v>1074</v>
       </c>
@@ -39684,7 +39687,7 @@
       <c r="I53" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="217"/>
+      <c r="J53" s="222"/>
       <c r="K53" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39717,7 +39720,7 @@
       <c r="I54" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="217"/>
+      <c r="J54" s="222"/>
       <c r="K54" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39750,7 +39753,7 @@
       <c r="I55" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="217"/>
+      <c r="J55" s="222"/>
       <c r="K55" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39779,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="85"/>
-      <c r="J56" s="217"/>
+      <c r="J56" s="222"/>
       <c r="K56" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39788,7 +39791,7 @@
       <c r="A57" s="36">
         <v>55</v>
       </c>
-      <c r="B57" s="233" t="s">
+      <c r="B57" s="210" t="s">
         <v>271</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -39812,7 +39815,7 @@
       <c r="I57" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="217"/>
+      <c r="J57" s="222"/>
       <c r="K57" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39845,7 +39848,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="216" t="s">
+      <c r="J58" s="219" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="131" t="s">
@@ -39880,7 +39883,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="216"/>
+      <c r="J59" s="219"/>
       <c r="K59" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39913,7 +39916,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="216"/>
+      <c r="J60" s="219"/>
       <c r="K60" s="131" t="s">
         <v>1063</v>
       </c>
@@ -39946,7 +39949,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="216"/>
+      <c r="J61" s="219"/>
       <c r="K61" s="135" t="s">
         <v>66</v>
       </c>
@@ -39979,7 +39982,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="216"/>
+      <c r="J62" s="219"/>
       <c r="K62" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40012,7 +40015,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="216"/>
+      <c r="J63" s="219"/>
       <c r="K63" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40045,7 +40048,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="216"/>
+      <c r="J64" s="219"/>
       <c r="K64" s="135" t="s">
         <v>1109</v>
       </c>
@@ -40078,7 +40081,7 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="216"/>
+      <c r="J65" s="219"/>
       <c r="K65" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40107,14 +40110,14 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="216"/>
+      <c r="J66" s="219"/>
       <c r="K66" s="131" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="70" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
-      <c r="B67" s="233" t="s">
+      <c r="B67" s="210" t="s">
         <v>271</v>
       </c>
       <c r="C67" s="41" t="s">
@@ -40136,7 +40139,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="216"/>
+      <c r="J67" s="219"/>
       <c r="K67" s="135" t="s">
         <v>1119</v>
       </c>
@@ -40169,7 +40172,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="216"/>
+      <c r="J68" s="219"/>
       <c r="K68" s="135" t="s">
         <v>1123</v>
       </c>
@@ -40202,7 +40205,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="216"/>
+      <c r="J69" s="219"/>
       <c r="K69" s="135" t="s">
         <v>1063</v>
       </c>
@@ -40235,7 +40238,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="216"/>
+      <c r="J70" s="219"/>
       <c r="K70" s="135" t="s">
         <v>1063</v>
       </c>
@@ -40268,7 +40271,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="216"/>
+      <c r="J71" s="219"/>
       <c r="K71" s="135" t="s">
         <v>1063</v>
       </c>
@@ -40301,7 +40304,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="216"/>
+      <c r="J72" s="219"/>
       <c r="K72" s="135" t="s">
         <v>1063</v>
       </c>
@@ -40334,7 +40337,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="216"/>
+      <c r="J73" s="219"/>
       <c r="K73" s="135" t="s">
         <v>1063</v>
       </c>
@@ -40365,7 +40368,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="216"/>
+      <c r="J74" s="219"/>
       <c r="K74" s="135" t="s">
         <v>1063</v>
       </c>
@@ -40374,7 +40377,7 @@
       <c r="A75" s="36">
         <v>70</v>
       </c>
-      <c r="B75" s="232"/>
+      <c r="B75" s="209"/>
       <c r="C75" s="127"/>
       <c r="D75" s="39"/>
       <c r="E75" s="127"/>
@@ -40382,7 +40385,7 @@
       <c r="G75" s="84"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="216"/>
+      <c r="J75" s="219"/>
       <c r="K75" s="70"/>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40478,7 +40481,7 @@
       <c r="A79" s="40">
         <v>74</v>
       </c>
-      <c r="B79" s="234" t="s">
+      <c r="B79" s="211" t="s">
         <v>1918</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -40651,18 +40654,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41977,18 +41980,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="225" t="s">
         <v>1226</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="222"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42176,7 +42179,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="222" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -42212,7 +42215,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="223"/>
+      <c r="B8" s="229"/>
       <c r="C8" s="4" t="s">
         <v>1234</v>
       </c>
@@ -42246,7 +42249,7 @@
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="223"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="4" t="s">
         <v>1237</v>
       </c>
@@ -42280,7 +42283,7 @@
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="223"/>
+      <c r="B10" s="229"/>
       <c r="C10" s="4" t="s">
         <v>1239</v>
       </c>
@@ -42314,7 +42317,7 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="223"/>
+      <c r="B11" s="229"/>
       <c r="C11" s="4" t="s">
         <v>1242</v>
       </c>
@@ -42348,7 +42351,7 @@
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="223"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="4" t="s">
         <v>1245</v>
       </c>
@@ -42382,7 +42385,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="223"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="4" t="s">
         <v>1248</v>
       </c>
@@ -42416,7 +42419,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="223"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="4" t="s">
         <v>1251</v>
       </c>
@@ -42698,7 +42701,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="222" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -42734,7 +42737,7 @@
       <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="224"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="59" t="s">
         <v>1265</v>
       </c>
@@ -42766,7 +42769,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="223"/>
+      <c r="B24" s="229"/>
       <c r="C24" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42798,7 +42801,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="229"/>
       <c r="C25" s="22" t="s">
         <v>1271</v>
       </c>
@@ -42830,7 +42833,7 @@
       <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="224"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="59" t="s">
         <v>1274</v>
       </c>
@@ -42862,7 +42865,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="223"/>
+      <c r="B27" s="229"/>
       <c r="C27" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42966,7 +42969,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="222" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -43002,7 +43005,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="223"/>
+      <c r="B31" s="229"/>
       <c r="C31" s="4" t="s">
         <v>1285</v>
       </c>
@@ -43036,7 +43039,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="223"/>
+      <c r="B32" s="229"/>
       <c r="C32" s="4" t="s">
         <v>1288</v>
       </c>
@@ -43070,7 +43073,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="223"/>
+      <c r="B33" s="229"/>
       <c r="C33" s="4" t="s">
         <v>1291</v>
       </c>
@@ -43290,7 +43293,7 @@
       <c r="A39" s="58">
         <v>37</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="223" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="50" t="s">
@@ -43322,7 +43325,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="224"/>
+      <c r="B40" s="230"/>
       <c r="C40" s="4" t="s">
         <v>1304</v>
       </c>
@@ -43352,7 +43355,7 @@
       <c r="A41" s="52">
         <v>39</v>
       </c>
-      <c r="B41" s="224"/>
+      <c r="B41" s="230"/>
       <c r="C41" s="51" t="s">
         <v>1307</v>
       </c>
@@ -43380,7 +43383,7 @@
     </row>
     <row r="42" spans="1:12" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
-      <c r="B42" s="218" t="s">
+      <c r="B42" s="224" t="s">
         <v>1310</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -43416,7 +43419,7 @@
     </row>
     <row r="43" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
-      <c r="B43" s="218"/>
+      <c r="B43" s="224"/>
       <c r="C43" s="4" t="s">
         <v>1314</v>
       </c>
@@ -43444,7 +43447,7 @@
     </row>
     <row r="44" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
-      <c r="B44" s="218"/>
+      <c r="B44" s="224"/>
       <c r="C44" s="4" t="s">
         <v>1317</v>
       </c>
@@ -43472,7 +43475,7 @@
     </row>
     <row r="45" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="218" t="s">
+      <c r="B45" s="224" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -43502,7 +43505,7 @@
     </row>
     <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="218"/>
+      <c r="B46" s="224"/>
       <c r="C46" s="4" t="s">
         <v>1323</v>
       </c>
@@ -44231,18 +44234,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>1876</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="210"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="216"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44321,7 +44324,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="220" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -44355,7 +44358,7 @@
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="215"/>
+      <c r="B5" s="223"/>
       <c r="C5" s="51" t="s">
         <v>1329</v>
       </c>
@@ -44486,11 +44489,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9:L11"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -44511,18 +44514,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="213" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="222"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="228"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44592,6 +44595,7 @@
       <c r="K3" s="107" t="s">
         <v>94</v>
       </c>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
@@ -44623,6 +44627,7 @@
         <v>453</v>
       </c>
       <c r="K4" s="5"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
@@ -44658,6 +44663,9 @@
       <c r="K5" s="31" t="s">
         <v>5</v>
       </c>
+      <c r="L5" s="41" t="s">
+        <v>1881</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
@@ -44693,6 +44701,9 @@
       <c r="K6" s="31" t="s">
         <v>474</v>
       </c>
+      <c r="L6" s="41" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
@@ -44726,6 +44737,9 @@
       <c r="K7" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="L7" s="41" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
@@ -44759,8 +44773,11 @@
       <c r="K8" s="4" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="L8" s="41" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -44793,6 +44810,9 @@
       </c>
       <c r="K9" s="4" t="s">
         <v>902</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -44825,6 +44845,7 @@
       <c r="K10" s="5" t="s">
         <v>902</v>
       </c>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
@@ -44854,6 +44875,9 @@
         <v>475</v>
       </c>
       <c r="K11" s="4"/>
+      <c r="L11" s="41" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
@@ -44883,12 +44907,15 @@
       <c r="K12" s="4" t="s">
         <v>902</v>
       </c>
+      <c r="L12" s="41" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="231" t="s">
+      <c r="B13" s="208" t="s">
         <v>1921</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -44912,12 +44939,15 @@
         <v>1909</v>
       </c>
       <c r="K13" s="4"/>
+      <c r="L13" s="41" t="s">
+        <v>1879</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="231" t="s">
+      <c r="B14" s="208" t="s">
         <v>1922</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -44939,12 +44969,15 @@
       <c r="I14" s="41"/>
       <c r="J14" s="39"/>
       <c r="K14" s="4"/>
+      <c r="L14" s="41" t="s">
+        <v>1882</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="231" t="s">
+      <c r="B15" s="208" t="s">
         <v>1923</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -44966,12 +44999,15 @@
       <c r="I15" s="41"/>
       <c r="J15" s="39"/>
       <c r="K15" s="4"/>
+      <c r="L15" s="41" t="s">
+        <v>1882</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="208" t="s">
         <v>1902</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -44993,12 +45029,15 @@
       <c r="I16" s="41"/>
       <c r="J16" s="39"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.35">
+      <c r="L16" s="41" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>15</v>
       </c>
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="208" t="s">
         <v>1910</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -45018,38 +45057,41 @@
         <v>1913</v>
       </c>
       <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="41" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H18" s="125"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H19" s="125"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H20" s="125"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H21" s="125"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H23" s="74"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H26" s="75"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H28" s="125"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H29" s="125"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H30" s="125"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H31" s="125"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H32" s="125"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.35">
@@ -45084,7 +45126,6 @@
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
-        <filter val="Vital?"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -45106,32 +45147,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -45338,6 +45353,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>
@@ -45347,23 +45388,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45380,4 +45404,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0D333-F612-45CE-8F88-4712EE1808DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3BB2E4-B64A-4B19-A2F9-65D8CE05122B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5359" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="1950">
   <si>
     <t>Category</t>
   </si>
@@ -6739,6 +6739,21 @@
   </si>
   <si>
     <t>De-Scoped</t>
+  </si>
+  <si>
+    <t>Will be taken Care in Re-Printing</t>
+  </si>
+  <si>
+    <t>Tech Story - Move Packet Generator to Secure Zone</t>
+  </si>
+  <si>
+    <t>Packet Generator</t>
+  </si>
+  <si>
+    <t>Move Packet Generator to Secure Zone</t>
+  </si>
+  <si>
+    <t>MOS-27343</t>
   </si>
 </sst>
 </file>
@@ -7324,7 +7339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7951,6 +7966,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8018,15 +8045,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16095,18 +16113,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>1341</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16556,7 +16574,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="225" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16588,7 +16606,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="222"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="4" t="s">
         <v>1360</v>
       </c>
@@ -16928,19 +16946,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>1365</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="224"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="146" t="s">
@@ -22282,18 +22300,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>1730</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22331,7 +22349,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="236" t="s">
+      <c r="B3" s="240" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22357,7 +22375,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="241"/>
       <c r="C4" s="4" t="s">
         <v>1734</v>
       </c>
@@ -22379,7 +22397,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="240" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22405,7 +22423,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="238"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="19" t="s">
         <v>1739</v>
       </c>
@@ -22429,7 +22447,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="238"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22451,7 +22469,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="238"/>
+      <c r="B8" s="242"/>
       <c r="C8" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22473,7 +22491,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="238"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22495,7 +22513,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="238"/>
+      <c r="B10" s="242"/>
       <c r="C10" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22517,7 +22535,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="238"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="19" t="s">
         <v>1750</v>
       </c>
@@ -22539,7 +22557,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="238"/>
+      <c r="B12" s="242"/>
       <c r="C12" s="19" t="s">
         <v>1752</v>
       </c>
@@ -22561,7 +22579,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="238"/>
+      <c r="B13" s="242"/>
       <c r="C13" s="19" t="s">
         <v>1754</v>
       </c>
@@ -22583,7 +22601,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="238"/>
+      <c r="B14" s="242"/>
       <c r="C14" s="19" t="s">
         <v>1756</v>
       </c>
@@ -22607,7 +22625,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="238"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="19" t="s">
         <v>1759</v>
       </c>
@@ -22631,7 +22649,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="237"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="19" t="s">
         <v>1761</v>
       </c>
@@ -22753,7 +22771,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="236" t="s">
+      <c r="B21" s="240" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22777,7 +22795,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="238"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="4" t="s">
         <v>1769</v>
       </c>
@@ -22799,7 +22817,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="238"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="4" t="s">
         <v>1771</v>
       </c>
@@ -22821,7 +22839,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="238"/>
+      <c r="B24" s="242"/>
       <c r="C24" s="4" t="s">
         <v>1773</v>
       </c>
@@ -22843,7 +22861,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="238"/>
+      <c r="B25" s="242"/>
       <c r="C25" s="4" t="s">
         <v>1775</v>
       </c>
@@ -22865,7 +22883,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="237"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="4" t="s">
         <v>1777</v>
       </c>
@@ -22887,7 +22905,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="236" t="s">
+      <c r="B27" s="240" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -22911,7 +22929,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="237"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="4" t="s">
         <v>1781</v>
       </c>
@@ -22933,7 +22951,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="236" t="s">
+      <c r="B29" s="240" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -22957,7 +22975,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="237"/>
+      <c r="B30" s="241"/>
       <c r="C30" s="4" t="s">
         <v>1785</v>
       </c>
@@ -22979,7 +22997,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="236" t="s">
+      <c r="B31" s="240" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23003,7 +23021,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="238"/>
+      <c r="B32" s="242"/>
       <c r="C32" s="4" t="s">
         <v>1789</v>
       </c>
@@ -23025,7 +23043,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="238"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23047,7 +23065,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="238"/>
+      <c r="B34" s="242"/>
       <c r="C34" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23069,7 +23087,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="237"/>
+      <c r="B35" s="241"/>
       <c r="C35" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23091,7 +23109,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="236" t="s">
+      <c r="B36" s="240" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23115,7 +23133,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="238"/>
+      <c r="B37" s="242"/>
       <c r="C37" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23137,7 +23155,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="238"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="4" t="s">
         <v>1801</v>
       </c>
@@ -23159,7 +23177,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="237"/>
+      <c r="B39" s="241"/>
       <c r="C39" s="4" t="s">
         <v>1803</v>
       </c>
@@ -23181,7 +23199,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="236" t="s">
+      <c r="B40" s="240" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23205,7 +23223,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="237"/>
+      <c r="B41" s="241"/>
       <c r="C41" s="4" t="s">
         <v>1807</v>
       </c>
@@ -23251,7 +23269,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="236" t="s">
+      <c r="B43" s="240" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23275,7 +23293,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="238"/>
+      <c r="B44" s="242"/>
       <c r="C44" s="4" t="s">
         <v>1812</v>
       </c>
@@ -23297,7 +23315,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="238"/>
+      <c r="B45" s="242"/>
       <c r="C45" s="4" t="s">
         <v>1814</v>
       </c>
@@ -23319,7 +23337,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="238"/>
+      <c r="B46" s="242"/>
       <c r="C46" s="4" t="s">
         <v>1816</v>
       </c>
@@ -23343,7 +23361,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="238"/>
+      <c r="B47" s="242"/>
       <c r="C47" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23365,7 +23383,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="238"/>
+      <c r="B48" s="242"/>
       <c r="C48" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23387,7 +23405,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="238"/>
+      <c r="B49" s="242"/>
       <c r="C49" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23409,7 +23427,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="238"/>
+      <c r="B50" s="242"/>
       <c r="C50" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23433,7 +23451,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="238"/>
+      <c r="B51" s="242"/>
       <c r="C51" s="4" t="s">
         <v>1827</v>
       </c>
@@ -23455,7 +23473,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="238"/>
+      <c r="B52" s="242"/>
       <c r="C52" s="4" t="s">
         <v>1829</v>
       </c>
@@ -23477,7 +23495,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="238"/>
+      <c r="B53" s="242"/>
       <c r="C53" s="4" t="s">
         <v>1831</v>
       </c>
@@ -23499,7 +23517,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="237"/>
+      <c r="B54" s="241"/>
       <c r="C54" s="4" t="s">
         <v>1833</v>
       </c>
@@ -23532,16 +23550,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23582,26 +23600,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="221" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="220"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="224"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25603,7 +25621,7 @@
       <c r="R62" s="89"/>
       <c r="S62" s="47"/>
     </row>
-    <row r="63" spans="2:19" ht="168" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" ht="154" x14ac:dyDescent="0.35">
       <c r="B63" s="91">
         <v>60</v>
       </c>
@@ -25786,7 +25804,7 @@
       <c r="C68" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="216" t="s">
+      <c r="D68" s="220" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="119"/>
@@ -25820,7 +25838,7 @@
       <c r="C69" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="216"/>
+      <c r="D69" s="220"/>
       <c r="E69" s="119"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -27193,7 +27211,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" ht="28" x14ac:dyDescent="0.35">
       <c r="B109" s="91">
         <v>106</v>
       </c>
@@ -27229,7 +27247,7 @@
       <c r="R109" s="89"/>
       <c r="S109" s="47"/>
     </row>
-    <row r="110" spans="2:19" ht="70" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" ht="56" x14ac:dyDescent="0.35">
       <c r="B110" s="91">
         <v>107</v>
       </c>
@@ -28005,7 +28023,7 @@
       <c r="R131" s="89"/>
       <c r="S131" s="47"/>
     </row>
-    <row r="132" spans="2:19" ht="154" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:19" ht="140" x14ac:dyDescent="0.35">
       <c r="B132" s="91">
         <v>129</v>
       </c>
@@ -35565,12 +35583,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="221" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="220"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="224"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37135,18 +37153,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37647,7 +37665,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="225" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37680,7 +37698,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="222"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37711,7 +37729,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="225" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37744,7 +37762,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="222"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38029,18 +38047,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38120,7 +38138,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="228" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38151,7 +38169,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="225"/>
+      <c r="B5" s="229"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38256,7 +38274,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="228" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38289,7 +38307,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="225"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38448,7 +38466,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="228" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38481,7 +38499,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="225"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38734,7 +38752,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="224" t="s">
+      <c r="B22" s="228" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38770,7 +38788,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="227"/>
+      <c r="B23" s="231"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38803,7 +38821,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="225"/>
+      <c r="B24" s="229"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -39004,7 +39022,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="228" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39037,7 +39055,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="225"/>
+      <c r="B31" s="229"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39068,7 +39086,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="228" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39101,7 +39119,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="225"/>
+      <c r="B33" s="229"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39369,7 +39387,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="224" t="s">
+      <c r="B41" s="228" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39402,7 +39420,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="225"/>
+      <c r="B42" s="229"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39466,7 +39484,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="224" t="s">
+      <c r="B44" s="228" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39499,7 +39517,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="225"/>
+      <c r="B45" s="229"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39618,7 +39636,7 @@
       <c r="I48" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="226" t="s">
+      <c r="J48" s="230" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="85" t="s">
@@ -39653,7 +39671,7 @@
       <c r="I49" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="226"/>
+      <c r="J49" s="230"/>
       <c r="K49" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39686,7 +39704,7 @@
       <c r="I50" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="226"/>
+      <c r="J50" s="230"/>
       <c r="K50" s="130" t="s">
         <v>349</v>
       </c>
@@ -39719,7 +39737,7 @@
       <c r="I51" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="226"/>
+      <c r="J51" s="230"/>
       <c r="K51" s="130" t="s">
         <v>1070</v>
       </c>
@@ -39752,7 +39770,7 @@
       <c r="I52" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="226"/>
+      <c r="J52" s="230"/>
       <c r="K52" s="130" t="s">
         <v>1074</v>
       </c>
@@ -39785,7 +39803,7 @@
       <c r="I53" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="226"/>
+      <c r="J53" s="230"/>
       <c r="K53" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39818,7 +39836,7 @@
       <c r="I54" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="226"/>
+      <c r="J54" s="230"/>
       <c r="K54" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39851,7 +39869,7 @@
       <c r="I55" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="226"/>
+      <c r="J55" s="230"/>
       <c r="K55" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39880,7 +39898,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="84"/>
-      <c r="J56" s="226"/>
+      <c r="J56" s="230"/>
       <c r="K56" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39913,7 +39931,7 @@
       <c r="I57" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="226"/>
+      <c r="J57" s="230"/>
       <c r="K57" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39949,7 +39967,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="223" t="s">
+      <c r="J58" s="227" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="130" t="s">
@@ -39984,7 +40002,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="223"/>
+      <c r="J59" s="227"/>
       <c r="K59" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40017,7 +40035,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="223"/>
+      <c r="J60" s="227"/>
       <c r="K60" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40050,7 +40068,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="223"/>
+      <c r="J61" s="227"/>
       <c r="K61" s="134" t="s">
         <v>66</v>
       </c>
@@ -40083,7 +40101,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="223"/>
+      <c r="J62" s="227"/>
       <c r="K62" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40116,7 +40134,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="223"/>
+      <c r="J63" s="227"/>
       <c r="K63" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40149,7 +40167,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="223"/>
+      <c r="J64" s="227"/>
       <c r="K64" s="134" t="s">
         <v>1109</v>
       </c>
@@ -40182,7 +40200,7 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="223"/>
+      <c r="J65" s="227"/>
       <c r="K65" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40211,7 +40229,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="223"/>
+      <c r="J66" s="227"/>
       <c r="K66" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40240,7 +40258,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="223"/>
+      <c r="J67" s="227"/>
       <c r="K67" s="134" t="s">
         <v>1119</v>
       </c>
@@ -40276,7 +40294,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="223"/>
+      <c r="J68" s="227"/>
       <c r="K68" s="134" t="s">
         <v>1123</v>
       </c>
@@ -40312,7 +40330,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="223"/>
+      <c r="J69" s="227"/>
       <c r="K69" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40345,7 +40363,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="223"/>
+      <c r="J70" s="227"/>
       <c r="K70" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40378,7 +40396,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="223"/>
+      <c r="J71" s="227"/>
       <c r="K71" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40411,7 +40429,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="223"/>
+      <c r="J72" s="227"/>
       <c r="K72" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40444,7 +40462,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="223"/>
+      <c r="J73" s="227"/>
       <c r="K73" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40475,7 +40493,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="223"/>
+      <c r="J74" s="227"/>
       <c r="K74" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40492,7 +40510,7 @@
       <c r="G75" s="83"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="223"/>
+      <c r="J75" s="227"/>
       <c r="K75" s="69"/>
     </row>
     <row r="76" spans="1:12" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40758,11 +40776,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -40783,18 +40801,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -40865,7 +40883,7 @@
       <c r="J3" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K3" s="239" t="s">
+      <c r="K3" s="217" t="s">
         <v>1942</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -40903,7 +40921,7 @@
       <c r="J4" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K4" s="239" t="s">
+      <c r="K4" s="217" t="s">
         <v>1155</v>
       </c>
       <c r="L4" s="39" t="s">
@@ -40941,7 +40959,7 @@
       <c r="J5" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K5" s="239" t="s">
+      <c r="K5" s="217" t="s">
         <v>1159</v>
       </c>
       <c r="L5" s="39" t="s">
@@ -40979,7 +40997,7 @@
       <c r="J6" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K6" s="239" t="s">
+      <c r="K6" s="217" t="s">
         <v>1163</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -41017,7 +41035,7 @@
       <c r="J7" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K7" s="239" t="s">
+      <c r="K7" s="217" t="s">
         <v>1167</v>
       </c>
       <c r="L7" s="39" t="s">
@@ -41055,7 +41073,7 @@
       <c r="J8" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K8" s="239" t="s">
+      <c r="K8" s="217" t="s">
         <v>1943</v>
       </c>
       <c r="L8" s="39" t="s">
@@ -41093,7 +41111,7 @@
       <c r="J9" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K9" s="239" t="s">
+      <c r="K9" s="217" t="s">
         <v>1173</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -41131,7 +41149,7 @@
       <c r="J10" s="167" t="s">
         <v>1176</v>
       </c>
-      <c r="K10" s="239" t="s">
+      <c r="K10" s="217" t="s">
         <v>1177</v>
       </c>
       <c r="L10" s="39"/>
@@ -41263,7 +41281,7 @@
       <c r="J14" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K14" s="239" t="s">
+      <c r="K14" s="217" t="s">
         <v>1182</v>
       </c>
       <c r="L14" s="39" t="s">
@@ -41301,7 +41319,7 @@
       <c r="J15" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K15" s="240"/>
+      <c r="K15" s="218"/>
       <c r="L15" s="39" t="s">
         <v>1877</v>
       </c>
@@ -41337,7 +41355,7 @@
       <c r="J16" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K16" s="240"/>
+      <c r="K16" s="218"/>
       <c r="L16" s="39" t="s">
         <v>1877</v>
       </c>
@@ -41373,7 +41391,7 @@
       <c r="J17" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K17" s="239" t="s">
+      <c r="K17" s="217" t="s">
         <v>1186</v>
       </c>
       <c r="L17" s="39" t="s">
@@ -41441,7 +41459,7 @@
       <c r="J19" s="164" t="s">
         <v>902</v>
       </c>
-      <c r="K19" s="239" t="s">
+      <c r="K19" s="217" t="s">
         <v>1189</v>
       </c>
       <c r="L19" s="39" t="s">
@@ -41693,7 +41711,7 @@
       <c r="J27" s="164" t="s">
         <v>349</v>
       </c>
-      <c r="K27" s="239" t="s">
+      <c r="K27" s="217" t="s">
         <v>1202</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -41909,7 +41927,7 @@
       </c>
       <c r="I34" s="161"/>
       <c r="J34" s="164"/>
-      <c r="K34" s="239" t="s">
+      <c r="K34" s="217" t="s">
         <v>1220</v>
       </c>
       <c r="L34" s="39" t="s">
@@ -41943,7 +41961,7 @@
       </c>
       <c r="I35" s="164"/>
       <c r="J35" s="164"/>
-      <c r="K35" s="240"/>
+      <c r="K35" s="218"/>
       <c r="L35" s="39" t="s">
         <v>73</v>
       </c>
@@ -41975,7 +41993,7 @@
       </c>
       <c r="I36" s="164"/>
       <c r="J36" s="189"/>
-      <c r="K36" s="241" t="s">
+      <c r="K36" s="219" t="s">
         <v>1223</v>
       </c>
       <c r="L36" s="39" t="s">
@@ -42004,12 +42022,12 @@
       <c r="G37" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="162"/>
+      <c r="H37" s="162">
+        <v>3</v>
+      </c>
       <c r="I37" s="161"/>
       <c r="J37" s="164"/>
-      <c r="K37" s="240" t="s">
-        <v>1866</v>
-      </c>
+      <c r="K37" s="218"/>
       <c r="L37" s="39" t="s">
         <v>1880</v>
       </c>
@@ -42041,7 +42059,7 @@
       </c>
       <c r="I38" s="161"/>
       <c r="J38" s="164"/>
-      <c r="K38" s="240" t="s">
+      <c r="K38" s="218" t="s">
         <v>1866</v>
       </c>
       <c r="L38" s="39" t="s">
@@ -42070,9 +42088,13 @@
       <c r="G39" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="36"/>
+      <c r="H39" s="36">
+        <v>0</v>
+      </c>
       <c r="I39" s="41"/>
-      <c r="K39" s="39"/>
+      <c r="K39" s="39" t="s">
+        <v>1945</v>
+      </c>
       <c r="L39" s="39" t="s">
         <v>1880</v>
       </c>
@@ -42099,7 +42121,9 @@
       <c r="G40" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36">
+        <v>3</v>
+      </c>
       <c r="I40" s="41"/>
       <c r="K40" s="39"/>
       <c r="L40" s="39" t="s">
@@ -42128,15 +42152,45 @@
       <c r="G41" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36">
+        <v>3</v>
+      </c>
       <c r="I41" s="41"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A42" s="36">
+        <v>40</v>
+      </c>
+      <c r="B42" s="216" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>917</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="36">
+        <v>5</v>
+      </c>
       <c r="I42" s="41"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39" t="s">
+        <v>1880</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I43" s="41"/>
@@ -42191,18 +42245,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="233" t="s">
         <v>1224</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="232"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42390,7 +42444,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="230" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -42426,7 +42480,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="233"/>
+      <c r="B8" s="237"/>
       <c r="C8" s="4" t="s">
         <v>1232</v>
       </c>
@@ -42460,7 +42514,7 @@
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="233"/>
+      <c r="B9" s="237"/>
       <c r="C9" s="4" t="s">
         <v>1235</v>
       </c>
@@ -42494,7 +42548,7 @@
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="233"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="4" t="s">
         <v>1237</v>
       </c>
@@ -42528,7 +42582,7 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="233"/>
+      <c r="B11" s="237"/>
       <c r="C11" s="4" t="s">
         <v>1240</v>
       </c>
@@ -42562,7 +42616,7 @@
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="233"/>
+      <c r="B12" s="237"/>
       <c r="C12" s="4" t="s">
         <v>1243</v>
       </c>
@@ -42596,7 +42650,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="233"/>
+      <c r="B13" s="237"/>
       <c r="C13" s="4" t="s">
         <v>1246</v>
       </c>
@@ -42630,7 +42684,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="233"/>
+      <c r="B14" s="237"/>
       <c r="C14" s="4" t="s">
         <v>1249</v>
       </c>
@@ -42912,7 +42966,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="226" t="s">
+      <c r="B22" s="230" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -42948,7 +43002,7 @@
       <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="234"/>
+      <c r="B23" s="238"/>
       <c r="C23" s="59" t="s">
         <v>1263</v>
       </c>
@@ -42980,7 +43034,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="233"/>
+      <c r="B24" s="237"/>
       <c r="C24" s="22" t="s">
         <v>1266</v>
       </c>
@@ -43012,7 +43066,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="233"/>
+      <c r="B25" s="237"/>
       <c r="C25" s="22" t="s">
         <v>1269</v>
       </c>
@@ -43044,7 +43098,7 @@
       <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="234"/>
+      <c r="B26" s="238"/>
       <c r="C26" s="59" t="s">
         <v>1272</v>
       </c>
@@ -43076,7 +43130,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="233"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="22" t="s">
         <v>1275</v>
       </c>
@@ -43180,7 +43234,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="226" t="s">
+      <c r="B30" s="230" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -43216,7 +43270,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="233"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="4" t="s">
         <v>1283</v>
       </c>
@@ -43250,7 +43304,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="233"/>
+      <c r="B32" s="237"/>
       <c r="C32" s="4" t="s">
         <v>1286</v>
       </c>
@@ -43284,7 +43338,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="233"/>
+      <c r="B33" s="237"/>
       <c r="C33" s="4" t="s">
         <v>1289</v>
       </c>
@@ -43504,7 +43558,7 @@
       <c r="A39" s="58">
         <v>37</v>
       </c>
-      <c r="B39" s="227" t="s">
+      <c r="B39" s="231" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="50" t="s">
@@ -43536,7 +43590,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="234"/>
+      <c r="B40" s="238"/>
       <c r="C40" s="4" t="s">
         <v>1302</v>
       </c>
@@ -43566,7 +43620,7 @@
       <c r="A41" s="52">
         <v>39</v>
       </c>
-      <c r="B41" s="234"/>
+      <c r="B41" s="238"/>
       <c r="C41" s="51" t="s">
         <v>1305</v>
       </c>
@@ -43594,7 +43648,7 @@
     </row>
     <row r="42" spans="1:12" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
-      <c r="B42" s="228" t="s">
+      <c r="B42" s="232" t="s">
         <v>1308</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -43630,7 +43684,7 @@
     </row>
     <row r="43" spans="1:12" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
-      <c r="B43" s="228"/>
+      <c r="B43" s="232"/>
       <c r="C43" s="4" t="s">
         <v>1312</v>
       </c>
@@ -43658,7 +43712,7 @@
     </row>
     <row r="44" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
-      <c r="B44" s="228"/>
+      <c r="B44" s="232"/>
       <c r="C44" s="4" t="s">
         <v>1315</v>
       </c>
@@ -43686,7 +43740,7 @@
     </row>
     <row r="45" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="228" t="s">
+      <c r="B45" s="232" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -43716,7 +43770,7 @@
     </row>
     <row r="46" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="228"/>
+      <c r="B46" s="232"/>
       <c r="C46" s="4" t="s">
         <v>1321</v>
       </c>
@@ -44429,7 +44483,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -44451,18 +44505,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>1874</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="220"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="224"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44541,7 +44595,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="228" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -44575,7 +44629,7 @@
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="227"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="51" t="s">
         <v>1327</v>
       </c>
@@ -44739,18 +44793,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="221" t="s">
         <v>1331</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="232"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45363,15 +45417,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -45578,6 +45623,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -45605,14 +45659,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45627,6 +45673,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC8D7701-8281-4DA6-9FF0-CAAEE677E3DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4371D24-E302-4B08-85C5-B0B5A2D58A4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="1950">
   <si>
     <t>Category</t>
   </si>
@@ -4043,9 +4043,6 @@
     <t>Reg Proc should be able to provide an external link so that Resident should be able to download a Password protected UIN card</t>
   </si>
   <si>
-    <t>Send Transaction History of a Packet Using RID</t>
-  </si>
-  <si>
     <t>MOS-23848 - Gap and basis of estimate to be rechecked</t>
   </si>
   <si>
@@ -6746,6 +6743,12 @@
   </si>
   <si>
     <t>MOS-27343</t>
+  </si>
+  <si>
+    <t>Send Packet Status History of a Packet Using RID</t>
+  </si>
+  <si>
+    <t>Send Packet Status history of a Packet using RID when requested from Admin</t>
   </si>
 </sst>
 </file>
@@ -7976,6 +7979,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8043,27 +8067,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15214,7 +15217,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16132,18 +16135,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="223" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="226"/>
+      <c r="A1" s="230" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="233"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -16153,7 +16156,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>909</v>
@@ -16185,7 +16188,7 @@
         <v>512</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>513</v>
@@ -16201,7 +16204,7 @@
       </c>
       <c r="H3" s="126"/>
       <c r="I3" s="39" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -16213,7 +16216,7 @@
         <v>515</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>516</v>
@@ -16229,7 +16232,7 @@
       </c>
       <c r="H4" s="125"/>
       <c r="I4" s="39" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -16241,7 +16244,7 @@
         <v>518</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>519</v>
@@ -16267,7 +16270,7 @@
         <v>521</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>522</v>
@@ -16293,7 +16296,7 @@
         <v>524</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>525</v>
@@ -16314,16 +16317,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="138" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1842</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1843</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="139" t="s">
@@ -16341,7 +16344,7 @@
         <v>478</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>479</v>
@@ -16373,7 +16376,7 @@
         <v>482</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>483</v>
@@ -16405,7 +16408,7 @@
         <v>485</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>486</v>
@@ -16437,7 +16440,7 @@
         <v>488</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>489</v>
@@ -16469,7 +16472,7 @@
         <v>491</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>492</v>
@@ -16501,7 +16504,7 @@
         <v>494</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>495</v>
@@ -16533,7 +16536,7 @@
         <v>497</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>498</v>
@@ -16565,7 +16568,7 @@
         <v>500</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>501</v>
@@ -16593,17 +16596,17 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="234" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>1357</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="E17" s="4" t="s">
         <v>1358</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>1359</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>917</v>
@@ -16625,15 +16628,15 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="228"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>1360</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="4" t="s">
         <v>1361</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>1362</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>917</v>
@@ -16645,7 +16648,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>481</v>
@@ -16659,7 +16662,7 @@
         <v>506</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>507</v>
@@ -16689,7 +16692,7 @@
         <v>509</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>510</v>
@@ -16965,19 +16968,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="226"/>
+      <c r="A1" s="230" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="233"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="146" t="s">
@@ -17008,7 +17011,7 @@
         <v>913</v>
       </c>
       <c r="J2" s="151" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="K2" s="152" t="s">
         <v>51</v>
@@ -17019,13 +17022,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="154" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C3" s="154" t="s">
         <v>1367</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="D3" s="155" t="s">
         <v>1368</v>
-      </c>
-      <c r="D3" s="155" t="s">
-        <v>1369</v>
       </c>
       <c r="E3" s="155"/>
       <c r="F3" s="155" t="s">
@@ -17050,13 +17053,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>1370</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>1371</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39" t="s">
@@ -17081,13 +17084,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="39" t="s">
         <v>1373</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>1374</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39" t="s">
@@ -17112,13 +17115,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>1375</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>1376</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39" t="s">
@@ -17146,7 +17149,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>578</v>
@@ -17174,13 +17177,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="39" t="s">
         <v>1379</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>1380</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39" t="s">
@@ -17203,13 +17206,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>1381</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>1382</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39" t="s">
@@ -17225,7 +17228,7 @@
         <v>1145</v>
       </c>
       <c r="J9" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K9" s="67"/>
     </row>
@@ -17234,13 +17237,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="141" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="39" t="s">
         <v>1385</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>1386</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39" t="s">
@@ -17263,13 +17266,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="39" t="s">
         <v>1388</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>1389</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39" t="s">
@@ -17285,7 +17288,7 @@
         <v>1145</v>
       </c>
       <c r="J11" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K11" s="67"/>
     </row>
@@ -17294,13 +17297,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>1390</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>1391</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
@@ -17323,10 +17326,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="141" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>1392</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1393</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>586</v>
@@ -17352,10 +17355,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>1394</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1395</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>591</v>
@@ -17381,10 +17384,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>588</v>
@@ -17408,13 +17411,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="39" t="s">
         <v>1398</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>1399</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39" t="s">
@@ -17437,13 +17440,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>1400</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>1401</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39" t="s">
@@ -17459,7 +17462,7 @@
         <v>1145</v>
       </c>
       <c r="J17" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K17" s="67"/>
     </row>
@@ -17468,13 +17471,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>1402</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>1403</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39" t="s">
@@ -17495,10 +17498,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="141" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>1404</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1405</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>596</v>
@@ -17517,7 +17520,7 @@
         <v>1145</v>
       </c>
       <c r="J19" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K19" s="67"/>
     </row>
@@ -17526,10 +17529,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>1407</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1408</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>599</v>
@@ -17553,10 +17556,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>600</v>
@@ -17580,10 +17583,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="141" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>1410</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>1411</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>602</v>
@@ -17609,13 +17612,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="39" t="s">
         <v>1413</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>1414</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39" t="s">
@@ -17638,13 +17641,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>1415</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>1416</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
@@ -17660,7 +17663,7 @@
         <v>1145</v>
       </c>
       <c r="J24" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K24" s="67"/>
     </row>
@@ -17672,7 +17675,7 @@
         <v>605</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>606</v>
@@ -17696,10 +17699,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1418</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1419</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>610</v>
@@ -17725,13 +17728,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>1420</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>1421</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
@@ -17747,7 +17750,7 @@
         <v>1145</v>
       </c>
       <c r="J27" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K27" s="67"/>
     </row>
@@ -17756,13 +17759,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>1422</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>1423</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
@@ -17783,13 +17786,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="39" t="s">
         <v>1425</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>1426</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
@@ -17812,13 +17815,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>1427</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>1428</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
@@ -17841,13 +17844,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="141" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="39" t="s">
         <v>1430</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>1431</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39" t="s">
@@ -17870,13 +17873,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="39" t="s">
         <v>1433</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>1434</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39" t="s">
@@ -17899,13 +17902,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>1435</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>1436</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
@@ -17928,10 +17931,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C34" s="69" t="s">
         <v>1437</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>1438</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>614</v>
@@ -17957,10 +17960,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>612</v>
@@ -17989,7 +17992,7 @@
         <v>615</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>616</v>
@@ -18016,7 +18019,7 @@
         <v>618</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>619</v>
@@ -18042,10 +18045,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1443</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>623</v>
@@ -18071,10 +18074,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>621</v>
@@ -18100,10 +18103,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>1445</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>1446</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>627</v>
@@ -18129,10 +18132,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>625</v>
@@ -18161,7 +18164,7 @@
         <v>628</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>629</v>
@@ -18187,10 +18190,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>1449</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>1450</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>633</v>
@@ -18216,10 +18219,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>631</v>
@@ -18245,13 +18248,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="39" t="s">
         <v>1453</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>1454</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39" t="s">
@@ -18276,13 +18279,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>1455</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>1456</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39" t="s">
@@ -18298,7 +18301,7 @@
         <v>1145</v>
       </c>
       <c r="J46" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K46" s="67" t="s">
         <v>572</v>
@@ -18309,10 +18312,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>1457</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>1458</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>637</v>
@@ -18338,10 +18341,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>639</v>
@@ -18365,10 +18368,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>1460</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>1461</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>641</v>
@@ -18394,10 +18397,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>643</v>
@@ -18416,7 +18419,7 @@
         <v>1145</v>
       </c>
       <c r="J50" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K50" s="67"/>
     </row>
@@ -18425,10 +18428,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>1463</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>1464</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>645</v>
@@ -18452,10 +18455,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>647</v>
@@ -18479,10 +18482,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="141" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>1466</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>1467</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>649</v>
@@ -18508,13 +18511,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="39" t="s">
         <v>1469</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>1470</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39" t="s">
@@ -18537,13 +18540,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D55" s="39" t="s">
         <v>1471</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>1472</v>
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39" t="s">
@@ -18559,7 +18562,7 @@
         <v>1145</v>
       </c>
       <c r="J55" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K55" s="67"/>
     </row>
@@ -18568,10 +18571,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>653</v>
@@ -18595,10 +18598,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>1474</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>1475</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>655</v>
@@ -18624,10 +18627,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>657</v>
@@ -18646,7 +18649,7 @@
         <v>1145</v>
       </c>
       <c r="J58" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K58" s="67"/>
     </row>
@@ -18655,10 +18658,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>659</v>
@@ -18684,13 +18687,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="141" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="39" t="s">
         <v>1479</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>1480</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39" t="s">
@@ -18713,13 +18716,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="39" t="s">
         <v>1482</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>1483</v>
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="39" t="s">
@@ -18742,13 +18745,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D62" s="39" t="s">
         <v>1484</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>1485</v>
       </c>
       <c r="E62" s="39"/>
       <c r="F62" s="39" t="s">
@@ -18764,7 +18767,7 @@
         <v>1145</v>
       </c>
       <c r="J62" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K62" s="67"/>
     </row>
@@ -18773,10 +18776,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>1486</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>1487</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>665</v>
@@ -18802,13 +18805,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D64" s="39" t="s">
         <v>1488</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>1489</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="39" t="s">
@@ -18824,7 +18827,7 @@
         <v>1145</v>
       </c>
       <c r="J64" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K64" s="68"/>
     </row>
@@ -18833,10 +18836,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>1490</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>1491</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>667</v>
@@ -18862,13 +18865,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="39" t="s">
         <v>1493</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>1494</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="39" t="s">
@@ -18891,10 +18894,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>671</v>
@@ -18920,13 +18923,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="39" t="s">
         <v>1497</v>
-      </c>
-      <c r="D68" s="39" t="s">
-        <v>1498</v>
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="39" t="s">
@@ -18949,10 +18952,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>673</v>
@@ -18981,7 +18984,7 @@
         <v>674</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>675</v>
@@ -19007,13 +19010,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="39" t="s">
         <v>1502</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>1503</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39" t="s">
@@ -19038,13 +19041,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D72" s="39" t="s">
         <v>1504</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>1505</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39" t="s">
@@ -19069,10 +19072,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="141" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>1506</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>1507</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>679</v>
@@ -19096,13 +19099,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="D74" s="39" t="s">
         <v>1509</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>1510</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
@@ -19127,13 +19130,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D75" s="39" t="s">
         <v>1511</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>1512</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
@@ -19156,10 +19159,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="141" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>1513</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>1514</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>683</v>
@@ -19185,10 +19188,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="141" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>1515</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>1516</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>685</v>
@@ -19214,13 +19217,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="39" t="s">
         <v>1518</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>1519</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="39" t="s">
@@ -19243,10 +19246,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>689</v>
@@ -19265,7 +19268,7 @@
         <v>1145</v>
       </c>
       <c r="J79" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K79" s="67"/>
     </row>
@@ -19274,13 +19277,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="39" t="s">
         <v>1522</v>
-      </c>
-      <c r="D80" s="39" t="s">
-        <v>1523</v>
       </c>
       <c r="E80" s="39"/>
       <c r="F80" s="39" t="s">
@@ -19303,10 +19306,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>691</v>
@@ -19325,7 +19328,7 @@
         <v>1145</v>
       </c>
       <c r="J81" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K81" s="67"/>
     </row>
@@ -19334,13 +19337,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="141" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="39" t="s">
         <v>1526</v>
-      </c>
-      <c r="D82" s="39" t="s">
-        <v>1527</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="39" t="s">
@@ -19363,13 +19366,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="141" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D83" s="39" t="s">
         <v>1528</v>
-      </c>
-      <c r="D83" s="39" t="s">
-        <v>1529</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39" t="s">
@@ -19394,13 +19397,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="141" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D84" s="39" t="s">
         <v>1530</v>
-      </c>
-      <c r="D84" s="39" t="s">
-        <v>1531</v>
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="39" t="s">
@@ -19423,13 +19426,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="141" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D85" s="39" t="s">
         <v>1532</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>1533</v>
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39" t="s">
@@ -19450,7 +19453,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="141" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>963</v>
@@ -19481,13 +19484,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="141" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="39" t="s">
         <v>1536</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>1537</v>
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39" t="s">
@@ -19510,13 +19513,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="141" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D88" s="39" t="s">
         <v>1538</v>
-      </c>
-      <c r="D88" s="39" t="s">
-        <v>1539</v>
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39" t="s">
@@ -19541,10 +19544,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>1541</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>702</v>
@@ -19570,13 +19573,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D90" s="39" t="s">
         <v>1542</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>1543</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="39" t="s">
@@ -19597,13 +19600,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D91" s="39" t="s">
         <v>1544</v>
-      </c>
-      <c r="D91" s="39" t="s">
-        <v>1545</v>
       </c>
       <c r="E91" s="39"/>
       <c r="F91" s="39" t="s">
@@ -19624,10 +19627,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="141" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>1546</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>1547</v>
       </c>
       <c r="D92" s="39" t="s">
         <v>706</v>
@@ -19653,10 +19656,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="141" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D93" s="39" t="s">
         <v>708</v>
@@ -19675,7 +19678,7 @@
         <v>1145</v>
       </c>
       <c r="J93" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K93" s="67"/>
     </row>
@@ -19684,10 +19687,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>1549</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>1550</v>
       </c>
       <c r="D94" s="39" t="s">
         <v>710</v>
@@ -19711,10 +19714,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D95" s="39" t="s">
         <v>712</v>
@@ -19738,10 +19741,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="141" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>1552</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>1553</v>
       </c>
       <c r="D96" s="39" t="s">
         <v>714</v>
@@ -19767,13 +19770,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="39" t="s">
         <v>1555</v>
-      </c>
-      <c r="D97" s="39" t="s">
-        <v>1556</v>
       </c>
       <c r="E97" s="39"/>
       <c r="F97" s="39" t="s">
@@ -19796,13 +19799,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D98" s="39" t="s">
         <v>1557</v>
-      </c>
-      <c r="D98" s="39" t="s">
-        <v>1558</v>
       </c>
       <c r="E98" s="39"/>
       <c r="F98" s="39" t="s">
@@ -19818,7 +19821,7 @@
         <v>1145</v>
       </c>
       <c r="J98" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K98" s="67"/>
     </row>
@@ -19827,13 +19830,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D99" s="39" t="s">
         <v>1559</v>
-      </c>
-      <c r="D99" s="39" t="s">
-        <v>1560</v>
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="39" t="s">
@@ -19854,13 +19857,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>1561</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="D100" s="39" t="s">
         <v>1562</v>
-      </c>
-      <c r="D100" s="39" t="s">
-        <v>1563</v>
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="39" t="s">
@@ -19883,10 +19886,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D101" s="39" t="s">
         <v>720</v>
@@ -19905,7 +19908,7 @@
         <v>1145</v>
       </c>
       <c r="J101" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K101" s="67"/>
     </row>
@@ -19914,10 +19917,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="141" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>1565</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>1566</v>
       </c>
       <c r="D102" s="39" t="s">
         <v>722</v>
@@ -19943,13 +19946,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="39" t="s">
         <v>1568</v>
-      </c>
-      <c r="D103" s="39" t="s">
-        <v>1569</v>
       </c>
       <c r="E103" s="39"/>
       <c r="F103" s="39" t="s">
@@ -19972,13 +19975,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D104" s="39" t="s">
         <v>1570</v>
-      </c>
-      <c r="D104" s="39" t="s">
-        <v>1571</v>
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="39" t="s">
@@ -20001,13 +20004,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D105" s="39" t="s">
         <v>1572</v>
-      </c>
-      <c r="D105" s="39" t="s">
-        <v>1573</v>
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="39" t="s">
@@ -20030,13 +20033,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D106" s="39" t="s">
         <v>1574</v>
-      </c>
-      <c r="D106" s="39" t="s">
-        <v>1575</v>
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="39" t="s">
@@ -20052,7 +20055,7 @@
         <v>1145</v>
       </c>
       <c r="J106" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K106" s="67"/>
     </row>
@@ -20061,10 +20064,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="141" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>1576</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>1577</v>
       </c>
       <c r="D107" s="39" t="s">
         <v>728</v>
@@ -20083,7 +20086,7 @@
         <v>1145</v>
       </c>
       <c r="J107" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K107" s="67" t="s">
         <v>572</v>
@@ -20094,13 +20097,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="39" t="s">
         <v>1579</v>
-      </c>
-      <c r="D108" s="39" t="s">
-        <v>1580</v>
       </c>
       <c r="E108" s="39"/>
       <c r="F108" s="39" t="s">
@@ -20123,13 +20126,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D109" s="39" t="s">
         <v>1581</v>
-      </c>
-      <c r="D109" s="39" t="s">
-        <v>1582</v>
       </c>
       <c r="E109" s="39"/>
       <c r="F109" s="39" t="s">
@@ -20150,10 +20153,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D110" s="39" t="s">
         <v>731</v>
@@ -20179,10 +20182,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>1584</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>1585</v>
       </c>
       <c r="D111" s="39" t="s">
         <v>733</v>
@@ -20211,7 +20214,7 @@
         <v>734</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D112" s="39" t="s">
         <v>735</v>
@@ -20237,13 +20240,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="D113" s="39" t="s">
         <v>1588</v>
-      </c>
-      <c r="D113" s="39" t="s">
-        <v>1589</v>
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="39" t="s">
@@ -20268,13 +20271,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D114" s="39" t="s">
         <v>1590</v>
-      </c>
-      <c r="D114" s="39" t="s">
-        <v>1591</v>
       </c>
       <c r="E114" s="39"/>
       <c r="F114" s="39" t="s">
@@ -20299,10 +20302,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="141" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>1592</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>1593</v>
       </c>
       <c r="D115" s="39" t="s">
         <v>739</v>
@@ -20326,13 +20329,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>1594</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="D116" s="39" t="s">
         <v>1595</v>
-      </c>
-      <c r="D116" s="39" t="s">
-        <v>1596</v>
       </c>
       <c r="E116" s="39"/>
       <c r="F116" s="39" t="s">
@@ -20353,13 +20356,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D117" s="39" t="s">
         <v>1597</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>1598</v>
       </c>
       <c r="E117" s="39"/>
       <c r="F117" s="39" t="s">
@@ -20380,13 +20383,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D118" s="39" t="s">
         <v>1599</v>
-      </c>
-      <c r="D118" s="39" t="s">
-        <v>1600</v>
       </c>
       <c r="E118" s="39"/>
       <c r="F118" s="39" t="s">
@@ -20407,13 +20410,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C119" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D119" s="39" t="s">
         <v>1601</v>
-      </c>
-      <c r="D119" s="39" t="s">
-        <v>1602</v>
       </c>
       <c r="E119" s="39"/>
       <c r="F119" s="39" t="s">
@@ -20434,13 +20437,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>1603</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="D120" s="39" t="s">
         <v>1604</v>
-      </c>
-      <c r="D120" s="39" t="s">
-        <v>1605</v>
       </c>
       <c r="E120" s="39"/>
       <c r="F120" s="39" t="s">
@@ -20463,13 +20466,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D121" s="39" t="s">
         <v>1606</v>
-      </c>
-      <c r="D121" s="39" t="s">
-        <v>1607</v>
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39" t="s">
@@ -20492,13 +20495,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D122" s="39" t="s">
         <v>1608</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>1609</v>
       </c>
       <c r="E122" s="39"/>
       <c r="F122" s="39" t="s">
@@ -20523,10 +20526,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="141" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>1610</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>1611</v>
       </c>
       <c r="D123" s="39" t="s">
         <v>745</v>
@@ -20554,10 +20557,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>1612</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>1613</v>
       </c>
       <c r="D124" s="39" t="s">
         <v>747</v>
@@ -20583,10 +20586,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D125" s="39" t="s">
         <v>749</v>
@@ -20612,13 +20615,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C126" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D126" s="39" t="s">
         <v>1615</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>1616</v>
       </c>
       <c r="E126" s="39"/>
       <c r="F126" s="39" t="s">
@@ -20634,7 +20637,7 @@
         <v>1145</v>
       </c>
       <c r="J126" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K126" s="67"/>
     </row>
@@ -20643,13 +20646,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C127" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D127" s="39" t="s">
         <v>1617</v>
-      </c>
-      <c r="D127" s="39" t="s">
-        <v>1618</v>
       </c>
       <c r="E127" s="39"/>
       <c r="F127" s="39" t="s">
@@ -20674,13 +20677,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C128" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D128" s="39" t="s">
         <v>1619</v>
-      </c>
-      <c r="D128" s="39" t="s">
-        <v>1620</v>
       </c>
       <c r="E128" s="39"/>
       <c r="F128" s="39" t="s">
@@ -20705,13 +20708,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D129" s="39" t="s">
         <v>1621</v>
-      </c>
-      <c r="D129" s="39" t="s">
-        <v>1622</v>
       </c>
       <c r="E129" s="39"/>
       <c r="F129" s="39" t="s">
@@ -20736,10 +20739,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="141" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>1623</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>1624</v>
       </c>
       <c r="D130" s="39" t="s">
         <v>755</v>
@@ -20765,13 +20768,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="D131" s="39" t="s">
         <v>1626</v>
-      </c>
-      <c r="D131" s="39" t="s">
-        <v>1627</v>
       </c>
       <c r="E131" s="39"/>
       <c r="F131" s="39" t="s">
@@ -20796,13 +20799,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D132" s="39" t="s">
         <v>1628</v>
-      </c>
-      <c r="D132" s="39" t="s">
-        <v>1629</v>
       </c>
       <c r="E132" s="39"/>
       <c r="F132" s="39" t="s">
@@ -20818,7 +20821,7 @@
         <v>1145</v>
       </c>
       <c r="J132" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K132" s="67"/>
     </row>
@@ -20827,10 +20830,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="141" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>1630</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>1631</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>759</v>
@@ -20858,10 +20861,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="141" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>1632</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>1633</v>
       </c>
       <c r="D134" s="39" t="s">
         <v>761</v>
@@ -20887,10 +20890,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="141" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>1634</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>1635</v>
       </c>
       <c r="D135" s="39" t="s">
         <v>763</v>
@@ -20909,7 +20912,7 @@
         <v>1145</v>
       </c>
       <c r="J135" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K135" s="67"/>
     </row>
@@ -20918,10 +20921,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>1636</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>1637</v>
       </c>
       <c r="D136" s="39" t="s">
         <v>765</v>
@@ -20947,10 +20950,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="141" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>1638</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>1639</v>
       </c>
       <c r="D137" s="39" t="s">
         <v>767</v>
@@ -20976,13 +20979,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="D138" s="39" t="s">
         <v>1641</v>
-      </c>
-      <c r="D138" s="39" t="s">
-        <v>1642</v>
       </c>
       <c r="E138" s="39"/>
       <c r="F138" s="39" t="s">
@@ -21005,13 +21008,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D139" s="39" t="s">
         <v>1643</v>
-      </c>
-      <c r="D139" s="39" t="s">
-        <v>1644</v>
       </c>
       <c r="E139" s="39"/>
       <c r="F139" s="39" t="s">
@@ -21034,13 +21037,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="141" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C140" s="69" t="s">
         <v>1645</v>
       </c>
-      <c r="C140" s="69" t="s">
+      <c r="D140" s="69" t="s">
         <v>1646</v>
-      </c>
-      <c r="D140" s="69" t="s">
-        <v>1647</v>
       </c>
       <c r="E140" s="39"/>
       <c r="F140" s="39" t="s">
@@ -21054,7 +21057,7 @@
       </c>
       <c r="I140" s="39"/>
       <c r="J140" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K140" s="67"/>
     </row>
@@ -21063,13 +21066,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="141" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C141" s="69" t="s">
         <v>1648</v>
       </c>
-      <c r="C141" s="69" t="s">
+      <c r="D141" s="69" t="s">
         <v>1649</v>
-      </c>
-      <c r="D141" s="69" t="s">
-        <v>1650</v>
       </c>
       <c r="E141" s="39"/>
       <c r="F141" s="39" t="s">
@@ -21083,7 +21086,7 @@
       </c>
       <c r="I141" s="39"/>
       <c r="J141" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K141" s="67"/>
     </row>
@@ -21092,13 +21095,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="141" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C142" s="69" t="s">
         <v>1651</v>
       </c>
-      <c r="C142" s="69" t="s">
+      <c r="D142" s="69" t="s">
         <v>1652</v>
-      </c>
-      <c r="D142" s="69" t="s">
-        <v>1653</v>
       </c>
       <c r="E142" s="39"/>
       <c r="F142" s="39" t="s">
@@ -21112,7 +21115,7 @@
       </c>
       <c r="I142" s="39"/>
       <c r="J142" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K142" s="67"/>
     </row>
@@ -21121,13 +21124,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="141" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C143" s="69" t="s">
         <v>1654</v>
       </c>
-      <c r="C143" s="69" t="s">
+      <c r="D143" s="69" t="s">
         <v>1655</v>
-      </c>
-      <c r="D143" s="69" t="s">
-        <v>1656</v>
       </c>
       <c r="E143" s="39"/>
       <c r="F143" s="39" t="s">
@@ -21141,7 +21144,7 @@
       </c>
       <c r="I143" s="39"/>
       <c r="J143" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K143" s="67"/>
     </row>
@@ -21150,13 +21153,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="141" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C144" s="69" t="s">
         <v>1657</v>
       </c>
-      <c r="C144" s="69" t="s">
+      <c r="D144" s="69" t="s">
         <v>1658</v>
-      </c>
-      <c r="D144" s="69" t="s">
-        <v>1659</v>
       </c>
       <c r="E144" s="39"/>
       <c r="F144" s="39" t="s">
@@ -21170,7 +21173,7 @@
       </c>
       <c r="I144" s="39"/>
       <c r="J144" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K144" s="67"/>
     </row>
@@ -21179,13 +21182,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="141" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C145" s="69" t="s">
         <v>1660</v>
       </c>
-      <c r="C145" s="69" t="s">
+      <c r="D145" s="69" t="s">
         <v>1661</v>
-      </c>
-      <c r="D145" s="69" t="s">
-        <v>1662</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
@@ -21199,7 +21202,7 @@
       </c>
       <c r="I145" s="39"/>
       <c r="J145" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K145" s="67"/>
     </row>
@@ -21208,13 +21211,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="141" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C146" s="69" t="s">
         <v>1663</v>
       </c>
-      <c r="C146" s="69" t="s">
+      <c r="D146" s="69" t="s">
         <v>1664</v>
-      </c>
-      <c r="D146" s="69" t="s">
-        <v>1665</v>
       </c>
       <c r="E146" s="39"/>
       <c r="F146" s="39" t="s">
@@ -21228,7 +21231,7 @@
       </c>
       <c r="I146" s="39"/>
       <c r="J146" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K146" s="67"/>
     </row>
@@ -21237,13 +21240,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="141" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C147" s="69" t="s">
         <v>1666</v>
       </c>
-      <c r="C147" s="69" t="s">
+      <c r="D147" s="69" t="s">
         <v>1667</v>
-      </c>
-      <c r="D147" s="69" t="s">
-        <v>1668</v>
       </c>
       <c r="E147" s="39"/>
       <c r="F147" s="39" t="s">
@@ -21257,7 +21260,7 @@
       </c>
       <c r="I147" s="39"/>
       <c r="J147" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K147" s="67"/>
     </row>
@@ -21266,13 +21269,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="141" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C148" s="69" t="s">
         <v>1669</v>
       </c>
-      <c r="C148" s="69" t="s">
+      <c r="D148" s="69" t="s">
         <v>1670</v>
-      </c>
-      <c r="D148" s="69" t="s">
-        <v>1671</v>
       </c>
       <c r="E148" s="39"/>
       <c r="F148" s="39" t="s">
@@ -21286,7 +21289,7 @@
       </c>
       <c r="I148" s="39"/>
       <c r="J148" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K148" s="67"/>
     </row>
@@ -21295,13 +21298,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="141" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C149" s="69" t="s">
         <v>1672</v>
       </c>
-      <c r="C149" s="69" t="s">
+      <c r="D149" s="69" t="s">
         <v>1673</v>
-      </c>
-      <c r="D149" s="69" t="s">
-        <v>1674</v>
       </c>
       <c r="E149" s="39"/>
       <c r="F149" s="39" t="s">
@@ -21315,7 +21318,7 @@
       </c>
       <c r="I149" s="39"/>
       <c r="J149" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K149" s="67"/>
     </row>
@@ -21324,13 +21327,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="141" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C150" s="69" t="s">
         <v>1675</v>
       </c>
-      <c r="C150" s="69" t="s">
+      <c r="D150" s="69" t="s">
         <v>1676</v>
-      </c>
-      <c r="D150" s="69" t="s">
-        <v>1677</v>
       </c>
       <c r="E150" s="39"/>
       <c r="F150" s="39" t="s">
@@ -21344,7 +21347,7 @@
       </c>
       <c r="I150" s="39"/>
       <c r="J150" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K150" s="67"/>
     </row>
@@ -21353,13 +21356,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="141" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C151" s="69" t="s">
         <v>1678</v>
       </c>
-      <c r="C151" s="69" t="s">
+      <c r="D151" s="69" t="s">
         <v>1679</v>
-      </c>
-      <c r="D151" s="69" t="s">
-        <v>1680</v>
       </c>
       <c r="E151" s="39"/>
       <c r="F151" s="39" t="s">
@@ -21373,7 +21376,7 @@
       </c>
       <c r="I151" s="39"/>
       <c r="J151" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K151" s="67"/>
     </row>
@@ -21382,13 +21385,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="141" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C152" s="69" t="s">
         <v>1681</v>
       </c>
-      <c r="C152" s="69" t="s">
+      <c r="D152" s="69" t="s">
         <v>1682</v>
-      </c>
-      <c r="D152" s="69" t="s">
-        <v>1683</v>
       </c>
       <c r="E152" s="39"/>
       <c r="F152" s="39" t="s">
@@ -21402,7 +21405,7 @@
       </c>
       <c r="I152" s="39"/>
       <c r="J152" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K152" s="67"/>
     </row>
@@ -21411,13 +21414,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="141" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C153" s="69" t="s">
         <v>1684</v>
       </c>
-      <c r="C153" s="69" t="s">
+      <c r="D153" s="69" t="s">
         <v>1685</v>
-      </c>
-      <c r="D153" s="69" t="s">
-        <v>1686</v>
       </c>
       <c r="E153" s="39"/>
       <c r="F153" s="39" t="s">
@@ -21431,7 +21434,7 @@
       </c>
       <c r="I153" s="39"/>
       <c r="J153" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K153" s="67"/>
     </row>
@@ -21440,13 +21443,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="141" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C154" s="69" t="s">
         <v>1687</v>
       </c>
-      <c r="C154" s="69" t="s">
+      <c r="D154" s="69" t="s">
         <v>1688</v>
-      </c>
-      <c r="D154" s="69" t="s">
-        <v>1689</v>
       </c>
       <c r="E154" s="39"/>
       <c r="F154" s="39" t="s">
@@ -21460,7 +21463,7 @@
       </c>
       <c r="I154" s="39"/>
       <c r="J154" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K154" s="67"/>
     </row>
@@ -21469,13 +21472,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="141" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C155" s="69" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D155" s="69" t="s">
         <v>1690</v>
-      </c>
-      <c r="D155" s="69" t="s">
-        <v>1691</v>
       </c>
       <c r="E155" s="39"/>
       <c r="F155" s="39" t="s">
@@ -21489,7 +21492,7 @@
       </c>
       <c r="I155" s="39"/>
       <c r="J155" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K155" s="67"/>
     </row>
@@ -21498,13 +21501,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="141" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C156" s="69" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D156" s="69" t="s">
         <v>1692</v>
-      </c>
-      <c r="D156" s="69" t="s">
-        <v>1693</v>
       </c>
       <c r="E156" s="39"/>
       <c r="F156" s="39" t="s">
@@ -21518,7 +21521,7 @@
       </c>
       <c r="I156" s="39"/>
       <c r="J156" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K156" s="67"/>
     </row>
@@ -21527,10 +21530,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="141" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C157" s="70" t="s">
         <v>1694</v>
-      </c>
-      <c r="C157" s="70" t="s">
-        <v>1695</v>
       </c>
       <c r="D157" s="69" t="s">
         <v>775</v>
@@ -21547,7 +21550,7 @@
       </c>
       <c r="I157" s="39"/>
       <c r="J157" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K157" s="67"/>
     </row>
@@ -21556,10 +21559,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="141" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C158" s="70" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D158" s="69" t="s">
         <v>777</v>
@@ -21576,7 +21579,7 @@
       </c>
       <c r="I158" s="39"/>
       <c r="J158" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K158" s="67"/>
     </row>
@@ -21585,13 +21588,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="141" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C159" s="70" t="s">
         <v>1697</v>
       </c>
-      <c r="C159" s="70" t="s">
+      <c r="D159" s="69" t="s">
         <v>1698</v>
-      </c>
-      <c r="D159" s="69" t="s">
-        <v>1699</v>
       </c>
       <c r="E159" s="39"/>
       <c r="F159" s="39" t="s">
@@ -21605,7 +21608,7 @@
       </c>
       <c r="I159" s="39"/>
       <c r="J159" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K159" s="67"/>
     </row>
@@ -21614,13 +21617,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="141" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C160" s="70" t="s">
         <v>1700</v>
       </c>
-      <c r="C160" s="70" t="s">
+      <c r="D160" s="69" t="s">
         <v>1701</v>
-      </c>
-      <c r="D160" s="69" t="s">
-        <v>1702</v>
       </c>
       <c r="E160" s="39"/>
       <c r="F160" s="39" t="s">
@@ -21634,7 +21637,7 @@
       </c>
       <c r="I160" s="39"/>
       <c r="J160" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K160" s="67"/>
     </row>
@@ -21643,13 +21646,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="141" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C161" s="70" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D161" s="71" t="s">
         <v>1703</v>
-      </c>
-      <c r="D161" s="71" t="s">
-        <v>1704</v>
       </c>
       <c r="E161" s="39"/>
       <c r="F161" s="39" t="s">
@@ -21670,13 +21673,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="141" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C162" s="70" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D162" s="71" t="s">
         <v>1705</v>
-      </c>
-      <c r="D162" s="71" t="s">
-        <v>1706</v>
       </c>
       <c r="E162" s="39"/>
       <c r="F162" s="39" t="s">
@@ -21697,13 +21700,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="141" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C163" s="70" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D163" s="71" t="s">
         <v>1707</v>
-      </c>
-      <c r="D163" s="71" t="s">
-        <v>1708</v>
       </c>
       <c r="E163" s="39"/>
       <c r="F163" s="39" t="s">
@@ -21724,13 +21727,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="141" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C164" s="70" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D164" s="71" t="s">
         <v>1709</v>
-      </c>
-      <c r="D164" s="71" t="s">
-        <v>1710</v>
       </c>
       <c r="E164" s="39"/>
       <c r="F164" s="39" t="s">
@@ -21751,13 +21754,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="141" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C165" s="70" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D165" s="71" t="s">
         <v>1711</v>
-      </c>
-      <c r="D165" s="71" t="s">
-        <v>1712</v>
       </c>
       <c r="E165" s="39"/>
       <c r="F165" s="39" t="s">
@@ -21778,13 +21781,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="141" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C166" s="70" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D166" s="71" t="s">
         <v>1713</v>
-      </c>
-      <c r="D166" s="71" t="s">
-        <v>1714</v>
       </c>
       <c r="E166" s="39"/>
       <c r="F166" s="39" t="s">
@@ -21805,10 +21808,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="141" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C167" s="70" t="s">
         <v>1715</v>
-      </c>
-      <c r="C167" s="70" t="s">
-        <v>1716</v>
       </c>
       <c r="D167" s="71" t="s">
         <v>787</v>
@@ -21832,13 +21835,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="141" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C168" s="70" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D168" s="71" t="s">
         <v>1717</v>
-      </c>
-      <c r="D168" s="71" t="s">
-        <v>1718</v>
       </c>
       <c r="E168" s="39"/>
       <c r="F168" s="39" t="s">
@@ -21859,13 +21862,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="141" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C169" s="70" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D169" s="71" t="s">
         <v>1719</v>
-      </c>
-      <c r="D169" s="71" t="s">
-        <v>1720</v>
       </c>
       <c r="E169" s="39"/>
       <c r="F169" s="39" t="s">
@@ -21886,10 +21889,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="141" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C170" s="70" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D170" s="71" t="s">
         <v>790</v>
@@ -21913,10 +21916,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="141" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C171" s="70" t="s">
         <v>1722</v>
-      </c>
-      <c r="C171" s="70" t="s">
-        <v>1723</v>
       </c>
       <c r="D171" s="69" t="s">
         <v>792</v>
@@ -21940,10 +21943,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="141" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C172" s="70" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D172" s="69" t="s">
         <v>794</v>
@@ -21969,10 +21972,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="141" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C173" s="70" t="s">
         <v>1725</v>
-      </c>
-      <c r="C173" s="70" t="s">
-        <v>1726</v>
       </c>
       <c r="D173" s="69" t="s">
         <v>797</v>
@@ -21996,10 +21999,10 @@
         <v>172</v>
       </c>
       <c r="B174" s="141" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C174" s="70" t="s">
         <v>1727</v>
-      </c>
-      <c r="C174" s="70" t="s">
-        <v>1728</v>
       </c>
       <c r="D174" s="69" t="s">
         <v>799</v>
@@ -22023,10 +22026,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="141" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C175" s="70" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D175" s="69" t="s">
         <v>801</v>
@@ -22050,10 +22053,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="144" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C176" s="44" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D176" s="39" t="s">
         <v>722</v>
@@ -22070,7 +22073,7 @@
       </c>
       <c r="I176" s="39"/>
       <c r="J176" s="140" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K176" s="67"/>
     </row>
@@ -22079,13 +22082,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="144" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C177" s="44" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D177" s="39" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E177" s="39"/>
       <c r="F177" s="39" t="s">
@@ -22099,7 +22102,7 @@
       </c>
       <c r="I177" s="39"/>
       <c r="J177" s="193" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K177" s="67"/>
     </row>
@@ -22108,13 +22111,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="145" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C178" s="145" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D178" s="39" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E178" s="39"/>
       <c r="F178" s="39" t="s">
@@ -22128,7 +22131,7 @@
       </c>
       <c r="I178" s="39"/>
       <c r="J178" s="193" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K178" s="67"/>
     </row>
@@ -22137,13 +22140,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="44" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C179" s="145" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D179" s="39" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E179" s="39"/>
       <c r="F179" s="39" t="s">
@@ -22157,7 +22160,7 @@
       </c>
       <c r="I179" s="39"/>
       <c r="J179" s="193" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K179" s="67"/>
     </row>
@@ -22166,13 +22169,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="44" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C180" s="145" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D180" s="39" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E180" s="39"/>
       <c r="F180" s="39" t="s">
@@ -22186,7 +22189,7 @@
       </c>
       <c r="I180" s="39"/>
       <c r="J180" s="193" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K180" s="67"/>
     </row>
@@ -22195,13 +22198,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C181" s="145" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D181" s="39" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E181" s="39"/>
       <c r="F181" s="39" t="s">
@@ -22215,7 +22218,7 @@
       </c>
       <c r="I181" s="39"/>
       <c r="J181" s="193" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K181" s="67"/>
     </row>
@@ -22224,13 +22227,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="200" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C182" s="201" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D182" s="195" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E182" s="195"/>
       <c r="F182" s="195" t="s">
@@ -22244,7 +22247,7 @@
       </c>
       <c r="I182" s="195"/>
       <c r="J182" s="192" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K182" s="203"/>
     </row>
@@ -22253,13 +22256,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="194" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="D183" s="39" t="s">
         <v>1911</v>
-      </c>
-      <c r="D183" s="39" t="s">
-        <v>1912</v>
       </c>
       <c r="E183" s="39"/>
       <c r="F183" s="39" t="s">
@@ -22272,7 +22275,7 @@
       <c r="I183" s="39"/>
       <c r="J183" s="193"/>
       <c r="K183" s="39" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
   </sheetData>
@@ -22319,18 +22322,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="226"/>
+      <c r="A1" s="230" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="233"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -22340,7 +22343,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>909</v>
@@ -22368,14 +22371,14 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="249" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>1731</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>1732</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -22387,19 +22390,19 @@
       </c>
       <c r="I3" s="39"/>
       <c r="J3" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="243"/>
+      <c r="B4" s="250"/>
       <c r="C4" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>1734</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>1735</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -22416,14 +22419,14 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="249" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>1736</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>1737</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -22435,19 +22438,19 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="244"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="19" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>1739</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>1740</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -22459,19 +22462,19 @@
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="244"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="19" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>1742</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>1743</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -22488,12 +22491,12 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="244"/>
+      <c r="B8" s="251"/>
       <c r="C8" s="19" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>1744</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>1745</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -22510,12 +22513,12 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="244"/>
+      <c r="B9" s="251"/>
       <c r="C9" s="19" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>1746</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>1747</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
@@ -22532,12 +22535,12 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="244"/>
+      <c r="B10" s="251"/>
       <c r="C10" s="19" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>1748</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>1749</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -22554,12 +22557,12 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="244"/>
+      <c r="B11" s="251"/>
       <c r="C11" s="19" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>1750</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>1751</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -22576,12 +22579,12 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="244"/>
+      <c r="B12" s="251"/>
       <c r="C12" s="19" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>1752</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>1753</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -22598,12 +22601,12 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="244"/>
+      <c r="B13" s="251"/>
       <c r="C13" s="19" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>1754</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>1755</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -22620,12 +22623,12 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="244"/>
+      <c r="B14" s="251"/>
       <c r="C14" s="19" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>1756</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>1757</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -22637,19 +22640,19 @@
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="244"/>
+      <c r="B15" s="251"/>
       <c r="C15" s="19" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>1759</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>1760</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -22661,19 +22664,19 @@
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="243"/>
+      <c r="B16" s="250"/>
       <c r="C16" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>1761</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>1762</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -22685,7 +22688,7 @@
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
@@ -22696,7 +22699,7 @@
         <v>532</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>533</v>
@@ -22720,7 +22723,7 @@
         <v>535</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>536</v>
@@ -22744,7 +22747,7 @@
         <v>538</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>539</v>
@@ -22768,7 +22771,7 @@
         <v>399</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>541</v>
@@ -22790,14 +22793,14 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="249" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>1767</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>1768</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -22814,12 +22817,12 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="244"/>
+      <c r="B22" s="251"/>
       <c r="C22" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>1769</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>1770</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -22836,12 +22839,12 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="244"/>
+      <c r="B23" s="251"/>
       <c r="C23" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>1771</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>1772</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -22858,12 +22861,12 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="244"/>
+      <c r="B24" s="251"/>
       <c r="C24" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>1773</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>1774</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
@@ -22880,12 +22883,12 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="244"/>
+      <c r="B25" s="251"/>
       <c r="C25" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>1775</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>1776</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -22902,12 +22905,12 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="243"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>1777</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>1778</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -22924,14 +22927,14 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="242" t="s">
+      <c r="B27" s="249" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>1779</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>1780</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -22948,12 +22951,12 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="243"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>1781</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>1782</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
@@ -22970,14 +22973,14 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="249" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>1783</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>1784</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
@@ -22994,12 +22997,12 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="243"/>
+      <c r="B30" s="250"/>
       <c r="C30" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>1785</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>1786</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
@@ -23016,14 +23019,14 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="242" t="s">
+      <c r="B31" s="249" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>1787</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>1788</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
@@ -23040,12 +23043,12 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="244"/>
+      <c r="B32" s="251"/>
       <c r="C32" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>1789</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>1790</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
@@ -23062,12 +23065,12 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="244"/>
+      <c r="B33" s="251"/>
       <c r="C33" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>1791</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>1792</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
@@ -23084,12 +23087,12 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="244"/>
+      <c r="B34" s="251"/>
       <c r="C34" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>1793</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>1794</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
@@ -23106,12 +23109,12 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="243"/>
+      <c r="B35" s="250"/>
       <c r="C35" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D35" s="39" t="s">
         <v>1795</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>1796</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -23128,14 +23131,14 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="242" t="s">
+      <c r="B36" s="249" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>1797</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>1798</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
@@ -23152,12 +23155,12 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="244"/>
+      <c r="B37" s="251"/>
       <c r="C37" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>1799</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>1800</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -23174,12 +23177,12 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="244"/>
+      <c r="B38" s="251"/>
       <c r="C38" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>1801</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>1802</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
@@ -23196,12 +23199,12 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="243"/>
+      <c r="B39" s="250"/>
       <c r="C39" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>1803</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>1804</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="39"/>
@@ -23218,14 +23221,14 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="242" t="s">
+      <c r="B40" s="249" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>1805</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>1806</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
@@ -23242,12 +23245,12 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="243"/>
+      <c r="B41" s="250"/>
       <c r="C41" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>1807</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>1808</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
@@ -23268,7 +23271,7 @@
         <v>562</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>563</v>
@@ -23288,14 +23291,14 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="242" t="s">
+      <c r="B43" s="249" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>1810</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>1811</v>
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
@@ -23312,12 +23315,12 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="244"/>
+      <c r="B44" s="251"/>
       <c r="C44" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D44" s="39" t="s">
         <v>1812</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>1813</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
@@ -23334,12 +23337,12 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="244"/>
+      <c r="B45" s="251"/>
       <c r="C45" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D45" s="39" t="s">
         <v>1814</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>1815</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -23356,12 +23359,12 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="244"/>
+      <c r="B46" s="251"/>
       <c r="C46" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>1816</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>1817</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
@@ -23373,19 +23376,19 @@
       </c>
       <c r="I46" s="39"/>
       <c r="J46" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="244"/>
+      <c r="B47" s="251"/>
       <c r="C47" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>1819</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>1820</v>
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
@@ -23402,12 +23405,12 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="244"/>
+      <c r="B48" s="251"/>
       <c r="C48" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>1821</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>1822</v>
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
@@ -23424,12 +23427,12 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="244"/>
+      <c r="B49" s="251"/>
       <c r="C49" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>1823</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>1824</v>
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="39"/>
@@ -23446,12 +23449,12 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="244"/>
+      <c r="B50" s="251"/>
       <c r="C50" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D50" s="39" t="s">
         <v>1825</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>1826</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
@@ -23463,19 +23466,19 @@
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="244"/>
+      <c r="B51" s="251"/>
       <c r="C51" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D51" s="39" t="s">
         <v>1827</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>1828</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
@@ -23492,12 +23495,12 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="244"/>
+      <c r="B52" s="251"/>
       <c r="C52" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D52" s="39" t="s">
         <v>1829</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>1830</v>
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
@@ -23514,12 +23517,12 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="244"/>
+      <c r="B53" s="251"/>
       <c r="C53" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D53" s="39" t="s">
         <v>1831</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>1832</v>
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
@@ -23536,12 +23539,12 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="243"/>
+      <c r="B54" s="250"/>
       <c r="C54" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D54" s="39" t="s">
         <v>1833</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>1834</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
@@ -23569,16 +23572,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23619,26 +23622,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="226"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="231"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="233"/>
     </row>
     <row r="3" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -24303,7 +24306,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>92</v>
@@ -24313,7 +24316,7 @@
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="119" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>6</v>
@@ -24603,7 +24606,7 @@
         <v>106</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F33" s="94"/>
       <c r="G33" s="119" t="s">
@@ -24639,7 +24642,7 @@
         <v>109</v>
       </c>
       <c r="E34" s="119" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F34" s="94"/>
       <c r="G34" s="119" t="s">
@@ -25823,7 +25826,7 @@
       <c r="C68" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="222" t="s">
+      <c r="D68" s="229" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="119"/>
@@ -25857,7 +25860,7 @@
       <c r="C69" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="222"/>
+      <c r="D69" s="229"/>
       <c r="E69" s="119"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -26710,7 +26713,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="2:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B94" s="91">
         <v>91</v>
       </c>
@@ -27280,10 +27283,10 @@
         <v>56</v>
       </c>
       <c r="F110" s="89" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G110" s="47" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H110" s="89" t="s">
         <v>5</v>
@@ -27682,7 +27685,7 @@
       <c r="R121" s="89"/>
       <c r="S121" s="47"/>
     </row>
-    <row r="122" spans="2:19" ht="114" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B122" s="91">
         <v>119</v>
       </c>
@@ -27914,7 +27917,7 @@
         <v>406</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G128" s="89" t="s">
         <v>420</v>
@@ -27974,7 +27977,7 @@
       <c r="R129" s="89"/>
       <c r="S129" s="47"/>
     </row>
-    <row r="130" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:19" ht="57" x14ac:dyDescent="0.25">
       <c r="B130" s="91">
         <v>127</v>
       </c>
@@ -28152,7 +28155,7 @@
       <c r="R134" s="89"/>
       <c r="S134" s="47"/>
     </row>
-    <row r="135" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B135" s="91">
         <v>132</v>
       </c>
@@ -28366,7 +28369,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="2:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B141" s="91">
         <v>138</v>
       </c>
@@ -28620,7 +28623,7 @@
       <c r="R147" s="89"/>
       <c r="S147" s="47"/>
     </row>
-    <row r="148" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B148" s="91">
         <v>145</v>
       </c>
@@ -28944,7 +28947,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B157" s="91">
         <v>154</v>
       </c>
@@ -33182,7 +33185,7 @@
       <c r="T281" s="53"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="2:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B282" s="91">
         <v>279</v>
       </c>
@@ -35602,12 +35605,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="230" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="233"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -37172,18 +37175,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="230" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="226"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="233"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -37415,7 +37418,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="87"/>
       <c r="L8" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -37451,7 +37454,7 @@
         <v>349</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37487,7 +37490,7 @@
         <v>123</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
@@ -37684,7 +37687,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="234" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37717,7 +37720,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="228"/>
+      <c r="B18" s="235"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37748,7 +37751,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="227" t="s">
+      <c r="B19" s="234" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37781,7 +37784,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="228"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37843,7 +37846,7 @@
         <v>349</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
@@ -37882,16 +37885,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="39" t="s">
         <v>1902</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="E23" s="4" t="s">
         <v>1903</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>1904</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="39" t="s">
@@ -37900,7 +37903,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="41"/>
       <c r="L23" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -38066,18 +38069,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="230" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="226"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="233"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -38150,14 +38153,14 @@
         <v>349</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="237" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38188,7 +38191,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="231"/>
+      <c r="B5" s="238"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38248,7 +38251,7 @@
         <v>902</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -38286,14 +38289,14 @@
         <v>902</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="237" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38326,7 +38329,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="231"/>
+      <c r="B9" s="238"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38485,7 +38488,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="237" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38518,7 +38521,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="231"/>
+      <c r="B15" s="238"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38580,7 +38583,7 @@
         <v>349</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -38618,7 +38621,7 @@
         <v>349</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -38626,7 +38629,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>1005</v>
@@ -38656,7 +38659,7 @@
         <v>349</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -38692,7 +38695,7 @@
         <v>349</v>
       </c>
       <c r="L19" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -38728,7 +38731,7 @@
         <v>349</v>
       </c>
       <c r="L20" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -38764,14 +38767,14 @@
         <v>349</v>
       </c>
       <c r="L21" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="230" t="s">
+      <c r="B22" s="237" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38800,14 +38803,14 @@
         <v>349</v>
       </c>
       <c r="L22" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="233"/>
+      <c r="B23" s="240"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -38833,14 +38836,14 @@
         <v>349</v>
       </c>
       <c r="L23" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="231"/>
+      <c r="B24" s="238"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -38867,7 +38870,7 @@
         <v>349</v>
       </c>
       <c r="L24" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -38903,7 +38906,7 @@
         <v>349</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
@@ -39001,7 +39004,7 @@
         <v>349</v>
       </c>
       <c r="L28" s="41" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -39041,7 +39044,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="230" t="s">
+      <c r="B30" s="237" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39074,7 +39077,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="231"/>
+      <c r="B31" s="238"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39105,7 +39108,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="230" t="s">
+      <c r="B32" s="237" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39138,7 +39141,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="231"/>
+      <c r="B33" s="238"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39233,7 +39236,7 @@
         <v>236</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
@@ -39347,7 +39350,7 @@
         <v>248</v>
       </c>
       <c r="E39" s="126" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>917</v>
@@ -39366,7 +39369,7 @@
         <v>349</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
@@ -39406,7 +39409,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="230" t="s">
+      <c r="B41" s="237" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39439,7 +39442,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="231"/>
+      <c r="B42" s="238"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39503,7 +39506,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="230" t="s">
+      <c r="B44" s="237" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39536,7 +39539,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="231"/>
+      <c r="B45" s="238"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39655,7 +39658,7 @@
       <c r="I48" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="232" t="s">
+      <c r="J48" s="239" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="85" t="s">
@@ -39690,7 +39693,7 @@
       <c r="I49" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="232"/>
+      <c r="J49" s="239"/>
       <c r="K49" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39723,7 +39726,7 @@
       <c r="I50" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="232"/>
+      <c r="J50" s="239"/>
       <c r="K50" s="130" t="s">
         <v>349</v>
       </c>
@@ -39756,7 +39759,7 @@
       <c r="I51" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="232"/>
+      <c r="J51" s="239"/>
       <c r="K51" s="130" t="s">
         <v>1070</v>
       </c>
@@ -39789,7 +39792,7 @@
       <c r="I52" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="232"/>
+      <c r="J52" s="239"/>
       <c r="K52" s="130" t="s">
         <v>1074</v>
       </c>
@@ -39822,7 +39825,7 @@
       <c r="I53" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="232"/>
+      <c r="J53" s="239"/>
       <c r="K53" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39855,7 +39858,7 @@
       <c r="I54" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="232"/>
+      <c r="J54" s="239"/>
       <c r="K54" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39888,7 +39891,7 @@
       <c r="I55" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="232"/>
+      <c r="J55" s="239"/>
       <c r="K55" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39913,11 +39916,11 @@
       <c r="G56" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H56" s="247">
+      <c r="H56" s="224">
         <v>0</v>
       </c>
       <c r="I56" s="84"/>
-      <c r="J56" s="232"/>
+      <c r="J56" s="239"/>
       <c r="K56" s="130" t="s">
         <v>1063</v>
       </c>
@@ -39950,12 +39953,12 @@
       <c r="I57" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="232"/>
-      <c r="K57" s="245" t="s">
+      <c r="J57" s="239"/>
+      <c r="K57" s="222" t="s">
         <v>1063</v>
       </c>
       <c r="L57" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -39977,16 +39980,16 @@
       <c r="F58" s="221" t="s">
         <v>917</v>
       </c>
-      <c r="G58" s="249" t="s">
+      <c r="G58" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="H58" s="250">
+      <c r="H58" s="227">
         <v>0</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="229" t="s">
+      <c r="J58" s="236" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="130" t="s">
@@ -40021,7 +40024,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="229"/>
+      <c r="J59" s="236"/>
       <c r="K59" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40054,7 +40057,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="229"/>
+      <c r="J60" s="236"/>
       <c r="K60" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40087,7 +40090,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="229"/>
+      <c r="J61" s="236"/>
       <c r="K61" s="134" t="s">
         <v>66</v>
       </c>
@@ -40120,7 +40123,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="229"/>
+      <c r="J62" s="236"/>
       <c r="K62" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40153,7 +40156,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="229"/>
+      <c r="J63" s="236"/>
       <c r="K63" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40186,7 +40189,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="229"/>
+      <c r="J64" s="236"/>
       <c r="K64" s="134" t="s">
         <v>1109</v>
       </c>
@@ -40219,7 +40222,7 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="229"/>
+      <c r="J65" s="236"/>
       <c r="K65" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40244,11 +40247,11 @@
       <c r="G66" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="248">
+      <c r="H66" s="225">
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="229"/>
+      <c r="J66" s="236"/>
       <c r="K66" s="130" t="s">
         <v>1063</v>
       </c>
@@ -40265,7 +40268,7 @@
         <v>1117</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F67" s="39" t="s">
         <v>5</v>
@@ -40277,12 +40280,12 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="229"/>
-      <c r="K67" s="246" t="s">
+      <c r="J67" s="236"/>
+      <c r="K67" s="223" t="s">
         <v>1119</v>
       </c>
       <c r="L67" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -40304,7 +40307,7 @@
       <c r="F68" s="221" t="s">
         <v>917</v>
       </c>
-      <c r="G68" s="251" t="s">
+      <c r="G68" s="228" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="135">
@@ -40313,7 +40316,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="229"/>
+      <c r="J68" s="236"/>
       <c r="K68" s="134" t="s">
         <v>1123</v>
       </c>
@@ -40349,7 +40352,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="229"/>
+      <c r="J69" s="236"/>
       <c r="K69" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40382,7 +40385,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="229"/>
+      <c r="J70" s="236"/>
       <c r="K70" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40415,7 +40418,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="229"/>
+      <c r="J71" s="236"/>
       <c r="K71" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40448,7 +40451,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="229"/>
+      <c r="J72" s="236"/>
       <c r="K72" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40481,7 +40484,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="229"/>
+      <c r="J73" s="236"/>
       <c r="K73" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40512,7 +40515,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="229"/>
+      <c r="J74" s="236"/>
       <c r="K74" s="134" t="s">
         <v>1063</v>
       </c>
@@ -40529,7 +40532,7 @@
       <c r="G75" s="83"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="229"/>
+      <c r="J75" s="236"/>
       <c r="K75" s="69"/>
     </row>
     <row r="76" spans="1:12" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -40626,16 +40629,16 @@
         <v>74</v>
       </c>
       <c r="B79" s="47" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>1914</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>1915</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="39" t="s">
@@ -40644,7 +40647,7 @@
       <c r="H79" s="36"/>
       <c r="I79" s="41"/>
       <c r="L79" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -40652,13 +40655,13 @@
         <v>75</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E80" s="219"/>
       <c r="F80" s="39"/>
@@ -40668,7 +40671,7 @@
       <c r="H80" s="36"/>
       <c r="I80" s="41"/>
       <c r="L80" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -40801,7 +40804,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:J1"/>
@@ -40825,18 +40828,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="230" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="226"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="233"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -40908,10 +40911,10 @@
         <v>902</v>
       </c>
       <c r="K3" s="214" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="213.75" x14ac:dyDescent="0.25">
@@ -40949,7 +40952,7 @@
         <v>1155</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57" x14ac:dyDescent="0.25">
@@ -41025,7 +41028,7 @@
         <v>1163</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="185.25" x14ac:dyDescent="0.25">
@@ -41063,7 +41066,7 @@
         <v>1167</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="199.5" x14ac:dyDescent="0.25">
@@ -41098,10 +41101,10 @@
         <v>902</v>
       </c>
       <c r="K8" s="214" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="256.5" x14ac:dyDescent="0.25">
@@ -41112,13 +41115,13 @@
         <v>288</v>
       </c>
       <c r="C9" s="164" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D9" s="164" t="s">
         <v>1171</v>
       </c>
-      <c r="D9" s="164" t="s">
-        <v>1172</v>
-      </c>
       <c r="E9" s="164" t="s">
-        <v>290</v>
+        <v>1949</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>917</v>
@@ -41136,10 +41139,10 @@
         <v>902</v>
       </c>
       <c r="K9" s="214" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
@@ -41147,10 +41150,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="166" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C10" s="164" t="s">
         <v>1174</v>
-      </c>
-      <c r="C10" s="164" t="s">
-        <v>1175</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>293</v>
@@ -41171,10 +41174,10 @@
         <v>939</v>
       </c>
       <c r="J10" s="167" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K10" s="214" t="s">
         <v>1176</v>
-      </c>
-      <c r="K10" s="214" t="s">
-        <v>1177</v>
       </c>
       <c r="L10" s="39"/>
     </row>
@@ -41186,7 +41189,7 @@
         <v>296</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D11" s="45" t="s">
         <v>297</v>
@@ -41218,7 +41221,7 @@
         <v>299</v>
       </c>
       <c r="C12" s="164" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>300</v>
@@ -41250,7 +41253,7 @@
         <v>302</v>
       </c>
       <c r="C13" s="164" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>303</v>
@@ -41282,7 +41285,7 @@
         <v>306</v>
       </c>
       <c r="C14" s="164" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>307</v>
@@ -41306,10 +41309,10 @@
         <v>902</v>
       </c>
       <c r="K14" s="214" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -41320,7 +41323,7 @@
         <v>309</v>
       </c>
       <c r="C15" s="164" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>310</v>
@@ -41356,7 +41359,7 @@
         <v>312</v>
       </c>
       <c r="C16" s="164" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>313</v>
@@ -41381,7 +41384,7 @@
       </c>
       <c r="K16" s="215"/>
       <c r="L16" s="39" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="228" x14ac:dyDescent="0.25">
@@ -41389,7 +41392,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="163" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C17" s="167" t="s">
         <v>315</v>
@@ -41416,10 +41419,10 @@
         <v>902</v>
       </c>
       <c r="K17" s="214" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -41430,7 +41433,7 @@
         <v>319</v>
       </c>
       <c r="C18" s="164" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>320</v>
@@ -41459,7 +41462,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="163" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C19" s="164" t="s">
         <v>322</v>
@@ -41484,10 +41487,10 @@
         <v>902</v>
       </c>
       <c r="K19" s="214" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -41498,7 +41501,7 @@
         <v>325</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>326</v>
@@ -41552,7 +41555,7 @@
         <v>331</v>
       </c>
       <c r="C22" s="164" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>332</v>
@@ -41584,7 +41587,7 @@
         <v>334</v>
       </c>
       <c r="C23" s="164" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>335</v>
@@ -41613,22 +41616,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="172" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C24" s="170" t="s">
         <v>1193</v>
       </c>
-      <c r="C24" s="170" t="s">
+      <c r="D24" s="173" t="s">
         <v>1194</v>
       </c>
-      <c r="D24" s="173" t="s">
+      <c r="E24" s="170" t="s">
         <v>1195</v>
-      </c>
-      <c r="E24" s="170" t="s">
-        <v>1196</v>
       </c>
       <c r="F24" s="173" t="s">
         <v>917</v>
       </c>
       <c r="G24" s="173" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="173" t="s">
@@ -41648,7 +41651,7 @@
         <v>337</v>
       </c>
       <c r="C25" s="164" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>338</v>
@@ -41667,7 +41670,7 @@
         <v>939</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K25" s="161"/>
       <c r="L25" s="39"/>
@@ -41680,7 +41683,7 @@
         <v>340</v>
       </c>
       <c r="C26" s="164" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>341</v>
@@ -41712,7 +41715,7 @@
         <v>343</v>
       </c>
       <c r="C27" s="164" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D27" s="167" t="s">
         <v>344</v>
@@ -41727,7 +41730,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="162" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I27" s="45" t="s">
         <v>939</v>
@@ -41736,10 +41739,10 @@
         <v>349</v>
       </c>
       <c r="K27" s="214" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -41747,16 +41750,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="172" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C28" s="170" t="s">
         <v>1203</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="D28" s="173" t="s">
         <v>1204</v>
       </c>
-      <c r="D28" s="173" t="s">
+      <c r="E28" s="170" t="s">
         <v>1205</v>
-      </c>
-      <c r="E28" s="170" t="s">
-        <v>1206</v>
       </c>
       <c r="F28" s="173" t="s">
         <v>917</v>
@@ -41769,7 +41772,7 @@
         <v>939</v>
       </c>
       <c r="J28" s="170" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K28" s="161"/>
       <c r="L28" s="39"/>
@@ -41779,16 +41782,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="172" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C29" s="170" t="s">
         <v>1208</v>
       </c>
-      <c r="C29" s="170" t="s">
+      <c r="D29" s="173" t="s">
         <v>1209</v>
       </c>
-      <c r="D29" s="173" t="s">
+      <c r="E29" s="170" t="s">
         <v>1210</v>
-      </c>
-      <c r="E29" s="170" t="s">
-        <v>1211</v>
       </c>
       <c r="F29" s="173" t="s">
         <v>917</v>
@@ -41801,7 +41804,7 @@
         <v>939</v>
       </c>
       <c r="J29" s="170" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K29" s="161"/>
       <c r="L29" s="39"/>
@@ -41811,16 +41814,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="172" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C30" s="170" t="s">
         <v>1212</v>
       </c>
-      <c r="C30" s="170" t="s">
+      <c r="D30" s="173" t="s">
         <v>1213</v>
       </c>
-      <c r="D30" s="173" t="s">
+      <c r="E30" s="170" t="s">
         <v>1214</v>
-      </c>
-      <c r="E30" s="170" t="s">
-        <v>1215</v>
       </c>
       <c r="F30" s="173" t="s">
         <v>917</v>
@@ -41831,7 +41834,7 @@
       <c r="H30" s="164"/>
       <c r="I30" s="173"/>
       <c r="J30" s="170" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K30" s="161"/>
       <c r="L30" s="39"/>
@@ -41844,7 +41847,7 @@
         <v>346</v>
       </c>
       <c r="C31" s="164" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>347</v>
@@ -41876,7 +41879,7 @@
         <v>350</v>
       </c>
       <c r="C32" s="164" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D32" s="45" t="s">
         <v>351</v>
@@ -41904,7 +41907,7 @@
         <v>354</v>
       </c>
       <c r="C33" s="164" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D33" s="45" t="s">
         <v>355</v>
@@ -41929,10 +41932,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="163" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C34" s="164" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D34" s="164" t="s">
         <v>359</v>
@@ -41952,10 +41955,10 @@
       <c r="I34" s="161"/>
       <c r="J34" s="164"/>
       <c r="K34" s="214" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -41963,7 +41966,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="163" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C35" s="164" t="s">
         <v>73</v>
@@ -41972,10 +41975,10 @@
         <v>73</v>
       </c>
       <c r="E35" s="163" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F35" s="45" t="s">
         <v>1221</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>1222</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>5</v>
@@ -42007,21 +42010,21 @@
         <v>114</v>
       </c>
       <c r="F36" s="189" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G36" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="186" t="s">
         <v>1222</v>
-      </c>
-      <c r="G36" s="189" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="186" t="s">
-        <v>1223</v>
       </c>
       <c r="I36" s="164"/>
       <c r="J36" s="189"/>
       <c r="K36" s="216" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L36" s="39" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -42029,16 +42032,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="163" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C37" s="164" t="s">
         <v>1861</v>
       </c>
-      <c r="C37" s="164" t="s">
-        <v>1862</v>
-      </c>
       <c r="D37" s="45" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E37" s="164" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F37" s="45" t="s">
         <v>917</v>
@@ -42053,7 +42056,7 @@
       <c r="J37" s="164"/>
       <c r="K37" s="215"/>
       <c r="L37" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -42061,16 +42064,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="163" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C38" s="164" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>1863</v>
       </c>
-      <c r="D38" s="45" t="s">
-        <v>1864</v>
-      </c>
       <c r="E38" s="164" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F38" s="45" t="s">
         <v>917</v>
@@ -42079,15 +42082,15 @@
         <v>5</v>
       </c>
       <c r="H38" s="162" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I38" s="161"/>
       <c r="J38" s="164"/>
       <c r="K38" s="215" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="L38" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -42095,16 +42098,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="210" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1927</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="39" t="s">
         <v>1928</v>
       </c>
-      <c r="D39" s="39" t="s">
-        <v>1929</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>917</v>
@@ -42117,10 +42120,10 @@
       </c>
       <c r="I39" s="41"/>
       <c r="K39" s="39" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="L39" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -42128,16 +42131,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="210" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>1934</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>1935</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>917</v>
@@ -42151,7 +42154,7 @@
       <c r="I40" s="41"/>
       <c r="K40" s="39"/>
       <c r="L40" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -42159,16 +42162,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="210" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>1937</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>1939</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1940</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>917</v>
@@ -42182,7 +42185,7 @@
       <c r="I41" s="41"/>
       <c r="K41" s="39"/>
       <c r="L41" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -42190,16 +42193,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="213" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>1946</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>1947</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>917</v>
@@ -42213,7 +42216,7 @@
       <c r="I42" s="41"/>
       <c r="K42" s="39"/>
       <c r="L42" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -42269,18 +42272,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="238"/>
+      <c r="A1" s="242" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="245"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -42317,7 +42320,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="62" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
@@ -42328,13 +42331,13 @@
         <v>361</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>362</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>917</v>
@@ -42353,7 +42356,7 @@
         <v>349</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -42364,7 +42367,7 @@
         <v>363</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>364</v>
@@ -42382,14 +42385,14 @@
         <v>6</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
@@ -42400,7 +42403,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>367</v>
@@ -42418,7 +42421,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>369</v>
@@ -42436,7 +42439,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D6" s="180" t="s">
         <v>371</v>
@@ -42454,31 +42457,31 @@
         <v>12</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="232" t="s">
+      <c r="B7" s="239" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>1230</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>1231</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>917</v>
@@ -42490,29 +42493,29 @@
         <v>6</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="239"/>
+      <c r="B8" s="246"/>
       <c r="C8" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>1232</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="4" t="s">
         <v>1233</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1234</v>
       </c>
       <c r="F8" s="53" t="s">
         <v>917</v>
@@ -42524,29 +42527,29 @@
         <v>20</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="239"/>
+      <c r="B9" s="246"/>
       <c r="C9" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>1235</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>1236</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>917</v>
@@ -42558,29 +42561,29 @@
         <v>20</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="239"/>
+      <c r="B10" s="246"/>
       <c r="C10" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>1237</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="4" t="s">
         <v>1238</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1239</v>
       </c>
       <c r="F10" s="53" t="s">
         <v>917</v>
@@ -42592,29 +42595,29 @@
         <v>14</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="239"/>
+      <c r="B11" s="246"/>
       <c r="C11" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>1240</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="4" t="s">
         <v>1241</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>1242</v>
       </c>
       <c r="F11" s="53" t="s">
         <v>917</v>
@@ -42626,29 +42629,29 @@
         <v>28</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="239"/>
+      <c r="B12" s="246"/>
       <c r="C12" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>1243</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="4" t="s">
         <v>1244</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1245</v>
       </c>
       <c r="F12" s="53" t="s">
         <v>917</v>
@@ -42660,29 +42663,29 @@
         <v>28</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="239"/>
+      <c r="B13" s="246"/>
       <c r="C13" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>1246</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="E13" s="4" t="s">
         <v>1247</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>1248</v>
       </c>
       <c r="F13" s="53" t="s">
         <v>917</v>
@@ -42694,29 +42697,29 @@
         <v>14</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="87" t="s">
         <v>349</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="239"/>
+      <c r="B14" s="246"/>
       <c r="C14" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>1249</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="E14" s="4" t="s">
         <v>1250</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1251</v>
       </c>
       <c r="F14" s="53" t="s">
         <v>917</v>
@@ -42735,7 +42738,7 @@
         <v>349</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
@@ -42746,7 +42749,7 @@
         <v>376</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D15" s="128" t="s">
         <v>377</v>
@@ -42764,7 +42767,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="41" t="s">
@@ -42780,7 +42783,7 @@
         <v>379</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>380</v>
@@ -42798,7 +42801,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>382</v>
@@ -42816,7 +42819,7 @@
         <v>383</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D17" s="127" t="s">
         <v>384</v>
@@ -42834,7 +42837,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J17" s="51" t="s">
         <v>369</v>
@@ -42852,7 +42855,7 @@
         <v>386</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>387</v>
@@ -42870,14 +42873,14 @@
         <v>6</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="185" t="s">
         <v>474</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -42888,7 +42891,7 @@
         <v>389</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D19" s="128" t="s">
         <v>390</v>
@@ -42906,7 +42909,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="41" t="s">
@@ -42922,7 +42925,7 @@
         <v>392</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D20" s="127" t="s">
         <v>393</v>
@@ -42940,7 +42943,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J20" s="51" t="s">
         <v>395</v>
@@ -42958,7 +42961,7 @@
         <v>396</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>397</v>
@@ -42983,24 +42986,24 @@
         <v>902</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="232" t="s">
+      <c r="B22" s="239" t="s">
         <v>399</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>1259</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E22" s="23" t="s">
         <v>1260</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>1261</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>917</v>
@@ -43012,10 +43015,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J22" s="107" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K22" s="82" t="s">
         <v>902</v>
@@ -43026,15 +43029,15 @@
       <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="240"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="59" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D23" s="60" t="s">
         <v>1263</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>1264</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>1265</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>917</v>
@@ -43046,7 +43049,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J23" s="61" t="s">
         <v>56</v>
@@ -43058,15 +43061,15 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="239"/>
+      <c r="B24" s="246"/>
       <c r="C24" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>1266</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>1267</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>1268</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>917</v>
@@ -43078,7 +43081,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="82" t="s">
@@ -43090,15 +43093,15 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="239"/>
+      <c r="B25" s="246"/>
       <c r="C25" s="22" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>1269</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="E25" s="23" t="s">
         <v>1270</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>1271</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>917</v>
@@ -43110,7 +43113,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="82" t="s">
@@ -43122,15 +43125,15 @@
       <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="240"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="59" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D26" s="60" t="s">
         <v>1272</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="E26" s="60" t="s">
         <v>1273</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>1274</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>917</v>
@@ -43154,15 +43157,15 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="239"/>
+      <c r="B27" s="246"/>
       <c r="C27" s="22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>1275</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>1276</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>1277</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>917</v>
@@ -43190,7 +43193,7 @@
         <v>402</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>403</v>
@@ -43215,7 +43218,7 @@
         <v>902</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
@@ -43226,7 +43229,7 @@
         <v>405</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>407</v>
@@ -43244,31 +43247,31 @@
         <v>8</v>
       </c>
       <c r="I29" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="232" t="s">
+      <c r="B30" s="239" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>1280</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="E30" s="4" t="s">
         <v>1281</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>1282</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>917</v>
@@ -43280,29 +43283,29 @@
         <v>16</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="239"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>1283</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="E31" s="4" t="s">
         <v>1284</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>1285</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>917</v>
@@ -43321,22 +43324,22 @@
         <v>902</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="239"/>
+      <c r="B32" s="246"/>
       <c r="C32" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>1286</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="E32" s="4" t="s">
         <v>1287</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>1288</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>917</v>
@@ -43348,29 +43351,29 @@
         <v>8</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="239"/>
+      <c r="B33" s="246"/>
       <c r="C33" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>1289</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="E33" s="4" t="s">
         <v>1290</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>1291</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>917</v>
@@ -43382,14 +43385,14 @@
         <v>16</v>
       </c>
       <c r="I33" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="114" x14ac:dyDescent="0.25">
@@ -43400,7 +43403,7 @@
         <v>412</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D34" s="178" t="s">
         <v>413</v>
@@ -43418,7 +43421,7 @@
         <v>24</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J34" s="107" t="s">
         <v>415</v>
@@ -43427,7 +43430,7 @@
         <v>902</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="114" hidden="1" x14ac:dyDescent="0.25">
@@ -43438,7 +43441,7 @@
         <v>416</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>417</v>
@@ -43456,16 +43459,16 @@
         <v>6</v>
       </c>
       <c r="I35" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K35" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -43476,10 +43479,10 @@
         <v>419</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D36" s="64" t="s">
         <v>1295</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>1296</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>420</v>
@@ -43503,7 +43506,7 @@
         <v>902</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -43514,7 +43517,7 @@
         <v>422</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>423</v>
@@ -43532,14 +43535,14 @@
         <v>10</v>
       </c>
       <c r="I37" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="57" hidden="1" x14ac:dyDescent="0.25">
@@ -43550,7 +43553,7 @@
         <v>425</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>426</v>
@@ -43568,31 +43571,31 @@
         <v>6</v>
       </c>
       <c r="I38" s="53" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="82" t="s">
         <v>902</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58">
         <v>37</v>
       </c>
-      <c r="B39" s="233" t="s">
+      <c r="B39" s="240" t="s">
         <v>428</v>
       </c>
       <c r="C39" s="50" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D39" s="128" t="s">
         <v>1299</v>
       </c>
-      <c r="D39" s="128" t="s">
+      <c r="E39" s="50" t="s">
         <v>1300</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>1301</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>917</v>
@@ -43602,7 +43605,7 @@
       </c>
       <c r="H39" s="50"/>
       <c r="I39" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J39" s="50"/>
       <c r="K39" s="41" t="s">
@@ -43614,15 +43617,15 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="240"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>1302</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="E40" s="4" t="s">
         <v>1303</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>1304</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>917</v>
@@ -43632,7 +43635,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="41" t="s">
@@ -43644,15 +43647,15 @@
       <c r="A41" s="52">
         <v>39</v>
       </c>
-      <c r="B41" s="240"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="51" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D41" s="127" t="s">
         <v>1305</v>
       </c>
-      <c r="D41" s="127" t="s">
+      <c r="E41" s="127" t="s">
         <v>1306</v>
-      </c>
-      <c r="E41" s="127" t="s">
-        <v>1307</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>917</v>
@@ -43672,17 +43675,17 @@
     </row>
     <row r="42" spans="1:12" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
-      <c r="B42" s="234" t="s">
+      <c r="B42" s="241" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="39" t="s">
         <v>1309</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="E42" s="4" t="s">
         <v>1310</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>1311</v>
       </c>
       <c r="F42" s="53" t="s">
         <v>5</v>
@@ -43703,20 +43706,20 @@
         <v>902</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
-      <c r="B43" s="234"/>
+      <c r="B43" s="241"/>
       <c r="C43" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>1312</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="E43" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>1314</v>
       </c>
       <c r="F43" s="53" t="s">
         <v>5</v>
@@ -43731,20 +43734,20 @@
       <c r="J43" s="4"/>
       <c r="K43" s="82"/>
       <c r="L43" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
-      <c r="B44" s="234"/>
+      <c r="B44" s="241"/>
       <c r="C44" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D44" s="78" t="s">
         <v>1315</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="E44" s="4" t="s">
         <v>1316</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>1317</v>
       </c>
       <c r="F44" s="53" t="s">
         <v>5</v>
@@ -43759,22 +43762,22 @@
       <c r="J44" s="4"/>
       <c r="K44" s="82"/>
       <c r="L44" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="241" t="s">
         <v>435</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D45" s="177" t="s">
         <v>1318</v>
       </c>
-      <c r="D45" s="177" t="s">
+      <c r="E45" s="4" t="s">
         <v>1319</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>1320</v>
       </c>
       <c r="F45" s="53" t="s">
         <v>5</v>
@@ -43789,20 +43792,20 @@
       <c r="J45" s="4"/>
       <c r="K45" s="82"/>
       <c r="L45" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
-      <c r="B46" s="234"/>
+      <c r="B46" s="241"/>
       <c r="C46" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D46" s="177" t="s">
         <v>1321</v>
       </c>
-      <c r="D46" s="177" t="s">
+      <c r="E46" s="4" t="s">
         <v>1322</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>1323</v>
       </c>
       <c r="F46" s="53" t="s">
         <v>5</v>
@@ -43817,31 +43820,31 @@
       <c r="J46" s="4"/>
       <c r="K46" s="82"/>
       <c r="L46" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>1871</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="44" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>1872</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>1873</v>
-      </c>
       <c r="G47" s="39" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H47" s="36"/>
       <c r="J47" s="4"/>
       <c r="K47" s="82"/>
       <c r="L47" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -44529,18 +44532,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="226"/>
+      <c r="A1" s="230" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="233"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -44577,7 +44580,7 @@
         <v>886</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -44588,7 +44591,7 @@
         <v>363</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>438</v>
@@ -44606,30 +44609,30 @@
         <v>4</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>349</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="237" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D4" s="180" t="s">
         <v>1324</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="E4" s="4" t="s">
         <v>1325</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1326</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>917</v>
@@ -44646,22 +44649,22 @@
         <v>902</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="233"/>
+      <c r="B5" s="240"/>
       <c r="C5" s="51" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D5" s="179" t="s">
         <v>1327</v>
       </c>
-      <c r="D5" s="179" t="s">
+      <c r="E5" s="127" t="s">
         <v>1328</v>
-      </c>
-      <c r="E5" s="127" t="s">
-        <v>1329</v>
       </c>
       <c r="F5" s="127" t="s">
         <v>917</v>
@@ -44678,7 +44681,7 @@
         <v>902</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -44687,7 +44690,7 @@
         <v>441</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>442</v>
@@ -44708,7 +44711,7 @@
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -44717,7 +44720,7 @@
         <v>422</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>445</v>
@@ -44736,22 +44739,22 @@
       <c r="J7" s="4"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="183" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>1888</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1889</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39" t="s">
@@ -44762,11 +44765,11 @@
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
   </sheetData>
@@ -44817,18 +44820,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="238"/>
+      <c r="A1" s="230" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="245"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -44876,7 +44879,7 @@
         <v>447</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>448</v>
@@ -44908,7 +44911,7 @@
         <v>450</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>451</v>
@@ -44940,7 +44943,7 @@
         <v>454</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>455</v>
@@ -44967,7 +44970,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -44978,7 +44981,7 @@
         <v>457</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>458</v>
@@ -44999,13 +45002,13 @@
         <v>1145</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>474</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -45016,7 +45019,7 @@
         <v>460</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>461</v>
@@ -45041,7 +45044,7 @@
         <v>349</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -45052,7 +45055,7 @@
         <v>463</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>464</v>
@@ -45077,7 +45080,7 @@
         <v>902</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -45088,7 +45091,7 @@
         <v>466</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>467</v>
@@ -45115,7 +45118,7 @@
         <v>902</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
@@ -45126,7 +45129,7 @@
         <v>469</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>470</v>
@@ -45179,7 +45182,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -45190,7 +45193,7 @@
         <v>425</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>476</v>
@@ -45211,7 +45214,7 @@
         <v>902</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -45219,16 +45222,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="205" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>1867</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>1868</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="140" t="s">
@@ -45239,11 +45242,11 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="41" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -45251,16 +45254,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="205" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>1894</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>1895</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="190" t="s">
@@ -45273,7 +45276,7 @@
       <c r="J14" s="39"/>
       <c r="K14" s="4"/>
       <c r="L14" s="41" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
@@ -45281,16 +45284,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="205" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>1896</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>1897</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="190" t="s">
@@ -45303,7 +45306,7 @@
       <c r="J15" s="39"/>
       <c r="K15" s="4"/>
       <c r="L15" s="41" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -45311,16 +45314,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="205" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="39" t="s">
         <v>1899</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>1900</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="190" t="s">
@@ -45333,7 +45336,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="4"/>
       <c r="L16" s="41" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -45341,27 +45344,27 @@
         <v>15</v>
       </c>
       <c r="B17" s="205" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="39" t="s">
         <v>1907</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>1908</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G17" s="191" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="9"/>
       <c r="J17" s="39" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="41" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -45448,41 +45451,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -45689,32 +45657,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45731,4 +45709,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B4371D24-E302-4B08-85C5-B0B5A2D58A4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89CFDC1B-6F62-4E2A-BC3E-DC4DCC48AF92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23572,16 +23572,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -37900,7 +37900,9 @@
       <c r="G23" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="36">
+        <v>8</v>
+      </c>
       <c r="I23" s="41"/>
       <c r="L23" s="39" t="s">
         <v>1879</v>
@@ -45451,6 +45453,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -45657,42 +45694,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45709,29 +45736,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E496E45-2430-4CD6-A9F7-E5E6C77AFD74}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28BF49DD-6BA1-4775-88A5-56829E27470A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$B$3:$S$350</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ID-Authentication'!$A$2:$N$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ID-Repository'!$A$2:$N$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$L$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$N$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$L$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$L$81</definedName>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6838,7 +6838,7 @@
     <t>On Hold due to E2E Demo</t>
   </si>
   <si>
-    <t>Story Detailed</t>
+    <t xml:space="preserve">Detailing pending </t>
   </si>
 </sst>
 </file>
@@ -8093,6 +8093,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8161,12 +8167,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15316,7 +15316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16234,18 +16234,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16695,7 +16695,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="237" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16727,7 +16727,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="236"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17067,19 +17067,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="236"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="145" t="s">
@@ -22421,18 +22421,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22470,7 +22470,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="250" t="s">
+      <c r="B3" s="252" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22496,7 +22496,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="251"/>
+      <c r="B4" s="253"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22518,7 +22518,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="252" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22544,7 +22544,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="252"/>
+      <c r="B6" s="254"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22568,7 +22568,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="252"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22590,7 +22590,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="252"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22612,7 +22612,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="252"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22634,7 +22634,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="252"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22656,7 +22656,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="252"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22678,7 +22678,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="252"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22700,7 +22700,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="252"/>
+      <c r="B13" s="254"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22722,7 +22722,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="252"/>
+      <c r="B14" s="254"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22746,7 +22746,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="252"/>
+      <c r="B15" s="254"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22770,7 +22770,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="251"/>
+      <c r="B16" s="253"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22892,7 +22892,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="250" t="s">
+      <c r="B21" s="252" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22916,7 +22916,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="252"/>
+      <c r="B22" s="254"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22938,7 +22938,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="252"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -22960,7 +22960,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="252"/>
+      <c r="B24" s="254"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -22982,7 +22982,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="252"/>
+      <c r="B25" s="254"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -23004,7 +23004,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="251"/>
+      <c r="B26" s="253"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23026,7 +23026,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="250" t="s">
+      <c r="B27" s="252" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23050,7 +23050,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="251"/>
+      <c r="B28" s="253"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23072,7 +23072,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="250" t="s">
+      <c r="B29" s="252" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23096,7 +23096,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="251"/>
+      <c r="B30" s="253"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23118,7 +23118,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="250" t="s">
+      <c r="B31" s="252" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23142,7 +23142,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="252"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23164,7 +23164,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="252"/>
+      <c r="B33" s="254"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23186,7 +23186,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="252"/>
+      <c r="B34" s="254"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23208,7 +23208,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="251"/>
+      <c r="B35" s="253"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23230,7 +23230,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="250" t="s">
+      <c r="B36" s="252" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23254,7 +23254,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="252"/>
+      <c r="B37" s="254"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23276,7 +23276,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="252"/>
+      <c r="B38" s="254"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23298,7 +23298,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="251"/>
+      <c r="B39" s="253"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23320,7 +23320,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="252" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23344,7 +23344,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="251"/>
+      <c r="B41" s="253"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23390,7 +23390,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="250" t="s">
+      <c r="B43" s="252" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23414,7 +23414,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="252"/>
+      <c r="B44" s="254"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23436,7 +23436,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="252"/>
+      <c r="B45" s="254"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23458,7 +23458,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="252"/>
+      <c r="B46" s="254"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23482,7 +23482,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="252"/>
+      <c r="B47" s="254"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23504,7 +23504,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="252"/>
+      <c r="B48" s="254"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23526,7 +23526,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="252"/>
+      <c r="B49" s="254"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23548,7 +23548,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="252"/>
+      <c r="B50" s="254"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23572,7 +23572,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="252"/>
+      <c r="B51" s="254"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23594,7 +23594,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="252"/>
+      <c r="B52" s="254"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23616,7 +23616,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="252"/>
+      <c r="B53" s="254"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23638,7 +23638,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="251"/>
+      <c r="B54" s="253"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23671,16 +23671,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23721,26 +23721,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="236"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25925,7 +25925,7 @@
       <c r="C68" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="230" t="s">
+      <c r="D68" s="232" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="118"/>
@@ -25959,7 +25959,7 @@
       <c r="C69" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="230"/>
+      <c r="D69" s="232"/>
       <c r="E69" s="118"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -35704,12 +35704,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="233" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="236"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37277,18 +37277,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37807,7 +37807,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="237" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37840,7 +37840,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="236"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37871,7 +37871,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="235" t="s">
+      <c r="B19" s="237" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37904,7 +37904,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="236"/>
+      <c r="B20" s="238"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38220,18 +38220,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38323,7 +38323,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38354,7 +38354,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="239"/>
+      <c r="B5" s="241"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38459,7 +38459,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="240" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38492,7 +38492,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="239"/>
+      <c r="B9" s="241"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38651,7 +38651,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="238" t="s">
+      <c r="B14" s="240" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38684,7 +38684,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="239"/>
+      <c r="B15" s="241"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38937,7 +38937,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="238" t="s">
+      <c r="B22" s="240" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38973,7 +38973,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="241"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -39006,7 +39006,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="239"/>
+      <c r="B24" s="241"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -39207,7 +39207,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="238" t="s">
+      <c r="B30" s="240" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39240,7 +39240,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="239"/>
+      <c r="B31" s="241"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39271,7 +39271,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="238" t="s">
+      <c r="B32" s="240" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39304,7 +39304,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="239"/>
+      <c r="B33" s="241"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39578,7 +39578,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="238" t="s">
+      <c r="B41" s="240" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39611,7 +39611,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="239"/>
+      <c r="B42" s="241"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39675,7 +39675,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="238" t="s">
+      <c r="B44" s="240" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39708,7 +39708,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="239"/>
+      <c r="B45" s="241"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39827,7 +39827,7 @@
       <c r="I48" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="240" t="s">
+      <c r="J48" s="242" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="85" t="s">
@@ -39862,7 +39862,7 @@
       <c r="I49" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="240"/>
+      <c r="J49" s="242"/>
       <c r="K49" s="129" t="s">
         <v>1063</v>
       </c>
@@ -39895,7 +39895,7 @@
       <c r="I50" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="240"/>
+      <c r="J50" s="242"/>
       <c r="K50" s="129" t="s">
         <v>349</v>
       </c>
@@ -39928,7 +39928,7 @@
       <c r="I51" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="240"/>
+      <c r="J51" s="242"/>
       <c r="K51" s="129" t="s">
         <v>1070</v>
       </c>
@@ -39961,7 +39961,7 @@
       <c r="I52" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="240"/>
+      <c r="J52" s="242"/>
       <c r="K52" s="129" t="s">
         <v>1074</v>
       </c>
@@ -39994,7 +39994,7 @@
       <c r="I53" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="240"/>
+      <c r="J53" s="242"/>
       <c r="K53" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40027,7 +40027,7 @@
       <c r="I54" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="240"/>
+      <c r="J54" s="242"/>
       <c r="K54" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40060,7 +40060,7 @@
       <c r="I55" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="240"/>
+      <c r="J55" s="242"/>
       <c r="K55" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40089,7 +40089,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="84"/>
-      <c r="J56" s="240"/>
+      <c r="J56" s="242"/>
       <c r="K56" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40122,7 +40122,7 @@
       <c r="I57" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="240"/>
+      <c r="J57" s="242"/>
       <c r="K57" s="221" t="s">
         <v>1063</v>
       </c>
@@ -40164,7 +40164,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="237" t="s">
+      <c r="J58" s="239" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="129" t="s">
@@ -40199,7 +40199,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="237"/>
+      <c r="J59" s="239"/>
       <c r="K59" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40232,7 +40232,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="237"/>
+      <c r="J60" s="239"/>
       <c r="K60" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40265,7 +40265,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="237"/>
+      <c r="J61" s="239"/>
       <c r="K61" s="133" t="s">
         <v>66</v>
       </c>
@@ -40298,7 +40298,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="237"/>
+      <c r="J62" s="239"/>
       <c r="K62" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40331,7 +40331,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="237"/>
+      <c r="J63" s="239"/>
       <c r="K63" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40364,7 +40364,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="237"/>
+      <c r="J64" s="239"/>
       <c r="K64" s="133" t="s">
         <v>1109</v>
       </c>
@@ -40397,7 +40397,7 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="237"/>
+      <c r="J65" s="239"/>
       <c r="K65" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40426,7 +40426,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="237"/>
+      <c r="J66" s="239"/>
       <c r="K66" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40455,7 +40455,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="237"/>
+      <c r="J67" s="239"/>
       <c r="K67" s="222" t="s">
         <v>1119</v>
       </c>
@@ -40497,7 +40497,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="237"/>
+      <c r="J68" s="239"/>
       <c r="K68" s="133" t="s">
         <v>1123</v>
       </c>
@@ -40533,7 +40533,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="237"/>
+      <c r="J69" s="239"/>
       <c r="K69" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40566,7 +40566,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="239"/>
       <c r="K70" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40599,7 +40599,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="237"/>
+      <c r="J71" s="239"/>
       <c r="K71" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40632,7 +40632,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="237"/>
+      <c r="J72" s="239"/>
       <c r="K72" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40665,7 +40665,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="237"/>
+      <c r="J73" s="239"/>
       <c r="K73" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40696,7 +40696,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="237"/>
+      <c r="J74" s="239"/>
       <c r="K74" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40713,7 +40713,7 @@
       <c r="G75" s="83"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="237"/>
+      <c r="J75" s="239"/>
       <c r="K75" s="69"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -41037,18 +41037,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42601,18 +42601,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="245" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="246"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="248"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42819,7 +42819,7 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="240" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -42855,7 +42855,7 @@
     </row>
     <row r="8" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="241"/>
+      <c r="B8" s="243"/>
       <c r="C8" s="4" t="s">
         <v>1969</v>
       </c>
@@ -42891,7 +42891,7 @@
       <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="243"/>
       <c r="C9" s="4" t="s">
         <v>1948</v>
       </c>
@@ -42928,7 +42928,7 @@
       <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="241"/>
+      <c r="B10" s="243"/>
       <c r="C10" s="4" t="s">
         <v>1230</v>
       </c>
@@ -42962,7 +42962,7 @@
       <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="241"/>
+      <c r="B11" s="243"/>
       <c r="C11" s="4" t="s">
         <v>1233</v>
       </c>
@@ -42996,7 +42996,7 @@
       <c r="A12" s="36">
         <v>8</v>
       </c>
-      <c r="B12" s="241"/>
+      <c r="B12" s="243"/>
       <c r="C12" s="4" t="s">
         <v>1949</v>
       </c>
@@ -43033,7 +43033,7 @@
       <c r="A13" s="36">
         <v>9</v>
       </c>
-      <c r="B13" s="241"/>
+      <c r="B13" s="243"/>
       <c r="C13" s="4" t="s">
         <v>1950</v>
       </c>
@@ -43070,7 +43070,7 @@
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="241"/>
+      <c r="B14" s="243"/>
       <c r="C14" s="4" t="s">
         <v>1951</v>
       </c>
@@ -43107,7 +43107,7 @@
       <c r="A15" s="36">
         <v>11</v>
       </c>
-      <c r="B15" s="241"/>
+      <c r="B15" s="243"/>
       <c r="C15" s="4" t="s">
         <v>1952</v>
       </c>
@@ -43144,7 +43144,7 @@
       <c r="A16" s="36">
         <v>12</v>
       </c>
-      <c r="B16" s="239"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="4" t="s">
         <v>1953</v>
       </c>
@@ -43432,7 +43432,7 @@
       <c r="A24" s="36">
         <v>20</v>
       </c>
-      <c r="B24" s="240" t="s">
+      <c r="B24" s="242" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43468,7 +43468,7 @@
       <c r="A25" s="56">
         <v>21</v>
       </c>
-      <c r="B25" s="247"/>
+      <c r="B25" s="249"/>
       <c r="C25" s="59" t="s">
         <v>1256</v>
       </c>
@@ -43500,7 +43500,7 @@
       <c r="A26" s="36">
         <v>22</v>
       </c>
-      <c r="B26" s="248"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43532,7 +43532,7 @@
       <c r="A27" s="36">
         <v>23</v>
       </c>
-      <c r="B27" s="248"/>
+      <c r="B27" s="250"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43564,7 +43564,7 @@
       <c r="A28" s="56">
         <v>24</v>
       </c>
-      <c r="B28" s="247"/>
+      <c r="B28" s="249"/>
       <c r="C28" s="59" t="s">
         <v>1265</v>
       </c>
@@ -43596,7 +43596,7 @@
       <c r="A29" s="36">
         <v>25</v>
       </c>
-      <c r="B29" s="248"/>
+      <c r="B29" s="250"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -43700,7 +43700,7 @@
       <c r="A32" s="36">
         <v>28</v>
       </c>
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="242" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -43736,7 +43736,7 @@
       <c r="A33" s="36">
         <v>29</v>
       </c>
-      <c r="B33" s="248"/>
+      <c r="B33" s="250"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -43770,7 +43770,7 @@
       <c r="A34" s="36">
         <v>30</v>
       </c>
-      <c r="B34" s="248"/>
+      <c r="B34" s="250"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -43804,7 +43804,7 @@
       <c r="A35" s="36">
         <v>31</v>
       </c>
-      <c r="B35" s="248"/>
+      <c r="B35" s="250"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44076,7 +44076,7 @@
       <c r="A42" s="58">
         <v>37</v>
       </c>
-      <c r="B42" s="241" t="s">
+      <c r="B42" s="243" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="50" t="s">
@@ -44108,7 +44108,7 @@
       <c r="A43" s="36">
         <v>38</v>
       </c>
-      <c r="B43" s="247"/>
+      <c r="B43" s="249"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44138,7 +44138,7 @@
       <c r="A44" s="52">
         <v>39</v>
       </c>
-      <c r="B44" s="247"/>
+      <c r="B44" s="249"/>
       <c r="C44" s="51" t="s">
         <v>1297</v>
       </c>
@@ -44166,7 +44166,7 @@
     </row>
     <row r="45" spans="1:14" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="242" t="s">
+      <c r="B45" s="244" t="s">
         <v>1300</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -44208,7 +44208,7 @@
     </row>
     <row r="46" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="242"/>
+      <c r="B46" s="244"/>
       <c r="C46" s="4" t="s">
         <v>1304</v>
       </c>
@@ -44242,7 +44242,7 @@
     </row>
     <row r="47" spans="1:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
-      <c r="B47" s="242"/>
+      <c r="B47" s="244"/>
       <c r="C47" s="4" t="s">
         <v>1307</v>
       </c>
@@ -44276,7 +44276,7 @@
     </row>
     <row r="48" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
-      <c r="B48" s="242" t="s">
+      <c r="B48" s="244" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44312,7 +44312,7 @@
     </row>
     <row r="49" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
-      <c r="B49" s="242"/>
+      <c r="B49" s="244"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -45060,18 +45060,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="236"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45162,7 +45162,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -45202,7 +45202,7 @@
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="241"/>
+      <c r="B5" s="243"/>
       <c r="C5" s="51" t="s">
         <v>1319</v>
       </c>
@@ -45364,11 +45364,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -45390,18 +45390,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="233" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="246"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="248"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45474,7 +45474,7 @@
         <v>1145</v>
       </c>
       <c r="J3" s="41"/>
-      <c r="K3" s="253" t="s">
+      <c r="K3" s="230" t="s">
         <v>94</v>
       </c>
       <c r="L3" s="39"/>
@@ -45516,7 +45516,7 @@
       <c r="L4" s="39" t="s">
         <v>1872</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="11" t="s">
         <v>1979</v>
       </c>
       <c r="N4" s="39" t="s">
@@ -45554,7 +45554,7 @@
       <c r="J5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="254" t="s">
+      <c r="K5" s="231" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="39" t="s">
@@ -45598,7 +45598,7 @@
       <c r="J6" s="39" t="s">
         <v>1328</v>
       </c>
-      <c r="K6" s="254" t="s">
+      <c r="K6" s="231" t="s">
         <v>474</v>
       </c>
       <c r="L6" s="39" t="s">
@@ -46082,7 +46082,7 @@
       <c r="H44" s="123"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L17" xr:uid="{EE1D3594-93A4-4D53-A92C-752CD45E35CF}">
+  <autoFilter ref="A2:N17" xr:uid="{2BC4BAAC-41F2-4830-9289-AEC939C547C9}">
     <filterColumn colId="6">
       <filters>
         <filter val="Vital"/>
@@ -46098,34 +46098,17 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46336,27 +46319,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46381,9 +46372,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP wiki Open Source\Requirements\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52DB2795-C269-45D6-A8BB-B93CD2414096}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BD0D1685-9BA0-454A-AD9B-6FB2D5330F9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8117,6 +8117,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8185,9 +8188,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15337,7 +15337,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15880,7 +15880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16255,18 +16255,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -16716,7 +16716,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="238" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16748,7 +16748,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="238"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17088,19 +17088,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="237"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
@@ -22442,18 +22442,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -22491,7 +22491,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="253" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22517,7 +22517,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="253"/>
+      <c r="B4" s="254"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22539,7 +22539,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="252" t="s">
+      <c r="B5" s="253" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22565,7 +22565,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="254"/>
+      <c r="B6" s="255"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22589,7 +22589,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="254"/>
+      <c r="B7" s="255"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22611,7 +22611,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="254"/>
+      <c r="B8" s="255"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22633,7 +22633,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="254"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22655,7 +22655,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="254"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22677,7 +22677,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="254"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22699,7 +22699,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="254"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22721,7 +22721,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="254"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22743,7 +22743,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="254"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22767,7 +22767,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="254"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22791,7 +22791,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="253"/>
+      <c r="B16" s="254"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22913,7 +22913,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="252" t="s">
+      <c r="B21" s="253" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22937,7 +22937,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="254"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22959,7 +22959,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="254"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -22981,7 +22981,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="254"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -23003,7 +23003,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="254"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -23025,7 +23025,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="253"/>
+      <c r="B26" s="254"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23047,7 +23047,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="252" t="s">
+      <c r="B27" s="253" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23071,7 +23071,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="253"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23093,7 +23093,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="252" t="s">
+      <c r="B29" s="253" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23117,7 +23117,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="253"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23139,7 +23139,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="252" t="s">
+      <c r="B31" s="253" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23163,7 +23163,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="254"/>
+      <c r="B32" s="255"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23185,7 +23185,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="254"/>
+      <c r="B33" s="255"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23207,7 +23207,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="254"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23229,7 +23229,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="253"/>
+      <c r="B35" s="254"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23251,7 +23251,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="252" t="s">
+      <c r="B36" s="253" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23275,7 +23275,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="254"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23297,7 +23297,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="254"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23319,7 +23319,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="253"/>
+      <c r="B39" s="254"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23341,7 +23341,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="252" t="s">
+      <c r="B40" s="253" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23365,7 +23365,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="253"/>
+      <c r="B41" s="254"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23411,7 +23411,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="252" t="s">
+      <c r="B43" s="253" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23435,7 +23435,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="254"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23457,7 +23457,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="254"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23479,7 +23479,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="254"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23503,7 +23503,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="254"/>
+      <c r="B47" s="255"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23525,7 +23525,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="254"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23547,7 +23547,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="254"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23569,7 +23569,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="254"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23593,7 +23593,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="254"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23615,7 +23615,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="254"/>
+      <c r="B52" s="255"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23637,7 +23637,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="254"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23659,7 +23659,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="253"/>
+      <c r="B54" s="254"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23692,16 +23692,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23742,26 +23742,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="234"/>
-      <c r="O2" s="234"/>
-      <c r="P2" s="234"/>
-      <c r="Q2" s="234"/>
-      <c r="R2" s="234"/>
-      <c r="S2" s="236"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="237"/>
     </row>
     <row r="3" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -25946,7 +25946,7 @@
       <c r="C68" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="232" t="s">
+      <c r="D68" s="233" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="118"/>
@@ -25980,7 +25980,7 @@
       <c r="C69" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="232"/>
+      <c r="D69" s="233"/>
       <c r="E69" s="118"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -26833,7 +26833,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="2:19" ht="57" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B94" s="91">
         <v>91</v>
       </c>
@@ -27805,7 +27805,7 @@
       <c r="R121" s="89"/>
       <c r="S121" s="47"/>
     </row>
-    <row r="122" spans="2:19" ht="114" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:19" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B122" s="91">
         <v>119</v>
       </c>
@@ -28097,7 +28097,7 @@
       <c r="R129" s="89"/>
       <c r="S129" s="47"/>
     </row>
-    <row r="130" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:19" ht="57" x14ac:dyDescent="0.25">
       <c r="B130" s="91">
         <v>127</v>
       </c>
@@ -28275,7 +28275,7 @@
       <c r="R134" s="89"/>
       <c r="S134" s="47"/>
     </row>
-    <row r="135" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B135" s="91">
         <v>132</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="2:19" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:19" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B141" s="91">
         <v>138</v>
       </c>
@@ -28743,7 +28743,7 @@
       <c r="R147" s="89"/>
       <c r="S147" s="47"/>
     </row>
-    <row r="148" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B148" s="91">
         <v>145</v>
       </c>
@@ -29067,7 +29067,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="2:19" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B157" s="91">
         <v>154</v>
       </c>
@@ -33305,7 +33305,7 @@
       <c r="T281" s="53"/>
       <c r="U281" s="4"/>
     </row>
-    <row r="282" spans="2:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B282" s="91">
         <v>279</v>
       </c>
@@ -35725,12 +35725,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="234" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="236"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="237"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -37272,7 +37272,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:J1"/>
@@ -37281,7 +37281,7 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="2" max="2" width="33.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="41" customWidth="1"/>
     <col min="5" max="5" width="38.140625" style="5" customWidth="1"/>
@@ -37290,7 +37290,7 @@
     <col min="8" max="8" width="20.85546875" style="40" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="41" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="41" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="41"/>
     <col min="13" max="13" width="23.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="41" customWidth="1"/>
@@ -37298,18 +37298,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -37518,7 +37518,7 @@
       <c r="J7" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="51" t="s">
         <v>349</v>
       </c>
     </row>
@@ -37544,19 +37544,19 @@
         <v>25</v>
       </c>
       <c r="I8" s="53"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="39" t="s">
         <v>1872</v>
       </c>
       <c r="M8" s="39" t="s">
         <v>1942</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="39" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <v>6</v>
       </c>
@@ -37584,18 +37584,19 @@
       <c r="I9" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="39" t="s">
         <v>1869</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="39" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="39"/>
+    </row>
+    <row r="10" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>7</v>
       </c>
@@ -37623,18 +37624,19 @@
       <c r="I10" s="39" t="s">
         <v>933</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="39" t="s">
         <v>1869</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="39" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="39"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>8</v>
       </c>
@@ -37828,7 +37830,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="238" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37861,7 +37863,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="238"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37892,7 +37894,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="238" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37925,7 +37927,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="238"/>
+      <c r="B20" s="239"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37952,7 +37954,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>18</v>
       </c>
@@ -37980,18 +37982,19 @@
       <c r="I21" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="87" t="s">
         <v>964</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="39" t="s">
         <v>1869</v>
       </c>
-      <c r="M21" s="41" t="s">
+      <c r="M21" s="39" t="s">
         <v>1944</v>
       </c>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
@@ -38048,13 +38051,14 @@
         <v>8</v>
       </c>
       <c r="I23" s="41"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="39" t="s">
         <v>1872</v>
       </c>
       <c r="M23" s="39" t="s">
         <v>1942</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="39" t="s">
         <v>1970</v>
       </c>
     </row>
@@ -38192,11 +38196,6 @@
       <filters>
         <filter val="Vital"/>
         <filter val="Vital?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="P1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -38216,7 +38215,7 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
@@ -38241,18 +38240,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -38344,7 +38343,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="241" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38375,7 +38374,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="241"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38480,7 +38479,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="241" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38513,7 +38512,7 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38672,7 +38671,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="241" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38705,7 +38704,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="241"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38958,7 +38957,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="240" t="s">
+      <c r="B22" s="241" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -38994,7 +38993,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="243"/>
+      <c r="B23" s="244"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -39027,7 +39026,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="241"/>
+      <c r="B24" s="242"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -39228,7 +39227,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="240" t="s">
+      <c r="B30" s="241" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39261,7 +39260,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="241"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39292,7 +39291,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="241" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39325,7 +39324,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="241"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39599,7 +39598,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="240" t="s">
+      <c r="B41" s="241" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39632,7 +39631,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="241"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39696,7 +39695,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="240" t="s">
+      <c r="B44" s="241" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39729,7 +39728,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="241"/>
+      <c r="B45" s="242"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39848,7 +39847,7 @@
       <c r="I48" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="242" t="s">
+      <c r="J48" s="243" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="85" t="s">
@@ -39883,7 +39882,7 @@
       <c r="I49" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="242"/>
+      <c r="J49" s="243"/>
       <c r="K49" s="129" t="s">
         <v>1063</v>
       </c>
@@ -39916,7 +39915,7 @@
       <c r="I50" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="242"/>
+      <c r="J50" s="243"/>
       <c r="K50" s="129" t="s">
         <v>349</v>
       </c>
@@ -39949,7 +39948,7 @@
       <c r="I51" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="242"/>
+      <c r="J51" s="243"/>
       <c r="K51" s="129" t="s">
         <v>1070</v>
       </c>
@@ -39982,7 +39981,7 @@
       <c r="I52" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="242"/>
+      <c r="J52" s="243"/>
       <c r="K52" s="129" t="s">
         <v>1074</v>
       </c>
@@ -40015,7 +40014,7 @@
       <c r="I53" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="242"/>
+      <c r="J53" s="243"/>
       <c r="K53" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40048,7 +40047,7 @@
       <c r="I54" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="242"/>
+      <c r="J54" s="243"/>
       <c r="K54" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40081,7 +40080,7 @@
       <c r="I55" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="242"/>
+      <c r="J55" s="243"/>
       <c r="K55" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40110,7 +40109,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="84"/>
-      <c r="J56" s="242"/>
+      <c r="J56" s="243"/>
       <c r="K56" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40143,7 +40142,7 @@
       <c r="I57" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="242"/>
+      <c r="J57" s="243"/>
       <c r="K57" s="220" t="s">
         <v>1063</v>
       </c>
@@ -40185,7 +40184,7 @@
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="239" t="s">
+      <c r="J58" s="240" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="129" t="s">
@@ -40220,7 +40219,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="239"/>
+      <c r="J59" s="240"/>
       <c r="K59" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40253,7 +40252,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="239"/>
+      <c r="J60" s="240"/>
       <c r="K60" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40286,7 +40285,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="239"/>
+      <c r="J61" s="240"/>
       <c r="K61" s="133" t="s">
         <v>66</v>
       </c>
@@ -40319,7 +40318,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="239"/>
+      <c r="J62" s="240"/>
       <c r="K62" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40352,7 +40351,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="239"/>
+      <c r="J63" s="240"/>
       <c r="K63" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40385,7 +40384,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="239"/>
+      <c r="J64" s="240"/>
       <c r="K64" s="133" t="s">
         <v>1109</v>
       </c>
@@ -40418,7 +40417,7 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="239"/>
+      <c r="J65" s="240"/>
       <c r="K65" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40447,7 +40446,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="239"/>
+      <c r="J66" s="240"/>
       <c r="K66" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40476,7 +40475,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="239"/>
+      <c r="J67" s="240"/>
       <c r="K67" s="221" t="s">
         <v>1119</v>
       </c>
@@ -40518,7 +40517,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="239"/>
+      <c r="J68" s="240"/>
       <c r="K68" s="133" t="s">
         <v>1123</v>
       </c>
@@ -40554,7 +40553,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="239"/>
+      <c r="J69" s="240"/>
       <c r="K69" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40587,7 +40586,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="239"/>
+      <c r="J70" s="240"/>
       <c r="K70" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40620,7 +40619,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="239"/>
+      <c r="J71" s="240"/>
       <c r="K71" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40653,7 +40652,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="239"/>
+      <c r="J72" s="240"/>
       <c r="K72" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40686,7 +40685,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="239"/>
+      <c r="J73" s="240"/>
       <c r="K73" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40717,7 +40716,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="239"/>
+      <c r="J74" s="240"/>
       <c r="K74" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40734,7 +40733,7 @@
       <c r="G75" s="83"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="239"/>
+      <c r="J75" s="240"/>
       <c r="K75" s="69"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -41034,8 +41033,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -41058,18 +41057,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -42596,11 +42595,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -42622,18 +42621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="246" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="248"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="249"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -42840,7 +42839,7 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="241" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -42876,7 +42875,7 @@
     </row>
     <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
-      <c r="B8" s="243"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="4" t="s">
         <v>1969</v>
       </c>
@@ -42912,7 +42911,7 @@
       <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="243"/>
+      <c r="B9" s="244"/>
       <c r="C9" s="4" t="s">
         <v>1948</v>
       </c>
@@ -42949,7 +42948,7 @@
       <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="243"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="4" t="s">
         <v>1230</v>
       </c>
@@ -42983,7 +42982,7 @@
       <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="243"/>
+      <c r="B11" s="244"/>
       <c r="C11" s="4" t="s">
         <v>1233</v>
       </c>
@@ -43017,7 +43016,7 @@
       <c r="A12" s="36">
         <v>8</v>
       </c>
-      <c r="B12" s="243"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="4" t="s">
         <v>1949</v>
       </c>
@@ -43054,7 +43053,7 @@
       <c r="A13" s="36">
         <v>9</v>
       </c>
-      <c r="B13" s="243"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="4" t="s">
         <v>1950</v>
       </c>
@@ -43091,7 +43090,7 @@
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="243"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="4" t="s">
         <v>1951</v>
       </c>
@@ -43128,7 +43127,7 @@
       <c r="A15" s="36">
         <v>11</v>
       </c>
-      <c r="B15" s="243"/>
+      <c r="B15" s="244"/>
       <c r="C15" s="4" t="s">
         <v>1952</v>
       </c>
@@ -43165,7 +43164,7 @@
       <c r="A16" s="36">
         <v>12</v>
       </c>
-      <c r="B16" s="241"/>
+      <c r="B16" s="242"/>
       <c r="C16" s="4" t="s">
         <v>1953</v>
       </c>
@@ -43453,7 +43452,7 @@
       <c r="A24" s="36">
         <v>20</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="243" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43489,7 +43488,7 @@
       <c r="A25" s="56">
         <v>21</v>
       </c>
-      <c r="B25" s="249"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="59" t="s">
         <v>1256</v>
       </c>
@@ -43521,7 +43520,7 @@
       <c r="A26" s="36">
         <v>22</v>
       </c>
-      <c r="B26" s="250"/>
+      <c r="B26" s="251"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43553,7 +43552,7 @@
       <c r="A27" s="36">
         <v>23</v>
       </c>
-      <c r="B27" s="250"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43585,7 +43584,7 @@
       <c r="A28" s="56">
         <v>24</v>
       </c>
-      <c r="B28" s="249"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="59" t="s">
         <v>1265</v>
       </c>
@@ -43617,7 +43616,7 @@
       <c r="A29" s="36">
         <v>25</v>
       </c>
-      <c r="B29" s="250"/>
+      <c r="B29" s="251"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -43721,7 +43720,7 @@
       <c r="A32" s="36">
         <v>28</v>
       </c>
-      <c r="B32" s="242" t="s">
+      <c r="B32" s="243" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -43757,7 +43756,7 @@
       <c r="A33" s="36">
         <v>29</v>
       </c>
-      <c r="B33" s="250"/>
+      <c r="B33" s="251"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -43791,7 +43790,7 @@
       <c r="A34" s="36">
         <v>30</v>
       </c>
-      <c r="B34" s="250"/>
+      <c r="B34" s="251"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -43825,7 +43824,7 @@
       <c r="A35" s="36">
         <v>31</v>
       </c>
-      <c r="B35" s="250"/>
+      <c r="B35" s="251"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44097,7 +44096,7 @@
       <c r="A42" s="58">
         <v>37</v>
       </c>
-      <c r="B42" s="243" t="s">
+      <c r="B42" s="244" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="50" t="s">
@@ -44129,7 +44128,7 @@
       <c r="A43" s="36">
         <v>38</v>
       </c>
-      <c r="B43" s="249"/>
+      <c r="B43" s="250"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44159,7 +44158,7 @@
       <c r="A44" s="52">
         <v>39</v>
       </c>
-      <c r="B44" s="249"/>
+      <c r="B44" s="250"/>
       <c r="C44" s="51" t="s">
         <v>1297</v>
       </c>
@@ -44187,7 +44186,7 @@
     </row>
     <row r="45" spans="1:14" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" s="244" t="s">
+      <c r="B45" s="245" t="s">
         <v>1300</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -44229,7 +44228,7 @@
     </row>
     <row r="46" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
-      <c r="B46" s="244"/>
+      <c r="B46" s="245"/>
       <c r="C46" s="4" t="s">
         <v>1304</v>
       </c>
@@ -44263,7 +44262,7 @@
     </row>
     <row r="47" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
-      <c r="B47" s="244"/>
+      <c r="B47" s="245"/>
       <c r="C47" s="4" t="s">
         <v>1307</v>
       </c>
@@ -44297,7 +44296,7 @@
     </row>
     <row r="48" spans="1:14" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
-      <c r="B48" s="244" t="s">
+      <c r="B48" s="245" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44333,7 +44332,7 @@
     </row>
     <row r="49" spans="1:14" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="B49" s="244"/>
+      <c r="B49" s="245"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -44367,7 +44366,7 @@
     </row>
     <row r="50" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
-      <c r="B50" s="255" t="s">
+      <c r="B50" s="232" t="s">
         <v>1863</v>
       </c>
       <c r="C50" s="51" t="s">
@@ -45117,18 +45116,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="236"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -45219,7 +45218,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="241" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -45259,7 +45258,7 @@
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="243"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="51" t="s">
         <v>1319</v>
       </c>
@@ -45447,18 +45446,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="234" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="248"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="249"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -46169,32 +46168,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -46401,6 +46374,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>
@@ -46410,23 +46409,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46443,4 +46425,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A759E4A7-3435-435A-8233-F0487C207848}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1EF55235-8546-4957-8850-714EBA737076}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="1988">
   <si>
     <t>Category</t>
   </si>
@@ -6860,6 +6860,9 @@
   </si>
   <si>
     <t>On Hold due to Bootcamp Demo</t>
+  </si>
+  <si>
+    <t>On Hold due to dependency on Item no. 2</t>
   </si>
 </sst>
 </file>
@@ -15343,7 +15346,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -23698,16 +23701,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23719,11 +23722,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:U352"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U352" sqref="U352"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -45591,11 +45594,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -46135,11 +46138,11 @@
       <c r="L14" s="39" t="s">
         <v>1872</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>1977</v>
+      <c r="M14" s="4" t="s">
+        <v>1987</v>
       </c>
       <c r="N14" s="39" t="s">
-        <v>1960</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -46532,15 +46535,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -46566,6 +46560,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
@@ -46586,14 +46589,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -46608,4 +46603,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1EF55235-8546-4957-8850-714EBA737076}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29F39AAC-7973-4B79-B382-16B921D1E829}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="7" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6835,9 +6835,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t xml:space="preserve">Detailing pending </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Internal API by IDA to validate Partner ID/API key and retrieve policy</t>
   </si>
   <si>
@@ -6863,6 +6860,9 @@
   </si>
   <si>
     <t>On Hold due to dependency on Item no. 2</t>
+  </si>
+  <si>
+    <t>Customer Approval Pending</t>
   </si>
 </sst>
 </file>
@@ -15346,7 +15346,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -23701,16 +23701,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -38905,7 +38905,7 @@
         <v>1869</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -39554,7 +39554,7 @@
         <v>1869</v>
       </c>
       <c r="N35" s="41" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" ht="56.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -44574,13 +44574,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D51" s="39" t="s">
         <v>1979</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="E51" s="4" t="s">
         <v>1980</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>1981</v>
       </c>
       <c r="G51" s="39"/>
       <c r="H51" s="36"/>
@@ -44595,13 +44595,13 @@
         <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D52" s="39" t="s">
         <v>1982</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="E52" s="4" t="s">
         <v>1983</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>1984</v>
       </c>
       <c r="G52" s="39"/>
       <c r="H52" s="36"/>
@@ -45598,7 +45598,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:J1"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -45709,7 +45709,7 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="N3" s="39"/>
     </row>
@@ -45746,8 +45746,8 @@
       <c r="L4" s="39" t="s">
         <v>1872</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>1978</v>
+      <c r="M4" s="42" t="s">
+        <v>1987</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>1971</v>
@@ -45993,7 +45993,7 @@
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="N10" s="39"/>
     </row>
@@ -46067,7 +46067,7 @@
         <v>1869</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="N12" s="39"/>
     </row>
@@ -46139,7 +46139,7 @@
         <v>1872</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>1971</v>
@@ -46328,6 +46328,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -46534,56 +46569,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46606,9 +46595,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29F39AAC-7973-4B79-B382-16B921D1E829}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D4ED42-87BB-4548-805B-7B7F247EECAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -39,13 +39,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Resident Services'!$A$2:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoadmapFeatures!$B$3:$E$37</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -135,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="1988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="1997">
   <si>
     <t>Category</t>
   </si>
@@ -6863,6 +6868,33 @@
   </si>
   <si>
     <t>Customer Approval Pending</t>
+  </si>
+  <si>
+    <t>Dev In-Progress</t>
+  </si>
+  <si>
+    <t>Discussion Pending</t>
+  </si>
+  <si>
+    <t>MOS-27875</t>
+  </si>
+  <si>
+    <t>Validation - UIN</t>
+  </si>
+  <si>
+    <t>Validate if UIN is Active before performing any Update Operation on the UIN</t>
+  </si>
+  <si>
+    <t>MOS-27818</t>
+  </si>
+  <si>
+    <t>Validation - Device</t>
+  </si>
+  <si>
+    <t>Changes in Device Validation Post Integration with Actual Devices</t>
+  </si>
+  <si>
+    <t>MOS-27829</t>
   </si>
 </sst>
 </file>
@@ -7448,7 +7480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8051,17 +8083,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8128,6 +8154,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8197,6 +8226,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15346,7 +15384,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16264,18 +16302,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16725,7 +16763,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="238" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16757,7 +16795,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="240"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17097,19 +17135,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="238"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="237"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="145" t="s">
@@ -22451,18 +22489,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -22500,7 +22538,7 @@
       <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="253" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22526,7 +22564,7 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="255"/>
+      <c r="B4" s="254"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22548,7 +22586,7 @@
       <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="253" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22574,7 +22612,7 @@
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="256"/>
+      <c r="B6" s="255"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22598,7 +22636,7 @@
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="256"/>
+      <c r="B7" s="255"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22620,7 +22658,7 @@
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="256"/>
+      <c r="B8" s="255"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22642,7 +22680,7 @@
       <c r="A9" s="39">
         <v>7</v>
       </c>
-      <c r="B9" s="256"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22664,7 +22702,7 @@
       <c r="A10" s="39">
         <v>8</v>
       </c>
-      <c r="B10" s="256"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22686,7 +22724,7 @@
       <c r="A11" s="39">
         <v>9</v>
       </c>
-      <c r="B11" s="256"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22708,7 +22746,7 @@
       <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="256"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22730,7 +22768,7 @@
       <c r="A13" s="39">
         <v>11</v>
       </c>
-      <c r="B13" s="256"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22752,7 +22790,7 @@
       <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="256"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22776,7 +22814,7 @@
       <c r="A15" s="39">
         <v>13</v>
       </c>
-      <c r="B15" s="256"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22800,7 +22838,7 @@
       <c r="A16" s="39">
         <v>14</v>
       </c>
-      <c r="B16" s="255"/>
+      <c r="B16" s="254"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22922,7 +22960,7 @@
       <c r="A21" s="39">
         <v>19</v>
       </c>
-      <c r="B21" s="254" t="s">
+      <c r="B21" s="253" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22946,7 +22984,7 @@
       <c r="A22" s="39">
         <v>20</v>
       </c>
-      <c r="B22" s="256"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22968,7 +23006,7 @@
       <c r="A23" s="39">
         <v>21</v>
       </c>
-      <c r="B23" s="256"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -22990,7 +23028,7 @@
       <c r="A24" s="39">
         <v>22</v>
       </c>
-      <c r="B24" s="256"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -23012,7 +23050,7 @@
       <c r="A25" s="39">
         <v>23</v>
       </c>
-      <c r="B25" s="256"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -23034,7 +23072,7 @@
       <c r="A26" s="39">
         <v>24</v>
       </c>
-      <c r="B26" s="255"/>
+      <c r="B26" s="254"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23056,7 +23094,7 @@
       <c r="A27" s="39">
         <v>25</v>
       </c>
-      <c r="B27" s="254" t="s">
+      <c r="B27" s="253" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23080,7 +23118,7 @@
       <c r="A28" s="39">
         <v>26</v>
       </c>
-      <c r="B28" s="255"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23102,7 +23140,7 @@
       <c r="A29" s="39">
         <v>27</v>
       </c>
-      <c r="B29" s="254" t="s">
+      <c r="B29" s="253" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23126,7 +23164,7 @@
       <c r="A30" s="39">
         <v>28</v>
       </c>
-      <c r="B30" s="255"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23148,7 +23186,7 @@
       <c r="A31" s="39">
         <v>29</v>
       </c>
-      <c r="B31" s="254" t="s">
+      <c r="B31" s="253" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23172,7 +23210,7 @@
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="256"/>
+      <c r="B32" s="255"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23194,7 +23232,7 @@
       <c r="A33" s="39">
         <v>31</v>
       </c>
-      <c r="B33" s="256"/>
+      <c r="B33" s="255"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23216,7 +23254,7 @@
       <c r="A34" s="39">
         <v>32</v>
       </c>
-      <c r="B34" s="256"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23238,7 +23276,7 @@
       <c r="A35" s="39">
         <v>33</v>
       </c>
-      <c r="B35" s="255"/>
+      <c r="B35" s="254"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23260,7 +23298,7 @@
       <c r="A36" s="39">
         <v>34</v>
       </c>
-      <c r="B36" s="254" t="s">
+      <c r="B36" s="253" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23284,7 +23322,7 @@
       <c r="A37" s="39">
         <v>35</v>
       </c>
-      <c r="B37" s="256"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23306,7 +23344,7 @@
       <c r="A38" s="39">
         <v>36</v>
       </c>
-      <c r="B38" s="256"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23328,7 +23366,7 @@
       <c r="A39" s="39">
         <v>37</v>
       </c>
-      <c r="B39" s="255"/>
+      <c r="B39" s="254"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23350,7 +23388,7 @@
       <c r="A40" s="39">
         <v>38</v>
       </c>
-      <c r="B40" s="254" t="s">
+      <c r="B40" s="253" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23374,7 +23412,7 @@
       <c r="A41" s="39">
         <v>39</v>
       </c>
-      <c r="B41" s="255"/>
+      <c r="B41" s="254"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23420,7 +23458,7 @@
       <c r="A43" s="39">
         <v>41</v>
       </c>
-      <c r="B43" s="254" t="s">
+      <c r="B43" s="253" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23444,7 +23482,7 @@
       <c r="A44" s="39">
         <v>42</v>
       </c>
-      <c r="B44" s="256"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23466,7 +23504,7 @@
       <c r="A45" s="39">
         <v>43</v>
       </c>
-      <c r="B45" s="256"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23488,7 +23526,7 @@
       <c r="A46" s="39">
         <v>44</v>
       </c>
-      <c r="B46" s="256"/>
+      <c r="B46" s="255"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23512,7 +23550,7 @@
       <c r="A47" s="39">
         <v>45</v>
       </c>
-      <c r="B47" s="256"/>
+      <c r="B47" s="255"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23534,7 +23572,7 @@
       <c r="A48" s="39">
         <v>46</v>
       </c>
-      <c r="B48" s="256"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23556,7 +23594,7 @@
       <c r="A49" s="39">
         <v>47</v>
       </c>
-      <c r="B49" s="256"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23578,7 +23616,7 @@
       <c r="A50" s="39">
         <v>48</v>
       </c>
-      <c r="B50" s="256"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23602,7 +23640,7 @@
       <c r="A51" s="39">
         <v>49</v>
       </c>
-      <c r="B51" s="256"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23624,7 +23662,7 @@
       <c r="A52" s="39">
         <v>50</v>
       </c>
-      <c r="B52" s="256"/>
+      <c r="B52" s="255"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23646,7 +23684,7 @@
       <c r="A53" s="39">
         <v>51</v>
       </c>
-      <c r="B53" s="256"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23668,7 +23706,7 @@
       <c r="A54" s="39">
         <v>52</v>
       </c>
-      <c r="B54" s="255"/>
+      <c r="B54" s="254"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23701,16 +23739,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23722,11 +23760,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:U352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -23751,26 +23789,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="238"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="235"/>
+      <c r="S2" s="237"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25772,7 +25810,7 @@
       <c r="R62" s="89"/>
       <c r="S62" s="47"/>
     </row>
-    <row r="63" spans="2:19" ht="168" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" ht="154" x14ac:dyDescent="0.35">
       <c r="B63" s="91">
         <v>60</v>
       </c>
@@ -25955,7 +25993,7 @@
       <c r="C68" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="234" t="s">
+      <c r="D68" s="233" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="118"/>
@@ -25989,7 +26027,7 @@
       <c r="C69" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="234"/>
+      <c r="D69" s="233"/>
       <c r="E69" s="118"/>
       <c r="F69" s="47" t="s">
         <v>225</v>
@@ -27362,7 +27400,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" ht="28" x14ac:dyDescent="0.35">
       <c r="B109" s="91">
         <v>106</v>
       </c>
@@ -27398,7 +27436,7 @@
       <c r="R109" s="89"/>
       <c r="S109" s="47"/>
     </row>
-    <row r="110" spans="2:19" ht="70" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" ht="56" x14ac:dyDescent="0.35">
       <c r="B110" s="91">
         <v>107</v>
       </c>
@@ -28174,7 +28212,7 @@
       <c r="R131" s="89"/>
       <c r="S131" s="47"/>
     </row>
-    <row r="132" spans="2:19" ht="154" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:19" ht="140" x14ac:dyDescent="0.35">
       <c r="B132" s="91">
         <v>129</v>
       </c>
@@ -35734,12 +35772,12 @@
       <c r="F1" s="41"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="234" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="238"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="237"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37307,18 +37345,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37587,7 +37625,7 @@
       <c r="G9" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="209">
+      <c r="H9" s="208">
         <v>235.25</v>
       </c>
       <c r="I9" s="39" t="s">
@@ -37839,7 +37877,7 @@
       <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="238" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37872,7 +37910,7 @@
       <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="240"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37903,7 +37941,7 @@
       <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="238" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37936,7 +37974,7 @@
       <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="240"/>
+      <c r="B20" s="239"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38091,7 +38129,7 @@
       <c r="G24" s="41" t="s">
         <v>1973</v>
       </c>
-      <c r="H24" s="210"/>
+      <c r="H24" s="209"/>
       <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -38249,18 +38287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38310,7 +38348,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="226" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -38319,7 +38357,7 @@
       <c r="D3" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="231" t="s">
+      <c r="E3" s="229" t="s">
         <v>157</v>
       </c>
       <c r="F3" s="39" t="s">
@@ -38352,7 +38390,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="241" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38361,7 +38399,7 @@
       <c r="D4" s="39" t="s">
         <v>971</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="229" t="s">
         <v>972</v>
       </c>
       <c r="F4" s="39" t="s">
@@ -38386,14 +38424,14 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="243"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="229" t="s">
         <v>976</v>
       </c>
       <c r="F5" s="39" t="s">
@@ -38418,7 +38456,7 @@
       <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="229" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -38427,7 +38465,7 @@
       <c r="D6" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="231" t="s">
+      <c r="E6" s="229" t="s">
         <v>163</v>
       </c>
       <c r="F6" s="39" t="s">
@@ -38462,7 +38500,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="229" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -38471,7 +38509,7 @@
       <c r="D7" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="231" t="s">
+      <c r="E7" s="229" t="s">
         <v>979</v>
       </c>
       <c r="F7" s="39" t="s">
@@ -38506,7 +38544,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="241" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38515,7 +38553,7 @@
       <c r="D8" s="39" t="s">
         <v>981</v>
       </c>
-      <c r="E8" s="231" t="s">
+      <c r="E8" s="229" t="s">
         <v>982</v>
       </c>
       <c r="F8" s="39" t="s">
@@ -38542,14 +38580,14 @@
       <c r="A9" s="36">
         <v>11</v>
       </c>
-      <c r="B9" s="243"/>
+      <c r="B9" s="242"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>985</v>
       </c>
-      <c r="E9" s="231" t="s">
+      <c r="E9" s="229" t="s">
         <v>986</v>
       </c>
       <c r="F9" s="39" t="s">
@@ -38573,7 +38611,7 @@
       <c r="A10" s="36">
         <v>7</v>
       </c>
-      <c r="B10" s="228" t="s">
+      <c r="B10" s="226" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -38582,7 +38620,7 @@
       <c r="D10" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="231" t="s">
+      <c r="E10" s="229" t="s">
         <v>175</v>
       </c>
       <c r="F10" s="39" t="s">
@@ -38607,7 +38645,7 @@
       <c r="A11" s="36">
         <v>8</v>
       </c>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="229" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -38616,7 +38654,7 @@
       <c r="D11" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="231" t="s">
+      <c r="E11" s="229" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="39" t="s">
@@ -38641,7 +38679,7 @@
       <c r="A12" s="36">
         <v>9</v>
       </c>
-      <c r="B12" s="231" t="s">
+      <c r="B12" s="229" t="s">
         <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -38650,7 +38688,7 @@
       <c r="D12" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="231" t="s">
+      <c r="E12" s="229" t="s">
         <v>991</v>
       </c>
       <c r="F12" s="39" t="s">
@@ -38677,7 +38715,7 @@
       <c r="A13" s="36">
         <v>10</v>
       </c>
-      <c r="B13" s="231" t="s">
+      <c r="B13" s="229" t="s">
         <v>993</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -38686,7 +38724,7 @@
       <c r="D13" s="39" t="s">
         <v>995</v>
       </c>
-      <c r="E13" s="231" t="s">
+      <c r="E13" s="229" t="s">
         <v>996</v>
       </c>
       <c r="F13" s="39" t="s">
@@ -38713,7 +38751,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="242" t="s">
+      <c r="B14" s="241" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38722,7 +38760,7 @@
       <c r="D14" s="39" t="s">
         <v>998</v>
       </c>
-      <c r="E14" s="231" t="s">
+      <c r="E14" s="229" t="s">
         <v>999</v>
       </c>
       <c r="F14" s="39" t="s">
@@ -38749,14 +38787,14 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="243"/>
+      <c r="B15" s="242"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1001</v>
       </c>
-      <c r="E15" s="231" t="s">
+      <c r="E15" s="229" t="s">
         <v>1002</v>
       </c>
       <c r="F15" s="39" t="s">
@@ -38783,7 +38821,7 @@
       <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="229" t="s">
         <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -38792,7 +38830,7 @@
       <c r="D16" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="231" t="s">
+      <c r="E16" s="229" t="s">
         <v>187</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -38827,7 +38865,7 @@
       <c r="A17" s="36">
         <v>15</v>
       </c>
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="229" t="s">
         <v>189</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -38836,7 +38874,7 @@
       <c r="D17" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="231" t="s">
+      <c r="E17" s="229" t="s">
         <v>191</v>
       </c>
       <c r="F17" s="39" t="s">
@@ -38871,7 +38909,7 @@
       <c r="A18" s="36">
         <v>16</v>
       </c>
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="229" t="s">
         <v>1914</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -38880,7 +38918,7 @@
       <c r="D18" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="231" t="s">
+      <c r="E18" s="229" t="s">
         <v>195</v>
       </c>
       <c r="F18" s="39" t="s">
@@ -38912,7 +38950,7 @@
       <c r="A19" s="36">
         <v>17</v>
       </c>
-      <c r="B19" s="231" t="s">
+      <c r="B19" s="229" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -38921,7 +38959,7 @@
       <c r="D19" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="231" t="s">
+      <c r="E19" s="229" t="s">
         <v>199</v>
       </c>
       <c r="F19" s="39" t="s">
@@ -38954,7 +38992,7 @@
       <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="229" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -38963,7 +39001,7 @@
       <c r="D20" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="231" t="s">
+      <c r="E20" s="229" t="s">
         <v>202</v>
       </c>
       <c r="F20" s="39" t="s">
@@ -38996,7 +39034,7 @@
       <c r="A21" s="36">
         <v>19</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="229" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -39005,7 +39043,7 @@
       <c r="D21" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="231" t="s">
+      <c r="E21" s="229" t="s">
         <v>205</v>
       </c>
       <c r="F21" s="39" t="s">
@@ -39038,7 +39076,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="242" t="s">
+      <c r="B22" s="241" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39047,7 +39085,7 @@
       <c r="D22" s="39" t="s">
         <v>1011</v>
       </c>
-      <c r="E22" s="231" t="s">
+      <c r="E22" s="229" t="s">
         <v>1012</v>
       </c>
       <c r="F22" s="39" t="s">
@@ -39080,14 +39118,14 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="245"/>
+      <c r="B23" s="244"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>1014</v>
       </c>
-      <c r="E23" s="231" t="s">
+      <c r="E23" s="229" t="s">
         <v>1015</v>
       </c>
       <c r="F23" s="39" t="s">
@@ -39119,14 +39157,14 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="243"/>
+      <c r="B24" s="242"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>1017</v>
       </c>
-      <c r="E24" s="231" t="s">
+      <c r="E24" s="229" t="s">
         <v>1018</v>
       </c>
       <c r="F24" s="39" t="s">
@@ -39159,7 +39197,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="229" t="s">
         <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -39168,7 +39206,7 @@
       <c r="D25" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="231" t="s">
+      <c r="E25" s="229" t="s">
         <v>211</v>
       </c>
       <c r="F25" s="39" t="s">
@@ -39201,7 +39239,7 @@
       <c r="A26" s="36">
         <v>24</v>
       </c>
-      <c r="B26" s="231" t="s">
+      <c r="B26" s="229" t="s">
         <v>212</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -39210,7 +39248,7 @@
       <c r="D26" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="231" t="s">
+      <c r="E26" s="229" t="s">
         <v>214</v>
       </c>
       <c r="F26" s="39" t="s">
@@ -39266,7 +39304,7 @@
       <c r="A28" s="36">
         <v>26</v>
       </c>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="226" t="s">
         <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -39275,7 +39313,7 @@
       <c r="D28" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="231" t="s">
+      <c r="E28" s="229" t="s">
         <v>217</v>
       </c>
       <c r="F28" s="39" t="s">
@@ -39308,7 +39346,7 @@
       <c r="A29" s="36">
         <v>27</v>
       </c>
-      <c r="B29" s="228" t="s">
+      <c r="B29" s="226" t="s">
         <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -39317,7 +39355,7 @@
       <c r="D29" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="231" t="s">
+      <c r="E29" s="229" t="s">
         <v>220</v>
       </c>
       <c r="F29" s="39" t="s">
@@ -39344,7 +39382,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="242" t="s">
+      <c r="B30" s="241" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39353,7 +39391,7 @@
       <c r="D30" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="231" t="s">
+      <c r="E30" s="229" t="s">
         <v>224</v>
       </c>
       <c r="F30" s="39" t="s">
@@ -39380,14 +39418,14 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="243"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="231" t="s">
+      <c r="E31" s="229" t="s">
         <v>224</v>
       </c>
       <c r="F31" s="39" t="s">
@@ -39414,7 +39452,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="242" t="s">
+      <c r="B32" s="241" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39423,7 +39461,7 @@
       <c r="D32" s="39" t="s">
         <v>1031</v>
       </c>
-      <c r="E32" s="231" t="s">
+      <c r="E32" s="229" t="s">
         <v>1032</v>
       </c>
       <c r="F32" s="39" t="s">
@@ -39450,14 +39488,14 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="243"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>1034</v>
       </c>
-      <c r="E33" s="231" t="s">
+      <c r="E33" s="229" t="s">
         <v>228</v>
       </c>
       <c r="F33" s="39" t="s">
@@ -39484,7 +39522,7 @@
       <c r="A34" s="36">
         <v>32</v>
       </c>
-      <c r="B34" s="231" t="s">
+      <c r="B34" s="229" t="s">
         <v>230</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -39493,7 +39531,7 @@
       <c r="D34" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="231" t="s">
+      <c r="E34" s="229" t="s">
         <v>232</v>
       </c>
       <c r="F34" s="39" t="s">
@@ -39506,7 +39544,7 @@
       <c r="I34" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J34" s="232" t="s">
+      <c r="J34" s="230" t="s">
         <v>71</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -39520,7 +39558,7 @@
       <c r="A35" s="36">
         <v>33</v>
       </c>
-      <c r="B35" s="231" t="s">
+      <c r="B35" s="229" t="s">
         <v>233</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -39529,7 +39567,7 @@
       <c r="D35" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="231" t="s">
+      <c r="E35" s="229" t="s">
         <v>235</v>
       </c>
       <c r="F35" s="39" t="s">
@@ -39561,7 +39599,7 @@
       <c r="A36" s="36">
         <v>34</v>
       </c>
-      <c r="B36" s="231" t="s">
+      <c r="B36" s="229" t="s">
         <v>237</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -39570,7 +39608,7 @@
       <c r="D36" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="231" t="s">
+      <c r="E36" s="229" t="s">
         <v>239</v>
       </c>
       <c r="F36" s="39" t="s">
@@ -39579,11 +39617,11 @@
       <c r="G36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="233"/>
+      <c r="H36" s="231"/>
       <c r="I36" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J36" s="233" t="s">
+      <c r="J36" s="231" t="s">
         <v>71</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -39597,7 +39635,7 @@
       <c r="A37" s="36">
         <v>35</v>
       </c>
-      <c r="B37" s="231" t="s">
+      <c r="B37" s="229" t="s">
         <v>240</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -39606,7 +39644,7 @@
       <c r="D37" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="231" t="s">
+      <c r="E37" s="229" t="s">
         <v>242</v>
       </c>
       <c r="F37" s="39" t="s">
@@ -39631,7 +39669,7 @@
       <c r="A38" s="36">
         <v>36</v>
       </c>
-      <c r="B38" s="231" t="s">
+      <c r="B38" s="229" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -39640,7 +39678,7 @@
       <c r="D38" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="231" t="s">
+      <c r="E38" s="229" t="s">
         <v>245</v>
       </c>
       <c r="F38" s="39" t="s">
@@ -39667,7 +39705,7 @@
       <c r="A39" s="36">
         <v>37</v>
       </c>
-      <c r="B39" s="228" t="s">
+      <c r="B39" s="226" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -39676,7 +39714,7 @@
       <c r="D39" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="E39" s="231" t="s">
+      <c r="E39" s="229" t="s">
         <v>1915</v>
       </c>
       <c r="F39" s="39" t="s">
@@ -39709,7 +39747,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="231" t="s">
+      <c r="B40" s="229" t="s">
         <v>250</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -39718,7 +39756,7 @@
       <c r="D40" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="E40" s="231" t="s">
+      <c r="E40" s="229" t="s">
         <v>252</v>
       </c>
       <c r="F40" s="39" t="s">
@@ -39731,7 +39769,7 @@
       <c r="I40" s="39" t="s">
         <v>918</v>
       </c>
-      <c r="J40" s="233" t="s">
+      <c r="J40" s="231" t="s">
         <v>253</v>
       </c>
       <c r="K40" s="29" t="s">
@@ -39745,7 +39783,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="242" t="s">
+      <c r="B41" s="241" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39754,7 +39792,7 @@
       <c r="D41" s="39" t="s">
         <v>1044</v>
       </c>
-      <c r="E41" s="231" t="s">
+      <c r="E41" s="229" t="s">
         <v>256</v>
       </c>
       <c r="F41" s="39" t="s">
@@ -39781,14 +39819,14 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="243"/>
+      <c r="B42" s="242"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>1046</v>
       </c>
-      <c r="E42" s="231" t="s">
+      <c r="E42" s="229" t="s">
         <v>256</v>
       </c>
       <c r="F42" s="39" t="s">
@@ -39815,7 +39853,7 @@
       <c r="A43" s="36">
         <v>41</v>
       </c>
-      <c r="B43" s="231" t="s">
+      <c r="B43" s="229" t="s">
         <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -39824,7 +39862,7 @@
       <c r="D43" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="231" t="s">
+      <c r="E43" s="229" t="s">
         <v>259</v>
       </c>
       <c r="F43" s="39" t="s">
@@ -39851,7 +39889,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="242" t="s">
+      <c r="B44" s="241" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39860,7 +39898,7 @@
       <c r="D44" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="E44" s="231" t="s">
+      <c r="E44" s="229" t="s">
         <v>1051</v>
       </c>
       <c r="F44" s="39" t="s">
@@ -39887,14 +39925,14 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="243"/>
+      <c r="B45" s="242"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>1053</v>
       </c>
-      <c r="E45" s="231" t="s">
+      <c r="E45" s="229" t="s">
         <v>262</v>
       </c>
       <c r="F45" s="39" t="s">
@@ -39921,7 +39959,7 @@
       <c r="A46" s="36">
         <v>44</v>
       </c>
-      <c r="B46" s="231" t="s">
+      <c r="B46" s="229" t="s">
         <v>264</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -39930,7 +39968,7 @@
       <c r="D46" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="231" t="s">
+      <c r="E46" s="229" t="s">
         <v>266</v>
       </c>
       <c r="F46" s="39" t="s">
@@ -39957,7 +39995,7 @@
       <c r="A47" s="36">
         <v>45</v>
       </c>
-      <c r="B47" s="231" t="s">
+      <c r="B47" s="229" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -39966,7 +40004,7 @@
       <c r="D47" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="231" t="s">
+      <c r="E47" s="229" t="s">
         <v>270</v>
       </c>
       <c r="F47" s="39" t="s">
@@ -39979,7 +40017,7 @@
       <c r="I47" s="39" t="s">
         <v>1007</v>
       </c>
-      <c r="J47" s="232"/>
+      <c r="J47" s="230"/>
       <c r="K47" s="5" t="s">
         <v>349</v>
       </c>
@@ -40000,7 +40038,7 @@
       <c r="D48" s="39" t="s">
         <v>1057</v>
       </c>
-      <c r="E48" s="231" t="s">
+      <c r="E48" s="229" t="s">
         <v>1058</v>
       </c>
       <c r="F48" s="39" t="s">
@@ -40015,7 +40053,7 @@
       <c r="I48" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="244" t="s">
+      <c r="J48" s="243" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="85" t="s">
@@ -40035,7 +40073,7 @@
       <c r="D49" s="39" t="s">
         <v>1061</v>
       </c>
-      <c r="E49" s="231" t="s">
+      <c r="E49" s="229" t="s">
         <v>1062</v>
       </c>
       <c r="F49" s="39" t="s">
@@ -40050,7 +40088,7 @@
       <c r="I49" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="244"/>
+      <c r="J49" s="243"/>
       <c r="K49" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40068,7 +40106,7 @@
       <c r="D50" s="39" t="s">
         <v>1065</v>
       </c>
-      <c r="E50" s="231" t="s">
+      <c r="E50" s="229" t="s">
         <v>1066</v>
       </c>
       <c r="F50" s="39" t="s">
@@ -40083,7 +40121,7 @@
       <c r="I50" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="244"/>
+      <c r="J50" s="243"/>
       <c r="K50" s="129" t="s">
         <v>349</v>
       </c>
@@ -40101,7 +40139,7 @@
       <c r="D51" s="39" t="s">
         <v>1068</v>
       </c>
-      <c r="E51" s="231" t="s">
+      <c r="E51" s="229" t="s">
         <v>1069</v>
       </c>
       <c r="F51" s="39" t="s">
@@ -40116,7 +40154,7 @@
       <c r="I51" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="244"/>
+      <c r="J51" s="243"/>
       <c r="K51" s="129" t="s">
         <v>1070</v>
       </c>
@@ -40134,7 +40172,7 @@
       <c r="D52" s="39" t="s">
         <v>1072</v>
       </c>
-      <c r="E52" s="231" t="s">
+      <c r="E52" s="229" t="s">
         <v>1073</v>
       </c>
       <c r="F52" s="39" t="s">
@@ -40149,7 +40187,7 @@
       <c r="I52" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="244"/>
+      <c r="J52" s="243"/>
       <c r="K52" s="129" t="s">
         <v>1074</v>
       </c>
@@ -40167,7 +40205,7 @@
       <c r="D53" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="E53" s="231" t="s">
+      <c r="E53" s="229" t="s">
         <v>1077</v>
       </c>
       <c r="F53" s="39" t="s">
@@ -40182,7 +40220,7 @@
       <c r="I53" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="244"/>
+      <c r="J53" s="243"/>
       <c r="K53" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40200,7 +40238,7 @@
       <c r="D54" s="39" t="s">
         <v>1079</v>
       </c>
-      <c r="E54" s="231" t="s">
+      <c r="E54" s="229" t="s">
         <v>1080</v>
       </c>
       <c r="F54" s="39" t="s">
@@ -40215,7 +40253,7 @@
       <c r="I54" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="244"/>
+      <c r="J54" s="243"/>
       <c r="K54" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40233,7 +40271,7 @@
       <c r="D55" s="39" t="s">
         <v>1082</v>
       </c>
-      <c r="E55" s="231" t="s">
+      <c r="E55" s="229" t="s">
         <v>1083</v>
       </c>
       <c r="F55" s="39" t="s">
@@ -40248,7 +40286,7 @@
       <c r="I55" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="244"/>
+      <c r="J55" s="243"/>
       <c r="K55" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40263,21 +40301,21 @@
       <c r="C56" s="51" t="s">
         <v>1084</v>
       </c>
-      <c r="D56" s="232" t="s">
+      <c r="D56" s="230" t="s">
         <v>1085</v>
       </c>
-      <c r="E56" s="229" t="s">
+      <c r="E56" s="227" t="s">
         <v>1086</v>
       </c>
-      <c r="F56" s="232"/>
+      <c r="F56" s="230"/>
       <c r="G56" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H56" s="217">
+      <c r="H56" s="215">
         <v>0</v>
       </c>
       <c r="I56" s="84"/>
-      <c r="J56" s="244"/>
+      <c r="J56" s="243"/>
       <c r="K56" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40295,7 +40333,7 @@
       <c r="D57" s="39" t="s">
         <v>1088</v>
       </c>
-      <c r="E57" s="231" t="s">
+      <c r="E57" s="229" t="s">
         <v>1089</v>
       </c>
       <c r="F57" s="39" t="s">
@@ -40310,8 +40348,8 @@
       <c r="I57" s="84" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="244"/>
-      <c r="K57" s="215" t="s">
+      <c r="J57" s="243"/>
+      <c r="K57" s="213" t="s">
         <v>1063</v>
       </c>
       <c r="L57" s="39" t="s">
@@ -40334,25 +40372,25 @@
       <c r="C58" s="50" t="s">
         <v>1090</v>
       </c>
-      <c r="D58" s="233" t="s">
+      <c r="D58" s="231" t="s">
         <v>1091</v>
       </c>
-      <c r="E58" s="230" t="s">
+      <c r="E58" s="228" t="s">
         <v>1092</v>
       </c>
-      <c r="F58" s="233" t="s">
+      <c r="F58" s="231" t="s">
         <v>917</v>
       </c>
-      <c r="G58" s="219" t="s">
+      <c r="G58" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="H58" s="220">
+      <c r="H58" s="218">
         <v>0</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="241" t="s">
+      <c r="J58" s="240" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="129" t="s">
@@ -40372,7 +40410,7 @@
       <c r="D59" s="39" t="s">
         <v>1094</v>
       </c>
-      <c r="E59" s="231" t="s">
+      <c r="E59" s="229" t="s">
         <v>1095</v>
       </c>
       <c r="F59" s="39" t="s">
@@ -40387,7 +40425,7 @@
       <c r="I59" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="241"/>
+      <c r="J59" s="240"/>
       <c r="K59" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40405,7 +40443,7 @@
       <c r="D60" s="39" t="s">
         <v>1097</v>
       </c>
-      <c r="E60" s="231" t="s">
+      <c r="E60" s="229" t="s">
         <v>1098</v>
       </c>
       <c r="F60" s="39" t="s">
@@ -40420,7 +40458,7 @@
       <c r="I60" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="241"/>
+      <c r="J60" s="240"/>
       <c r="K60" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40438,7 +40476,7 @@
       <c r="D61" s="39" t="s">
         <v>1100</v>
       </c>
-      <c r="E61" s="231" t="s">
+      <c r="E61" s="229" t="s">
         <v>1101</v>
       </c>
       <c r="F61" s="39" t="s">
@@ -40453,7 +40491,7 @@
       <c r="I61" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="241"/>
+      <c r="J61" s="240"/>
       <c r="K61" s="133" t="s">
         <v>66</v>
       </c>
@@ -40486,7 +40524,7 @@
       <c r="I62" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="241"/>
+      <c r="J62" s="240"/>
       <c r="K62" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40504,7 +40542,7 @@
       <c r="D63" s="39" t="s">
         <v>1105</v>
       </c>
-      <c r="E63" s="231" t="s">
+      <c r="E63" s="229" t="s">
         <v>1106</v>
       </c>
       <c r="F63" s="39" t="s">
@@ -40519,7 +40557,7 @@
       <c r="I63" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="241"/>
+      <c r="J63" s="240"/>
       <c r="K63" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40552,7 +40590,7 @@
       <c r="I64" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="241"/>
+      <c r="J64" s="240"/>
       <c r="K64" s="133" t="s">
         <v>1109</v>
       </c>
@@ -40570,7 +40608,7 @@
       <c r="D65" s="39" t="s">
         <v>1111</v>
       </c>
-      <c r="E65" s="231" t="s">
+      <c r="E65" s="229" t="s">
         <v>1112</v>
       </c>
       <c r="F65" s="39" t="s">
@@ -40585,7 +40623,7 @@
       <c r="I65" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="241"/>
+      <c r="J65" s="240"/>
       <c r="K65" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40598,23 +40636,23 @@
       <c r="C66" s="51" t="s">
         <v>1113</v>
       </c>
-      <c r="D66" s="232" t="s">
+      <c r="D66" s="230" t="s">
         <v>1114</v>
       </c>
-      <c r="E66" s="229" t="s">
+      <c r="E66" s="227" t="s">
         <v>1115</v>
       </c>
-      <c r="F66" s="232" t="s">
+      <c r="F66" s="230" t="s">
         <v>917</v>
       </c>
       <c r="G66" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="218">
+      <c r="H66" s="216">
         <v>60</v>
       </c>
       <c r="I66" s="39"/>
-      <c r="J66" s="241"/>
+      <c r="J66" s="240"/>
       <c r="K66" s="129" t="s">
         <v>1063</v>
       </c>
@@ -40643,8 +40681,8 @@
         <v>30</v>
       </c>
       <c r="I67" s="39"/>
-      <c r="J67" s="241"/>
-      <c r="K67" s="216" t="s">
+      <c r="J67" s="240"/>
+      <c r="K67" s="214" t="s">
         <v>1119</v>
       </c>
       <c r="L67" s="39" t="s">
@@ -40664,19 +40702,19 @@
       <c r="B68" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="230" t="s">
+      <c r="C68" s="228" t="s">
         <v>1120</v>
       </c>
-      <c r="D68" s="233" t="s">
+      <c r="D68" s="231" t="s">
         <v>1121</v>
       </c>
-      <c r="E68" s="230" t="s">
+      <c r="E68" s="228" t="s">
         <v>1122</v>
       </c>
-      <c r="F68" s="233" t="s">
+      <c r="F68" s="231" t="s">
         <v>917</v>
       </c>
-      <c r="G68" s="221" t="s">
+      <c r="G68" s="219" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="134">
@@ -40685,7 +40723,7 @@
       <c r="I68" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="241"/>
+      <c r="J68" s="240"/>
       <c r="K68" s="133" t="s">
         <v>1123</v>
       </c>
@@ -40712,7 +40750,7 @@
       <c r="D69" s="39" t="s">
         <v>1125</v>
       </c>
-      <c r="E69" s="231" t="s">
+      <c r="E69" s="229" t="s">
         <v>1126</v>
       </c>
       <c r="F69" s="39" t="s">
@@ -40727,7 +40765,7 @@
       <c r="I69" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="241"/>
+      <c r="J69" s="240"/>
       <c r="K69" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40745,7 +40783,7 @@
       <c r="D70" s="39" t="s">
         <v>1128</v>
       </c>
-      <c r="E70" s="231" t="s">
+      <c r="E70" s="229" t="s">
         <v>1129</v>
       </c>
       <c r="F70" s="39" t="s">
@@ -40760,7 +40798,7 @@
       <c r="I70" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="241"/>
+      <c r="J70" s="240"/>
       <c r="K70" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40778,7 +40816,7 @@
       <c r="D71" s="39" t="s">
         <v>1131</v>
       </c>
-      <c r="E71" s="231" t="s">
+      <c r="E71" s="229" t="s">
         <v>1132</v>
       </c>
       <c r="F71" s="39" t="s">
@@ -40793,7 +40831,7 @@
       <c r="I71" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="241"/>
+      <c r="J71" s="240"/>
       <c r="K71" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40811,7 +40849,7 @@
       <c r="D72" s="39" t="s">
         <v>1134</v>
       </c>
-      <c r="E72" s="231" t="s">
+      <c r="E72" s="229" t="s">
         <v>1133</v>
       </c>
       <c r="F72" s="39" t="s">
@@ -40826,7 +40864,7 @@
       <c r="I72" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="241"/>
+      <c r="J72" s="240"/>
       <c r="K72" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40844,7 +40882,7 @@
       <c r="D73" s="39" t="s">
         <v>1136</v>
       </c>
-      <c r="E73" s="231" t="s">
+      <c r="E73" s="229" t="s">
         <v>1137</v>
       </c>
       <c r="F73" s="39" t="s">
@@ -40859,7 +40897,7 @@
       <c r="I73" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="241"/>
+      <c r="J73" s="240"/>
       <c r="K73" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40871,13 +40909,13 @@
       <c r="B74" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="231" t="s">
+      <c r="C74" s="229" t="s">
         <v>1138</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>1139</v>
       </c>
-      <c r="E74" s="231" t="s">
+      <c r="E74" s="229" t="s">
         <v>1140</v>
       </c>
       <c r="F74" s="39" t="s">
@@ -40890,7 +40928,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="44"/>
-      <c r="J74" s="241"/>
+      <c r="J74" s="240"/>
       <c r="K74" s="133" t="s">
         <v>1063</v>
       </c>
@@ -40900,21 +40938,21 @@
         <v>70</v>
       </c>
       <c r="B75" s="202"/>
-      <c r="C75" s="231"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="231"/>
+      <c r="E75" s="229"/>
       <c r="F75" s="39"/>
       <c r="G75" s="83"/>
       <c r="H75" s="36"/>
       <c r="I75" s="44"/>
-      <c r="J75" s="241"/>
+      <c r="J75" s="240"/>
       <c r="K75" s="69"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>71</v>
       </c>
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="226" t="s">
         <v>1141</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -40948,7 +40986,7 @@
       <c r="A77" s="36">
         <v>72</v>
       </c>
-      <c r="B77" s="231" t="s">
+      <c r="B77" s="229" t="s">
         <v>278</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -40957,7 +40995,7 @@
       <c r="D77" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="231" t="s">
+      <c r="E77" s="229" t="s">
         <v>280</v>
       </c>
       <c r="F77" s="39" t="s">
@@ -40987,17 +41025,17 @@
       <c r="C78" s="51" t="s">
         <v>1146</v>
       </c>
-      <c r="D78" s="232" t="s">
+      <c r="D78" s="230" t="s">
         <v>282</v>
       </c>
-      <c r="E78" s="229" t="s">
+      <c r="E78" s="227" t="s">
         <v>283</v>
       </c>
       <c r="F78" s="198"/>
       <c r="G78" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="232"/>
+      <c r="H78" s="230"/>
       <c r="I78" s="44"/>
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
@@ -41050,7 +41088,7 @@
       <c r="D80" s="39" t="s">
         <v>1911</v>
       </c>
-      <c r="E80" s="231"/>
+      <c r="E80" s="229"/>
       <c r="F80" s="39"/>
       <c r="G80" s="39" t="s">
         <v>5</v>
@@ -41204,11 +41242,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41230,19 +41267,23 @@
     <col min="15" max="16384" width="9.1796875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="256" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="256"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41275,16 +41316,16 @@
       <c r="J2" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="K2" s="179" t="s">
+      <c r="K2" s="258" t="s">
         <v>1148</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="8" t="s">
         <v>1941</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="10" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -41319,7 +41360,7 @@
       <c r="J3" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K3" s="212" t="s">
+      <c r="K3" s="163" t="s">
         <v>1931</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -41363,7 +41404,7 @@
       <c r="J4" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K4" s="212" t="s">
+      <c r="K4" s="163" t="s">
         <v>1155</v>
       </c>
       <c r="L4" s="39" t="s">
@@ -41376,7 +41417,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="161">
         <v>3</v>
       </c>
@@ -41407,14 +41448,17 @@
       <c r="J5" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K5" s="212" t="s">
+      <c r="K5" s="163" t="s">
         <v>1159</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="39" t="s">
         <v>1943</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="126" x14ac:dyDescent="0.35">
@@ -41448,7 +41492,7 @@
       <c r="J6" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K6" s="212" t="s">
+      <c r="K6" s="163" t="s">
         <v>1163</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -41492,14 +41536,14 @@
       <c r="J7" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K7" s="212" t="s">
+      <c r="K7" s="163" t="s">
         <v>1167</v>
       </c>
       <c r="L7" s="39" t="s">
         <v>1872</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>1943</v>
+        <v>1988</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>1960</v>
@@ -41536,7 +41580,7 @@
       <c r="J8" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K8" s="212" t="s">
+      <c r="K8" s="163" t="s">
         <v>1932</v>
       </c>
       <c r="L8" s="39" t="s">
@@ -41580,20 +41624,20 @@
       <c r="J9" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="163" t="s">
         <v>1172</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>1872</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>1943</v>
+        <v>1988</v>
       </c>
       <c r="N9" s="36" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="140" x14ac:dyDescent="0.35">
       <c r="A10" s="161">
         <v>8</v>
       </c>
@@ -41624,12 +41668,18 @@
       <c r="J10" s="166" t="s">
         <v>1175</v>
       </c>
-      <c r="K10" s="212" t="s">
+      <c r="K10" s="163" t="s">
         <v>1176</v>
       </c>
       <c r="L10" s="39"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A11" s="161">
         <v>9</v>
       </c>
@@ -41658,10 +41708,16 @@
       <c r="J11" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K11" s="160"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="39"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A12" s="161">
         <v>10</v>
       </c>
@@ -41690,10 +41746,16 @@
       <c r="J12" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K12" s="160"/>
+      <c r="K12" s="45"/>
       <c r="L12" s="39"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A13" s="161">
         <v>11</v>
       </c>
@@ -41722,10 +41784,16 @@
       <c r="J13" s="163" t="s">
         <v>305</v>
       </c>
-      <c r="K13" s="160"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="39"/>
-    </row>
-    <row r="14" spans="1:14" ht="378" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="378" x14ac:dyDescent="0.35">
       <c r="A14" s="161">
         <v>12</v>
       </c>
@@ -41756,17 +41824,20 @@
       <c r="J14" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K14" s="212" t="s">
+      <c r="K14" s="163" t="s">
         <v>1181</v>
       </c>
       <c r="L14" s="39" t="s">
         <v>1871</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="39" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="161">
         <v>13</v>
       </c>
@@ -41797,15 +41868,18 @@
       <c r="J15" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K15" s="213"/>
+      <c r="K15" s="45"/>
       <c r="L15" s="39" t="s">
         <v>802</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A16" s="161">
         <v>14</v>
       </c>
@@ -41836,15 +41910,18 @@
       <c r="J16" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K16" s="213"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="39" t="s">
         <v>1869</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="39" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="161">
         <v>15</v>
       </c>
@@ -41875,17 +41952,20 @@
       <c r="J17" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K17" s="212" t="s">
+      <c r="K17" s="163" t="s">
         <v>1185</v>
       </c>
       <c r="L17" s="39" t="s">
         <v>1871</v>
       </c>
-      <c r="M17" s="41" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="161">
         <v>16</v>
       </c>
@@ -41914,8 +41994,14 @@
       <c r="J18" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="160"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="39"/>
+      <c r="M18" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="161">
@@ -41946,20 +42032,20 @@
       <c r="J19" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K19" s="212" t="s">
+      <c r="K19" s="163" t="s">
         <v>1188</v>
       </c>
       <c r="L19" s="39" t="s">
         <v>1872</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>1945</v>
+        <v>1988</v>
       </c>
       <c r="N19" s="36" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A20" s="161">
         <v>18</v>
       </c>
@@ -41988,10 +42074,16 @@
       <c r="J20" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K20" s="160"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="39"/>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="161">
         <v>19</v>
       </c>
@@ -42010,10 +42102,16 @@
       <c r="J21" s="163" t="s">
         <v>902</v>
       </c>
-      <c r="K21" s="160"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="39"/>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="161">
         <v>20</v>
       </c>
@@ -42042,10 +42140,16 @@
       <c r="J22" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="160"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A23" s="161">
         <v>21</v>
       </c>
@@ -42074,10 +42178,16 @@
       <c r="J23" s="163" t="s">
         <v>349</v>
       </c>
-      <c r="K23" s="160"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A24" s="170">
         <v>22</v>
       </c>
@@ -42106,10 +42216,14 @@
       <c r="J24" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="160"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="39"/>
+      <c r="N24" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A25" s="161">
         <v>23</v>
       </c>
@@ -42138,10 +42252,16 @@
       <c r="J25" s="166" t="s">
         <v>1198</v>
       </c>
-      <c r="K25" s="160"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="39" t="s">
+        <v>1944</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A26" s="161">
         <v>24</v>
       </c>
@@ -42170,10 +42290,16 @@
       <c r="J26" s="163" t="s">
         <v>349</v>
       </c>
-      <c r="K26" s="160"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="1:14" ht="252" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="252" x14ac:dyDescent="0.35">
       <c r="A27" s="161">
         <v>25</v>
       </c>
@@ -42204,17 +42330,20 @@
       <c r="J27" s="163" t="s">
         <v>349</v>
       </c>
-      <c r="K27" s="212" t="s">
+      <c r="K27" s="163" t="s">
         <v>1201</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="M27" s="41" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A28" s="170">
         <v>26</v>
       </c>
@@ -42243,10 +42372,16 @@
       <c r="J28" s="169" t="s">
         <v>1206</v>
       </c>
-      <c r="K28" s="160"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A29" s="170">
         <v>27</v>
       </c>
@@ -42275,10 +42410,16 @@
       <c r="J29" s="169" t="s">
         <v>1206</v>
       </c>
-      <c r="K29" s="160"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A30" s="170">
         <v>28</v>
       </c>
@@ -42305,10 +42446,16 @@
       <c r="J30" s="169" t="s">
         <v>1206</v>
       </c>
-      <c r="K30" s="160"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="39"/>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A31" s="161">
         <v>29</v>
       </c>
@@ -42337,10 +42484,16 @@
       <c r="J31" s="163" t="s">
         <v>349</v>
       </c>
-      <c r="K31" s="160"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A32" s="161">
         <v>30</v>
       </c>
@@ -42365,10 +42518,16 @@
       <c r="J32" s="163" t="s">
         <v>353</v>
       </c>
-      <c r="K32" s="160"/>
+      <c r="K32" s="45"/>
       <c r="L32" s="39"/>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A33" s="161">
         <v>31</v>
       </c>
@@ -42393,8 +42552,14 @@
       <c r="J33" s="163" t="s">
         <v>357</v>
       </c>
-      <c r="K33" s="160"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="39"/>
+      <c r="M33" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="154" x14ac:dyDescent="0.35">
       <c r="A34" s="161">
@@ -42423,7 +42588,7 @@
       </c>
       <c r="I34" s="160"/>
       <c r="J34" s="163"/>
-      <c r="K34" s="212" t="s">
+      <c r="K34" s="210" t="s">
         <v>1219</v>
       </c>
       <c r="L34" s="39" t="s">
@@ -42436,7 +42601,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="161">
         <v>33</v>
       </c>
@@ -42463,26 +42628,29 @@
       </c>
       <c r="I35" s="163"/>
       <c r="J35" s="163"/>
-      <c r="K35" s="213"/>
+      <c r="K35" s="211"/>
       <c r="L35" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="41" t="s">
+      <c r="M35" s="39" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="36" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A36" s="184">
         <v>34</v>
       </c>
       <c r="B36" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="186" t="s">
-        <v>73</v>
+      <c r="C36" s="185" t="s">
+        <v>113</v>
       </c>
       <c r="D36" s="186" t="s">
-        <v>73</v>
+        <v>1990</v>
       </c>
       <c r="E36" s="186" t="s">
         <v>114</v>
@@ -42498,14 +42666,17 @@
       </c>
       <c r="I36" s="163"/>
       <c r="J36" s="187"/>
-      <c r="K36" s="214" t="s">
+      <c r="K36" s="212" t="s">
         <v>1222</v>
       </c>
       <c r="L36" s="39" t="s">
         <v>1871</v>
       </c>
-      <c r="M36" s="41" t="s">
-        <v>1944</v>
+      <c r="M36" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -42535,12 +42706,12 @@
       </c>
       <c r="I37" s="160"/>
       <c r="J37" s="163"/>
-      <c r="K37" s="213"/>
+      <c r="K37" s="211"/>
       <c r="L37" s="39" t="s">
         <v>1872</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>1945</v>
+        <v>1988</v>
       </c>
       <c r="N37" s="36" t="s">
         <v>1960</v>
@@ -42573,7 +42744,7 @@
       </c>
       <c r="I38" s="160"/>
       <c r="J38" s="163"/>
-      <c r="K38" s="213" t="s">
+      <c r="K38" s="211" t="s">
         <v>1858</v>
       </c>
       <c r="L38" s="39" t="s">
@@ -42590,7 +42761,7 @@
       <c r="A39" s="36">
         <v>37</v>
       </c>
-      <c r="B39" s="208" t="s">
+      <c r="B39" s="232" t="s">
         <v>1917</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -42629,7 +42800,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="208" t="s">
+      <c r="B40" s="232" t="s">
         <v>1923</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -42656,7 +42827,7 @@
         <v>1872</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>1945</v>
+        <v>1988</v>
       </c>
       <c r="N40" s="36" t="s">
         <v>1960</v>
@@ -42666,7 +42837,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="208" t="s">
+      <c r="B41" s="232" t="s">
         <v>1927</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -42703,7 +42874,7 @@
       <c r="A42" s="36">
         <v>40</v>
       </c>
-      <c r="B42" s="211" t="s">
+      <c r="B42" s="232" t="s">
         <v>1936</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -42730,35 +42901,90 @@
         <v>1872</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>1945</v>
+        <v>1988</v>
       </c>
       <c r="N42" s="36" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I43" s="41"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I44" s="41"/>
+    <row r="43" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+      <c r="A43" s="36">
+        <v>41</v>
+      </c>
+      <c r="B43" s="232" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>917</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39" t="s">
+        <v>1872</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>1944</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+      <c r="A44" s="36">
+        <v>42</v>
+      </c>
+      <c r="B44" s="232" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>917</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="I44" s="39"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39" t="s">
+        <v>1869</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>474</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L42" xr:uid="{9E26C98F-F63D-4634-AED6-5AE6EA2A8036}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Vital"/>
-        <filter val="Vital?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="P1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
+  <autoFilter ref="A2:L42" xr:uid="{9E26C98F-F63D-4634-AED6-5AE6EA2A8036}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -42795,18 +43021,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="246" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="250"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="249"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -43013,7 +43239,7 @@
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="241" t="s">
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -43049,7 +43275,7 @@
     </row>
     <row r="8" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="245"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="4" t="s">
         <v>1969</v>
       </c>
@@ -43085,7 +43311,7 @@
       <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="245"/>
+      <c r="B9" s="244"/>
       <c r="C9" s="4" t="s">
         <v>1948</v>
       </c>
@@ -43122,7 +43348,7 @@
       <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="B10" s="245"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="4" t="s">
         <v>1230</v>
       </c>
@@ -43156,7 +43382,7 @@
       <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="B11" s="245"/>
+      <c r="B11" s="244"/>
       <c r="C11" s="4" t="s">
         <v>1233</v>
       </c>
@@ -43190,7 +43416,7 @@
       <c r="A12" s="36">
         <v>8</v>
       </c>
-      <c r="B12" s="245"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="4" t="s">
         <v>1949</v>
       </c>
@@ -43227,7 +43453,7 @@
       <c r="A13" s="36">
         <v>9</v>
       </c>
-      <c r="B13" s="245"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="4" t="s">
         <v>1950</v>
       </c>
@@ -43256,7 +43482,7 @@
       <c r="L13" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="M13" s="223" t="s">
+      <c r="M13" s="221" t="s">
         <v>1956</v>
       </c>
     </row>
@@ -43264,7 +43490,7 @@
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="245"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="4" t="s">
         <v>1951</v>
       </c>
@@ -43293,7 +43519,7 @@
       <c r="L14" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="M14" s="223" t="s">
+      <c r="M14" s="221" t="s">
         <v>1956</v>
       </c>
     </row>
@@ -43301,7 +43527,7 @@
       <c r="A15" s="36">
         <v>11</v>
       </c>
-      <c r="B15" s="245"/>
+      <c r="B15" s="244"/>
       <c r="C15" s="4" t="s">
         <v>1952</v>
       </c>
@@ -43330,7 +43556,7 @@
       <c r="L15" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="M15" s="223" t="s">
+      <c r="M15" s="221" t="s">
         <v>1956</v>
       </c>
     </row>
@@ -43338,7 +43564,7 @@
       <c r="A16" s="36">
         <v>12</v>
       </c>
-      <c r="B16" s="243"/>
+      <c r="B16" s="242"/>
       <c r="C16" s="4" t="s">
         <v>1953</v>
       </c>
@@ -43367,7 +43593,7 @@
       <c r="L16" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="M16" s="223" t="s">
+      <c r="M16" s="221" t="s">
         <v>1956</v>
       </c>
     </row>
@@ -43618,7 +43844,7 @@
       <c r="L23" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="M23" s="222" t="s">
+      <c r="M23" s="220" t="s">
         <v>1955</v>
       </c>
     </row>
@@ -43626,7 +43852,7 @@
       <c r="A24" s="36">
         <v>20</v>
       </c>
-      <c r="B24" s="244" t="s">
+      <c r="B24" s="243" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43662,7 +43888,7 @@
       <c r="A25" s="56">
         <v>21</v>
       </c>
-      <c r="B25" s="251"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="59" t="s">
         <v>1256</v>
       </c>
@@ -43694,7 +43920,7 @@
       <c r="A26" s="36">
         <v>22</v>
       </c>
-      <c r="B26" s="252"/>
+      <c r="B26" s="251"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43726,7 +43952,7 @@
       <c r="A27" s="36">
         <v>23</v>
       </c>
-      <c r="B27" s="252"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43758,7 +43984,7 @@
       <c r="A28" s="56">
         <v>24</v>
       </c>
-      <c r="B28" s="251"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="59" t="s">
         <v>1265</v>
       </c>
@@ -43790,7 +44016,7 @@
       <c r="A29" s="36">
         <v>25</v>
       </c>
-      <c r="B29" s="252"/>
+      <c r="B29" s="251"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -43894,7 +44120,7 @@
       <c r="A32" s="36">
         <v>28</v>
       </c>
-      <c r="B32" s="244" t="s">
+      <c r="B32" s="243" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -43930,7 +44156,7 @@
       <c r="A33" s="36">
         <v>29</v>
       </c>
-      <c r="B33" s="252"/>
+      <c r="B33" s="251"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -43964,7 +44190,7 @@
       <c r="A34" s="36">
         <v>30</v>
       </c>
-      <c r="B34" s="252"/>
+      <c r="B34" s="251"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -43998,7 +44224,7 @@
       <c r="A35" s="36">
         <v>31</v>
       </c>
-      <c r="B35" s="252"/>
+      <c r="B35" s="251"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44270,7 +44496,7 @@
       <c r="A42" s="58">
         <v>37</v>
       </c>
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="244" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="50" t="s">
@@ -44302,7 +44528,7 @@
       <c r="A43" s="36">
         <v>38</v>
       </c>
-      <c r="B43" s="251"/>
+      <c r="B43" s="250"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44332,7 +44558,7 @@
       <c r="A44" s="52">
         <v>39</v>
       </c>
-      <c r="B44" s="251"/>
+      <c r="B44" s="250"/>
       <c r="C44" s="51" t="s">
         <v>1297</v>
       </c>
@@ -44360,7 +44586,7 @@
     </row>
     <row r="45" spans="1:14" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="246" t="s">
+      <c r="B45" s="245" t="s">
         <v>1300</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -44402,7 +44628,7 @@
     </row>
     <row r="46" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="246"/>
+      <c r="B46" s="245"/>
       <c r="C46" s="4" t="s">
         <v>1304</v>
       </c>
@@ -44436,7 +44662,7 @@
     </row>
     <row r="47" spans="1:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
-      <c r="B47" s="246"/>
+      <c r="B47" s="245"/>
       <c r="C47" s="4" t="s">
         <v>1307</v>
       </c>
@@ -44470,7 +44696,7 @@
     </row>
     <row r="48" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
-      <c r="B48" s="246" t="s">
+      <c r="B48" s="245" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44506,7 +44732,7 @@
     </row>
     <row r="49" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
-      <c r="B49" s="246"/>
+      <c r="B49" s="245"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -44540,7 +44766,7 @@
     </row>
     <row r="50" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A50" s="52"/>
-      <c r="B50" s="227" t="s">
+      <c r="B50" s="225" t="s">
         <v>1863</v>
       </c>
       <c r="C50" s="51" t="s">
@@ -44549,10 +44775,10 @@
       <c r="D50" s="198" t="s">
         <v>1862</v>
       </c>
-      <c r="E50" s="226" t="s">
+      <c r="E50" s="224" t="s">
         <v>1865</v>
       </c>
-      <c r="G50" s="226" t="s">
+      <c r="G50" s="224" t="s">
         <v>1861</v>
       </c>
       <c r="H50" s="52"/>
@@ -45290,18 +45516,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="237"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45392,7 +45618,7 @@
       <c r="A4" s="36">
         <v>40</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="241" t="s">
         <v>431</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -45432,7 +45658,7 @@
       <c r="A5" s="52">
         <v>41</v>
       </c>
-      <c r="B5" s="245"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="51" t="s">
         <v>1319</v>
       </c>
@@ -45620,18 +45846,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="234" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="250"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="249"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45704,7 +45930,7 @@
         <v>1145</v>
       </c>
       <c r="J3" s="41"/>
-      <c r="K3" s="224" t="s">
+      <c r="K3" s="222" t="s">
         <v>94</v>
       </c>
       <c r="L3" s="39"/>
@@ -45784,7 +46010,7 @@
       <c r="J5" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="225" t="s">
+      <c r="K5" s="223" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="39" t="s">
@@ -45828,7 +46054,7 @@
       <c r="J6" s="39" t="s">
         <v>1328</v>
       </c>
-      <c r="K6" s="225" t="s">
+      <c r="K6" s="223" t="s">
         <v>474</v>
       </c>
       <c r="L6" s="39" t="s">
@@ -46328,15 +46554,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -46360,6 +46577,15 @@
     </RatedBy>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46570,14 +46796,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -46590,6 +46808,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935A661-DEEB-4693-856B-8389CCD77DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DE708-B89D-4C42-AC61-E0F61AA64145}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Admin!$A$2:$K$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$B$3:$S$350</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'ID-Authentication'!$A$2:$N$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ID-Repository'!$A$2:$N$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ID-Repository'!$A$2:$N$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$N$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$L$24</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5600" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5600" uniqueCount="1995">
   <si>
     <t>Category</t>
   </si>
@@ -6862,6 +6862,9 @@
   </si>
   <si>
     <t xml:space="preserve">Re-Activate and De-Activate UIN API Changes </t>
+  </si>
+  <si>
+    <t>Sprint 14/15</t>
   </si>
 </sst>
 </file>
@@ -7402,7 +7405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8083,6 +8086,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8122,14 +8131,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8143,11 +8155,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16215,18 +16227,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="240"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16676,7 +16688,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="241" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16708,7 +16720,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="240"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17048,19 +17060,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="143" t="s">
@@ -22402,18 +22414,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="240"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -22451,7 +22463,7 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="254" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22477,7 +22489,7 @@
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="252"/>
+      <c r="B4" s="255"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22499,7 +22511,7 @@
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="254" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22525,7 +22537,7 @@
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="253"/>
+      <c r="B6" s="256"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22549,7 +22561,7 @@
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="253"/>
+      <c r="B7" s="256"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22571,7 +22583,7 @@
       <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="253"/>
+      <c r="B8" s="256"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22593,7 +22605,7 @@
       <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="253"/>
+      <c r="B9" s="256"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22615,7 +22627,7 @@
       <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="253"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22637,7 +22649,7 @@
       <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="253"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22659,7 +22671,7 @@
       <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="253"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22681,7 +22693,7 @@
       <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="253"/>
+      <c r="B13" s="256"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22703,7 +22715,7 @@
       <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="253"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22727,7 +22739,7 @@
       <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="253"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22751,7 +22763,7 @@
       <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="252"/>
+      <c r="B16" s="255"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22873,7 +22885,7 @@
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="251" t="s">
+      <c r="B21" s="254" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22897,7 +22909,7 @@
       <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="253"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22919,7 +22931,7 @@
       <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="253"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -22941,7 +22953,7 @@
       <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="253"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -22963,7 +22975,7 @@
       <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="253"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -22985,7 +22997,7 @@
       <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="252"/>
+      <c r="B26" s="255"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23007,7 +23019,7 @@
       <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="254" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23031,7 +23043,7 @@
       <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="252"/>
+      <c r="B28" s="255"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23053,7 +23065,7 @@
       <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="251" t="s">
+      <c r="B29" s="254" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23077,7 +23089,7 @@
       <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="252"/>
+      <c r="B30" s="255"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23099,7 +23111,7 @@
       <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="251" t="s">
+      <c r="B31" s="254" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23123,7 +23135,7 @@
       <c r="A32" s="38">
         <v>30</v>
       </c>
-      <c r="B32" s="253"/>
+      <c r="B32" s="256"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23145,7 +23157,7 @@
       <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="253"/>
+      <c r="B33" s="256"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23167,7 +23179,7 @@
       <c r="A34" s="38">
         <v>32</v>
       </c>
-      <c r="B34" s="253"/>
+      <c r="B34" s="256"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23189,7 +23201,7 @@
       <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="252"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23211,7 +23223,7 @@
       <c r="A36" s="38">
         <v>34</v>
       </c>
-      <c r="B36" s="251" t="s">
+      <c r="B36" s="254" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23235,7 +23247,7 @@
       <c r="A37" s="38">
         <v>35</v>
       </c>
-      <c r="B37" s="253"/>
+      <c r="B37" s="256"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23257,7 +23269,7 @@
       <c r="A38" s="38">
         <v>36</v>
       </c>
-      <c r="B38" s="253"/>
+      <c r="B38" s="256"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23279,7 +23291,7 @@
       <c r="A39" s="38">
         <v>37</v>
       </c>
-      <c r="B39" s="252"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23301,7 +23313,7 @@
       <c r="A40" s="38">
         <v>38</v>
       </c>
-      <c r="B40" s="251" t="s">
+      <c r="B40" s="254" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23325,7 +23337,7 @@
       <c r="A41" s="38">
         <v>39</v>
       </c>
-      <c r="B41" s="252"/>
+      <c r="B41" s="255"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23371,7 +23383,7 @@
       <c r="A43" s="38">
         <v>41</v>
       </c>
-      <c r="B43" s="251" t="s">
+      <c r="B43" s="254" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23395,7 +23407,7 @@
       <c r="A44" s="38">
         <v>42</v>
       </c>
-      <c r="B44" s="253"/>
+      <c r="B44" s="256"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23417,7 +23429,7 @@
       <c r="A45" s="38">
         <v>43</v>
       </c>
-      <c r="B45" s="253"/>
+      <c r="B45" s="256"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23439,7 +23451,7 @@
       <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="B46" s="253"/>
+      <c r="B46" s="256"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23463,7 +23475,7 @@
       <c r="A47" s="38">
         <v>45</v>
       </c>
-      <c r="B47" s="253"/>
+      <c r="B47" s="256"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23485,7 +23497,7 @@
       <c r="A48" s="38">
         <v>46</v>
       </c>
-      <c r="B48" s="253"/>
+      <c r="B48" s="256"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23507,7 +23519,7 @@
       <c r="A49" s="38">
         <v>47</v>
       </c>
-      <c r="B49" s="253"/>
+      <c r="B49" s="256"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23529,7 +23541,7 @@
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="253"/>
+      <c r="B50" s="256"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23553,7 +23565,7 @@
       <c r="A51" s="38">
         <v>49</v>
       </c>
-      <c r="B51" s="253"/>
+      <c r="B51" s="256"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23575,7 +23587,7 @@
       <c r="A52" s="38">
         <v>50</v>
       </c>
-      <c r="B52" s="253"/>
+      <c r="B52" s="256"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23597,7 +23609,7 @@
       <c r="A53" s="38">
         <v>51</v>
       </c>
-      <c r="B53" s="253"/>
+      <c r="B53" s="256"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23619,7 +23631,7 @@
       <c r="A54" s="38">
         <v>52</v>
       </c>
-      <c r="B54" s="252"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23652,16 +23664,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23702,26 +23714,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
-      <c r="O2" s="236"/>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="240"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25906,7 +25918,7 @@
       <c r="C68" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="234" t="s">
+      <c r="D68" s="236" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="116"/>
@@ -25940,7 +25952,7 @@
       <c r="C69" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="234"/>
+      <c r="D69" s="236"/>
       <c r="E69" s="116"/>
       <c r="F69" s="46" t="s">
         <v>225</v>
@@ -35685,12 +35697,12 @@
       <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="237" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="240"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37258,18 +37270,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="240"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37790,7 +37802,7 @@
       <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="239" t="s">
+      <c r="B17" s="241" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37823,7 +37835,7 @@
       <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="240"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37854,7 +37866,7 @@
       <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="241" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37887,7 +37899,7 @@
       <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="240"/>
+      <c r="B20" s="242"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38202,18 +38214,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="240"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38305,7 +38317,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="244" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38339,7 +38351,7 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="243"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38459,7 +38471,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="244" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38495,7 +38507,7 @@
       <c r="A9" s="35">
         <v>11</v>
       </c>
-      <c r="B9" s="243"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38666,7 +38678,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="242" t="s">
+      <c r="B14" s="244" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38702,7 +38714,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="243"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38991,7 +39003,7 @@
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="242" t="s">
+      <c r="B22" s="244" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39033,7 +39045,7 @@
       <c r="A23" s="35">
         <v>21</v>
       </c>
-      <c r="B23" s="245"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -39072,7 +39084,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="243"/>
+      <c r="B24" s="245"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -39297,7 +39309,7 @@
       <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="242" t="s">
+      <c r="B30" s="244" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39333,7 +39345,7 @@
       <c r="A31" s="35">
         <v>29</v>
       </c>
-      <c r="B31" s="243"/>
+      <c r="B31" s="245"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39367,7 +39379,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="242" t="s">
+      <c r="B32" s="244" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39403,7 +39415,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="243"/>
+      <c r="B33" s="245"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39698,7 +39710,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="242" t="s">
+      <c r="B41" s="244" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39734,7 +39746,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="243"/>
+      <c r="B42" s="245"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39804,7 +39816,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="242" t="s">
+      <c r="B44" s="244" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39840,7 +39852,7 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="243"/>
+      <c r="B45" s="245"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39968,7 +39980,7 @@
       <c r="I48" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="244" t="s">
+      <c r="J48" s="246" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="83" t="s">
@@ -40003,7 +40015,7 @@
       <c r="I49" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="244"/>
+      <c r="J49" s="246"/>
       <c r="K49" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40036,7 +40048,7 @@
       <c r="I50" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="244"/>
+      <c r="J50" s="246"/>
       <c r="K50" s="127" t="s">
         <v>349</v>
       </c>
@@ -40069,7 +40081,7 @@
       <c r="I51" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="244"/>
+      <c r="J51" s="246"/>
       <c r="K51" s="127" t="s">
         <v>1070</v>
       </c>
@@ -40102,7 +40114,7 @@
       <c r="I52" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="244"/>
+      <c r="J52" s="246"/>
       <c r="K52" s="127" t="s">
         <v>1074</v>
       </c>
@@ -40135,7 +40147,7 @@
       <c r="I53" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="244"/>
+      <c r="J53" s="246"/>
       <c r="K53" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40168,7 +40180,7 @@
       <c r="I54" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="244"/>
+      <c r="J54" s="246"/>
       <c r="K54" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40201,7 +40213,7 @@
       <c r="I55" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="244"/>
+      <c r="J55" s="246"/>
       <c r="K55" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40230,7 +40242,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="82"/>
-      <c r="J56" s="244"/>
+      <c r="J56" s="246"/>
       <c r="K56" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40263,7 +40275,7 @@
       <c r="I57" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="244"/>
+      <c r="J57" s="246"/>
       <c r="K57" s="213" t="s">
         <v>1063</v>
       </c>
@@ -40305,7 +40317,7 @@
       <c r="I58" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="241" t="s">
+      <c r="J58" s="243" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="127" t="s">
@@ -40340,7 +40352,7 @@
       <c r="I59" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="241"/>
+      <c r="J59" s="243"/>
       <c r="K59" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40373,7 +40385,7 @@
       <c r="I60" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="241"/>
+      <c r="J60" s="243"/>
       <c r="K60" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40406,7 +40418,7 @@
       <c r="I61" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="241"/>
+      <c r="J61" s="243"/>
       <c r="K61" s="131" t="s">
         <v>66</v>
       </c>
@@ -40439,7 +40451,7 @@
       <c r="I62" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="241"/>
+      <c r="J62" s="243"/>
       <c r="K62" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40472,7 +40484,7 @@
       <c r="I63" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="241"/>
+      <c r="J63" s="243"/>
       <c r="K63" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40505,7 +40517,7 @@
       <c r="I64" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="241"/>
+      <c r="J64" s="243"/>
       <c r="K64" s="131" t="s">
         <v>1109</v>
       </c>
@@ -40538,7 +40550,7 @@
       <c r="I65" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="241"/>
+      <c r="J65" s="243"/>
       <c r="K65" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40567,7 +40579,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="38"/>
-      <c r="J66" s="241"/>
+      <c r="J66" s="243"/>
       <c r="K66" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40596,7 +40608,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="38"/>
-      <c r="J67" s="241"/>
+      <c r="J67" s="243"/>
       <c r="K67" s="214" t="s">
         <v>1119</v>
       </c>
@@ -40638,7 +40650,7 @@
       <c r="I68" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="241"/>
+      <c r="J68" s="243"/>
       <c r="K68" s="131" t="s">
         <v>1123</v>
       </c>
@@ -40680,7 +40692,7 @@
       <c r="I69" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="241"/>
+      <c r="J69" s="243"/>
       <c r="K69" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40713,7 +40725,7 @@
       <c r="I70" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="241"/>
+      <c r="J70" s="243"/>
       <c r="K70" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40746,7 +40758,7 @@
       <c r="I71" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="241"/>
+      <c r="J71" s="243"/>
       <c r="K71" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40779,7 +40791,7 @@
       <c r="I72" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="241"/>
+      <c r="J72" s="243"/>
       <c r="K72" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40812,7 +40824,7 @@
       <c r="I73" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="241"/>
+      <c r="J73" s="243"/>
       <c r="K73" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40843,7 +40855,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="43"/>
-      <c r="J74" s="241"/>
+      <c r="J74" s="243"/>
       <c r="K74" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40860,7 +40872,7 @@
       <c r="G75" s="81"/>
       <c r="H75" s="35"/>
       <c r="I75" s="43"/>
-      <c r="J75" s="241"/>
+      <c r="J75" s="243"/>
       <c r="K75" s="68"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -41157,11 +41169,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41184,18 +41195,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="240"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41329,7 +41340,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="159">
         <v>3</v>
       </c>
@@ -41546,7 +41557,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="140" x14ac:dyDescent="0.35">
       <c r="A10" s="159">
         <v>8</v>
       </c>
@@ -41582,7 +41593,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A11" s="159">
         <v>9</v>
       </c>
@@ -41614,7 +41625,7 @@
       <c r="K11" s="158"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A12" s="159">
         <v>10</v>
       </c>
@@ -41646,7 +41657,7 @@
       <c r="K12" s="158"/>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A13" s="159">
         <v>11</v>
       </c>
@@ -41678,7 +41689,7 @@
       <c r="K13" s="158"/>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:14" ht="378" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="378" x14ac:dyDescent="0.35">
       <c r="A14" s="159">
         <v>12</v>
       </c>
@@ -41719,7 +41730,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="159">
         <v>13</v>
       </c>
@@ -41758,7 +41769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="56" x14ac:dyDescent="0.35">
       <c r="A16" s="159">
         <v>14</v>
       </c>
@@ -41797,7 +41808,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="150.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="159">
         <v>15</v>
       </c>
@@ -41838,7 +41849,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="159">
         <v>16</v>
       </c>
@@ -41912,7 +41923,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A20" s="159">
         <v>18</v>
       </c>
@@ -41944,7 +41955,7 @@
       <c r="K20" s="158"/>
       <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="159">
         <v>19</v>
       </c>
@@ -41966,7 +41977,7 @@
       <c r="K21" s="158"/>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="159">
         <v>20</v>
       </c>
@@ -41998,7 +42009,7 @@
       <c r="K22" s="158"/>
       <c r="L22" s="38"/>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A23" s="159">
         <v>21</v>
       </c>
@@ -42030,7 +42041,7 @@
       <c r="K23" s="158"/>
       <c r="L23" s="38"/>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A24" s="168">
         <v>22</v>
       </c>
@@ -42062,7 +42073,7 @@
       <c r="K24" s="158"/>
       <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A25" s="159">
         <v>23</v>
       </c>
@@ -42094,7 +42105,7 @@
       <c r="K25" s="158"/>
       <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
       <c r="A26" s="159">
         <v>24</v>
       </c>
@@ -42126,7 +42137,7 @@
       <c r="K26" s="158"/>
       <c r="L26" s="38"/>
     </row>
-    <row r="27" spans="1:14" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="252" x14ac:dyDescent="0.35">
       <c r="A27" s="159">
         <v>25</v>
       </c>
@@ -42167,7 +42178,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A28" s="168">
         <v>26</v>
       </c>
@@ -42199,7 +42210,7 @@
       <c r="K28" s="158"/>
       <c r="L28" s="38"/>
     </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A29" s="168">
         <v>27</v>
       </c>
@@ -42231,7 +42242,7 @@
       <c r="K29" s="158"/>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="A30" s="168">
         <v>28</v>
       </c>
@@ -42261,7 +42272,7 @@
       <c r="K30" s="158"/>
       <c r="L30" s="38"/>
     </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A31" s="159">
         <v>29</v>
       </c>
@@ -42293,7 +42304,7 @@
       <c r="K31" s="158"/>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A32" s="159">
         <v>30</v>
       </c>
@@ -42321,7 +42332,7 @@
       <c r="K32" s="158"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A33" s="159">
         <v>31</v>
       </c>
@@ -42389,7 +42400,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="159">
         <v>33</v>
       </c>
@@ -42424,7 +42435,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A36" s="182">
         <v>34</v>
       </c>
@@ -42696,19 +42707,7 @@
       <c r="I44" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L42" xr:uid="{9E26C98F-F63D-4634-AED6-5AE6EA2A8036}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Vital"/>
-        <filter val="Vital?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="P1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:L42" xr:uid="{9E26C98F-F63D-4634-AED6-5AE6EA2A8036}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
@@ -42726,7 +42725,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -42744,26 +42743,27 @@
     <col min="11" max="11" width="11.453125" style="40" customWidth="1"/>
     <col min="12" max="12" width="13.26953125" style="38" customWidth="1"/>
     <col min="13" max="13" width="16.7265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="40"/>
+    <col min="14" max="14" width="9.1796875" style="5"/>
+    <col min="15" max="16384" width="9.1796875" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="251" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="257"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42796,7 +42796,7 @@
       <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="254" t="s">
+      <c r="K2" s="235" t="s">
         <v>886</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -42885,10 +42885,10 @@
         <v>1869</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>1959</v>
+        <v>1946</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
@@ -43003,9 +43003,9 @@
         <v>1912</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N7" s="38" t="s">
+        <v>1946</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>1959</v>
       </c>
     </row>
@@ -43041,9 +43041,9 @@
         <v>1912</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N8" s="38" t="s">
+        <v>1946</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>1959</v>
       </c>
     </row>
@@ -43615,7 +43615,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="244" t="s">
+      <c r="B24" s="246" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43659,7 +43659,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="248"/>
+      <c r="B25" s="249"/>
       <c r="C25" s="58" t="s">
         <v>1256</v>
       </c>
@@ -43699,7 +43699,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="249"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43739,7 +43739,7 @@
       <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="249"/>
+      <c r="B27" s="250"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43779,7 +43779,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="248"/>
+      <c r="B28" s="249"/>
       <c r="C28" s="58" t="s">
         <v>1265</v>
       </c>
@@ -43819,7 +43819,7 @@
       <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="249"/>
+      <c r="B29" s="250"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -43939,7 +43939,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="244" t="s">
+      <c r="B32" s="246" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -43977,7 +43977,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="249"/>
+      <c r="B33" s="250"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -44013,7 +44013,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="249"/>
+      <c r="B34" s="250"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -44049,7 +44049,7 @@
       <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="249"/>
+      <c r="B35" s="250"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44115,10 +44115,10 @@
         <v>1872</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>1942</v>
-      </c>
-      <c r="N36" s="38" t="s">
-        <v>1959</v>
+        <v>1196</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>1969</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -44281,9 +44281,9 @@
         <v>1872</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N40" s="38" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>1959</v>
       </c>
     </row>
@@ -44329,7 +44329,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="247" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -44363,7 +44363,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="248"/>
+      <c r="B43" s="249"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44395,7 +44395,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="248"/>
+      <c r="B44" s="249"/>
       <c r="C44" s="50" t="s">
         <v>1297</v>
       </c>
@@ -44423,7 +44423,7 @@
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
     </row>
-    <row r="45" spans="1:14" ht="116.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
         <v>43</v>
       </c>
@@ -44461,10 +44461,10 @@
         <v>1872</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1942</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>1959</v>
+        <v>1946</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -44499,13 +44499,13 @@
         <v>1869</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>1942</v>
-      </c>
-      <c r="N46" s="38" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1946</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55">
         <v>45</v>
       </c>
@@ -44537,17 +44537,17 @@
         <v>1872</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N47" s="38" t="s">
-        <v>1959</v>
+        <v>1946</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="246" t="s">
+      <c r="B48" s="248" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44585,7 +44585,7 @@
       <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="246"/>
+      <c r="B49" s="248"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -44621,7 +44621,7 @@
       <c r="A50" s="35">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="234" t="s">
         <v>1863</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -44645,8 +44645,8 @@
       <c r="M50" s="38" t="s">
         <v>1946</v>
       </c>
-      <c r="N50" s="38" t="s">
-        <v>1959</v>
+      <c r="N50" s="4" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
@@ -45346,10 +45346,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -45367,22 +45368,27 @@
     <col min="11" max="11" width="11.453125" style="40" customWidth="1"/>
     <col min="12" max="12" width="13.7265625" style="40" customWidth="1"/>
     <col min="13" max="13" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="40"/>
+    <col min="14" max="14" width="9.1796875" style="5"/>
+    <col min="15" max="16384" width="9.1796875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="257" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="238"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45415,16 +45421,16 @@
       <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="7" t="s">
         <v>1875</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="7" t="s">
         <v>1940</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="7" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -45463,13 +45469,13 @@
         <v>1869</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="70" x14ac:dyDescent="0.35">
+        <v>1946</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35">
         <v>2</v>
       </c>
@@ -45509,7 +45515,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51">
         <v>3</v>
       </c>
@@ -45549,7 +45555,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>4</v>
       </c>
@@ -45617,9 +45623,9 @@
         <v>1872</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N7" s="38" t="s">
+        <v>1946</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>1959</v>
       </c>
     </row>
@@ -45655,13 +45661,13 @@
         <v>1872</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="28" x14ac:dyDescent="0.35">
+        <v>1946</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
         <v>7</v>
       </c>
@@ -45688,9 +45694,15 @@
       <c r="N9" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N8" xr:uid="{BF223057-46F1-47B9-9A16-CDC3E3690832}"/>
+  <autoFilter ref="A2:N9" xr:uid="{BF223057-46F1-47B9-9A16-CDC3E3690832}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Sprint 14"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -45728,18 +45740,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="237" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="247"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="252"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -46436,6 +46448,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -46642,32 +46680,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -46678,6 +46690,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46696,23 +46725,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DE708-B89D-4C42-AC61-E0F61AA64145}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44660068-4C7C-49C0-8259-DC46ECC6CE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5600" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="2000">
   <si>
     <t>Category</t>
   </si>
@@ -6457,9 +6457,6 @@
 Note: Admin high priority</t>
   </si>
   <si>
-    <t xml:space="preserve"> P2 -Dependency on kernel </t>
-  </si>
-  <si>
     <t>MOS-27303</t>
   </si>
   <si>
@@ -6743,12 +6740,6 @@
     <t>Tech Story: Integrate with CBEFF XSD 2.0</t>
   </si>
   <si>
-    <t>Detailing pending - Hema to check if new story needed</t>
-  </si>
-  <si>
-    <t>Detailing pending - Device dep</t>
-  </si>
-  <si>
     <t>MOS-27360</t>
   </si>
   <si>
@@ -6865,6 +6856,30 @@
   </si>
   <si>
     <t>Sprint 14/15</t>
+  </si>
+  <si>
+    <t>Requierment Pending</t>
+  </si>
+  <si>
+    <t>Dependency on Admin</t>
+  </si>
+  <si>
+    <t>Dependency on MDS</t>
+  </si>
+  <si>
+    <t>Dependency on Kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P2</t>
+  </si>
+  <si>
+    <t>Dependency on Core Team</t>
+  </si>
+  <si>
+    <t>Sprint 15/16</t>
+  </si>
+  <si>
+    <t>MOS-27942</t>
   </si>
 </sst>
 </file>
@@ -7405,7 +7420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8092,6 +8107,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8140,6 +8158,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8154,12 +8178,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15852,7 +15870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16227,18 +16245,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16688,7 +16706,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="242" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16720,7 +16738,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="243"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17060,19 +17078,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="241"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="143" t="s">
@@ -22348,13 +22366,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="190" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>1900</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="D183" s="38" t="s">
         <v>1901</v>
-      </c>
-      <c r="D183" s="38" t="s">
-        <v>1902</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="38" t="s">
@@ -22367,7 +22385,7 @@
       <c r="I183" s="38"/>
       <c r="J183" s="189"/>
       <c r="K183" s="38" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
   </sheetData>
@@ -22414,18 +22432,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -22463,7 +22481,7 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="257" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22489,7 +22507,7 @@
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="255"/>
+      <c r="B4" s="258"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22511,7 +22529,7 @@
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="254" t="s">
+      <c r="B5" s="257" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22537,7 +22555,7 @@
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="256"/>
+      <c r="B6" s="259"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22561,7 +22579,7 @@
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="256"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22583,7 +22601,7 @@
       <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="256"/>
+      <c r="B8" s="259"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22605,7 +22623,7 @@
       <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="256"/>
+      <c r="B9" s="259"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22627,7 +22645,7 @@
       <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="256"/>
+      <c r="B10" s="259"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22649,7 +22667,7 @@
       <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="256"/>
+      <c r="B11" s="259"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22671,7 +22689,7 @@
       <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="256"/>
+      <c r="B12" s="259"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22693,7 +22711,7 @@
       <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="256"/>
+      <c r="B13" s="259"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22715,7 +22733,7 @@
       <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="256"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22739,7 +22757,7 @@
       <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="256"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22763,7 +22781,7 @@
       <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="255"/>
+      <c r="B16" s="258"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22885,7 +22903,7 @@
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="254" t="s">
+      <c r="B21" s="257" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22909,7 +22927,7 @@
       <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="256"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22931,7 +22949,7 @@
       <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="256"/>
+      <c r="B23" s="259"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -22953,7 +22971,7 @@
       <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="256"/>
+      <c r="B24" s="259"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -22975,7 +22993,7 @@
       <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="256"/>
+      <c r="B25" s="259"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -22997,7 +23015,7 @@
       <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="255"/>
+      <c r="B26" s="258"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23019,7 +23037,7 @@
       <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="254" t="s">
+      <c r="B27" s="257" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23043,7 +23061,7 @@
       <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="255"/>
+      <c r="B28" s="258"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23065,7 +23083,7 @@
       <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="254" t="s">
+      <c r="B29" s="257" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23089,7 +23107,7 @@
       <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="255"/>
+      <c r="B30" s="258"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23111,7 +23129,7 @@
       <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="254" t="s">
+      <c r="B31" s="257" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23135,7 +23153,7 @@
       <c r="A32" s="38">
         <v>30</v>
       </c>
-      <c r="B32" s="256"/>
+      <c r="B32" s="259"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23157,7 +23175,7 @@
       <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="256"/>
+      <c r="B33" s="259"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23179,7 +23197,7 @@
       <c r="A34" s="38">
         <v>32</v>
       </c>
-      <c r="B34" s="256"/>
+      <c r="B34" s="259"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23201,7 +23219,7 @@
       <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="255"/>
+      <c r="B35" s="258"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23223,7 +23241,7 @@
       <c r="A36" s="38">
         <v>34</v>
       </c>
-      <c r="B36" s="254" t="s">
+      <c r="B36" s="257" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23247,7 +23265,7 @@
       <c r="A37" s="38">
         <v>35</v>
       </c>
-      <c r="B37" s="256"/>
+      <c r="B37" s="259"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23269,7 +23287,7 @@
       <c r="A38" s="38">
         <v>36</v>
       </c>
-      <c r="B38" s="256"/>
+      <c r="B38" s="259"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23291,7 +23309,7 @@
       <c r="A39" s="38">
         <v>37</v>
       </c>
-      <c r="B39" s="255"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23313,7 +23331,7 @@
       <c r="A40" s="38">
         <v>38</v>
       </c>
-      <c r="B40" s="254" t="s">
+      <c r="B40" s="257" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23337,7 +23355,7 @@
       <c r="A41" s="38">
         <v>39</v>
       </c>
-      <c r="B41" s="255"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23383,7 +23401,7 @@
       <c r="A43" s="38">
         <v>41</v>
       </c>
-      <c r="B43" s="254" t="s">
+      <c r="B43" s="257" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23407,7 +23425,7 @@
       <c r="A44" s="38">
         <v>42</v>
       </c>
-      <c r="B44" s="256"/>
+      <c r="B44" s="259"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23429,7 +23447,7 @@
       <c r="A45" s="38">
         <v>43</v>
       </c>
-      <c r="B45" s="256"/>
+      <c r="B45" s="259"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23451,7 +23469,7 @@
       <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="B46" s="256"/>
+      <c r="B46" s="259"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23475,7 +23493,7 @@
       <c r="A47" s="38">
         <v>45</v>
       </c>
-      <c r="B47" s="256"/>
+      <c r="B47" s="259"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23497,7 +23515,7 @@
       <c r="A48" s="38">
         <v>46</v>
       </c>
-      <c r="B48" s="256"/>
+      <c r="B48" s="259"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23519,7 +23537,7 @@
       <c r="A49" s="38">
         <v>47</v>
       </c>
-      <c r="B49" s="256"/>
+      <c r="B49" s="259"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23541,7 +23559,7 @@
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="256"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23565,7 +23583,7 @@
       <c r="A51" s="38">
         <v>49</v>
       </c>
-      <c r="B51" s="256"/>
+      <c r="B51" s="259"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23587,7 +23605,7 @@
       <c r="A52" s="38">
         <v>50</v>
       </c>
-      <c r="B52" s="256"/>
+      <c r="B52" s="259"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23609,7 +23627,7 @@
       <c r="A53" s="38">
         <v>51</v>
       </c>
-      <c r="B53" s="256"/>
+      <c r="B53" s="259"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23631,7 +23649,7 @@
       <c r="A54" s="38">
         <v>52</v>
       </c>
-      <c r="B54" s="255"/>
+      <c r="B54" s="258"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23714,26 +23732,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="240"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="241"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25918,7 +25936,7 @@
       <c r="C68" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="236" t="s">
+      <c r="D68" s="237" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="116"/>
@@ -25952,7 +25970,7 @@
       <c r="C69" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="236"/>
+      <c r="D69" s="237"/>
       <c r="E69" s="116"/>
       <c r="F69" s="46" t="s">
         <v>225</v>
@@ -35697,12 +35715,12 @@
       <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="238" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="240"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37270,18 +37288,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37321,7 +37339,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="62" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="N2" s="62" t="s">
         <v>1358</v>
@@ -37522,10 +37540,10 @@
         <v>1872</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -37564,7 +37582,7 @@
         <v>1869</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="N9" s="38"/>
     </row>
@@ -37604,7 +37622,7 @@
         <v>1869</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="N10" s="38"/>
     </row>
@@ -37802,7 +37820,7 @@
       <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="242" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37835,7 +37853,7 @@
       <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="243"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37866,7 +37884,7 @@
       <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="242" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37899,7 +37917,7 @@
       <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="242"/>
+      <c r="B20" s="243"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37964,10 +37982,10 @@
         <v>1869</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.35">
@@ -38006,16 +38024,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="38" t="s">
         <v>1892</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="E23" s="4" t="s">
         <v>1893</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>1894</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="38" t="s">
@@ -38030,10 +38048,10 @@
         <v>1872</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
@@ -38041,20 +38059,20 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="H24" s="208"/>
       <c r="I24" s="40"/>
@@ -38214,18 +38232,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38265,7 +38283,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="62" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="N2" s="62" t="s">
         <v>1358</v>
@@ -38307,17 +38325,17 @@
         <v>1872</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N3" s="40" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="245" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38351,7 +38369,7 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="245"/>
+      <c r="B5" s="246"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38414,13 +38432,13 @@
         <v>902</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -38458,20 +38476,20 @@
         <v>902</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="245" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38507,7 +38525,7 @@
       <c r="A9" s="35">
         <v>11</v>
       </c>
-      <c r="B9" s="245"/>
+      <c r="B9" s="246"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38678,7 +38696,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="244" t="s">
+      <c r="B14" s="245" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38714,7 +38732,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="245"/>
+      <c r="B15" s="246"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -38779,13 +38797,13 @@
         <v>349</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -38823,13 +38841,13 @@
         <v>349</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M17" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N17" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="56.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -38837,7 +38855,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="226" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>1005</v>
@@ -38870,7 +38888,7 @@
         <v>1869</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -38906,13 +38924,13 @@
         <v>349</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -38948,13 +38966,13 @@
         <v>349</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -38990,20 +39008,20 @@
         <v>349</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="244" t="s">
+      <c r="B22" s="245" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39032,20 +39050,20 @@
         <v>349</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N22" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>21</v>
       </c>
-      <c r="B23" s="247"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -39071,20 +39089,20 @@
         <v>349</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="245"/>
+      <c r="B24" s="246"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -39111,13 +39129,13 @@
         <v>349</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -39153,13 +39171,13 @@
         <v>349</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N25" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="2" customFormat="1" ht="182.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -39260,13 +39278,13 @@
         <v>349</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M28" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N28" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" ht="56.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -39309,7 +39327,7 @@
       <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="244" t="s">
+      <c r="B30" s="245" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39345,7 +39363,7 @@
       <c r="A31" s="35">
         <v>29</v>
       </c>
-      <c r="B31" s="245"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39379,7 +39397,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="244" t="s">
+      <c r="B32" s="245" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39415,7 +39433,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="245"/>
+      <c r="B33" s="246"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39519,7 +39537,7 @@
         <v>1869</v>
       </c>
       <c r="N35" s="40" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" ht="56.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -39642,7 +39660,7 @@
         <v>248</v>
       </c>
       <c r="E39" s="226" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="F39" s="38" t="s">
         <v>917</v>
@@ -39664,10 +39682,10 @@
         <v>1872</v>
       </c>
       <c r="M39" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -39710,7 +39728,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="244" t="s">
+      <c r="B41" s="245" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39746,7 +39764,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="245"/>
+      <c r="B42" s="246"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39816,7 +39834,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="244" t="s">
+      <c r="B44" s="245" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39852,7 +39870,7 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="245"/>
+      <c r="B45" s="246"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -39980,7 +39998,7 @@
       <c r="I48" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="246" t="s">
+      <c r="J48" s="247" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="83" t="s">
@@ -40015,7 +40033,7 @@
       <c r="I49" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="246"/>
+      <c r="J49" s="247"/>
       <c r="K49" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40048,7 +40066,7 @@
       <c r="I50" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="246"/>
+      <c r="J50" s="247"/>
       <c r="K50" s="127" t="s">
         <v>349</v>
       </c>
@@ -40081,7 +40099,7 @@
       <c r="I51" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="246"/>
+      <c r="J51" s="247"/>
       <c r="K51" s="127" t="s">
         <v>1070</v>
       </c>
@@ -40114,7 +40132,7 @@
       <c r="I52" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="246"/>
+      <c r="J52" s="247"/>
       <c r="K52" s="127" t="s">
         <v>1074</v>
       </c>
@@ -40147,7 +40165,7 @@
       <c r="I53" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="246"/>
+      <c r="J53" s="247"/>
       <c r="K53" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40180,7 +40198,7 @@
       <c r="I54" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="246"/>
+      <c r="J54" s="247"/>
       <c r="K54" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40213,7 +40231,7 @@
       <c r="I55" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="246"/>
+      <c r="J55" s="247"/>
       <c r="K55" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40242,7 +40260,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="82"/>
-      <c r="J56" s="246"/>
+      <c r="J56" s="247"/>
       <c r="K56" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40275,7 +40293,7 @@
       <c r="I57" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="246"/>
+      <c r="J57" s="247"/>
       <c r="K57" s="213" t="s">
         <v>1063</v>
       </c>
@@ -40283,10 +40301,10 @@
         <v>1872</v>
       </c>
       <c r="M57" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N57" s="40" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40317,7 +40335,7 @@
       <c r="I58" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="243" t="s">
+      <c r="J58" s="244" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="127" t="s">
@@ -40352,7 +40370,7 @@
       <c r="I59" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="243"/>
+      <c r="J59" s="244"/>
       <c r="K59" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40385,7 +40403,7 @@
       <c r="I60" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="243"/>
+      <c r="J60" s="244"/>
       <c r="K60" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40418,7 +40436,7 @@
       <c r="I61" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="243"/>
+      <c r="J61" s="244"/>
       <c r="K61" s="131" t="s">
         <v>66</v>
       </c>
@@ -40451,7 +40469,7 @@
       <c r="I62" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="243"/>
+      <c r="J62" s="244"/>
       <c r="K62" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40484,7 +40502,7 @@
       <c r="I63" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="243"/>
+      <c r="J63" s="244"/>
       <c r="K63" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40517,7 +40535,7 @@
       <c r="I64" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="243"/>
+      <c r="J64" s="244"/>
       <c r="K64" s="131" t="s">
         <v>1109</v>
       </c>
@@ -40550,7 +40568,7 @@
       <c r="I65" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="243"/>
+      <c r="J65" s="244"/>
       <c r="K65" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40579,7 +40597,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="38"/>
-      <c r="J66" s="243"/>
+      <c r="J66" s="244"/>
       <c r="K66" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40596,7 +40614,7 @@
         <v>1117</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>5</v>
@@ -40608,7 +40626,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="38"/>
-      <c r="J67" s="243"/>
+      <c r="J67" s="244"/>
       <c r="K67" s="214" t="s">
         <v>1119</v>
       </c>
@@ -40616,10 +40634,10 @@
         <v>1872</v>
       </c>
       <c r="M67" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N67" s="40" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -40650,7 +40668,7 @@
       <c r="I68" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="243"/>
+      <c r="J68" s="244"/>
       <c r="K68" s="131" t="s">
         <v>1123</v>
       </c>
@@ -40658,10 +40676,10 @@
         <v>474</v>
       </c>
       <c r="M68" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N68" s="40" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="154" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40692,7 +40710,7 @@
       <c r="I69" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="243"/>
+      <c r="J69" s="244"/>
       <c r="K69" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40725,7 +40743,7 @@
       <c r="I70" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="243"/>
+      <c r="J70" s="244"/>
       <c r="K70" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40758,7 +40776,7 @@
       <c r="I71" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="243"/>
+      <c r="J71" s="244"/>
       <c r="K71" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40791,7 +40809,7 @@
       <c r="I72" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="243"/>
+      <c r="J72" s="244"/>
       <c r="K72" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40824,7 +40842,7 @@
       <c r="I73" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="243"/>
+      <c r="J73" s="244"/>
       <c r="K73" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40855,7 +40873,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="43"/>
-      <c r="J74" s="243"/>
+      <c r="J74" s="244"/>
       <c r="K74" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40872,7 +40890,7 @@
       <c r="G75" s="81"/>
       <c r="H75" s="35"/>
       <c r="I75" s="43"/>
-      <c r="J75" s="243"/>
+      <c r="J75" s="244"/>
       <c r="K75" s="68"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -40975,16 +40993,16 @@
         <v>74</v>
       </c>
       <c r="B79" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>1904</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>1905</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38" t="s">
@@ -40996,10 +41014,10 @@
         <v>1872</v>
       </c>
       <c r="M79" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N79" s="40" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -41007,13 +41025,13 @@
         <v>75</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E80" s="226"/>
       <c r="F80" s="38"/>
@@ -41026,10 +41044,10 @@
         <v>1872</v>
       </c>
       <c r="M80" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N80" s="40" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -41037,19 +41055,19 @@
         <v>76</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D81" s="40" t="s">
         <v>1971</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D81" s="40" t="s">
-        <v>1974</v>
-      </c>
       <c r="E81" s="41" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="I81" s="40"/>
     </row>
@@ -41171,8 +41189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41195,18 +41213,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41246,7 +41264,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="N2" s="37" t="s">
         <v>1358</v>
@@ -41284,16 +41302,16 @@
         <v>902</v>
       </c>
       <c r="K3" s="210" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>1872</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="140" x14ac:dyDescent="0.35">
@@ -41334,10 +41352,10 @@
         <v>1872</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -41378,7 +41396,7 @@
         <v>73</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="126" x14ac:dyDescent="0.35">
@@ -41419,10 +41437,10 @@
         <v>1872</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="98" x14ac:dyDescent="0.35">
@@ -41463,10 +41481,10 @@
         <v>1872</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="112" x14ac:dyDescent="0.35">
@@ -41501,16 +41519,16 @@
         <v>902</v>
       </c>
       <c r="K8" s="210" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="L8" s="38" t="s">
         <v>1872</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="154" x14ac:dyDescent="0.35">
@@ -41521,13 +41539,13 @@
         <v>288</v>
       </c>
       <c r="C9" s="161" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D9" s="161" t="s">
         <v>1171</v>
       </c>
       <c r="E9" s="161" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>917</v>
@@ -41551,10 +41569,10 @@
         <v>1872</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="140" x14ac:dyDescent="0.35">
@@ -41727,7 +41745,7 @@
         <v>1871</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -41805,7 +41823,7 @@
         <v>1869</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="150.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41846,7 +41864,7 @@
         <v>1871</v>
       </c>
       <c r="M17" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
@@ -41917,10 +41935,10 @@
         <v>1872</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.35">
@@ -42142,7 +42160,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="160" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C27" s="161" t="s">
         <v>1200</v>
@@ -42175,7 +42193,7 @@
         <v>1869</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.35">
@@ -42365,7 +42383,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="160" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C34" s="161" t="s">
         <v>1218</v>
@@ -42394,10 +42412,10 @@
         <v>1872</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -42469,7 +42487,7 @@
         <v>1871</v>
       </c>
       <c r="M36" s="40" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -42486,7 +42504,7 @@
         <v>1857</v>
       </c>
       <c r="E37" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>917</v>
@@ -42504,10 +42522,10 @@
         <v>1872</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -42524,7 +42542,7 @@
         <v>1856</v>
       </c>
       <c r="E38" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>917</v>
@@ -42544,10 +42562,10 @@
         <v>1872</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -42555,16 +42573,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="206" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1916</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="38" t="s">
         <v>1917</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>1918</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F39" s="38" t="s">
         <v>917</v>
@@ -42577,16 +42595,16 @@
       </c>
       <c r="I39" s="40"/>
       <c r="K39" s="38" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L39" s="38" t="s">
         <v>1872</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -42594,16 +42612,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="206" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="38" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>1923</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>1924</v>
       </c>
       <c r="F40" s="38" t="s">
         <v>917</v>
@@ -42620,10 +42638,10 @@
         <v>1872</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -42631,16 +42649,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="206" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>1926</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>1928</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1929</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>917</v>
@@ -42657,10 +42675,10 @@
         <v>1872</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N41" s="35" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -42668,16 +42686,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="209" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>1935</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>1934</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>1936</v>
       </c>
       <c r="F42" s="38" t="s">
         <v>917</v>
@@ -42694,10 +42712,10 @@
         <v>1872</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -42722,10 +42740,10 @@
   <dimension ref="A1:N259"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -42748,22 +42766,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="252" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="257"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42803,7 +42821,7 @@
         <v>1875</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>1358</v>
@@ -42845,7 +42863,7 @@
         <v>1869</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -42863,7 +42881,7 @@
         <v>364</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>917</v>
@@ -42885,10 +42903,10 @@
         <v>1869</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
@@ -42925,9 +42943,15 @@
       <c r="K5" s="180" t="s">
         <v>349</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="L5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
@@ -42965,7 +42989,7 @@
         <v>1872</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>1946</v>
+        <v>1196</v>
       </c>
       <c r="N6" s="38" t="s">
         <v>1852</v>
@@ -42979,13 +43003,13 @@
         <v>373</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D7" s="176" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="38" t="s">
@@ -43000,13 +43024,13 @@
         <v>349</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -43017,13 +43041,13 @@
         <v>373</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D8" s="176" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="38" t="s">
@@ -43038,13 +43062,13 @@
         <v>349</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -43053,7 +43077,7 @@
       </c>
       <c r="B9" s="231"/>
       <c r="C9" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>1229</v>
@@ -43118,7 +43142,9 @@
       <c r="L10" s="4" t="s">
         <v>1876</v>
       </c>
-      <c r="M10" s="38"/>
+      <c r="M10" s="4" t="s">
+        <v>1993</v>
+      </c>
       <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -43133,7 +43159,7 @@
         <v>1234</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>917</v>
@@ -43152,9 +43178,11 @@
         <v>349</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1883</v>
-      </c>
-      <c r="M11" s="38"/>
+        <v>1882</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1994</v>
+      </c>
       <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -43163,7 +43191,7 @@
       </c>
       <c r="B12" s="231"/>
       <c r="C12" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>1235</v>
@@ -43201,7 +43229,7 @@
       </c>
       <c r="B13" s="231"/>
       <c r="C13" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>1237</v>
@@ -43229,7 +43257,7 @@
         <v>1873</v>
       </c>
       <c r="M13" s="46" t="s">
-        <v>1955</v>
+        <v>1586</v>
       </c>
       <c r="N13" s="38"/>
     </row>
@@ -43239,7 +43267,7 @@
       </c>
       <c r="B14" s="231"/>
       <c r="C14" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>1239</v>
@@ -43267,7 +43295,7 @@
         <v>1873</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>1955</v>
+        <v>1586</v>
       </c>
       <c r="N14" s="38"/>
     </row>
@@ -43277,7 +43305,7 @@
       </c>
       <c r="B15" s="231"/>
       <c r="C15" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>1241</v>
@@ -43305,7 +43333,7 @@
         <v>1873</v>
       </c>
       <c r="M15" s="46" t="s">
-        <v>1955</v>
+        <v>1586</v>
       </c>
       <c r="N15" s="38"/>
     </row>
@@ -43315,7 +43343,7 @@
       </c>
       <c r="B16" s="229"/>
       <c r="C16" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>1243</v>
@@ -43343,7 +43371,7 @@
         <v>1873</v>
       </c>
       <c r="M16" s="46" t="s">
-        <v>1955</v>
+        <v>1586</v>
       </c>
       <c r="N16" s="38"/>
     </row>
@@ -43380,7 +43408,9 @@
         <v>349</v>
       </c>
       <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="M17" s="38" t="s">
+        <v>1586</v>
+      </c>
       <c r="N17" s="38"/>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
@@ -43417,9 +43447,15 @@
       <c r="K18" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="L18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
@@ -43455,9 +43491,15 @@
       <c r="K19" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="L19" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
@@ -43494,7 +43536,9 @@
       <c r="L20" s="4" t="s">
         <v>1874</v>
       </c>
-      <c r="M20" s="38"/>
+      <c r="M20" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
@@ -43530,10 +43574,12 @@
         <v>349</v>
       </c>
       <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
+      <c r="M21" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N21" s="38"/>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>20</v>
       </c>
@@ -43568,7 +43614,9 @@
         <v>474</v>
       </c>
       <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="M22" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="1:14" ht="84" hidden="1" x14ac:dyDescent="0.35">
@@ -43607,7 +43655,7 @@
         <v>1873</v>
       </c>
       <c r="M23" s="233" t="s">
-        <v>1954</v>
+        <v>1586</v>
       </c>
       <c r="N23" s="38"/>
     </row>
@@ -43615,7 +43663,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="247" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43659,7 +43707,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="249"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="58" t="s">
         <v>1256</v>
       </c>
@@ -43699,7 +43747,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="250"/>
+      <c r="B26" s="251"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43739,7 +43787,7 @@
       <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="250"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43779,7 +43827,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="249"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="58" t="s">
         <v>1265</v>
       </c>
@@ -43819,7 +43867,7 @@
       <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="250"/>
+      <c r="B29" s="251"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -43888,12 +43936,14 @@
         <v>902</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1988</v>
-      </c>
-      <c r="N30" s="38"/>
+        <v>1985</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
@@ -43931,15 +43981,17 @@
         <v>1870</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1989</v>
-      </c>
-      <c r="N31" s="38"/>
+        <v>1986</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="247" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -43955,7 +44007,7 @@
         <v>917</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="35">
         <v>16</v>
@@ -43970,14 +44022,16 @@
       <c r="L32" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="M32" s="38"/>
+      <c r="M32" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N32" s="38"/>
     </row>
     <row r="33" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="250"/>
+      <c r="B33" s="251"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -43991,7 +44045,7 @@
         <v>917</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="35">
         <v>16</v>
@@ -44006,14 +44060,16 @@
       <c r="L33" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="M33" s="38"/>
+      <c r="M33" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="250"/>
+      <c r="B34" s="251"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -44027,7 +44083,7 @@
         <v>917</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34" s="35">
         <v>8</v>
@@ -44042,14 +44098,16 @@
       <c r="L34" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="M34" s="38"/>
+      <c r="M34" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N34" s="38"/>
     </row>
     <row r="35" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="250"/>
+      <c r="B35" s="251"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44063,7 +44121,7 @@
         <v>917</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H35" s="35">
         <v>16</v>
@@ -44078,10 +44136,12 @@
       <c r="L35" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="M35" s="38"/>
+      <c r="M35" s="4" t="s">
+        <v>1992</v>
+      </c>
       <c r="N35" s="38"/>
     </row>
-    <row r="36" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
         <v>34</v>
       </c>
@@ -44089,10 +44149,10 @@
         <v>412</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D36" s="174" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>414</v>
@@ -44118,7 +44178,7 @@
         <v>1196</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="102.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -44129,7 +44189,7 @@
         <v>412</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D37" s="174" t="s">
         <v>413</v>
@@ -44158,8 +44218,8 @@
       <c r="L37" s="4" t="s">
         <v>1872</v>
       </c>
-      <c r="M37" s="38" t="s">
-        <v>1946</v>
+      <c r="M37" s="4" t="s">
+        <v>1945</v>
       </c>
       <c r="N37" s="38" t="s">
         <v>1852</v>
@@ -44200,9 +44260,11 @@
         <v>902</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="M38" s="38"/>
+        <v>1996</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>1995</v>
+      </c>
       <c r="N38" s="38"/>
     </row>
     <row r="39" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -44242,7 +44304,9 @@
       <c r="L39" s="4" t="s">
         <v>1871</v>
       </c>
-      <c r="M39" s="38"/>
+      <c r="M39" s="4" t="s">
+        <v>1997</v>
+      </c>
       <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -44253,7 +44317,7 @@
         <v>422</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>423</v>
@@ -44280,11 +44344,11 @@
       <c r="L40" s="4" t="s">
         <v>1872</v>
       </c>
-      <c r="M40" s="38" t="s">
+      <c r="M40" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
@@ -44320,16 +44384,18 @@
         <v>902</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="M41" s="38"/>
+        <v>1869</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>1995</v>
+      </c>
       <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14" s="2" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="247" t="s">
+      <c r="B42" s="248" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -44356,14 +44422,16 @@
         <v>902</v>
       </c>
       <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
+      <c r="M42" s="38" t="s">
+        <v>1992</v>
+      </c>
       <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14" s="2" customFormat="1" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="249"/>
+      <c r="B43" s="250"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44388,14 +44456,16 @@
         <v>902</v>
       </c>
       <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
+      <c r="M43" s="38" t="s">
+        <v>1992</v>
+      </c>
       <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:14" s="2" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="249"/>
+      <c r="B44" s="250"/>
       <c r="C44" s="50" t="s">
         <v>1297</v>
       </c>
@@ -44420,7 +44490,9 @@
         <v>902</v>
       </c>
       <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
+      <c r="M44" s="38" t="s">
+        <v>1992</v>
+      </c>
       <c r="N44" s="38"/>
     </row>
     <row r="45" spans="1:14" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -44461,10 +44533,10 @@
         <v>1872</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -44499,10 +44571,10 @@
         <v>1869</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -44537,17 +44609,17 @@
         <v>1872</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="249" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44575,7 +44647,7 @@
         <v>1872</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N48" s="38" t="s">
         <v>1852</v>
@@ -44585,7 +44657,7 @@
       <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="248"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -44611,7 +44683,7 @@
         <v>1872</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N49" s="38" t="s">
         <v>1852</v>
@@ -44643,61 +44715,65 @@
         <v>1869</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A51" s="35">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="236" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="G51" s="38"/>
       <c r="H51" s="35"/>
       <c r="J51" s="4"/>
       <c r="K51" s="38"/>
-      <c r="M51" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N51" s="38"/>
-    </row>
-    <row r="52" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M51" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A52" s="35">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="236" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>1980</v>
+      <c r="C52" s="236" t="s">
+        <v>1977</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="35"/>
       <c r="J52" s="4"/>
       <c r="K52" s="38"/>
-      <c r="M52" s="38" t="s">
-        <v>1586</v>
-      </c>
-      <c r="N52" s="38"/>
+      <c r="M52" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L53" s="178"/>
@@ -45325,6 +45401,8 @@
     <filterColumn colId="13">
       <filters>
         <filter val="Sprint 14"/>
+        <filter val="Sprint 14/15"/>
+        <filter val="Sprint 15/16"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -45349,8 +45427,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -45373,22 +45451,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="253" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45428,7 +45506,7 @@
         <v>1875</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>1358</v>
@@ -45469,10 +45547,10 @@
         <v>1869</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="70" hidden="1" x14ac:dyDescent="0.35">
@@ -45509,7 +45587,7 @@
         <v>1872</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N4" s="38" t="s">
         <v>1852</v>
@@ -45549,7 +45627,7 @@
         <v>1872</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N5" s="38" t="s">
         <v>1852</v>
@@ -45584,7 +45662,7 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>73</v>
@@ -45623,10 +45701,10 @@
         <v>1872</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="70" x14ac:dyDescent="0.35">
@@ -45634,16 +45712,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="179" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38" t="s">
@@ -45654,32 +45732,34 @@
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38" t="s">
         <v>1872</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="35">
         <v>7</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="C9" s="230" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D9" s="38"/>
+        <v>1990</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>1999</v>
+      </c>
       <c r="E9" s="230" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
@@ -45690,14 +45770,20 @@
       <c r="J9" s="4"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="38"/>
+      <c r="M9" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>1967</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:N9" xr:uid="{BF223057-46F1-47B9-9A16-CDC3E3690832}">
     <filterColumn colId="13">
       <filters>
         <filter val="Sprint 14"/>
+        <filter val="Sprint 14/15"/>
+        <filter val="Sprint 15"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -45740,18 +45826,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="252"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="255"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45791,7 +45877,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="N2" s="61" t="s">
         <v>1358</v>
@@ -45829,7 +45915,7 @@
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -45867,10 +45953,10 @@
         <v>1872</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -45911,10 +45997,10 @@
         <v>1871</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -45955,7 +46041,7 @@
         <v>1869</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="N6" s="38"/>
     </row>
@@ -45995,7 +46081,7 @@
         <v>1869</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="N7" s="38"/>
     </row>
@@ -46035,7 +46121,7 @@
         <v>1869</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="N8" s="38"/>
     </row>
@@ -46044,7 +46130,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1331</v>
@@ -46077,7 +46163,7 @@
         <v>1869</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="N9" s="38"/>
     </row>
@@ -46113,7 +46199,7 @@
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="N10" s="38"/>
     </row>
@@ -46149,10 +46235,10 @@
         <v>1869</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="42" hidden="1" x14ac:dyDescent="0.35">
@@ -46187,7 +46273,7 @@
         <v>1869</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="N12" s="38"/>
     </row>
@@ -46196,7 +46282,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="201" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1859</v>
@@ -46216,17 +46302,17 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K13" s="85"/>
       <c r="L13" s="38" t="s">
         <v>1869</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -46234,16 +46320,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="201" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>1885</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>1886</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="186" t="s">
@@ -46259,10 +46345,10 @@
         <v>1872</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -46270,16 +46356,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="201" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="186" t="s">
@@ -46295,10 +46381,10 @@
         <v>1872</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -46306,16 +46392,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="201" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>1888</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>1889</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="186" t="s">
@@ -46331,10 +46417,10 @@
         <v>1872</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.35">
@@ -46342,33 +46428,33 @@
         <v>15</v>
       </c>
       <c r="B17" s="201" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1896</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="38" t="s">
         <v>1897</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>1898</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G17" s="187" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="9"/>
       <c r="J17" s="38" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="K17" s="85"/>
       <c r="L17" s="38" t="s">
         <v>1872</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44660068-4C7C-49C0-8259-DC46ECC6CE5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3277310C-969A-4798-B32B-965E2F711129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5632" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5667" uniqueCount="2012">
   <si>
     <t>Category</t>
   </si>
@@ -6880,6 +6880,42 @@
   </si>
   <si>
     <t>MOS-27942</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>MOS-27996</t>
+  </si>
+  <si>
+    <t>Remove FMR based Authentication from Auth APIs</t>
+  </si>
+  <si>
+    <t>Activate/De-Activate</t>
+  </si>
+  <si>
+    <t>Camel Bridge</t>
+  </si>
+  <si>
+    <t>Remove Additional Validation for Activate and De-Activate Packets in Packet Validator Stage</t>
+  </si>
+  <si>
+    <t>MOS-27987</t>
+  </si>
+  <si>
+    <t>Update Camel Route Condition for Internal Error - FALSE for sending notification for all stages</t>
+  </si>
+  <si>
+    <t>MOS-27988</t>
+  </si>
+  <si>
+    <t>MOS-27818</t>
+  </si>
+  <si>
+    <t>Update Flow</t>
+  </si>
+  <si>
+    <t>Validate if UIN is Active before performing any Update Operation on the UIN</t>
   </si>
 </sst>
 </file>
@@ -7420,7 +7456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7934,9 +7970,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8026,9 +8059,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8110,6 +8140,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8177,6 +8216,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15870,7 +15912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16245,18 +16287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="241"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="242"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16706,7 +16748,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="242" t="s">
+      <c r="B17" s="243" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16738,7 +16780,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="243"/>
+      <c r="B18" s="244"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17078,19 +17120,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="241"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="242"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="143" t="s">
@@ -22211,7 +22253,7 @@
         <v>6.5</v>
       </c>
       <c r="I177" s="38"/>
-      <c r="J177" s="189" t="s">
+      <c r="J177" s="188" t="s">
         <v>1852</v>
       </c>
       <c r="K177" s="66"/>
@@ -22240,7 +22282,7 @@
         <v>2.6</v>
       </c>
       <c r="I178" s="38"/>
-      <c r="J178" s="189" t="s">
+      <c r="J178" s="188" t="s">
         <v>1852</v>
       </c>
       <c r="K178" s="66"/>
@@ -22269,7 +22311,7 @@
         <v>2.6</v>
       </c>
       <c r="I179" s="38"/>
-      <c r="J179" s="189" t="s">
+      <c r="J179" s="188" t="s">
         <v>1852</v>
       </c>
       <c r="K179" s="66"/>
@@ -22298,7 +22340,7 @@
         <v>5.2</v>
       </c>
       <c r="I180" s="38"/>
-      <c r="J180" s="189" t="s">
+      <c r="J180" s="188" t="s">
         <v>1852</v>
       </c>
       <c r="K180" s="66"/>
@@ -22327,45 +22369,45 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="I181" s="38"/>
-      <c r="J181" s="189" t="s">
+      <c r="J181" s="188" t="s">
         <v>1852</v>
       </c>
       <c r="K181" s="66"/>
     </row>
     <row r="182" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="195">
+      <c r="A182" s="194">
         <v>180</v>
       </c>
-      <c r="B182" s="196" t="s">
+      <c r="B182" s="195" t="s">
         <v>1839</v>
       </c>
-      <c r="C182" s="197" t="s">
+      <c r="C182" s="196" t="s">
         <v>1846</v>
       </c>
-      <c r="D182" s="191" t="s">
+      <c r="D182" s="190" t="s">
         <v>1851</v>
       </c>
-      <c r="E182" s="191"/>
-      <c r="F182" s="191" t="s">
+      <c r="E182" s="190"/>
+      <c r="F182" s="190" t="s">
         <v>917</v>
       </c>
-      <c r="G182" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="H182" s="198">
+      <c r="G182" s="190" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="197">
         <v>2.6</v>
       </c>
-      <c r="I182" s="191"/>
-      <c r="J182" s="188" t="s">
+      <c r="I182" s="190"/>
+      <c r="J182" s="187" t="s">
         <v>1852</v>
       </c>
-      <c r="K182" s="199"/>
+      <c r="K182" s="198"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="35">
         <v>181</v>
       </c>
-      <c r="B183" s="190" t="s">
+      <c r="B183" s="189" t="s">
         <v>1899</v>
       </c>
       <c r="C183" s="4" t="s">
@@ -22383,7 +22425,7 @@
       </c>
       <c r="H183" s="35"/>
       <c r="I183" s="38"/>
-      <c r="J183" s="189"/>
+      <c r="J183" s="188"/>
       <c r="K183" s="38" t="s">
         <v>1902</v>
       </c>
@@ -22432,18 +22474,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="241"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="242"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -22481,7 +22523,7 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="257" t="s">
+      <c r="B3" s="258" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22507,7 +22549,7 @@
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="258"/>
+      <c r="B4" s="259"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22529,7 +22571,7 @@
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="258" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22555,7 +22597,7 @@
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="259"/>
+      <c r="B6" s="260"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22579,7 +22621,7 @@
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="259"/>
+      <c r="B7" s="260"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22601,7 +22643,7 @@
       <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="259"/>
+      <c r="B8" s="260"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22623,7 +22665,7 @@
       <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="259"/>
+      <c r="B9" s="260"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22645,7 +22687,7 @@
       <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="259"/>
+      <c r="B10" s="260"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22667,7 +22709,7 @@
       <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="259"/>
+      <c r="B11" s="260"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22689,7 +22731,7 @@
       <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="259"/>
+      <c r="B12" s="260"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22711,7 +22753,7 @@
       <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="259"/>
+      <c r="B13" s="260"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22733,7 +22775,7 @@
       <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="259"/>
+      <c r="B14" s="260"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22757,7 +22799,7 @@
       <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="259"/>
+      <c r="B15" s="260"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22781,7 +22823,7 @@
       <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="258"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22903,7 +22945,7 @@
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="257" t="s">
+      <c r="B21" s="258" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22927,7 +22969,7 @@
       <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="259"/>
+      <c r="B22" s="260"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22949,7 +22991,7 @@
       <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="259"/>
+      <c r="B23" s="260"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -22971,7 +23013,7 @@
       <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="259"/>
+      <c r="B24" s="260"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -22993,7 +23035,7 @@
       <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="259"/>
+      <c r="B25" s="260"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -23015,7 +23057,7 @@
       <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="258"/>
+      <c r="B26" s="259"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23037,7 +23079,7 @@
       <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="257" t="s">
+      <c r="B27" s="258" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23061,7 +23103,7 @@
       <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="258"/>
+      <c r="B28" s="259"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23083,7 +23125,7 @@
       <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="257" t="s">
+      <c r="B29" s="258" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23107,7 +23149,7 @@
       <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="258"/>
+      <c r="B30" s="259"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23129,7 +23171,7 @@
       <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="257" t="s">
+      <c r="B31" s="258" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23153,7 +23195,7 @@
       <c r="A32" s="38">
         <v>30</v>
       </c>
-      <c r="B32" s="259"/>
+      <c r="B32" s="260"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23175,7 +23217,7 @@
       <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="259"/>
+      <c r="B33" s="260"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23197,7 +23239,7 @@
       <c r="A34" s="38">
         <v>32</v>
       </c>
-      <c r="B34" s="259"/>
+      <c r="B34" s="260"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23219,7 +23261,7 @@
       <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="258"/>
+      <c r="B35" s="259"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23241,7 +23283,7 @@
       <c r="A36" s="38">
         <v>34</v>
       </c>
-      <c r="B36" s="257" t="s">
+      <c r="B36" s="258" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23265,7 +23307,7 @@
       <c r="A37" s="38">
         <v>35</v>
       </c>
-      <c r="B37" s="259"/>
+      <c r="B37" s="260"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23287,7 +23329,7 @@
       <c r="A38" s="38">
         <v>36</v>
       </c>
-      <c r="B38" s="259"/>
+      <c r="B38" s="260"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23309,7 +23351,7 @@
       <c r="A39" s="38">
         <v>37</v>
       </c>
-      <c r="B39" s="258"/>
+      <c r="B39" s="259"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23331,7 +23373,7 @@
       <c r="A40" s="38">
         <v>38</v>
       </c>
-      <c r="B40" s="257" t="s">
+      <c r="B40" s="258" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23355,7 +23397,7 @@
       <c r="A41" s="38">
         <v>39</v>
       </c>
-      <c r="B41" s="258"/>
+      <c r="B41" s="259"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23401,7 +23443,7 @@
       <c r="A43" s="38">
         <v>41</v>
       </c>
-      <c r="B43" s="257" t="s">
+      <c r="B43" s="258" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23425,7 +23467,7 @@
       <c r="A44" s="38">
         <v>42</v>
       </c>
-      <c r="B44" s="259"/>
+      <c r="B44" s="260"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23447,7 +23489,7 @@
       <c r="A45" s="38">
         <v>43</v>
       </c>
-      <c r="B45" s="259"/>
+      <c r="B45" s="260"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23469,7 +23511,7 @@
       <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="B46" s="259"/>
+      <c r="B46" s="260"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23493,7 +23535,7 @@
       <c r="A47" s="38">
         <v>45</v>
       </c>
-      <c r="B47" s="259"/>
+      <c r="B47" s="260"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23515,7 +23557,7 @@
       <c r="A48" s="38">
         <v>46</v>
       </c>
-      <c r="B48" s="259"/>
+      <c r="B48" s="260"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23537,7 +23579,7 @@
       <c r="A49" s="38">
         <v>47</v>
       </c>
-      <c r="B49" s="259"/>
+      <c r="B49" s="260"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23559,7 +23601,7 @@
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="259"/>
+      <c r="B50" s="260"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23583,7 +23625,7 @@
       <c r="A51" s="38">
         <v>49</v>
       </c>
-      <c r="B51" s="259"/>
+      <c r="B51" s="260"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23605,7 +23647,7 @@
       <c r="A52" s="38">
         <v>50</v>
       </c>
-      <c r="B52" s="259"/>
+      <c r="B52" s="260"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23627,7 +23669,7 @@
       <c r="A53" s="38">
         <v>51</v>
       </c>
-      <c r="B53" s="259"/>
+      <c r="B53" s="260"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23649,7 +23691,7 @@
       <c r="A54" s="38">
         <v>52</v>
       </c>
-      <c r="B54" s="258"/>
+      <c r="B54" s="259"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23682,16 +23724,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23732,26 +23774,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="241"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="242"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25936,7 +25978,7 @@
       <c r="C68" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="237" t="s">
+      <c r="D68" s="238" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="116"/>
@@ -25970,7 +26012,7 @@
       <c r="C69" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="237"/>
+      <c r="D69" s="238"/>
       <c r="E69" s="116"/>
       <c r="F69" s="46" t="s">
         <v>225</v>
@@ -35715,12 +35757,12 @@
       <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="239" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="241"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="242"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37288,18 +37330,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="241"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="242"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37349,7 +37391,7 @@
       <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="191" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -37384,7 +37426,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="193"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="22" t="s">
         <v>920</v>
       </c>
@@ -37417,7 +37459,7 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="193"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="4" t="s">
         <v>924</v>
       </c>
@@ -37450,7 +37492,7 @@
       <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="193"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="4" t="s">
         <v>927</v>
       </c>
@@ -37483,11 +37525,11 @@
       <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="193"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="50" t="s">
         <v>930</v>
       </c>
-      <c r="D7" s="203" t="s">
+      <c r="D7" s="202" t="s">
         <v>931</v>
       </c>
       <c r="E7" s="50" t="s">
@@ -37550,13 +37592,13 @@
       <c r="A9" s="57">
         <v>6</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="193" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="203" t="s">
         <v>937</v>
       </c>
       <c r="E9" s="49" t="s">
@@ -37565,10 +37607,10 @@
       <c r="F9" s="38" t="s">
         <v>917</v>
       </c>
-      <c r="G9" s="205" t="s">
+      <c r="G9" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="207">
+      <c r="H9" s="206">
         <v>235.25</v>
       </c>
       <c r="I9" s="38" t="s">
@@ -37820,7 +37862,7 @@
       <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="242" t="s">
+      <c r="B17" s="243" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37853,7 +37895,7 @@
       <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="243"/>
+      <c r="B18" s="244"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37884,7 +37926,7 @@
       <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="243" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37917,7 +37959,7 @@
       <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="243"/>
+      <c r="B20" s="244"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -37992,13 +38034,13 @@
       <c r="A22" s="35">
         <v>19</v>
       </c>
-      <c r="B22" s="202" t="s">
+      <c r="B22" s="201" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>965</v>
       </c>
-      <c r="D22" s="203" t="s">
+      <c r="D22" s="202" t="s">
         <v>153</v>
       </c>
       <c r="E22" s="50" t="s">
@@ -38007,7 +38049,7 @@
       <c r="F22" s="38" t="s">
         <v>917</v>
       </c>
-      <c r="G22" s="203" t="s">
+      <c r="G22" s="202" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="50"/>
@@ -38074,7 +38116,7 @@
       <c r="G24" s="40" t="s">
         <v>1969</v>
       </c>
-      <c r="H24" s="208"/>
+      <c r="H24" s="207"/>
       <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -38232,18 +38274,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="241"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="242"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38293,7 +38335,7 @@
       <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="221" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -38302,7 +38344,7 @@
       <c r="D3" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="224" t="s">
         <v>157</v>
       </c>
       <c r="F3" s="38" t="s">
@@ -38335,7 +38377,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="246" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38344,7 +38386,7 @@
       <c r="D4" s="38" t="s">
         <v>971</v>
       </c>
-      <c r="E4" s="226" t="s">
+      <c r="E4" s="224" t="s">
         <v>972</v>
       </c>
       <c r="F4" s="38" t="s">
@@ -38369,14 +38411,14 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="246"/>
+      <c r="B5" s="247"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>975</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="224" t="s">
         <v>976</v>
       </c>
       <c r="F5" s="38" t="s">
@@ -38401,7 +38443,7 @@
       <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="224" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -38410,7 +38452,7 @@
       <c r="D6" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="226" t="s">
+      <c r="E6" s="224" t="s">
         <v>163</v>
       </c>
       <c r="F6" s="38" t="s">
@@ -38445,7 +38487,7 @@
       <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="224" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -38454,7 +38496,7 @@
       <c r="D7" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="226" t="s">
+      <c r="E7" s="224" t="s">
         <v>979</v>
       </c>
       <c r="F7" s="38" t="s">
@@ -38489,7 +38531,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="245" t="s">
+      <c r="B8" s="246" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38498,7 +38540,7 @@
       <c r="D8" s="38" t="s">
         <v>981</v>
       </c>
-      <c r="E8" s="226" t="s">
+      <c r="E8" s="224" t="s">
         <v>982</v>
       </c>
       <c r="F8" s="38" t="s">
@@ -38525,14 +38567,14 @@
       <c r="A9" s="35">
         <v>11</v>
       </c>
-      <c r="B9" s="246"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="E9" s="226" t="s">
+      <c r="E9" s="224" t="s">
         <v>986</v>
       </c>
       <c r="F9" s="38" t="s">
@@ -38556,7 +38598,7 @@
       <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="221" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -38565,7 +38607,7 @@
       <c r="D10" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="226" t="s">
+      <c r="E10" s="224" t="s">
         <v>175</v>
       </c>
       <c r="F10" s="38" t="s">
@@ -38590,7 +38632,7 @@
       <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="226" t="s">
+      <c r="B11" s="224" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -38599,7 +38641,7 @@
       <c r="D11" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="226" t="s">
+      <c r="E11" s="224" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="38" t="s">
@@ -38624,7 +38666,7 @@
       <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="226" t="s">
+      <c r="B12" s="224" t="s">
         <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -38633,7 +38675,7 @@
       <c r="D12" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="226" t="s">
+      <c r="E12" s="224" t="s">
         <v>991</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -38660,7 +38702,7 @@
       <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="224" t="s">
         <v>993</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -38669,7 +38711,7 @@
       <c r="D13" s="38" t="s">
         <v>995</v>
       </c>
-      <c r="E13" s="226" t="s">
+      <c r="E13" s="224" t="s">
         <v>996</v>
       </c>
       <c r="F13" s="38" t="s">
@@ -38696,7 +38738,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="245" t="s">
+      <c r="B14" s="246" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38705,7 +38747,7 @@
       <c r="D14" s="38" t="s">
         <v>998</v>
       </c>
-      <c r="E14" s="226" t="s">
+      <c r="E14" s="224" t="s">
         <v>999</v>
       </c>
       <c r="F14" s="38" t="s">
@@ -38732,14 +38774,14 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="246"/>
+      <c r="B15" s="247"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="E15" s="226" t="s">
+      <c r="E15" s="224" t="s">
         <v>1002</v>
       </c>
       <c r="F15" s="38" t="s">
@@ -38766,7 +38808,7 @@
       <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="226" t="s">
+      <c r="B16" s="224" t="s">
         <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -38775,7 +38817,7 @@
       <c r="D16" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="226" t="s">
+      <c r="E16" s="224" t="s">
         <v>187</v>
       </c>
       <c r="F16" s="38" t="s">
@@ -38810,7 +38852,7 @@
       <c r="A17" s="35">
         <v>15</v>
       </c>
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="224" t="s">
         <v>189</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -38819,7 +38861,7 @@
       <c r="D17" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="226" t="s">
+      <c r="E17" s="224" t="s">
         <v>191</v>
       </c>
       <c r="F17" s="38" t="s">
@@ -38854,7 +38896,7 @@
       <c r="A18" s="35">
         <v>16</v>
       </c>
-      <c r="B18" s="226" t="s">
+      <c r="B18" s="224" t="s">
         <v>1912</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -38863,7 +38905,7 @@
       <c r="D18" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="226" t="s">
+      <c r="E18" s="224" t="s">
         <v>195</v>
       </c>
       <c r="F18" s="38" t="s">
@@ -38895,7 +38937,7 @@
       <c r="A19" s="35">
         <v>17</v>
       </c>
-      <c r="B19" s="226" t="s">
+      <c r="B19" s="224" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -38904,7 +38946,7 @@
       <c r="D19" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="226" t="s">
+      <c r="E19" s="224" t="s">
         <v>199</v>
       </c>
       <c r="F19" s="38" t="s">
@@ -38937,7 +38979,7 @@
       <c r="A20" s="35">
         <v>18</v>
       </c>
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="224" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -38946,7 +38988,7 @@
       <c r="D20" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="226" t="s">
+      <c r="E20" s="224" t="s">
         <v>202</v>
       </c>
       <c r="F20" s="38" t="s">
@@ -38979,7 +39021,7 @@
       <c r="A21" s="35">
         <v>19</v>
       </c>
-      <c r="B21" s="226" t="s">
+      <c r="B21" s="224" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -38988,7 +39030,7 @@
       <c r="D21" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="226" t="s">
+      <c r="E21" s="224" t="s">
         <v>205</v>
       </c>
       <c r="F21" s="38" t="s">
@@ -39021,7 +39063,7 @@
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="245" t="s">
+      <c r="B22" s="246" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39030,7 +39072,7 @@
       <c r="D22" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="E22" s="226" t="s">
+      <c r="E22" s="224" t="s">
         <v>1012</v>
       </c>
       <c r="F22" s="38" t="s">
@@ -39063,14 +39105,14 @@
       <c r="A23" s="35">
         <v>21</v>
       </c>
-      <c r="B23" s="248"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="E23" s="226" t="s">
+      <c r="E23" s="224" t="s">
         <v>1015</v>
       </c>
       <c r="F23" s="38" t="s">
@@ -39102,14 +39144,14 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="246"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="E24" s="226" t="s">
+      <c r="E24" s="224" t="s">
         <v>1018</v>
       </c>
       <c r="F24" s="38" t="s">
@@ -39142,7 +39184,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="226" t="s">
+      <c r="B25" s="224" t="s">
         <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -39151,7 +39193,7 @@
       <c r="D25" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="226" t="s">
+      <c r="E25" s="224" t="s">
         <v>211</v>
       </c>
       <c r="F25" s="38" t="s">
@@ -39184,7 +39226,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="224" t="s">
         <v>212</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -39193,7 +39235,7 @@
       <c r="D26" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="226" t="s">
+      <c r="E26" s="224" t="s">
         <v>214</v>
       </c>
       <c r="F26" s="38" t="s">
@@ -39249,7 +39291,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="223" t="s">
+      <c r="B28" s="221" t="s">
         <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -39258,7 +39300,7 @@
       <c r="D28" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="226" t="s">
+      <c r="E28" s="224" t="s">
         <v>217</v>
       </c>
       <c r="F28" s="38" t="s">
@@ -39291,7 +39333,7 @@
       <c r="A29" s="35">
         <v>27</v>
       </c>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="221" t="s">
         <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -39300,7 +39342,7 @@
       <c r="D29" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="226" t="s">
+      <c r="E29" s="224" t="s">
         <v>220</v>
       </c>
       <c r="F29" s="38" t="s">
@@ -39327,7 +39369,7 @@
       <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="245" t="s">
+      <c r="B30" s="246" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39336,7 +39378,7 @@
       <c r="D30" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="226" t="s">
+      <c r="E30" s="224" t="s">
         <v>224</v>
       </c>
       <c r="F30" s="38" t="s">
@@ -39363,14 +39405,14 @@
       <c r="A31" s="35">
         <v>29</v>
       </c>
-      <c r="B31" s="246"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="226" t="s">
+      <c r="E31" s="224" t="s">
         <v>224</v>
       </c>
       <c r="F31" s="38" t="s">
@@ -39397,7 +39439,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="245" t="s">
+      <c r="B32" s="246" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39406,7 +39448,7 @@
       <c r="D32" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="E32" s="226" t="s">
+      <c r="E32" s="224" t="s">
         <v>1032</v>
       </c>
       <c r="F32" s="38" t="s">
@@ -39433,14 +39475,14 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="246"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="E33" s="226" t="s">
+      <c r="E33" s="224" t="s">
         <v>228</v>
       </c>
       <c r="F33" s="38" t="s">
@@ -39467,7 +39509,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="226" t="s">
+      <c r="B34" s="224" t="s">
         <v>230</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -39476,7 +39518,7 @@
       <c r="D34" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="226" t="s">
+      <c r="E34" s="224" t="s">
         <v>232</v>
       </c>
       <c r="F34" s="38" t="s">
@@ -39489,7 +39531,7 @@
       <c r="I34" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J34" s="227" t="s">
+      <c r="J34" s="225" t="s">
         <v>71</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -39503,7 +39545,7 @@
       <c r="A35" s="35">
         <v>33</v>
       </c>
-      <c r="B35" s="226" t="s">
+      <c r="B35" s="224" t="s">
         <v>233</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -39512,7 +39554,7 @@
       <c r="D35" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="226" t="s">
+      <c r="E35" s="224" t="s">
         <v>235</v>
       </c>
       <c r="F35" s="38" t="s">
@@ -39544,7 +39586,7 @@
       <c r="A36" s="35">
         <v>34</v>
       </c>
-      <c r="B36" s="226" t="s">
+      <c r="B36" s="224" t="s">
         <v>237</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -39553,7 +39595,7 @@
       <c r="D36" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="226" t="s">
+      <c r="E36" s="224" t="s">
         <v>239</v>
       </c>
       <c r="F36" s="38" t="s">
@@ -39562,11 +39604,11 @@
       <c r="G36" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="228"/>
+      <c r="H36" s="226"/>
       <c r="I36" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J36" s="228" t="s">
+      <c r="J36" s="226" t="s">
         <v>71</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -39580,7 +39622,7 @@
       <c r="A37" s="35">
         <v>35</v>
       </c>
-      <c r="B37" s="226" t="s">
+      <c r="B37" s="224" t="s">
         <v>240</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -39589,7 +39631,7 @@
       <c r="D37" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="226" t="s">
+      <c r="E37" s="224" t="s">
         <v>242</v>
       </c>
       <c r="F37" s="38" t="s">
@@ -39614,7 +39656,7 @@
       <c r="A38" s="35">
         <v>36</v>
       </c>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="224" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -39623,7 +39665,7 @@
       <c r="D38" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="226" t="s">
+      <c r="E38" s="224" t="s">
         <v>245</v>
       </c>
       <c r="F38" s="38" t="s">
@@ -39650,7 +39692,7 @@
       <c r="A39" s="35">
         <v>37</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="221" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -39659,7 +39701,7 @@
       <c r="D39" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E39" s="226" t="s">
+      <c r="E39" s="224" t="s">
         <v>1913</v>
       </c>
       <c r="F39" s="38" t="s">
@@ -39692,7 +39734,7 @@
       <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="B40" s="226" t="s">
+      <c r="B40" s="224" t="s">
         <v>250</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -39701,7 +39743,7 @@
       <c r="D40" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="E40" s="226" t="s">
+      <c r="E40" s="224" t="s">
         <v>252</v>
       </c>
       <c r="F40" s="38" t="s">
@@ -39714,7 +39756,7 @@
       <c r="I40" s="38" t="s">
         <v>918</v>
       </c>
-      <c r="J40" s="228" t="s">
+      <c r="J40" s="226" t="s">
         <v>253</v>
       </c>
       <c r="K40" s="28" t="s">
@@ -39728,7 +39770,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="245" t="s">
+      <c r="B41" s="246" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39737,7 +39779,7 @@
       <c r="D41" s="38" t="s">
         <v>1044</v>
       </c>
-      <c r="E41" s="226" t="s">
+      <c r="E41" s="224" t="s">
         <v>256</v>
       </c>
       <c r="F41" s="38" t="s">
@@ -39764,14 +39806,14 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="246"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>1046</v>
       </c>
-      <c r="E42" s="226" t="s">
+      <c r="E42" s="224" t="s">
         <v>256</v>
       </c>
       <c r="F42" s="38" t="s">
@@ -39798,7 +39840,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="226" t="s">
+      <c r="B43" s="224" t="s">
         <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -39807,7 +39849,7 @@
       <c r="D43" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="226" t="s">
+      <c r="E43" s="224" t="s">
         <v>259</v>
       </c>
       <c r="F43" s="38" t="s">
@@ -39834,7 +39876,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="245" t="s">
+      <c r="B44" s="246" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39843,7 +39885,7 @@
       <c r="D44" s="38" t="s">
         <v>1050</v>
       </c>
-      <c r="E44" s="226" t="s">
+      <c r="E44" s="224" t="s">
         <v>1051</v>
       </c>
       <c r="F44" s="38" t="s">
@@ -39870,14 +39912,14 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="246"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>1053</v>
       </c>
-      <c r="E45" s="226" t="s">
+      <c r="E45" s="224" t="s">
         <v>262</v>
       </c>
       <c r="F45" s="38" t="s">
@@ -39904,7 +39946,7 @@
       <c r="A46" s="35">
         <v>44</v>
       </c>
-      <c r="B46" s="226" t="s">
+      <c r="B46" s="224" t="s">
         <v>264</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -39913,7 +39955,7 @@
       <c r="D46" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="226" t="s">
+      <c r="E46" s="224" t="s">
         <v>266</v>
       </c>
       <c r="F46" s="38" t="s">
@@ -39940,7 +39982,7 @@
       <c r="A47" s="35">
         <v>45</v>
       </c>
-      <c r="B47" s="226" t="s">
+      <c r="B47" s="224" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -39949,7 +39991,7 @@
       <c r="D47" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="226" t="s">
+      <c r="E47" s="224" t="s">
         <v>270</v>
       </c>
       <c r="F47" s="38" t="s">
@@ -39962,7 +40004,7 @@
       <c r="I47" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="J47" s="227"/>
+      <c r="J47" s="225"/>
       <c r="K47" s="5" t="s">
         <v>349</v>
       </c>
@@ -39983,7 +40025,7 @@
       <c r="D48" s="38" t="s">
         <v>1057</v>
       </c>
-      <c r="E48" s="226" t="s">
+      <c r="E48" s="224" t="s">
         <v>1058</v>
       </c>
       <c r="F48" s="38" t="s">
@@ -39998,7 +40040,7 @@
       <c r="I48" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="247" t="s">
+      <c r="J48" s="248" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="83" t="s">
@@ -40018,7 +40060,7 @@
       <c r="D49" s="38" t="s">
         <v>1061</v>
       </c>
-      <c r="E49" s="226" t="s">
+      <c r="E49" s="224" t="s">
         <v>1062</v>
       </c>
       <c r="F49" s="38" t="s">
@@ -40033,7 +40075,7 @@
       <c r="I49" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="247"/>
+      <c r="J49" s="248"/>
       <c r="K49" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40051,7 +40093,7 @@
       <c r="D50" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="E50" s="226" t="s">
+      <c r="E50" s="224" t="s">
         <v>1066</v>
       </c>
       <c r="F50" s="38" t="s">
@@ -40066,7 +40108,7 @@
       <c r="I50" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="247"/>
+      <c r="J50" s="248"/>
       <c r="K50" s="127" t="s">
         <v>349</v>
       </c>
@@ -40084,7 +40126,7 @@
       <c r="D51" s="38" t="s">
         <v>1068</v>
       </c>
-      <c r="E51" s="226" t="s">
+      <c r="E51" s="224" t="s">
         <v>1069</v>
       </c>
       <c r="F51" s="38" t="s">
@@ -40099,7 +40141,7 @@
       <c r="I51" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="247"/>
+      <c r="J51" s="248"/>
       <c r="K51" s="127" t="s">
         <v>1070</v>
       </c>
@@ -40117,7 +40159,7 @@
       <c r="D52" s="38" t="s">
         <v>1072</v>
       </c>
-      <c r="E52" s="226" t="s">
+      <c r="E52" s="224" t="s">
         <v>1073</v>
       </c>
       <c r="F52" s="38" t="s">
@@ -40132,7 +40174,7 @@
       <c r="I52" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="247"/>
+      <c r="J52" s="248"/>
       <c r="K52" s="127" t="s">
         <v>1074</v>
       </c>
@@ -40150,7 +40192,7 @@
       <c r="D53" s="38" t="s">
         <v>1076</v>
       </c>
-      <c r="E53" s="226" t="s">
+      <c r="E53" s="224" t="s">
         <v>1077</v>
       </c>
       <c r="F53" s="38" t="s">
@@ -40165,7 +40207,7 @@
       <c r="I53" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="247"/>
+      <c r="J53" s="248"/>
       <c r="K53" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40183,7 +40225,7 @@
       <c r="D54" s="38" t="s">
         <v>1079</v>
       </c>
-      <c r="E54" s="226" t="s">
+      <c r="E54" s="224" t="s">
         <v>1080</v>
       </c>
       <c r="F54" s="38" t="s">
@@ -40198,7 +40240,7 @@
       <c r="I54" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="247"/>
+      <c r="J54" s="248"/>
       <c r="K54" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40216,7 +40258,7 @@
       <c r="D55" s="38" t="s">
         <v>1082</v>
       </c>
-      <c r="E55" s="226" t="s">
+      <c r="E55" s="224" t="s">
         <v>1083</v>
       </c>
       <c r="F55" s="38" t="s">
@@ -40231,7 +40273,7 @@
       <c r="I55" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="247"/>
+      <c r="J55" s="248"/>
       <c r="K55" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40246,21 +40288,21 @@
       <c r="C56" s="50" t="s">
         <v>1084</v>
       </c>
-      <c r="D56" s="227" t="s">
+      <c r="D56" s="225" t="s">
         <v>1085</v>
       </c>
-      <c r="E56" s="224" t="s">
+      <c r="E56" s="222" t="s">
         <v>1086</v>
       </c>
-      <c r="F56" s="227"/>
+      <c r="F56" s="225"/>
       <c r="G56" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="H56" s="215">
+      <c r="H56" s="213">
         <v>0</v>
       </c>
       <c r="I56" s="82"/>
-      <c r="J56" s="247"/>
+      <c r="J56" s="248"/>
       <c r="K56" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40278,7 +40320,7 @@
       <c r="D57" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="E57" s="226" t="s">
+      <c r="E57" s="224" t="s">
         <v>1089</v>
       </c>
       <c r="F57" s="38" t="s">
@@ -40293,8 +40335,8 @@
       <c r="I57" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="247"/>
-      <c r="K57" s="213" t="s">
+      <c r="J57" s="248"/>
+      <c r="K57" s="211" t="s">
         <v>1063</v>
       </c>
       <c r="L57" s="38" t="s">
@@ -40317,25 +40359,25 @@
       <c r="C58" s="49" t="s">
         <v>1090</v>
       </c>
-      <c r="D58" s="228" t="s">
+      <c r="D58" s="226" t="s">
         <v>1091</v>
       </c>
-      <c r="E58" s="225" t="s">
+      <c r="E58" s="223" t="s">
         <v>1092</v>
       </c>
-      <c r="F58" s="228" t="s">
+      <c r="F58" s="226" t="s">
         <v>917</v>
       </c>
-      <c r="G58" s="217" t="s">
+      <c r="G58" s="215" t="s">
         <v>94</v>
       </c>
-      <c r="H58" s="218">
+      <c r="H58" s="216">
         <v>0</v>
       </c>
       <c r="I58" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="244" t="s">
+      <c r="J58" s="245" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="127" t="s">
@@ -40355,7 +40397,7 @@
       <c r="D59" s="38" t="s">
         <v>1094</v>
       </c>
-      <c r="E59" s="226" t="s">
+      <c r="E59" s="224" t="s">
         <v>1095</v>
       </c>
       <c r="F59" s="38" t="s">
@@ -40370,7 +40412,7 @@
       <c r="I59" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="244"/>
+      <c r="J59" s="245"/>
       <c r="K59" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40388,7 +40430,7 @@
       <c r="D60" s="38" t="s">
         <v>1097</v>
       </c>
-      <c r="E60" s="226" t="s">
+      <c r="E60" s="224" t="s">
         <v>1098</v>
       </c>
       <c r="F60" s="38" t="s">
@@ -40403,7 +40445,7 @@
       <c r="I60" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="244"/>
+      <c r="J60" s="245"/>
       <c r="K60" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40421,7 +40463,7 @@
       <c r="D61" s="38" t="s">
         <v>1100</v>
       </c>
-      <c r="E61" s="226" t="s">
+      <c r="E61" s="224" t="s">
         <v>1101</v>
       </c>
       <c r="F61" s="38" t="s">
@@ -40436,7 +40478,7 @@
       <c r="I61" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="244"/>
+      <c r="J61" s="245"/>
       <c r="K61" s="131" t="s">
         <v>66</v>
       </c>
@@ -40469,7 +40511,7 @@
       <c r="I62" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="244"/>
+      <c r="J62" s="245"/>
       <c r="K62" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40487,7 +40529,7 @@
       <c r="D63" s="38" t="s">
         <v>1105</v>
       </c>
-      <c r="E63" s="226" t="s">
+      <c r="E63" s="224" t="s">
         <v>1106</v>
       </c>
       <c r="F63" s="38" t="s">
@@ -40502,7 +40544,7 @@
       <c r="I63" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="244"/>
+      <c r="J63" s="245"/>
       <c r="K63" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40535,7 +40577,7 @@
       <c r="I64" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="244"/>
+      <c r="J64" s="245"/>
       <c r="K64" s="131" t="s">
         <v>1109</v>
       </c>
@@ -40553,7 +40595,7 @@
       <c r="D65" s="38" t="s">
         <v>1111</v>
       </c>
-      <c r="E65" s="226" t="s">
+      <c r="E65" s="224" t="s">
         <v>1112</v>
       </c>
       <c r="F65" s="38" t="s">
@@ -40568,7 +40610,7 @@
       <c r="I65" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="244"/>
+      <c r="J65" s="245"/>
       <c r="K65" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40581,23 +40623,23 @@
       <c r="C66" s="50" t="s">
         <v>1113</v>
       </c>
-      <c r="D66" s="227" t="s">
+      <c r="D66" s="225" t="s">
         <v>1114</v>
       </c>
-      <c r="E66" s="224" t="s">
+      <c r="E66" s="222" t="s">
         <v>1115</v>
       </c>
-      <c r="F66" s="227" t="s">
+      <c r="F66" s="225" t="s">
         <v>917</v>
       </c>
       <c r="G66" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="216">
+      <c r="H66" s="214">
         <v>60</v>
       </c>
       <c r="I66" s="38"/>
-      <c r="J66" s="244"/>
+      <c r="J66" s="245"/>
       <c r="K66" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40626,8 +40668,8 @@
         <v>30</v>
       </c>
       <c r="I67" s="38"/>
-      <c r="J67" s="244"/>
-      <c r="K67" s="214" t="s">
+      <c r="J67" s="245"/>
+      <c r="K67" s="212" t="s">
         <v>1119</v>
       </c>
       <c r="L67" s="38" t="s">
@@ -40647,19 +40689,19 @@
       <c r="B68" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="225" t="s">
+      <c r="C68" s="223" t="s">
         <v>1120</v>
       </c>
-      <c r="D68" s="228" t="s">
+      <c r="D68" s="226" t="s">
         <v>1121</v>
       </c>
-      <c r="E68" s="225" t="s">
+      <c r="E68" s="223" t="s">
         <v>1122</v>
       </c>
-      <c r="F68" s="228" t="s">
+      <c r="F68" s="226" t="s">
         <v>917</v>
       </c>
-      <c r="G68" s="219" t="s">
+      <c r="G68" s="217" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="132">
@@ -40668,7 +40710,7 @@
       <c r="I68" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="244"/>
+      <c r="J68" s="245"/>
       <c r="K68" s="131" t="s">
         <v>1123</v>
       </c>
@@ -40695,7 +40737,7 @@
       <c r="D69" s="38" t="s">
         <v>1125</v>
       </c>
-      <c r="E69" s="226" t="s">
+      <c r="E69" s="224" t="s">
         <v>1126</v>
       </c>
       <c r="F69" s="38" t="s">
@@ -40710,7 +40752,7 @@
       <c r="I69" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="244"/>
+      <c r="J69" s="245"/>
       <c r="K69" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40728,7 +40770,7 @@
       <c r="D70" s="38" t="s">
         <v>1128</v>
       </c>
-      <c r="E70" s="226" t="s">
+      <c r="E70" s="224" t="s">
         <v>1129</v>
       </c>
       <c r="F70" s="38" t="s">
@@ -40743,7 +40785,7 @@
       <c r="I70" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="244"/>
+      <c r="J70" s="245"/>
       <c r="K70" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40761,7 +40803,7 @@
       <c r="D71" s="38" t="s">
         <v>1131</v>
       </c>
-      <c r="E71" s="226" t="s">
+      <c r="E71" s="224" t="s">
         <v>1132</v>
       </c>
       <c r="F71" s="38" t="s">
@@ -40776,7 +40818,7 @@
       <c r="I71" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="244"/>
+      <c r="J71" s="245"/>
       <c r="K71" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40794,7 +40836,7 @@
       <c r="D72" s="38" t="s">
         <v>1134</v>
       </c>
-      <c r="E72" s="226" t="s">
+      <c r="E72" s="224" t="s">
         <v>1133</v>
       </c>
       <c r="F72" s="38" t="s">
@@ -40809,7 +40851,7 @@
       <c r="I72" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="244"/>
+      <c r="J72" s="245"/>
       <c r="K72" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40827,7 +40869,7 @@
       <c r="D73" s="38" t="s">
         <v>1136</v>
       </c>
-      <c r="E73" s="226" t="s">
+      <c r="E73" s="224" t="s">
         <v>1137</v>
       </c>
       <c r="F73" s="38" t="s">
@@ -40842,7 +40884,7 @@
       <c r="I73" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="244"/>
+      <c r="J73" s="245"/>
       <c r="K73" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40854,13 +40896,13 @@
       <c r="B74" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="226" t="s">
+      <c r="C74" s="224" t="s">
         <v>1138</v>
       </c>
       <c r="D74" s="38" t="s">
         <v>1139</v>
       </c>
-      <c r="E74" s="226" t="s">
+      <c r="E74" s="224" t="s">
         <v>1140</v>
       </c>
       <c r="F74" s="38" t="s">
@@ -40873,7 +40915,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="43"/>
-      <c r="J74" s="244"/>
+      <c r="J74" s="245"/>
       <c r="K74" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40882,22 +40924,22 @@
       <c r="A75" s="35">
         <v>70</v>
       </c>
-      <c r="B75" s="200"/>
-      <c r="C75" s="226"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="224"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="226"/>
+      <c r="E75" s="224"/>
       <c r="F75" s="38"/>
       <c r="G75" s="81"/>
       <c r="H75" s="35"/>
       <c r="I75" s="43"/>
-      <c r="J75" s="244"/>
+      <c r="J75" s="245"/>
       <c r="K75" s="68"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35">
         <v>71</v>
       </c>
-      <c r="B76" s="223" t="s">
+      <c r="B76" s="221" t="s">
         <v>1141</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -40931,7 +40973,7 @@
       <c r="A77" s="35">
         <v>72</v>
       </c>
-      <c r="B77" s="226" t="s">
+      <c r="B77" s="224" t="s">
         <v>278</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -40940,7 +40982,7 @@
       <c r="D77" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="226" t="s">
+      <c r="E77" s="224" t="s">
         <v>280</v>
       </c>
       <c r="F77" s="38" t="s">
@@ -40970,17 +41012,17 @@
       <c r="C78" s="50" t="s">
         <v>1146</v>
       </c>
-      <c r="D78" s="227" t="s">
+      <c r="D78" s="225" t="s">
         <v>282</v>
       </c>
-      <c r="E78" s="224" t="s">
+      <c r="E78" s="222" t="s">
         <v>283</v>
       </c>
-      <c r="F78" s="196"/>
-      <c r="G78" s="185" t="s">
+      <c r="F78" s="195"/>
+      <c r="G78" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="227"/>
+      <c r="H78" s="225"/>
       <c r="I78" s="43"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
@@ -41033,7 +41075,7 @@
       <c r="D80" s="38" t="s">
         <v>1909</v>
       </c>
-      <c r="E80" s="226"/>
+      <c r="E80" s="224"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38" t="s">
         <v>5</v>
@@ -41187,10 +41229,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41212,19 +41254,23 @@
     <col min="15" max="16384" width="9.1796875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="253" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="241"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41257,16 +41303,16 @@
       <c r="J2" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="K2" s="177" t="s">
+      <c r="K2" s="233" t="s">
         <v>1148</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="261" t="s">
         <v>1939</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="261" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -41301,7 +41347,7 @@
       <c r="J3" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K3" s="210" t="s">
+      <c r="K3" s="208" t="s">
         <v>1929</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -41345,7 +41391,7 @@
       <c r="J4" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K4" s="210" t="s">
+      <c r="K4" s="208" t="s">
         <v>1155</v>
       </c>
       <c r="L4" s="38" t="s">
@@ -41389,7 +41435,7 @@
       <c r="J5" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K5" s="210" t="s">
+      <c r="K5" s="208" t="s">
         <v>1159</v>
       </c>
       <c r="L5" s="38" t="s">
@@ -41430,7 +41476,7 @@
       <c r="J6" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K6" s="210" t="s">
+      <c r="K6" s="208" t="s">
         <v>1163</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -41474,7 +41520,7 @@
       <c r="J7" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K7" s="210" t="s">
+      <c r="K7" s="208" t="s">
         <v>1167</v>
       </c>
       <c r="L7" s="38" t="s">
@@ -41518,7 +41564,7 @@
       <c r="J8" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K8" s="210" t="s">
+      <c r="K8" s="208" t="s">
         <v>1930</v>
       </c>
       <c r="L8" s="38" t="s">
@@ -41562,7 +41608,7 @@
       <c r="J9" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K9" s="210" t="s">
+      <c r="K9" s="208" t="s">
         <v>1172</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -41606,7 +41652,7 @@
       <c r="J10" s="164" t="s">
         <v>1175</v>
       </c>
-      <c r="K10" s="210" t="s">
+      <c r="K10" s="208" t="s">
         <v>1176</v>
       </c>
       <c r="L10" s="38"/>
@@ -41738,7 +41784,7 @@
       <c r="J14" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K14" s="210" t="s">
+      <c r="K14" s="208" t="s">
         <v>1181</v>
       </c>
       <c r="L14" s="38" t="s">
@@ -41779,7 +41825,7 @@
       <c r="J15" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K15" s="211"/>
+      <c r="K15" s="209"/>
       <c r="L15" s="38" t="s">
         <v>802</v>
       </c>
@@ -41818,7 +41864,7 @@
       <c r="J16" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K16" s="211"/>
+      <c r="K16" s="209"/>
       <c r="L16" s="38" t="s">
         <v>1869</v>
       </c>
@@ -41857,7 +41903,7 @@
       <c r="J17" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K17" s="210" t="s">
+      <c r="K17" s="208" t="s">
         <v>1185</v>
       </c>
       <c r="L17" s="38" t="s">
@@ -41928,7 +41974,7 @@
       <c r="J19" s="161" t="s">
         <v>902</v>
       </c>
-      <c r="K19" s="210" t="s">
+      <c r="K19" s="208" t="s">
         <v>1188</v>
       </c>
       <c r="L19" s="38" t="s">
@@ -42186,7 +42232,7 @@
       <c r="J27" s="161" t="s">
         <v>349</v>
       </c>
-      <c r="K27" s="210" t="s">
+      <c r="K27" s="208" t="s">
         <v>1201</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -42405,7 +42451,7 @@
       </c>
       <c r="I34" s="158"/>
       <c r="J34" s="161"/>
-      <c r="K34" s="210" t="s">
+      <c r="K34" s="208" t="s">
         <v>1219</v>
       </c>
       <c r="L34" s="38" t="s">
@@ -42445,7 +42491,7 @@
       </c>
       <c r="I35" s="161"/>
       <c r="J35" s="161"/>
-      <c r="K35" s="211"/>
+      <c r="K35" s="209"/>
       <c r="L35" s="38" t="s">
         <v>73</v>
       </c>
@@ -42454,33 +42500,33 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="42" x14ac:dyDescent="0.35">
-      <c r="A36" s="182">
+      <c r="A36" s="181">
         <v>34</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="184" t="s">
+      <c r="C36" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="184" t="s">
+      <c r="D36" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="184" t="s">
+      <c r="E36" s="183" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="185" t="s">
+      <c r="F36" s="184" t="s">
         <v>1221</v>
       </c>
-      <c r="G36" s="185" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="182" t="s">
+      <c r="G36" s="184" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="181" t="s">
         <v>1222</v>
       </c>
       <c r="I36" s="161"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="212" t="s">
+      <c r="J36" s="184"/>
+      <c r="K36" s="210" t="s">
         <v>1222</v>
       </c>
       <c r="L36" s="38" t="s">
@@ -42517,7 +42563,7 @@
       </c>
       <c r="I37" s="158"/>
       <c r="J37" s="161"/>
-      <c r="K37" s="211"/>
+      <c r="K37" s="209"/>
       <c r="L37" s="38" t="s">
         <v>1872</v>
       </c>
@@ -42555,7 +42601,7 @@
       </c>
       <c r="I38" s="158"/>
       <c r="J38" s="161"/>
-      <c r="K38" s="211" t="s">
+      <c r="K38" s="209" t="s">
         <v>1858</v>
       </c>
       <c r="L38" s="38" t="s">
@@ -42572,7 +42618,7 @@
       <c r="A39" s="35">
         <v>37</v>
       </c>
-      <c r="B39" s="206" t="s">
+      <c r="B39" s="205" t="s">
         <v>1915</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -42594,7 +42640,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="40"/>
-      <c r="K39" s="38" t="s">
+      <c r="K39" s="4" t="s">
         <v>1932</v>
       </c>
       <c r="L39" s="38" t="s">
@@ -42611,7 +42657,7 @@
       <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="B40" s="206" t="s">
+      <c r="B40" s="205" t="s">
         <v>1921</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -42648,7 +42694,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="206" t="s">
+      <c r="B41" s="205" t="s">
         <v>1925</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -42682,52 +42728,160 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="28" x14ac:dyDescent="0.35">
-      <c r="A42" s="35">
+      <c r="A42" s="51">
         <v>40</v>
       </c>
-      <c r="B42" s="209" t="s">
+      <c r="B42" s="235" t="s">
         <v>1934</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="50" t="s">
         <v>1933</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="237" t="s">
         <v>1936</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="50" t="s">
         <v>1935</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="237" t="s">
         <v>917</v>
       </c>
-      <c r="G42" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="35">
+      <c r="G42" s="237" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="51">
         <v>5</v>
       </c>
       <c r="I42" s="40"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38" t="s">
+      <c r="K42" s="237"/>
+      <c r="L42" s="237" t="s">
         <v>1872</v>
       </c>
-      <c r="M42" s="38" t="s">
+      <c r="M42" s="237" t="s">
         <v>1943</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="51" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I43" s="40"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I44" s="40"/>
+    <row r="43" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+      <c r="A43" s="35">
+        <v>41</v>
+      </c>
+      <c r="B43" s="236" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="35">
+        <v>2</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38" t="s">
+        <v>1872</v>
+      </c>
+      <c r="M43" s="38" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N43" s="35" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+      <c r="A44" s="35">
+        <v>42</v>
+      </c>
+      <c r="B44" s="236" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="35">
+        <v>1</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38" t="s">
+        <v>1872</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N44" s="35" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+      <c r="A45" s="35">
+        <v>43</v>
+      </c>
+      <c r="B45" s="236" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="35">
+        <v>1</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38" t="s">
+        <v>1872</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>1943</v>
+      </c>
+      <c r="N45" s="35" t="s">
+        <v>1956</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L42" xr:uid="{9E26C98F-F63D-4634-AED6-5AE6EA2A8036}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42743,7 +42897,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -42766,22 +42920,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="253" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="254"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -42814,7 +42968,7 @@
       <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="235" t="s">
+      <c r="K2" s="233" t="s">
         <v>886</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -42931,7 +43085,7 @@
       <c r="G5" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="232">
+      <c r="H5" s="230">
         <v>12</v>
       </c>
       <c r="I5" s="38" t="s">
@@ -42940,7 +43094,7 @@
       <c r="J5" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="K5" s="180" t="s">
+      <c r="K5" s="179" t="s">
         <v>349</v>
       </c>
       <c r="L5" s="38" t="s">
@@ -43075,7 +43229,7 @@
       <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="231"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="4" t="s">
         <v>1946</v>
       </c>
@@ -43113,7 +43267,7 @@
       <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="231"/>
+      <c r="B10" s="229"/>
       <c r="C10" s="4" t="s">
         <v>1230</v>
       </c>
@@ -43151,7 +43305,7 @@
       <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="231"/>
+      <c r="B11" s="229"/>
       <c r="C11" s="4" t="s">
         <v>1233</v>
       </c>
@@ -43189,7 +43343,7 @@
       <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="231"/>
+      <c r="B12" s="229"/>
       <c r="C12" s="4" t="s">
         <v>1947</v>
       </c>
@@ -43227,7 +43381,7 @@
       <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="231"/>
+      <c r="B13" s="229"/>
       <c r="C13" s="4" t="s">
         <v>1948</v>
       </c>
@@ -43265,7 +43419,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="231"/>
+      <c r="B14" s="229"/>
       <c r="C14" s="4" t="s">
         <v>1949</v>
       </c>
@@ -43303,7 +43457,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="231"/>
+      <c r="B15" s="229"/>
       <c r="C15" s="4" t="s">
         <v>1950</v>
       </c>
@@ -43341,7 +43495,7 @@
       <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="229"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="4" t="s">
         <v>1951</v>
       </c>
@@ -43530,7 +43684,7 @@
         <v>1226</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="181" t="s">
+      <c r="K20" s="180" t="s">
         <v>474</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -43601,7 +43755,7 @@
       <c r="G22" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="222">
+      <c r="H22" s="220">
         <v>6</v>
       </c>
       <c r="I22" s="38" t="s">
@@ -43654,7 +43808,7 @@
       <c r="L23" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="M23" s="233" t="s">
+      <c r="M23" s="231" t="s">
         <v>1586</v>
       </c>
       <c r="N23" s="38"/>
@@ -43663,7 +43817,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="247" t="s">
+      <c r="B24" s="248" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43707,7 +43861,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="250"/>
+      <c r="B25" s="251"/>
       <c r="C25" s="58" t="s">
         <v>1256</v>
       </c>
@@ -43747,7 +43901,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="251"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43787,7 +43941,7 @@
       <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="251"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43827,7 +43981,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="250"/>
+      <c r="B28" s="251"/>
       <c r="C28" s="58" t="s">
         <v>1265</v>
       </c>
@@ -43867,7 +44021,7 @@
       <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="251"/>
+      <c r="B29" s="252"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -43991,7 +44145,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="247" t="s">
+      <c r="B32" s="248" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -44031,7 +44185,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="251"/>
+      <c r="B33" s="252"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -44069,7 +44223,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="251"/>
+      <c r="B34" s="252"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -44107,7 +44261,7 @@
       <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="251"/>
+      <c r="B35" s="252"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44395,7 +44549,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="248" t="s">
+      <c r="B42" s="249" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -44413,7 +44567,7 @@
       <c r="G42" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="207"/>
+      <c r="H42" s="206"/>
       <c r="I42" s="38" t="s">
         <v>1226</v>
       </c>
@@ -44431,7 +44585,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="250"/>
+      <c r="B43" s="251"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44465,7 +44619,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="250"/>
+      <c r="B44" s="251"/>
       <c r="C44" s="50" t="s">
         <v>1297</v>
       </c>
@@ -44499,7 +44653,7 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="230" t="s">
+      <c r="B45" s="228" t="s">
         <v>1300</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -44543,7 +44697,7 @@
       <c r="A46" s="35">
         <v>44</v>
       </c>
-      <c r="B46" s="230" t="s">
+      <c r="B46" s="228" t="s">
         <v>1300</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -44581,7 +44735,7 @@
       <c r="A47" s="55">
         <v>45</v>
       </c>
-      <c r="B47" s="230" t="s">
+      <c r="B47" s="228" t="s">
         <v>1300</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -44619,7 +44773,7 @@
       <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="249" t="s">
+      <c r="B48" s="250" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44657,7 +44811,7 @@
       <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="249"/>
+      <c r="B49" s="250"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -44693,7 +44847,7 @@
       <c r="A50" s="35">
         <v>48</v>
       </c>
-      <c r="B50" s="234" t="s">
+      <c r="B50" s="232" t="s">
         <v>1863</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -44725,7 +44879,7 @@
       <c r="A51" s="35">
         <v>49</v>
       </c>
-      <c r="B51" s="236" t="s">
+      <c r="B51" s="234" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -44752,10 +44906,10 @@
       <c r="A52" s="35">
         <v>50</v>
       </c>
-      <c r="B52" s="236" t="s">
+      <c r="B52" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="236" t="s">
+      <c r="C52" s="234" t="s">
         <v>1977</v>
       </c>
       <c r="D52" s="38" t="s">
@@ -44775,626 +44929,655 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L53" s="178"/>
+    <row r="53" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+      <c r="A53" s="35">
+        <v>51</v>
+      </c>
+      <c r="B53" s="236" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="35"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38" t="s">
+        <v>1872</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L54" s="178"/>
+      <c r="L54" s="177"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L55" s="178"/>
+      <c r="L55" s="177"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L56" s="178"/>
+      <c r="L56" s="177"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L57" s="178"/>
+      <c r="L57" s="177"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L58" s="178"/>
+      <c r="L58" s="177"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L59" s="178"/>
+      <c r="L59" s="177"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L60" s="178"/>
+      <c r="L60" s="177"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L61" s="178"/>
+      <c r="L61" s="177"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L62" s="178"/>
+      <c r="L62" s="177"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L63" s="178"/>
+      <c r="L63" s="177"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="L64" s="178"/>
+      <c r="L64" s="177"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L65" s="178"/>
+      <c r="L65" s="177"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L66" s="178"/>
+      <c r="L66" s="177"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L67" s="178"/>
+      <c r="L67" s="177"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L68" s="178"/>
+      <c r="L68" s="177"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L69" s="178"/>
+      <c r="L69" s="177"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L70" s="178"/>
+      <c r="L70" s="177"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L71" s="178"/>
+      <c r="L71" s="177"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L72" s="178"/>
+      <c r="L72" s="177"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L73" s="178"/>
+      <c r="L73" s="177"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L74" s="178"/>
+      <c r="L74" s="177"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L75" s="178"/>
+      <c r="L75" s="177"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L76" s="178"/>
+      <c r="L76" s="177"/>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L77" s="178"/>
+      <c r="L77" s="177"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L78" s="178"/>
+      <c r="L78" s="177"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L79" s="178"/>
+      <c r="L79" s="177"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L80" s="178"/>
+      <c r="L80" s="177"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L81" s="178"/>
+      <c r="L81" s="177"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L82" s="178"/>
+      <c r="L82" s="177"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L83" s="178"/>
+      <c r="L83" s="177"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L84" s="178"/>
+      <c r="L84" s="177"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L85" s="178"/>
+      <c r="L85" s="177"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L86" s="178"/>
+      <c r="L86" s="177"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L87" s="178"/>
+      <c r="L87" s="177"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L88" s="178"/>
+      <c r="L88" s="177"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L89" s="178"/>
+      <c r="L89" s="177"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L90" s="178"/>
+      <c r="L90" s="177"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L91" s="178"/>
+      <c r="L91" s="177"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L92" s="178"/>
+      <c r="L92" s="177"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L93" s="178"/>
+      <c r="L93" s="177"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L94" s="178"/>
+      <c r="L94" s="177"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L95" s="178"/>
+      <c r="L95" s="177"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L96" s="178"/>
+      <c r="L96" s="177"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L97" s="178"/>
+      <c r="L97" s="177"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L98" s="178"/>
+      <c r="L98" s="177"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L99" s="178"/>
+      <c r="L99" s="177"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L100" s="178"/>
+      <c r="L100" s="177"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L101" s="178"/>
+      <c r="L101" s="177"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L102" s="178"/>
+      <c r="L102" s="177"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L103" s="178"/>
+      <c r="L103" s="177"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L104" s="178"/>
+      <c r="L104" s="177"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L105" s="178"/>
+      <c r="L105" s="177"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L106" s="178"/>
+      <c r="L106" s="177"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L107" s="178"/>
+      <c r="L107" s="177"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L108" s="178"/>
+      <c r="L108" s="177"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L109" s="178"/>
+      <c r="L109" s="177"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L110" s="178"/>
+      <c r="L110" s="177"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L111" s="178"/>
+      <c r="L111" s="177"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L112" s="178"/>
+      <c r="L112" s="177"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L113" s="178"/>
+      <c r="L113" s="177"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L114" s="178"/>
+      <c r="L114" s="177"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L115" s="178"/>
+      <c r="L115" s="177"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L116" s="178"/>
+      <c r="L116" s="177"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L117" s="178"/>
+      <c r="L117" s="177"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L118" s="178"/>
+      <c r="L118" s="177"/>
     </row>
     <row r="119" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L119" s="178"/>
+      <c r="L119" s="177"/>
     </row>
     <row r="120" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L120" s="178"/>
+      <c r="L120" s="177"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L121" s="178"/>
+      <c r="L121" s="177"/>
     </row>
     <row r="122" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L122" s="178"/>
+      <c r="L122" s="177"/>
     </row>
     <row r="123" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L123" s="178"/>
+      <c r="L123" s="177"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L124" s="178"/>
+      <c r="L124" s="177"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L125" s="178"/>
+      <c r="L125" s="177"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L126" s="178"/>
+      <c r="L126" s="177"/>
     </row>
     <row r="127" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L127" s="178"/>
+      <c r="L127" s="177"/>
     </row>
     <row r="128" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L128" s="178"/>
+      <c r="L128" s="177"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L129" s="178"/>
+      <c r="L129" s="177"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L130" s="178"/>
+      <c r="L130" s="177"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L131" s="178"/>
+      <c r="L131" s="177"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L132" s="178"/>
+      <c r="L132" s="177"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L133" s="178"/>
+      <c r="L133" s="177"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L134" s="178"/>
+      <c r="L134" s="177"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L135" s="178"/>
+      <c r="L135" s="177"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L136" s="178"/>
+      <c r="L136" s="177"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L137" s="178"/>
+      <c r="L137" s="177"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L138" s="178"/>
+      <c r="L138" s="177"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L139" s="178"/>
+      <c r="L139" s="177"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L140" s="178"/>
+      <c r="L140" s="177"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L141" s="178"/>
+      <c r="L141" s="177"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L142" s="178"/>
+      <c r="L142" s="177"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L143" s="178"/>
+      <c r="L143" s="177"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L144" s="178"/>
+      <c r="L144" s="177"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L145" s="178"/>
+      <c r="L145" s="177"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L146" s="178"/>
+      <c r="L146" s="177"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L147" s="178"/>
+      <c r="L147" s="177"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L148" s="178"/>
+      <c r="L148" s="177"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L149" s="178"/>
+      <c r="L149" s="177"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L150" s="178"/>
+      <c r="L150" s="177"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L151" s="178"/>
+      <c r="L151" s="177"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L152" s="178"/>
+      <c r="L152" s="177"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L153" s="178"/>
+      <c r="L153" s="177"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L154" s="178"/>
+      <c r="L154" s="177"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L155" s="178"/>
+      <c r="L155" s="177"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L156" s="178"/>
+      <c r="L156" s="177"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L157" s="178"/>
+      <c r="L157" s="177"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L158" s="178"/>
+      <c r="L158" s="177"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L159" s="178"/>
+      <c r="L159" s="177"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L160" s="178"/>
+      <c r="L160" s="177"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L161" s="178"/>
+      <c r="L161" s="177"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L162" s="178"/>
+      <c r="L162" s="177"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L163" s="178"/>
+      <c r="L163" s="177"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L164" s="178"/>
+      <c r="L164" s="177"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L165" s="178"/>
+      <c r="L165" s="177"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L166" s="178"/>
+      <c r="L166" s="177"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L167" s="178"/>
+      <c r="L167" s="177"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L168" s="178"/>
+      <c r="L168" s="177"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L169" s="178"/>
+      <c r="L169" s="177"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L170" s="178"/>
+      <c r="L170" s="177"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L171" s="178"/>
+      <c r="L171" s="177"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L172" s="178"/>
+      <c r="L172" s="177"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L173" s="178"/>
+      <c r="L173" s="177"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L174" s="178"/>
+      <c r="L174" s="177"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L175" s="178"/>
+      <c r="L175" s="177"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L176" s="178"/>
+      <c r="L176" s="177"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L177" s="178"/>
+      <c r="L177" s="177"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L178" s="178"/>
+      <c r="L178" s="177"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L179" s="178"/>
+      <c r="L179" s="177"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L180" s="178"/>
+      <c r="L180" s="177"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L181" s="178"/>
+      <c r="L181" s="177"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L182" s="178"/>
+      <c r="L182" s="177"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L183" s="178"/>
+      <c r="L183" s="177"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L184" s="178"/>
+      <c r="L184" s="177"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L185" s="178"/>
+      <c r="L185" s="177"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L186" s="178"/>
+      <c r="L186" s="177"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L187" s="178"/>
+      <c r="L187" s="177"/>
     </row>
     <row r="188" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L188" s="178"/>
+      <c r="L188" s="177"/>
     </row>
     <row r="189" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L189" s="178"/>
+      <c r="L189" s="177"/>
     </row>
     <row r="190" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L190" s="178"/>
+      <c r="L190" s="177"/>
     </row>
     <row r="191" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L191" s="178"/>
+      <c r="L191" s="177"/>
     </row>
     <row r="192" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L192" s="178"/>
+      <c r="L192" s="177"/>
     </row>
     <row r="193" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L193" s="178"/>
+      <c r="L193" s="177"/>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L194" s="178"/>
+      <c r="L194" s="177"/>
     </row>
     <row r="195" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L195" s="178"/>
+      <c r="L195" s="177"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L196" s="178"/>
+      <c r="L196" s="177"/>
     </row>
     <row r="197" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L197" s="178"/>
+      <c r="L197" s="177"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L198" s="178"/>
+      <c r="L198" s="177"/>
     </row>
     <row r="199" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L199" s="178"/>
+      <c r="L199" s="177"/>
     </row>
     <row r="200" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L200" s="178"/>
+      <c r="L200" s="177"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L201" s="178"/>
+      <c r="L201" s="177"/>
     </row>
     <row r="202" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L202" s="178"/>
+      <c r="L202" s="177"/>
     </row>
     <row r="203" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L203" s="178"/>
+      <c r="L203" s="177"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L204" s="178"/>
+      <c r="L204" s="177"/>
     </row>
     <row r="205" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L205" s="178"/>
+      <c r="L205" s="177"/>
     </row>
     <row r="206" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L206" s="178"/>
+      <c r="L206" s="177"/>
     </row>
     <row r="207" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L207" s="178"/>
+      <c r="L207" s="177"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L208" s="178"/>
+      <c r="L208" s="177"/>
     </row>
     <row r="209" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L209" s="178"/>
+      <c r="L209" s="177"/>
     </row>
     <row r="210" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L210" s="178"/>
+      <c r="L210" s="177"/>
     </row>
     <row r="211" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L211" s="178"/>
+      <c r="L211" s="177"/>
     </row>
     <row r="212" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L212" s="178"/>
+      <c r="L212" s="177"/>
     </row>
     <row r="213" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L213" s="178"/>
+      <c r="L213" s="177"/>
     </row>
     <row r="214" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L214" s="178"/>
+      <c r="L214" s="177"/>
     </row>
     <row r="215" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L215" s="178"/>
+      <c r="L215" s="177"/>
     </row>
     <row r="216" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L216" s="178"/>
+      <c r="L216" s="177"/>
     </row>
     <row r="217" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L217" s="178"/>
+      <c r="L217" s="177"/>
     </row>
     <row r="218" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L218" s="178"/>
+      <c r="L218" s="177"/>
     </row>
     <row r="219" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L219" s="178"/>
+      <c r="L219" s="177"/>
     </row>
     <row r="220" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L220" s="178"/>
+      <c r="L220" s="177"/>
     </row>
     <row r="221" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L221" s="178"/>
+      <c r="L221" s="177"/>
     </row>
     <row r="222" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L222" s="178"/>
+      <c r="L222" s="177"/>
     </row>
     <row r="223" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L223" s="178"/>
+      <c r="L223" s="177"/>
     </row>
     <row r="224" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L224" s="178"/>
+      <c r="L224" s="177"/>
     </row>
     <row r="225" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L225" s="178"/>
+      <c r="L225" s="177"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L226" s="178"/>
+      <c r="L226" s="177"/>
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L227" s="178"/>
+      <c r="L227" s="177"/>
     </row>
     <row r="228" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L228" s="178"/>
+      <c r="L228" s="177"/>
     </row>
     <row r="229" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L229" s="178"/>
+      <c r="L229" s="177"/>
     </row>
     <row r="230" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L230" s="178"/>
+      <c r="L230" s="177"/>
     </row>
     <row r="231" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L231" s="178"/>
+      <c r="L231" s="177"/>
     </row>
     <row r="232" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L232" s="178"/>
+      <c r="L232" s="177"/>
     </row>
     <row r="233" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L233" s="178"/>
+      <c r="L233" s="177"/>
     </row>
     <row r="234" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L234" s="178"/>
+      <c r="L234" s="177"/>
     </row>
     <row r="235" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L235" s="178"/>
+      <c r="L235" s="177"/>
     </row>
     <row r="236" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L236" s="178"/>
+      <c r="L236" s="177"/>
     </row>
     <row r="237" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L237" s="178"/>
+      <c r="L237" s="177"/>
     </row>
     <row r="238" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L238" s="178"/>
+      <c r="L238" s="177"/>
     </row>
     <row r="239" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L239" s="178"/>
+      <c r="L239" s="177"/>
     </row>
     <row r="240" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L240" s="178"/>
+      <c r="L240" s="177"/>
     </row>
     <row r="241" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L241" s="178"/>
+      <c r="L241" s="177"/>
     </row>
     <row r="242" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L242" s="178"/>
+      <c r="L242" s="177"/>
     </row>
     <row r="243" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L243" s="178"/>
+      <c r="L243" s="177"/>
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L244" s="178"/>
+      <c r="L244" s="177"/>
     </row>
     <row r="245" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L245" s="178"/>
+      <c r="L245" s="177"/>
     </row>
     <row r="246" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L246" s="178"/>
+      <c r="L246" s="177"/>
     </row>
     <row r="247" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L247" s="178"/>
+      <c r="L247" s="177"/>
     </row>
     <row r="248" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L248" s="178"/>
+      <c r="L248" s="177"/>
     </row>
     <row r="249" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L249" s="178"/>
+      <c r="L249" s="177"/>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L250" s="178"/>
+      <c r="L250" s="177"/>
     </row>
     <row r="251" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L251" s="178"/>
+      <c r="L251" s="177"/>
     </row>
     <row r="252" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L252" s="178"/>
+      <c r="L252" s="177"/>
     </row>
     <row r="253" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L253" s="178"/>
+      <c r="L253" s="177"/>
     </row>
     <row r="254" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L254" s="178"/>
+      <c r="L254" s="177"/>
     </row>
     <row r="255" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L255" s="178"/>
+      <c r="L255" s="177"/>
     </row>
     <row r="256" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L256" s="178"/>
+      <c r="L256" s="177"/>
     </row>
     <row r="257" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L257" s="178"/>
+      <c r="L257" s="177"/>
     </row>
     <row r="258" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L258" s="178"/>
+      <c r="L258" s="177"/>
     </row>
     <row r="259" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L259" s="178"/>
+      <c r="L259" s="177"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N52" xr:uid="{438D5AF9-2DFF-4E90-B443-258F9BC5D24F}">
@@ -45451,22 +45634,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="254" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45711,7 +45894,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="178" t="s">
         <v>1879</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -45749,16 +45932,16 @@
       <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="228" t="s">
         <v>1989</v>
       </c>
-      <c r="C9" s="230" t="s">
+      <c r="C9" s="228" t="s">
         <v>1990</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>1999</v>
       </c>
-      <c r="E9" s="230" t="s">
+      <c r="E9" s="228" t="s">
         <v>1990</v>
       </c>
       <c r="F9" s="38"/>
@@ -45826,18 +46009,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="255"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="256"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -45910,7 +46093,7 @@
         <v>1145</v>
       </c>
       <c r="J3" s="40"/>
-      <c r="K3" s="220" t="s">
+      <c r="K3" s="218" t="s">
         <v>94</v>
       </c>
       <c r="L3" s="38"/>
@@ -45990,7 +46173,7 @@
       <c r="J5" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="221" t="s">
+      <c r="K5" s="219" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="38" t="s">
@@ -46034,7 +46217,7 @@
       <c r="J6" s="38" t="s">
         <v>1328</v>
       </c>
-      <c r="K6" s="221" t="s">
+      <c r="K6" s="219" t="s">
         <v>474</v>
       </c>
       <c r="L6" s="38" t="s">
@@ -46281,7 +46464,7 @@
       <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="200" t="s">
         <v>1905</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -46319,7 +46502,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="200" t="s">
         <v>1906</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -46332,7 +46515,7 @@
         <v>1884</v>
       </c>
       <c r="F14" s="40"/>
-      <c r="G14" s="186" t="s">
+      <c r="G14" s="185" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="9">
@@ -46355,7 +46538,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="200" t="s">
         <v>1907</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -46368,7 +46551,7 @@
         <v>1886</v>
       </c>
       <c r="F15" s="40"/>
-      <c r="G15" s="186" t="s">
+      <c r="G15" s="185" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="9">
@@ -46391,7 +46574,7 @@
       <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="200" t="s">
         <v>1887</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -46404,7 +46587,7 @@
         <v>1888</v>
       </c>
       <c r="F16" s="40"/>
-      <c r="G16" s="186" t="s">
+      <c r="G16" s="185" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="9">
@@ -46427,7 +46610,7 @@
       <c r="A17" s="35">
         <v>15</v>
       </c>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="200" t="s">
         <v>1895</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -46439,7 +46622,7 @@
       <c r="E17" s="4" t="s">
         <v>1896</v>
       </c>
-      <c r="G17" s="187" t="s">
+      <c r="G17" s="186" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="9"/>
@@ -46534,32 +46717,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -46766,6 +46923,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -46776,23 +46959,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46811,6 +46977,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3277310C-969A-4798-B32B-965E2F711129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA68A0F-17E1-4FED-ADC0-EC4C558BBB7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5667" uniqueCount="2012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="2012">
   <si>
     <t>Category</t>
   </si>
@@ -8149,6 +8149,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8185,6 +8188,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8193,9 +8199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8216,9 +8219,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16287,18 +16287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="242"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="243"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16748,7 +16748,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="243" t="s">
+      <c r="B17" s="244" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16780,7 +16780,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="244"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="4" t="s">
         <v>1352</v>
       </c>
@@ -17120,19 +17120,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>1357</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="242"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="243"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="143" t="s">
@@ -22474,18 +22474,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>1722</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="242"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="243"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -22523,7 +22523,7 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="259" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22549,7 +22549,7 @@
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="259"/>
+      <c r="B4" s="260"/>
       <c r="C4" s="4" t="s">
         <v>1726</v>
       </c>
@@ -22571,7 +22571,7 @@
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="259" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22597,7 +22597,7 @@
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="260"/>
+      <c r="B6" s="261"/>
       <c r="C6" s="19" t="s">
         <v>1731</v>
       </c>
@@ -22621,7 +22621,7 @@
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="260"/>
+      <c r="B7" s="261"/>
       <c r="C7" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22643,7 +22643,7 @@
       <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="260"/>
+      <c r="B8" s="261"/>
       <c r="C8" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22665,7 +22665,7 @@
       <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="260"/>
+      <c r="B9" s="261"/>
       <c r="C9" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22687,7 +22687,7 @@
       <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="260"/>
+      <c r="B10" s="261"/>
       <c r="C10" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22709,7 +22709,7 @@
       <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="260"/>
+      <c r="B11" s="261"/>
       <c r="C11" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22731,7 +22731,7 @@
       <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="260"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22753,7 +22753,7 @@
       <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="260"/>
+      <c r="B13" s="261"/>
       <c r="C13" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22775,7 +22775,7 @@
       <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="260"/>
+      <c r="B14" s="261"/>
       <c r="C14" s="19" t="s">
         <v>1748</v>
       </c>
@@ -22799,7 +22799,7 @@
       <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="260"/>
+      <c r="B15" s="261"/>
       <c r="C15" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22823,7 +22823,7 @@
       <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="259"/>
+      <c r="B16" s="260"/>
       <c r="C16" s="19" t="s">
         <v>1753</v>
       </c>
@@ -22945,7 +22945,7 @@
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="258" t="s">
+      <c r="B21" s="259" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22969,7 +22969,7 @@
       <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="260"/>
+      <c r="B22" s="261"/>
       <c r="C22" s="4" t="s">
         <v>1761</v>
       </c>
@@ -22991,7 +22991,7 @@
       <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="260"/>
+      <c r="B23" s="261"/>
       <c r="C23" s="4" t="s">
         <v>1763</v>
       </c>
@@ -23013,7 +23013,7 @@
       <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="260"/>
+      <c r="B24" s="261"/>
       <c r="C24" s="4" t="s">
         <v>1765</v>
       </c>
@@ -23035,7 +23035,7 @@
       <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="260"/>
+      <c r="B25" s="261"/>
       <c r="C25" s="4" t="s">
         <v>1767</v>
       </c>
@@ -23057,7 +23057,7 @@
       <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="259"/>
+      <c r="B26" s="260"/>
       <c r="C26" s="4" t="s">
         <v>1769</v>
       </c>
@@ -23079,7 +23079,7 @@
       <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="258" t="s">
+      <c r="B27" s="259" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23103,7 +23103,7 @@
       <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="259"/>
+      <c r="B28" s="260"/>
       <c r="C28" s="4" t="s">
         <v>1773</v>
       </c>
@@ -23125,7 +23125,7 @@
       <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="258" t="s">
+      <c r="B29" s="259" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23149,7 +23149,7 @@
       <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="259"/>
+      <c r="B30" s="260"/>
       <c r="C30" s="4" t="s">
         <v>1777</v>
       </c>
@@ -23171,7 +23171,7 @@
       <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="258" t="s">
+      <c r="B31" s="259" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23195,7 +23195,7 @@
       <c r="A32" s="38">
         <v>30</v>
       </c>
-      <c r="B32" s="260"/>
+      <c r="B32" s="261"/>
       <c r="C32" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23217,7 +23217,7 @@
       <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="260"/>
+      <c r="B33" s="261"/>
       <c r="C33" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23239,7 +23239,7 @@
       <c r="A34" s="38">
         <v>32</v>
       </c>
-      <c r="B34" s="260"/>
+      <c r="B34" s="261"/>
       <c r="C34" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23261,7 +23261,7 @@
       <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="259"/>
+      <c r="B35" s="260"/>
       <c r="C35" s="4" t="s">
         <v>1787</v>
       </c>
@@ -23283,7 +23283,7 @@
       <c r="A36" s="38">
         <v>34</v>
       </c>
-      <c r="B36" s="258" t="s">
+      <c r="B36" s="259" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23307,7 +23307,7 @@
       <c r="A37" s="38">
         <v>35</v>
       </c>
-      <c r="B37" s="260"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23329,7 +23329,7 @@
       <c r="A38" s="38">
         <v>36</v>
       </c>
-      <c r="B38" s="260"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23351,7 +23351,7 @@
       <c r="A39" s="38">
         <v>37</v>
       </c>
-      <c r="B39" s="259"/>
+      <c r="B39" s="260"/>
       <c r="C39" s="4" t="s">
         <v>1795</v>
       </c>
@@ -23373,7 +23373,7 @@
       <c r="A40" s="38">
         <v>38</v>
       </c>
-      <c r="B40" s="258" t="s">
+      <c r="B40" s="259" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23397,7 +23397,7 @@
       <c r="A41" s="38">
         <v>39</v>
       </c>
-      <c r="B41" s="259"/>
+      <c r="B41" s="260"/>
       <c r="C41" s="4" t="s">
         <v>1799</v>
       </c>
@@ -23443,7 +23443,7 @@
       <c r="A43" s="38">
         <v>41</v>
       </c>
-      <c r="B43" s="258" t="s">
+      <c r="B43" s="259" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23467,7 +23467,7 @@
       <c r="A44" s="38">
         <v>42</v>
       </c>
-      <c r="B44" s="260"/>
+      <c r="B44" s="261"/>
       <c r="C44" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23489,7 +23489,7 @@
       <c r="A45" s="38">
         <v>43</v>
       </c>
-      <c r="B45" s="260"/>
+      <c r="B45" s="261"/>
       <c r="C45" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23511,7 +23511,7 @@
       <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="B46" s="260"/>
+      <c r="B46" s="261"/>
       <c r="C46" s="4" t="s">
         <v>1808</v>
       </c>
@@ -23535,7 +23535,7 @@
       <c r="A47" s="38">
         <v>45</v>
       </c>
-      <c r="B47" s="260"/>
+      <c r="B47" s="261"/>
       <c r="C47" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23557,7 +23557,7 @@
       <c r="A48" s="38">
         <v>46</v>
       </c>
-      <c r="B48" s="260"/>
+      <c r="B48" s="261"/>
       <c r="C48" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23579,7 +23579,7 @@
       <c r="A49" s="38">
         <v>47</v>
       </c>
-      <c r="B49" s="260"/>
+      <c r="B49" s="261"/>
       <c r="C49" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23601,7 +23601,7 @@
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="260"/>
+      <c r="B50" s="261"/>
       <c r="C50" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23625,7 +23625,7 @@
       <c r="A51" s="38">
         <v>49</v>
       </c>
-      <c r="B51" s="260"/>
+      <c r="B51" s="261"/>
       <c r="C51" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23647,7 +23647,7 @@
       <c r="A52" s="38">
         <v>50</v>
       </c>
-      <c r="B52" s="260"/>
+      <c r="B52" s="261"/>
       <c r="C52" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23669,7 +23669,7 @@
       <c r="A53" s="38">
         <v>51</v>
       </c>
-      <c r="B53" s="260"/>
+      <c r="B53" s="261"/>
       <c r="C53" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23691,7 +23691,7 @@
       <c r="A54" s="38">
         <v>52</v>
       </c>
-      <c r="B54" s="259"/>
+      <c r="B54" s="260"/>
       <c r="C54" s="4" t="s">
         <v>1825</v>
       </c>
@@ -23724,16 +23724,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23774,26 +23774,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="242"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="243"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -25978,7 +25978,7 @@
       <c r="C68" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="238" t="s">
+      <c r="D68" s="239" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="116"/>
@@ -26012,7 +26012,7 @@
       <c r="C69" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="238"/>
+      <c r="D69" s="239"/>
       <c r="E69" s="116"/>
       <c r="F69" s="46" t="s">
         <v>225</v>
@@ -35757,12 +35757,12 @@
       <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="240" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="242"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37330,18 +37330,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="242"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="243"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -37862,7 +37862,7 @@
       <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="243" t="s">
+      <c r="B17" s="244" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37895,7 +37895,7 @@
       <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="244"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37926,7 +37926,7 @@
       <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="244" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37959,7 +37959,7 @@
       <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="244"/>
+      <c r="B20" s="245"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38274,18 +38274,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="242"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="243"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38377,7 +38377,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="247" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38411,7 +38411,7 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="247"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -38531,7 +38531,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="247" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38567,7 +38567,7 @@
       <c r="A9" s="35">
         <v>11</v>
       </c>
-      <c r="B9" s="247"/>
+      <c r="B9" s="248"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -38738,7 +38738,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="247" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38774,7 +38774,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="247"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -39063,7 +39063,7 @@
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="246" t="s">
+      <c r="B22" s="247" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39105,7 +39105,7 @@
       <c r="A23" s="35">
         <v>21</v>
       </c>
-      <c r="B23" s="249"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -39144,7 +39144,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="247"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -39369,7 +39369,7 @@
       <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="246" t="s">
+      <c r="B30" s="247" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39405,7 +39405,7 @@
       <c r="A31" s="35">
         <v>29</v>
       </c>
-      <c r="B31" s="247"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -39439,7 +39439,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="247" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39475,7 +39475,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="247"/>
+      <c r="B33" s="248"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -39770,7 +39770,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="246" t="s">
+      <c r="B41" s="247" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39806,7 +39806,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="247"/>
+      <c r="B42" s="248"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -39876,7 +39876,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="247" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39912,7 +39912,7 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="247"/>
+      <c r="B45" s="248"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -40040,7 +40040,7 @@
       <c r="I48" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="248" t="s">
+      <c r="J48" s="249" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="83" t="s">
@@ -40075,7 +40075,7 @@
       <c r="I49" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="248"/>
+      <c r="J49" s="249"/>
       <c r="K49" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40108,7 +40108,7 @@
       <c r="I50" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="248"/>
+      <c r="J50" s="249"/>
       <c r="K50" s="127" t="s">
         <v>349</v>
       </c>
@@ -40141,7 +40141,7 @@
       <c r="I51" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="248"/>
+      <c r="J51" s="249"/>
       <c r="K51" s="127" t="s">
         <v>1070</v>
       </c>
@@ -40174,7 +40174,7 @@
       <c r="I52" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="248"/>
+      <c r="J52" s="249"/>
       <c r="K52" s="127" t="s">
         <v>1074</v>
       </c>
@@ -40207,7 +40207,7 @@
       <c r="I53" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="248"/>
+      <c r="J53" s="249"/>
       <c r="K53" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40240,7 +40240,7 @@
       <c r="I54" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="248"/>
+      <c r="J54" s="249"/>
       <c r="K54" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40273,7 +40273,7 @@
       <c r="I55" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="248"/>
+      <c r="J55" s="249"/>
       <c r="K55" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40302,7 +40302,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="82"/>
-      <c r="J56" s="248"/>
+      <c r="J56" s="249"/>
       <c r="K56" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40335,7 +40335,7 @@
       <c r="I57" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="248"/>
+      <c r="J57" s="249"/>
       <c r="K57" s="211" t="s">
         <v>1063</v>
       </c>
@@ -40377,7 +40377,7 @@
       <c r="I58" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="245" t="s">
+      <c r="J58" s="246" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="127" t="s">
@@ -40412,7 +40412,7 @@
       <c r="I59" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="245"/>
+      <c r="J59" s="246"/>
       <c r="K59" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40445,7 +40445,7 @@
       <c r="I60" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="245"/>
+      <c r="J60" s="246"/>
       <c r="K60" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40478,7 +40478,7 @@
       <c r="I61" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="245"/>
+      <c r="J61" s="246"/>
       <c r="K61" s="131" t="s">
         <v>66</v>
       </c>
@@ -40511,7 +40511,7 @@
       <c r="I62" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="245"/>
+      <c r="J62" s="246"/>
       <c r="K62" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40544,7 +40544,7 @@
       <c r="I63" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="245"/>
+      <c r="J63" s="246"/>
       <c r="K63" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40577,7 +40577,7 @@
       <c r="I64" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="245"/>
+      <c r="J64" s="246"/>
       <c r="K64" s="131" t="s">
         <v>1109</v>
       </c>
@@ -40610,7 +40610,7 @@
       <c r="I65" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="245"/>
+      <c r="J65" s="246"/>
       <c r="K65" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40639,7 +40639,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="38"/>
-      <c r="J66" s="245"/>
+      <c r="J66" s="246"/>
       <c r="K66" s="127" t="s">
         <v>1063</v>
       </c>
@@ -40668,7 +40668,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="38"/>
-      <c r="J67" s="245"/>
+      <c r="J67" s="246"/>
       <c r="K67" s="212" t="s">
         <v>1119</v>
       </c>
@@ -40710,7 +40710,7 @@
       <c r="I68" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="245"/>
+      <c r="J68" s="246"/>
       <c r="K68" s="131" t="s">
         <v>1123</v>
       </c>
@@ -40752,7 +40752,7 @@
       <c r="I69" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="245"/>
+      <c r="J69" s="246"/>
       <c r="K69" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40785,7 +40785,7 @@
       <c r="I70" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="245"/>
+      <c r="J70" s="246"/>
       <c r="K70" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40818,7 +40818,7 @@
       <c r="I71" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="245"/>
+      <c r="J71" s="246"/>
       <c r="K71" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40851,7 +40851,7 @@
       <c r="I72" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="245"/>
+      <c r="J72" s="246"/>
       <c r="K72" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40884,7 +40884,7 @@
       <c r="I73" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="245"/>
+      <c r="J73" s="246"/>
       <c r="K73" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40915,7 +40915,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="43"/>
-      <c r="J74" s="245"/>
+      <c r="J74" s="246"/>
       <c r="K74" s="131" t="s">
         <v>1063</v>
       </c>
@@ -40932,7 +40932,7 @@
       <c r="G75" s="81"/>
       <c r="H75" s="35"/>
       <c r="I75" s="43"/>
-      <c r="J75" s="245"/>
+      <c r="J75" s="246"/>
       <c r="K75" s="68"/>
     </row>
     <row r="76" spans="1:14" s="2" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -41231,8 +41231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -41255,22 +41255,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="251" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -41309,10 +41309,10 @@
       <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="261" t="s">
+      <c r="M2" s="238" t="s">
         <v>1939</v>
       </c>
-      <c r="N2" s="261" t="s">
+      <c r="N2" s="238" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -42893,11 +42893,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -42920,22 +42920,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="251" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="254"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="255"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -43817,7 +43817,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="249" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -43861,7 +43861,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="251"/>
+      <c r="B25" s="253"/>
       <c r="C25" s="58" t="s">
         <v>1256</v>
       </c>
@@ -43901,7 +43901,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="252"/>
+      <c r="B26" s="254"/>
       <c r="C26" s="22" t="s">
         <v>1259</v>
       </c>
@@ -43941,7 +43941,7 @@
       <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="252"/>
+      <c r="B27" s="254"/>
       <c r="C27" s="22" t="s">
         <v>1262</v>
       </c>
@@ -43981,7 +43981,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="251"/>
+      <c r="B28" s="253"/>
       <c r="C28" s="58" t="s">
         <v>1265</v>
       </c>
@@ -44021,7 +44021,7 @@
       <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="252"/>
+      <c r="B29" s="254"/>
       <c r="C29" s="22" t="s">
         <v>1268</v>
       </c>
@@ -44145,7 +44145,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="249" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -44185,7 +44185,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="252"/>
+      <c r="B33" s="254"/>
       <c r="C33" s="4" t="s">
         <v>1276</v>
       </c>
@@ -44223,7 +44223,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="252"/>
+      <c r="B34" s="254"/>
       <c r="C34" s="4" t="s">
         <v>1279</v>
       </c>
@@ -44261,7 +44261,7 @@
       <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="252"/>
+      <c r="B35" s="254"/>
       <c r="C35" s="4" t="s">
         <v>1282</v>
       </c>
@@ -44549,7 +44549,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="249" t="s">
+      <c r="B42" s="250" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -44585,7 +44585,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="251"/>
+      <c r="B43" s="253"/>
       <c r="C43" s="4" t="s">
         <v>1294</v>
       </c>
@@ -44619,7 +44619,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="251"/>
+      <c r="B44" s="253"/>
       <c r="C44" s="50" t="s">
         <v>1297</v>
       </c>
@@ -44773,7 +44773,7 @@
       <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="250" t="s">
+      <c r="B48" s="252" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -44811,7 +44811,7 @@
       <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="250"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="4" t="s">
         <v>1313</v>
       </c>
@@ -44891,12 +44891,14 @@
       <c r="E51" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="G51" s="38"/>
+      <c r="G51" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="H51" s="35"/>
       <c r="J51" s="4"/>
       <c r="K51" s="38"/>
       <c r="M51" s="4" t="s">
-        <v>1992</v>
+        <v>1586</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>1998</v>
@@ -44918,12 +44920,14 @@
       <c r="E52" s="4" t="s">
         <v>1979</v>
       </c>
-      <c r="G52" s="38"/>
+      <c r="G52" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="H52" s="35"/>
       <c r="J52" s="4"/>
       <c r="K52" s="38"/>
       <c r="M52" s="4" t="s">
-        <v>1992</v>
+        <v>1586</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>1998</v>
@@ -45611,7 +45615,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -45634,22 +45638,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="255" t="s">
         <v>1866</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -46009,18 +46013,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="256"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="257"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -46717,6 +46721,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -46923,32 +46953,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -46959,6 +46963,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46977,23 +46998,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\Prioritization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{675D60DB-BEF1-47CC-91B2-7A972888A906}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FED4436-EAD3-4D37-B1D6-3B020A3B4579}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -6704,9 +6704,6 @@
     <t>De-scoped from Kernel. Part of Partner Management</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Internal API by IDA to validate Partner ID/API key and retrieve policy</t>
   </si>
   <si>
@@ -6932,6 +6929,9 @@
   </si>
   <si>
     <t>Development In-Progress</t>
+  </si>
+  <si>
+    <t>Development completed</t>
   </si>
 </sst>
 </file>
@@ -8114,9 +8114,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8140,6 +8137,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8209,25 +8228,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15920,7 +15920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16295,18 +16295,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>1331</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -16756,7 +16756,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="242" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16788,7 +16788,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="236"/>
+      <c r="B18" s="243"/>
       <c r="C18" s="4" t="s">
         <v>1350</v>
       </c>
@@ -17128,19 +17128,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>1355</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="234"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="241"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="142" t="s">
@@ -22482,18 +22482,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>1720</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -22531,7 +22531,7 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="250" t="s">
+      <c r="B3" s="257" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22557,7 +22557,7 @@
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="251"/>
+      <c r="B4" s="258"/>
       <c r="C4" s="4" t="s">
         <v>1724</v>
       </c>
@@ -22579,7 +22579,7 @@
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="257" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -22605,7 +22605,7 @@
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="252"/>
+      <c r="B6" s="259"/>
       <c r="C6" s="19" t="s">
         <v>1729</v>
       </c>
@@ -22629,7 +22629,7 @@
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="252"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="19" t="s">
         <v>1732</v>
       </c>
@@ -22651,7 +22651,7 @@
       <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="252"/>
+      <c r="B8" s="259"/>
       <c r="C8" s="19" t="s">
         <v>1734</v>
       </c>
@@ -22673,7 +22673,7 @@
       <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="252"/>
+      <c r="B9" s="259"/>
       <c r="C9" s="19" t="s">
         <v>1736</v>
       </c>
@@ -22695,7 +22695,7 @@
       <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="252"/>
+      <c r="B10" s="259"/>
       <c r="C10" s="19" t="s">
         <v>1738</v>
       </c>
@@ -22717,7 +22717,7 @@
       <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="252"/>
+      <c r="B11" s="259"/>
       <c r="C11" s="19" t="s">
         <v>1740</v>
       </c>
@@ -22739,7 +22739,7 @@
       <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="252"/>
+      <c r="B12" s="259"/>
       <c r="C12" s="19" t="s">
         <v>1742</v>
       </c>
@@ -22761,7 +22761,7 @@
       <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="252"/>
+      <c r="B13" s="259"/>
       <c r="C13" s="19" t="s">
         <v>1744</v>
       </c>
@@ -22783,7 +22783,7 @@
       <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="252"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="19" t="s">
         <v>1746</v>
       </c>
@@ -22807,7 +22807,7 @@
       <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="252"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="19" t="s">
         <v>1749</v>
       </c>
@@ -22831,7 +22831,7 @@
       <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="251"/>
+      <c r="B16" s="258"/>
       <c r="C16" s="19" t="s">
         <v>1751</v>
       </c>
@@ -22953,7 +22953,7 @@
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="250" t="s">
+      <c r="B21" s="257" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -22977,7 +22977,7 @@
       <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="252"/>
+      <c r="B22" s="259"/>
       <c r="C22" s="4" t="s">
         <v>1759</v>
       </c>
@@ -22999,7 +22999,7 @@
       <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="252"/>
+      <c r="B23" s="259"/>
       <c r="C23" s="4" t="s">
         <v>1761</v>
       </c>
@@ -23021,7 +23021,7 @@
       <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="252"/>
+      <c r="B24" s="259"/>
       <c r="C24" s="4" t="s">
         <v>1763</v>
       </c>
@@ -23043,7 +23043,7 @@
       <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="252"/>
+      <c r="B25" s="259"/>
       <c r="C25" s="4" t="s">
         <v>1765</v>
       </c>
@@ -23065,7 +23065,7 @@
       <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="251"/>
+      <c r="B26" s="258"/>
       <c r="C26" s="4" t="s">
         <v>1767</v>
       </c>
@@ -23087,7 +23087,7 @@
       <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="250" t="s">
+      <c r="B27" s="257" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -23111,7 +23111,7 @@
       <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="251"/>
+      <c r="B28" s="258"/>
       <c r="C28" s="4" t="s">
         <v>1771</v>
       </c>
@@ -23133,7 +23133,7 @@
       <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="250" t="s">
+      <c r="B29" s="257" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -23157,7 +23157,7 @@
       <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="251"/>
+      <c r="B30" s="258"/>
       <c r="C30" s="4" t="s">
         <v>1775</v>
       </c>
@@ -23179,7 +23179,7 @@
       <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="250" t="s">
+      <c r="B31" s="257" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -23203,7 +23203,7 @@
       <c r="A32" s="38">
         <v>30</v>
       </c>
-      <c r="B32" s="252"/>
+      <c r="B32" s="259"/>
       <c r="C32" s="4" t="s">
         <v>1779</v>
       </c>
@@ -23225,7 +23225,7 @@
       <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="252"/>
+      <c r="B33" s="259"/>
       <c r="C33" s="4" t="s">
         <v>1781</v>
       </c>
@@ -23247,7 +23247,7 @@
       <c r="A34" s="38">
         <v>32</v>
       </c>
-      <c r="B34" s="252"/>
+      <c r="B34" s="259"/>
       <c r="C34" s="4" t="s">
         <v>1783</v>
       </c>
@@ -23269,7 +23269,7 @@
       <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="251"/>
+      <c r="B35" s="258"/>
       <c r="C35" s="4" t="s">
         <v>1785</v>
       </c>
@@ -23291,7 +23291,7 @@
       <c r="A36" s="38">
         <v>34</v>
       </c>
-      <c r="B36" s="250" t="s">
+      <c r="B36" s="257" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -23315,7 +23315,7 @@
       <c r="A37" s="38">
         <v>35</v>
       </c>
-      <c r="B37" s="252"/>
+      <c r="B37" s="259"/>
       <c r="C37" s="4" t="s">
         <v>1789</v>
       </c>
@@ -23337,7 +23337,7 @@
       <c r="A38" s="38">
         <v>36</v>
       </c>
-      <c r="B38" s="252"/>
+      <c r="B38" s="259"/>
       <c r="C38" s="4" t="s">
         <v>1791</v>
       </c>
@@ -23359,7 +23359,7 @@
       <c r="A39" s="38">
         <v>37</v>
       </c>
-      <c r="B39" s="251"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="4" t="s">
         <v>1793</v>
       </c>
@@ -23381,7 +23381,7 @@
       <c r="A40" s="38">
         <v>38</v>
       </c>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="257" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -23405,7 +23405,7 @@
       <c r="A41" s="38">
         <v>39</v>
       </c>
-      <c r="B41" s="251"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="4" t="s">
         <v>1797</v>
       </c>
@@ -23451,7 +23451,7 @@
       <c r="A43" s="38">
         <v>41</v>
       </c>
-      <c r="B43" s="250" t="s">
+      <c r="B43" s="257" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -23475,7 +23475,7 @@
       <c r="A44" s="38">
         <v>42</v>
       </c>
-      <c r="B44" s="252"/>
+      <c r="B44" s="259"/>
       <c r="C44" s="4" t="s">
         <v>1802</v>
       </c>
@@ -23497,7 +23497,7 @@
       <c r="A45" s="38">
         <v>43</v>
       </c>
-      <c r="B45" s="252"/>
+      <c r="B45" s="259"/>
       <c r="C45" s="4" t="s">
         <v>1804</v>
       </c>
@@ -23519,7 +23519,7 @@
       <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="B46" s="252"/>
+      <c r="B46" s="259"/>
       <c r="C46" s="4" t="s">
         <v>1806</v>
       </c>
@@ -23543,7 +23543,7 @@
       <c r="A47" s="38">
         <v>45</v>
       </c>
-      <c r="B47" s="252"/>
+      <c r="B47" s="259"/>
       <c r="C47" s="4" t="s">
         <v>1809</v>
       </c>
@@ -23565,7 +23565,7 @@
       <c r="A48" s="38">
         <v>46</v>
       </c>
-      <c r="B48" s="252"/>
+      <c r="B48" s="259"/>
       <c r="C48" s="4" t="s">
         <v>1811</v>
       </c>
@@ -23587,7 +23587,7 @@
       <c r="A49" s="38">
         <v>47</v>
       </c>
-      <c r="B49" s="252"/>
+      <c r="B49" s="259"/>
       <c r="C49" s="4" t="s">
         <v>1813</v>
       </c>
@@ -23609,7 +23609,7 @@
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="252"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="4" t="s">
         <v>1815</v>
       </c>
@@ -23633,7 +23633,7 @@
       <c r="A51" s="38">
         <v>49</v>
       </c>
-      <c r="B51" s="252"/>
+      <c r="B51" s="259"/>
       <c r="C51" s="4" t="s">
         <v>1817</v>
       </c>
@@ -23655,7 +23655,7 @@
       <c r="A52" s="38">
         <v>50</v>
       </c>
-      <c r="B52" s="252"/>
+      <c r="B52" s="259"/>
       <c r="C52" s="4" t="s">
         <v>1819</v>
       </c>
@@ -23677,7 +23677,7 @@
       <c r="A53" s="38">
         <v>51</v>
       </c>
-      <c r="B53" s="252"/>
+      <c r="B53" s="259"/>
       <c r="C53" s="4" t="s">
         <v>1821</v>
       </c>
@@ -23699,7 +23699,7 @@
       <c r="A54" s="38">
         <v>52</v>
       </c>
-      <c r="B54" s="251"/>
+      <c r="B54" s="258"/>
       <c r="C54" s="4" t="s">
         <v>1823</v>
       </c>
@@ -23732,16 +23732,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23782,26 +23782,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="234"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="241"/>
     </row>
     <row r="3" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -25986,7 +25986,7 @@
       <c r="C68" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="230" t="s">
+      <c r="D68" s="237" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="116"/>
@@ -26020,7 +26020,7 @@
       <c r="C69" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="230"/>
+      <c r="D69" s="237"/>
       <c r="E69" s="116"/>
       <c r="F69" s="46" t="s">
         <v>225</v>
@@ -35785,12 +35785,12 @@
       <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="238" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="234"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="241"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -37331,7 +37331,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -37358,18 +37358,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -37613,7 +37613,7 @@
         <v>1938</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
@@ -37890,7 +37890,7 @@
       <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="242" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -37923,7 +37923,7 @@
       <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="236"/>
+      <c r="B18" s="243"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -37954,7 +37954,7 @@
       <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="235" t="s">
+      <c r="B19" s="242" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -37987,7 +37987,7 @@
       <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="236"/>
+      <c r="B20" s="243"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38118,10 +38118,10 @@
         <v>1870</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>1938</v>
+        <v>1194</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>1988</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
@@ -38144,24 +38144,24 @@
       <c r="G24" s="40" t="s">
         <v>1967</v>
       </c>
-      <c r="H24" s="222"/>
+      <c r="H24" s="221"/>
       <c r="I24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>22</v>
       </c>
-      <c r="B25" s="221" t="s">
+      <c r="B25" s="229" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>2008</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D25" s="38" t="s">
+      <c r="E25" s="4" t="s">
         <v>2009</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>2010</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="38" t="s">
@@ -38324,18 +38324,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="234"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="241"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -38385,7 +38385,7 @@
       <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="222" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -38394,7 +38394,7 @@
       <c r="D3" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="227" t="s">
+      <c r="E3" s="226" t="s">
         <v>157</v>
       </c>
       <c r="F3" s="38" t="s">
@@ -38417,7 +38417,7 @@
         <v>1870</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1940</v>
+        <v>2032</v>
       </c>
       <c r="N3" s="38" t="s">
         <v>1954</v>
@@ -38427,7 +38427,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="245" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -38436,7 +38436,7 @@
       <c r="D4" s="38" t="s">
         <v>971</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="226" t="s">
         <v>972</v>
       </c>
       <c r="F4" s="38" t="s">
@@ -38461,14 +38461,14 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="239"/>
+      <c r="B5" s="246"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>975</v>
       </c>
-      <c r="E5" s="227" t="s">
+      <c r="E5" s="226" t="s">
         <v>976</v>
       </c>
       <c r="F5" s="38" t="s">
@@ -38493,7 +38493,7 @@
       <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="226" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -38502,7 +38502,7 @@
       <c r="D6" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="227" t="s">
+      <c r="E6" s="226" t="s">
         <v>163</v>
       </c>
       <c r="F6" s="38" t="s">
@@ -38535,7 +38535,7 @@
       <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="226" t="s">
         <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -38544,7 +38544,7 @@
       <c r="D7" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="227" t="s">
+      <c r="E7" s="226" t="s">
         <v>979</v>
       </c>
       <c r="F7" s="38" t="s">
@@ -38577,7 +38577,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="245" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -38586,7 +38586,7 @@
       <c r="D8" s="38" t="s">
         <v>981</v>
       </c>
-      <c r="E8" s="227" t="s">
+      <c r="E8" s="226" t="s">
         <v>982</v>
       </c>
       <c r="F8" s="38" t="s">
@@ -38613,14 +38613,14 @@
       <c r="A9" s="35">
         <v>11</v>
       </c>
-      <c r="B9" s="239"/>
+      <c r="B9" s="246"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>985</v>
       </c>
-      <c r="E9" s="227" t="s">
+      <c r="E9" s="226" t="s">
         <v>986</v>
       </c>
       <c r="F9" s="38" t="s">
@@ -38647,7 +38647,7 @@
       <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="222" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -38656,7 +38656,7 @@
       <c r="D10" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E10" s="227" t="s">
+      <c r="E10" s="226" t="s">
         <v>175</v>
       </c>
       <c r="F10" s="38" t="s">
@@ -38681,7 +38681,7 @@
       <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="226" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -38690,7 +38690,7 @@
       <c r="D11" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="227" t="s">
+      <c r="E11" s="226" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="38" t="s">
@@ -38715,7 +38715,7 @@
       <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="226" t="s">
         <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -38724,7 +38724,7 @@
       <c r="D12" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="227" t="s">
+      <c r="E12" s="226" t="s">
         <v>991</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -38751,7 +38751,7 @@
       <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="226" t="s">
         <v>993</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -38760,7 +38760,7 @@
       <c r="D13" s="38" t="s">
         <v>995</v>
       </c>
-      <c r="E13" s="227" t="s">
+      <c r="E13" s="226" t="s">
         <v>996</v>
       </c>
       <c r="F13" s="38" t="s">
@@ -38787,7 +38787,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="238" t="s">
+      <c r="B14" s="245" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -38796,7 +38796,7 @@
       <c r="D14" s="38" t="s">
         <v>998</v>
       </c>
-      <c r="E14" s="227" t="s">
+      <c r="E14" s="226" t="s">
         <v>999</v>
       </c>
       <c r="F14" s="38" t="s">
@@ -38823,14 +38823,14 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="239"/>
+      <c r="B15" s="246"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>1001</v>
       </c>
-      <c r="E15" s="227" t="s">
+      <c r="E15" s="226" t="s">
         <v>1002</v>
       </c>
       <c r="F15" s="38" t="s">
@@ -38857,7 +38857,7 @@
       <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="227" t="s">
+      <c r="B16" s="226" t="s">
         <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -38866,7 +38866,7 @@
       <c r="D16" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="227" t="s">
+      <c r="E16" s="226" t="s">
         <v>187</v>
       </c>
       <c r="F16" s="38" t="s">
@@ -38899,7 +38899,7 @@
       <c r="A17" s="35">
         <v>15</v>
       </c>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="226" t="s">
         <v>189</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -38908,7 +38908,7 @@
       <c r="D17" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="227" t="s">
+      <c r="E17" s="226" t="s">
         <v>191</v>
       </c>
       <c r="F17" s="38" t="s">
@@ -38941,7 +38941,7 @@
       <c r="A18" s="35">
         <v>16</v>
       </c>
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="226" t="s">
         <v>1910</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -38950,7 +38950,7 @@
       <c r="D18" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="227" t="s">
+      <c r="E18" s="226" t="s">
         <v>195</v>
       </c>
       <c r="F18" s="38" t="s">
@@ -38976,14 +38976,14 @@
       </c>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>17</v>
       </c>
-      <c r="B19" s="227" t="s">
+      <c r="B19" s="226" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -38992,7 +38992,7 @@
       <c r="D19" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="227" t="s">
+      <c r="E19" s="226" t="s">
         <v>199</v>
       </c>
       <c r="F19" s="38" t="s">
@@ -39023,7 +39023,7 @@
       <c r="A20" s="35">
         <v>18</v>
       </c>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="226" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -39032,7 +39032,7 @@
       <c r="D20" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="227" t="s">
+      <c r="E20" s="226" t="s">
         <v>202</v>
       </c>
       <c r="F20" s="38" t="s">
@@ -39063,7 +39063,7 @@
       <c r="A21" s="35">
         <v>19</v>
       </c>
-      <c r="B21" s="227" t="s">
+      <c r="B21" s="226" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -39072,7 +39072,7 @@
       <c r="D21" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="227" t="s">
+      <c r="E21" s="226" t="s">
         <v>205</v>
       </c>
       <c r="F21" s="38" t="s">
@@ -39103,7 +39103,7 @@
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="238" t="s">
+      <c r="B22" s="245" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39112,7 +39112,7 @@
       <c r="D22" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="E22" s="227" t="s">
+      <c r="E22" s="226" t="s">
         <v>1012</v>
       </c>
       <c r="F22" s="38" t="s">
@@ -39143,14 +39143,14 @@
       <c r="A23" s="35">
         <v>21</v>
       </c>
-      <c r="B23" s="241"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>1014</v>
       </c>
-      <c r="E23" s="227" t="s">
+      <c r="E23" s="226" t="s">
         <v>1015</v>
       </c>
       <c r="F23" s="38" t="s">
@@ -39180,14 +39180,14 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="239"/>
+      <c r="B24" s="246"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="E24" s="227" t="s">
+      <c r="E24" s="226" t="s">
         <v>1018</v>
       </c>
       <c r="F24" s="38" t="s">
@@ -39218,7 +39218,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="227" t="s">
+      <c r="B25" s="226" t="s">
         <v>209</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -39227,7 +39227,7 @@
       <c r="D25" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="227" t="s">
+      <c r="E25" s="226" t="s">
         <v>211</v>
       </c>
       <c r="F25" s="38" t="s">
@@ -39258,7 +39258,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="226" t="s">
         <v>212</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -39267,7 +39267,7 @@
       <c r="D26" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="227" t="s">
+      <c r="E26" s="226" t="s">
         <v>214</v>
       </c>
       <c r="F26" s="38" t="s">
@@ -39326,7 +39326,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="223" t="s">
+      <c r="B28" s="222" t="s">
         <v>215</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -39335,7 +39335,7 @@
       <c r="D28" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="227" t="s">
+      <c r="E28" s="226" t="s">
         <v>217</v>
       </c>
       <c r="F28" s="38" t="s">
@@ -39366,7 +39366,7 @@
       <c r="A29" s="35">
         <v>27</v>
       </c>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="222" t="s">
         <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -39375,7 +39375,7 @@
       <c r="D29" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="227" t="s">
+      <c r="E29" s="226" t="s">
         <v>220</v>
       </c>
       <c r="F29" s="38" t="s">
@@ -39402,7 +39402,7 @@
       <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="238" t="s">
+      <c r="B30" s="245" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -39411,7 +39411,7 @@
       <c r="D30" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="227" t="s">
+      <c r="E30" s="226" t="s">
         <v>224</v>
       </c>
       <c r="F30" s="38" t="s">
@@ -39438,14 +39438,14 @@
       <c r="A31" s="35">
         <v>29</v>
       </c>
-      <c r="B31" s="239"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="227" t="s">
+      <c r="E31" s="226" t="s">
         <v>224</v>
       </c>
       <c r="F31" s="38" t="s">
@@ -39472,7 +39472,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="238" t="s">
+      <c r="B32" s="245" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -39481,7 +39481,7 @@
       <c r="D32" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="E32" s="227" t="s">
+      <c r="E32" s="226" t="s">
         <v>1032</v>
       </c>
       <c r="F32" s="38" t="s">
@@ -39508,14 +39508,14 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="239"/>
+      <c r="B33" s="246"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>1034</v>
       </c>
-      <c r="E33" s="227" t="s">
+      <c r="E33" s="226" t="s">
         <v>228</v>
       </c>
       <c r="F33" s="38" t="s">
@@ -39542,7 +39542,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="227" t="s">
+      <c r="B34" s="226" t="s">
         <v>230</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -39551,7 +39551,7 @@
       <c r="D34" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="227" t="s">
+      <c r="E34" s="226" t="s">
         <v>232</v>
       </c>
       <c r="F34" s="38" t="s">
@@ -39564,7 +39564,7 @@
       <c r="I34" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J34" s="228" t="s">
+      <c r="J34" s="227" t="s">
         <v>71</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -39578,7 +39578,7 @@
       <c r="A35" s="35">
         <v>33</v>
       </c>
-      <c r="B35" s="227" t="s">
+      <c r="B35" s="226" t="s">
         <v>233</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -39587,7 +39587,7 @@
       <c r="D35" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="227" t="s">
+      <c r="E35" s="226" t="s">
         <v>235</v>
       </c>
       <c r="F35" s="38" t="s">
@@ -39605,7 +39605,7 @@
       <c r="J35" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K35" s="255" t="s">
+      <c r="K35" s="232" t="s">
         <v>236</v>
       </c>
       <c r="L35" s="38" t="s">
@@ -39613,14 +39613,14 @@
       </c>
       <c r="M35" s="38"/>
       <c r="N35" s="38" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <v>34</v>
       </c>
-      <c r="B36" s="227" t="s">
+      <c r="B36" s="226" t="s">
         <v>237</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -39629,7 +39629,7 @@
       <c r="D36" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E36" s="227" t="s">
+      <c r="E36" s="226" t="s">
         <v>239</v>
       </c>
       <c r="F36" s="38" t="s">
@@ -39638,11 +39638,11 @@
       <c r="G36" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="229"/>
+      <c r="H36" s="228"/>
       <c r="I36" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J36" s="229" t="s">
+      <c r="J36" s="228" t="s">
         <v>71</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -39656,7 +39656,7 @@
       <c r="A37" s="35">
         <v>35</v>
       </c>
-      <c r="B37" s="227" t="s">
+      <c r="B37" s="226" t="s">
         <v>240</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -39665,7 +39665,7 @@
       <c r="D37" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="227" t="s">
+      <c r="E37" s="226" t="s">
         <v>242</v>
       </c>
       <c r="F37" s="38" t="s">
@@ -39690,7 +39690,7 @@
       <c r="A38" s="35">
         <v>36</v>
       </c>
-      <c r="B38" s="227" t="s">
+      <c r="B38" s="226" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -39699,7 +39699,7 @@
       <c r="D38" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E38" s="227" t="s">
+      <c r="E38" s="226" t="s">
         <v>245</v>
       </c>
       <c r="F38" s="38" t="s">
@@ -39726,7 +39726,7 @@
       <c r="A39" s="35">
         <v>37</v>
       </c>
-      <c r="B39" s="223" t="s">
+      <c r="B39" s="222" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -39735,7 +39735,7 @@
       <c r="D39" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E39" s="227" t="s">
+      <c r="E39" s="226" t="s">
         <v>1911</v>
       </c>
       <c r="F39" s="38" t="s">
@@ -39751,14 +39751,14 @@
         <v>969</v>
       </c>
       <c r="J39" s="38"/>
-      <c r="K39" s="256" t="s">
+      <c r="K39" s="233" t="s">
         <v>349</v>
       </c>
       <c r="L39" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M39" s="38" t="s">
-        <v>1940</v>
+      <c r="M39" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="N39" s="38" t="s">
         <v>1954</v>
@@ -39768,7 +39768,7 @@
       <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="B40" s="227" t="s">
+      <c r="B40" s="226" t="s">
         <v>250</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -39777,7 +39777,7 @@
       <c r="D40" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="E40" s="227" t="s">
+      <c r="E40" s="226" t="s">
         <v>252</v>
       </c>
       <c r="F40" s="38" t="s">
@@ -39790,7 +39790,7 @@
       <c r="I40" s="38" t="s">
         <v>918</v>
       </c>
-      <c r="J40" s="229" t="s">
+      <c r="J40" s="228" t="s">
         <v>253</v>
       </c>
       <c r="K40" s="28" t="s">
@@ -39804,7 +39804,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="238" t="s">
+      <c r="B41" s="245" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -39813,7 +39813,7 @@
       <c r="D41" s="38" t="s">
         <v>1044</v>
       </c>
-      <c r="E41" s="227" t="s">
+      <c r="E41" s="226" t="s">
         <v>256</v>
       </c>
       <c r="F41" s="38" t="s">
@@ -39840,14 +39840,14 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="239"/>
+      <c r="B42" s="246"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>1046</v>
       </c>
-      <c r="E42" s="227" t="s">
+      <c r="E42" s="226" t="s">
         <v>256</v>
       </c>
       <c r="F42" s="38" t="s">
@@ -39874,7 +39874,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -39883,7 +39883,7 @@
       <c r="D43" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="227" t="s">
+      <c r="E43" s="226" t="s">
         <v>259</v>
       </c>
       <c r="F43" s="38" t="s">
@@ -39910,7 +39910,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="238" t="s">
+      <c r="B44" s="245" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -39919,7 +39919,7 @@
       <c r="D44" s="38" t="s">
         <v>1050</v>
       </c>
-      <c r="E44" s="227" t="s">
+      <c r="E44" s="226" t="s">
         <v>1051</v>
       </c>
       <c r="F44" s="38" t="s">
@@ -39946,14 +39946,14 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="239"/>
+      <c r="B45" s="246"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>1053</v>
       </c>
-      <c r="E45" s="227" t="s">
+      <c r="E45" s="226" t="s">
         <v>262</v>
       </c>
       <c r="F45" s="38" t="s">
@@ -39980,7 +39980,7 @@
       <c r="A46" s="35">
         <v>44</v>
       </c>
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="226" t="s">
         <v>264</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -39989,7 +39989,7 @@
       <c r="D46" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="227" t="s">
+      <c r="E46" s="226" t="s">
         <v>266</v>
       </c>
       <c r="F46" s="38" t="s">
@@ -40016,7 +40016,7 @@
       <c r="A47" s="35">
         <v>45</v>
       </c>
-      <c r="B47" s="227" t="s">
+      <c r="B47" s="226" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -40025,7 +40025,7 @@
       <c r="D47" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E47" s="227" t="s">
+      <c r="E47" s="226" t="s">
         <v>270</v>
       </c>
       <c r="F47" s="38" t="s">
@@ -40038,7 +40038,7 @@
       <c r="I47" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="J47" s="228"/>
+      <c r="J47" s="227"/>
       <c r="K47" s="5" t="s">
         <v>349</v>
       </c>
@@ -40059,7 +40059,7 @@
       <c r="D48" s="38" t="s">
         <v>1057</v>
       </c>
-      <c r="E48" s="227" t="s">
+      <c r="E48" s="226" t="s">
         <v>1058</v>
       </c>
       <c r="F48" s="38" t="s">
@@ -40074,10 +40074,10 @@
       <c r="I48" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="240" t="s">
+      <c r="J48" s="247" t="s">
         <v>274</v>
       </c>
-      <c r="K48" s="255" t="s">
+      <c r="K48" s="232" t="s">
         <v>1059</v>
       </c>
       <c r="L48" s="38"/>
@@ -40097,7 +40097,7 @@
       <c r="D49" s="38" t="s">
         <v>1061</v>
       </c>
-      <c r="E49" s="227" t="s">
+      <c r="E49" s="226" t="s">
         <v>1062</v>
       </c>
       <c r="F49" s="38" t="s">
@@ -40112,7 +40112,7 @@
       <c r="I49" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="240"/>
+      <c r="J49" s="247"/>
       <c r="K49" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40133,7 +40133,7 @@
       <c r="D50" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="E50" s="227" t="s">
+      <c r="E50" s="226" t="s">
         <v>1066</v>
       </c>
       <c r="F50" s="38" t="s">
@@ -40148,7 +40148,7 @@
       <c r="I50" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="240"/>
+      <c r="J50" s="247"/>
       <c r="K50" s="203" t="s">
         <v>349</v>
       </c>
@@ -40169,7 +40169,7 @@
       <c r="D51" s="38" t="s">
         <v>1068</v>
       </c>
-      <c r="E51" s="227" t="s">
+      <c r="E51" s="226" t="s">
         <v>1069</v>
       </c>
       <c r="F51" s="38" t="s">
@@ -40184,7 +40184,7 @@
       <c r="I51" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="240"/>
+      <c r="J51" s="247"/>
       <c r="K51" s="203" t="s">
         <v>1070</v>
       </c>
@@ -40205,7 +40205,7 @@
       <c r="D52" s="38" t="s">
         <v>1072</v>
       </c>
-      <c r="E52" s="227" t="s">
+      <c r="E52" s="226" t="s">
         <v>1073</v>
       </c>
       <c r="F52" s="38" t="s">
@@ -40220,7 +40220,7 @@
       <c r="I52" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="240"/>
+      <c r="J52" s="247"/>
       <c r="K52" s="203" t="s">
         <v>1074</v>
       </c>
@@ -40241,7 +40241,7 @@
       <c r="D53" s="38" t="s">
         <v>1076</v>
       </c>
-      <c r="E53" s="227" t="s">
+      <c r="E53" s="226" t="s">
         <v>1077</v>
       </c>
       <c r="F53" s="38" t="s">
@@ -40256,7 +40256,7 @@
       <c r="I53" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="240"/>
+      <c r="J53" s="247"/>
       <c r="K53" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40277,7 +40277,7 @@
       <c r="D54" s="38" t="s">
         <v>1079</v>
       </c>
-      <c r="E54" s="227" t="s">
+      <c r="E54" s="226" t="s">
         <v>1080</v>
       </c>
       <c r="F54" s="38" t="s">
@@ -40292,7 +40292,7 @@
       <c r="I54" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="240"/>
+      <c r="J54" s="247"/>
       <c r="K54" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40313,7 +40313,7 @@
       <c r="D55" s="38" t="s">
         <v>1082</v>
       </c>
-      <c r="E55" s="227" t="s">
+      <c r="E55" s="226" t="s">
         <v>1083</v>
       </c>
       <c r="F55" s="38" t="s">
@@ -40328,7 +40328,7 @@
       <c r="I55" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="240"/>
+      <c r="J55" s="247"/>
       <c r="K55" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40346,13 +40346,13 @@
       <c r="C56" s="50" t="s">
         <v>1084</v>
       </c>
-      <c r="D56" s="228" t="s">
+      <c r="D56" s="227" t="s">
         <v>1085</v>
       </c>
-      <c r="E56" s="225" t="s">
+      <c r="E56" s="224" t="s">
         <v>1086</v>
       </c>
-      <c r="F56" s="228"/>
+      <c r="F56" s="227"/>
       <c r="G56" s="128" t="s">
         <v>73</v>
       </c>
@@ -40360,7 +40360,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="82"/>
-      <c r="J56" s="240"/>
+      <c r="J56" s="247"/>
       <c r="K56" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40381,7 +40381,7 @@
       <c r="D57" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="E57" s="227" t="s">
+      <c r="E57" s="226" t="s">
         <v>1089</v>
       </c>
       <c r="F57" s="38" t="s">
@@ -40396,15 +40396,15 @@
       <c r="I57" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="240"/>
+      <c r="J57" s="247"/>
       <c r="K57" s="203" t="s">
         <v>1063</v>
       </c>
       <c r="L57" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M57" s="38" t="s">
-        <v>1940</v>
+      <c r="M57" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="N57" s="38" t="s">
         <v>1954</v>
@@ -40420,13 +40420,13 @@
       <c r="C58" s="49" t="s">
         <v>1090</v>
       </c>
-      <c r="D58" s="229" t="s">
+      <c r="D58" s="228" t="s">
         <v>1091</v>
       </c>
-      <c r="E58" s="226" t="s">
+      <c r="E58" s="225" t="s">
         <v>1092</v>
       </c>
-      <c r="F58" s="229" t="s">
+      <c r="F58" s="228" t="s">
         <v>917</v>
       </c>
       <c r="G58" s="207" t="s">
@@ -40438,7 +40438,7 @@
       <c r="I58" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="237" t="s">
+      <c r="J58" s="244" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="203" t="s">
@@ -40461,7 +40461,7 @@
       <c r="D59" s="38" t="s">
         <v>1094</v>
       </c>
-      <c r="E59" s="227" t="s">
+      <c r="E59" s="226" t="s">
         <v>1095</v>
       </c>
       <c r="F59" s="38" t="s">
@@ -40476,7 +40476,7 @@
       <c r="I59" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="237"/>
+      <c r="J59" s="244"/>
       <c r="K59" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40497,7 +40497,7 @@
       <c r="D60" s="38" t="s">
         <v>1097</v>
       </c>
-      <c r="E60" s="227" t="s">
+      <c r="E60" s="226" t="s">
         <v>1098</v>
       </c>
       <c r="F60" s="38" t="s">
@@ -40512,7 +40512,7 @@
       <c r="I60" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="237"/>
+      <c r="J60" s="244"/>
       <c r="K60" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40533,7 +40533,7 @@
       <c r="D61" s="38" t="s">
         <v>1100</v>
       </c>
-      <c r="E61" s="227" t="s">
+      <c r="E61" s="226" t="s">
         <v>1101</v>
       </c>
       <c r="F61" s="38" t="s">
@@ -40548,7 +40548,7 @@
       <c r="I61" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="237"/>
+      <c r="J61" s="244"/>
       <c r="K61" s="204" t="s">
         <v>66</v>
       </c>
@@ -40584,7 +40584,7 @@
       <c r="I62" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="237"/>
+      <c r="J62" s="244"/>
       <c r="K62" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40605,7 +40605,7 @@
       <c r="D63" s="38" t="s">
         <v>1105</v>
       </c>
-      <c r="E63" s="227" t="s">
+      <c r="E63" s="226" t="s">
         <v>1106</v>
       </c>
       <c r="F63" s="38" t="s">
@@ -40620,7 +40620,7 @@
       <c r="I63" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="237"/>
+      <c r="J63" s="244"/>
       <c r="K63" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40656,7 +40656,7 @@
       <c r="I64" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="237"/>
+      <c r="J64" s="244"/>
       <c r="K64" s="204" t="s">
         <v>1109</v>
       </c>
@@ -40677,7 +40677,7 @@
       <c r="D65" s="38" t="s">
         <v>1111</v>
       </c>
-      <c r="E65" s="227" t="s">
+      <c r="E65" s="226" t="s">
         <v>1112</v>
       </c>
       <c r="F65" s="38" t="s">
@@ -40692,7 +40692,7 @@
       <c r="I65" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="237"/>
+      <c r="J65" s="244"/>
       <c r="K65" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40708,13 +40708,13 @@
       <c r="C66" s="50" t="s">
         <v>1113</v>
       </c>
-      <c r="D66" s="228" t="s">
+      <c r="D66" s="227" t="s">
         <v>1114</v>
       </c>
-      <c r="E66" s="225" t="s">
+      <c r="E66" s="224" t="s">
         <v>1115</v>
       </c>
-      <c r="F66" s="228" t="s">
+      <c r="F66" s="227" t="s">
         <v>917</v>
       </c>
       <c r="G66" s="128" t="s">
@@ -40724,7 +40724,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="38"/>
-      <c r="J66" s="237"/>
+      <c r="J66" s="244"/>
       <c r="K66" s="203" t="s">
         <v>1063</v>
       </c>
@@ -40756,15 +40756,15 @@
         <v>30</v>
       </c>
       <c r="I67" s="38"/>
-      <c r="J67" s="237"/>
+      <c r="J67" s="244"/>
       <c r="K67" s="204" t="s">
         <v>1119</v>
       </c>
       <c r="L67" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M67" s="38" t="s">
-        <v>1940</v>
+      <c r="M67" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="N67" s="38" t="s">
         <v>1954</v>
@@ -40777,16 +40777,16 @@
       <c r="B68" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="226" t="s">
+      <c r="C68" s="225" t="s">
         <v>1120</v>
       </c>
-      <c r="D68" s="229" t="s">
+      <c r="D68" s="228" t="s">
         <v>1121</v>
       </c>
-      <c r="E68" s="226" t="s">
+      <c r="E68" s="225" t="s">
         <v>1122</v>
       </c>
-      <c r="F68" s="229" t="s">
+      <c r="F68" s="228" t="s">
         <v>917</v>
       </c>
       <c r="G68" s="209" t="s">
@@ -40798,7 +40798,7 @@
       <c r="I68" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="237"/>
+      <c r="J68" s="244"/>
       <c r="K68" s="204" t="s">
         <v>1123</v>
       </c>
@@ -40823,7 +40823,7 @@
       <c r="D69" s="38" t="s">
         <v>1125</v>
       </c>
-      <c r="E69" s="227" t="s">
+      <c r="E69" s="226" t="s">
         <v>1126</v>
       </c>
       <c r="F69" s="38" t="s">
@@ -40838,7 +40838,7 @@
       <c r="I69" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="237"/>
+      <c r="J69" s="244"/>
       <c r="K69" s="204" t="s">
         <v>1063</v>
       </c>
@@ -40859,7 +40859,7 @@
       <c r="D70" s="38" t="s">
         <v>1128</v>
       </c>
-      <c r="E70" s="227" t="s">
+      <c r="E70" s="226" t="s">
         <v>1129</v>
       </c>
       <c r="F70" s="38" t="s">
@@ -40874,7 +40874,7 @@
       <c r="I70" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="237"/>
+      <c r="J70" s="244"/>
       <c r="K70" s="204" t="s">
         <v>1063</v>
       </c>
@@ -40895,7 +40895,7 @@
       <c r="D71" s="38" t="s">
         <v>1131</v>
       </c>
-      <c r="E71" s="227" t="s">
+      <c r="E71" s="226" t="s">
         <v>1132</v>
       </c>
       <c r="F71" s="38" t="s">
@@ -40910,7 +40910,7 @@
       <c r="I71" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="237"/>
+      <c r="J71" s="244"/>
       <c r="K71" s="204" t="s">
         <v>1063</v>
       </c>
@@ -40931,7 +40931,7 @@
       <c r="D72" s="38" t="s">
         <v>1134</v>
       </c>
-      <c r="E72" s="227" t="s">
+      <c r="E72" s="226" t="s">
         <v>1133</v>
       </c>
       <c r="F72" s="38" t="s">
@@ -40946,7 +40946,7 @@
       <c r="I72" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="237"/>
+      <c r="J72" s="244"/>
       <c r="K72" s="204" t="s">
         <v>1063</v>
       </c>
@@ -40967,7 +40967,7 @@
       <c r="D73" s="38" t="s">
         <v>1136</v>
       </c>
-      <c r="E73" s="227" t="s">
+      <c r="E73" s="226" t="s">
         <v>1137</v>
       </c>
       <c r="F73" s="38" t="s">
@@ -40982,7 +40982,7 @@
       <c r="I73" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="237"/>
+      <c r="J73" s="244"/>
       <c r="K73" s="204" t="s">
         <v>1063</v>
       </c>
@@ -40997,13 +40997,13 @@
       <c r="B74" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="227" t="s">
+      <c r="C74" s="226" t="s">
         <v>1138</v>
       </c>
       <c r="D74" s="38" t="s">
         <v>1139</v>
       </c>
-      <c r="E74" s="227" t="s">
+      <c r="E74" s="226" t="s">
         <v>1140</v>
       </c>
       <c r="F74" s="38" t="s">
@@ -41016,7 +41016,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="43"/>
-      <c r="J74" s="237"/>
+      <c r="J74" s="244"/>
       <c r="K74" s="204" t="s">
         <v>1063</v>
       </c>
@@ -41029,15 +41029,15 @@
         <v>70</v>
       </c>
       <c r="B75" s="196"/>
-      <c r="C75" s="227"/>
+      <c r="C75" s="226"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="227"/>
+      <c r="E75" s="226"/>
       <c r="F75" s="38"/>
       <c r="G75" s="81"/>
       <c r="H75" s="35"/>
       <c r="I75" s="43"/>
-      <c r="J75" s="237"/>
-      <c r="K75" s="257"/>
+      <c r="J75" s="244"/>
+      <c r="K75" s="234"/>
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
       <c r="N75" s="38"/>
@@ -41046,7 +41046,7 @@
       <c r="A76" s="35">
         <v>71</v>
       </c>
-      <c r="B76" s="223" t="s">
+      <c r="B76" s="222" t="s">
         <v>1141</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -41080,7 +41080,7 @@
       <c r="A77" s="35">
         <v>72</v>
       </c>
-      <c r="B77" s="227" t="s">
+      <c r="B77" s="226" t="s">
         <v>278</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -41089,7 +41089,7 @@
       <c r="D77" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E77" s="227" t="s">
+      <c r="E77" s="226" t="s">
         <v>280</v>
       </c>
       <c r="F77" s="38" t="s">
@@ -41122,20 +41122,20 @@
       <c r="C78" s="50" t="s">
         <v>1146</v>
       </c>
-      <c r="D78" s="228" t="s">
+      <c r="D78" s="227" t="s">
         <v>282</v>
       </c>
-      <c r="E78" s="225" t="s">
+      <c r="E78" s="224" t="s">
         <v>283</v>
       </c>
       <c r="F78" s="192"/>
       <c r="G78" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="228"/>
+      <c r="H78" s="227"/>
       <c r="I78" s="43"/>
       <c r="J78" s="43"/>
-      <c r="K78" s="258"/>
+      <c r="K78" s="235"/>
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
@@ -41164,8 +41164,8 @@
       <c r="L79" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M79" s="38" t="s">
-        <v>1940</v>
+      <c r="M79" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="N79" s="38" t="s">
         <v>1954</v>
@@ -41175,26 +41175,26 @@
       <c r="A80" s="51">
         <v>75</v>
       </c>
-      <c r="B80" s="259" t="s">
+      <c r="B80" s="236" t="s">
         <v>1908</v>
       </c>
       <c r="C80" s="50" t="s">
         <v>1908</v>
       </c>
-      <c r="D80" s="228" t="s">
+      <c r="D80" s="227" t="s">
         <v>1907</v>
       </c>
-      <c r="E80" s="225"/>
-      <c r="F80" s="228"/>
-      <c r="G80" s="228" t="s">
+      <c r="E80" s="224"/>
+      <c r="F80" s="227"/>
+      <c r="G80" s="227" t="s">
         <v>5</v>
       </c>
       <c r="H80" s="51"/>
       <c r="L80" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M80" s="38" t="s">
-        <v>1940</v>
+      <c r="M80" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="N80" s="38" t="s">
         <v>1954</v>
@@ -41213,7 +41213,7 @@
       <c r="D81" s="38" t="s">
         <v>1969</v>
       </c>
-      <c r="E81" s="227" t="s">
+      <c r="E81" s="226" t="s">
         <v>1966</v>
       </c>
       <c r="F81" s="38"/>
@@ -41353,22 +41353,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="249" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="242"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -41407,10 +41407,10 @@
       <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="253" t="s">
+      <c r="M2" s="230" t="s">
         <v>1937</v>
       </c>
-      <c r="N2" s="254" t="s">
+      <c r="N2" s="231" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -41455,7 +41455,7 @@
         <v>1939</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="142.5" x14ac:dyDescent="0.25">
@@ -41490,7 +41490,7 @@
         <v>902</v>
       </c>
       <c r="K4" s="159" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>1870</v>
@@ -41499,7 +41499,7 @@
         <v>1939</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57" x14ac:dyDescent="0.25">
@@ -41587,7 +41587,7 @@
         <v>1939</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="99.75" x14ac:dyDescent="0.25">
@@ -41628,7 +41628,7 @@
         <v>1870</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>1954</v>
@@ -41675,7 +41675,7 @@
         <v>1939</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
@@ -41716,7 +41716,7 @@
         <v>1870</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>1954</v>
@@ -41754,11 +41754,11 @@
         <v>1174</v>
       </c>
       <c r="K10" s="159" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -41794,7 +41794,7 @@
       <c r="K11" s="44"/>
       <c r="L11" s="38"/>
       <c r="M11" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N11" s="9"/>
     </row>
@@ -41830,7 +41830,7 @@
       <c r="K12" s="44"/>
       <c r="L12" s="38"/>
       <c r="M12" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -41866,11 +41866,11 @@
       <c r="K13" s="44"/>
       <c r="L13" s="38"/>
       <c r="M13" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="399" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="384.75" x14ac:dyDescent="0.25">
       <c r="A14" s="157">
         <v>12</v>
       </c>
@@ -41908,11 +41908,11 @@
         <v>1869</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="157">
         <v>13</v>
       </c>
@@ -42032,7 +42032,7 @@
         <v>1869</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N17" s="9"/>
     </row>
@@ -42068,7 +42068,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="38"/>
       <c r="M18" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N18" s="9"/>
     </row>
@@ -42108,7 +42108,7 @@
         <v>1870</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>1954</v>
@@ -42128,7 +42128,7 @@
         <v>326</v>
       </c>
       <c r="E20" s="159" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>917</v>
@@ -42146,7 +42146,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="38"/>
       <c r="M20" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N20" s="9"/>
     </row>
@@ -42164,7 +42164,7 @@
         <v>329</v>
       </c>
       <c r="E21" s="159" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
@@ -42178,7 +42178,7 @@
       <c r="K21" s="44"/>
       <c r="L21" s="38"/>
       <c r="M21" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="N21" s="9"/>
     </row>
@@ -42214,7 +42214,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="38"/>
       <c r="M22" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N22" s="9"/>
     </row>
@@ -42250,7 +42250,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="38"/>
       <c r="M23" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N23" s="9"/>
     </row>
@@ -42308,7 +42308,7 @@
         <v>338</v>
       </c>
       <c r="E25" s="159" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>917</v>
@@ -42326,7 +42326,7 @@
       <c r="K25" s="44"/>
       <c r="L25" s="38"/>
       <c r="M25" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N25" s="9"/>
     </row>
@@ -42362,7 +42362,7 @@
       <c r="K26" s="44"/>
       <c r="L26" s="38"/>
       <c r="M26" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N26" s="9"/>
     </row>
@@ -42404,7 +42404,7 @@
         <v>1867</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N27" s="9"/>
     </row>
@@ -42558,7 +42558,7 @@
       <c r="K31" s="44"/>
       <c r="L31" s="38"/>
       <c r="M31" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N31" s="9"/>
     </row>
@@ -42590,7 +42590,7 @@
       <c r="K32" s="44"/>
       <c r="L32" s="38"/>
       <c r="M32" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="N32" s="9"/>
     </row>
@@ -42622,7 +42622,7 @@
       <c r="K33" s="44"/>
       <c r="L33" s="38"/>
       <c r="M33" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N33" s="9"/>
     </row>
@@ -42660,7 +42660,7 @@
         <v>1870</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>73</v>
@@ -42738,7 +42738,7 @@
         <v>1869</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N36" s="9"/>
     </row>
@@ -42774,7 +42774,7 @@
         <v>1870</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>1954</v>
@@ -42817,14 +42817,14 @@
         <v>1941</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <v>37</v>
       </c>
-      <c r="B39" s="227" t="s">
+      <c r="B39" s="226" t="s">
         <v>1913</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -42854,7 +42854,7 @@
         <v>1870</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>73</v>
@@ -42864,7 +42864,7 @@
       <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="B40" s="227" t="s">
+      <c r="B40" s="226" t="s">
         <v>1919</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -42892,7 +42892,7 @@
         <v>1870</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>1954</v>
@@ -42902,7 +42902,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="227" t="s">
+      <c r="B41" s="226" t="s">
         <v>1923</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -42933,20 +42933,20 @@
         <v>1941</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>40</v>
       </c>
-      <c r="B42" s="225" t="s">
+      <c r="B42" s="224" t="s">
         <v>1932</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>1931</v>
       </c>
-      <c r="D42" s="228" t="s">
+      <c r="D42" s="227" t="s">
         <v>1934</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -42968,7 +42968,7 @@
         <v>1870</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>1954</v>
@@ -42978,17 +42978,17 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="227" t="s">
-        <v>1999</v>
+      <c r="B43" s="226" t="s">
+        <v>1998</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="38" t="s">
         <v>2001</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>2002</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>917</v>
@@ -43006,7 +43006,7 @@
         <v>1870</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N43" s="9" t="s">
         <v>1954</v>
@@ -43016,17 +43016,17 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="227" t="s">
-        <v>2000</v>
+      <c r="B44" s="226" t="s">
+        <v>1999</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>2003</v>
       </c>
-      <c r="D44" s="38" t="s">
-        <v>2004</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F44" s="38" t="s">
         <v>917</v>
@@ -43044,7 +43044,7 @@
         <v>1870</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N44" s="9" t="s">
         <v>1954</v>
@@ -43054,17 +43054,17 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="227" t="s">
+      <c r="B45" s="226" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>2006</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>2007</v>
-      </c>
       <c r="D45" s="38" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>917</v>
@@ -43082,7 +43082,7 @@
         <v>1870</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="N45" s="9" t="s">
         <v>1954</v>
@@ -43092,17 +43092,17 @@
       <c r="A46" s="35">
         <v>44</v>
       </c>
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="226" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>2029</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="38" t="s">
         <v>2030</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>2031</v>
-      </c>
       <c r="E46" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F46" s="38" t="s">
         <v>917</v>
@@ -43118,7 +43118,7 @@
         <v>1870</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>1965</v>
@@ -43173,22 +43173,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="249" t="s">
         <v>1221</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="242"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="242"/>
-      <c r="L1" s="242"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="246"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -43270,7 +43270,7 @@
         <v>1867</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -43288,7 +43288,7 @@
         <v>364</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>917</v>
@@ -43550,7 +43550,7 @@
         <v>1874</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="N10" s="38"/>
     </row>
@@ -43588,7 +43588,7 @@
         <v>1880</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="N11" s="38"/>
     </row>
@@ -43944,7 +43944,7 @@
         <v>1872</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N20" s="38"/>
     </row>
@@ -43982,7 +43982,7 @@
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N21" s="38"/>
     </row>
@@ -44022,7 +44022,7 @@
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N22" s="38"/>
     </row>
@@ -44059,7 +44059,7 @@
         <v>902</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M23" s="46" t="s">
         <v>1584</v>
@@ -44070,7 +44070,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="240" t="s">
+      <c r="B24" s="247" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -44114,7 +44114,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="244"/>
+      <c r="B25" s="251"/>
       <c r="C25" s="58" t="s">
         <v>1254</v>
       </c>
@@ -44154,7 +44154,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="245"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="22" t="s">
         <v>1257</v>
       </c>
@@ -44194,7 +44194,7 @@
       <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="245"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="22" t="s">
         <v>1260</v>
       </c>
@@ -44234,7 +44234,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="244"/>
+      <c r="B28" s="251"/>
       <c r="C28" s="58" t="s">
         <v>1263</v>
       </c>
@@ -44274,7 +44274,7 @@
       <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="245"/>
+      <c r="B29" s="252"/>
       <c r="C29" s="22" t="s">
         <v>1266</v>
       </c>
@@ -44346,7 +44346,7 @@
         <v>1881</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="N30" s="38"/>
     </row>
@@ -44386,7 +44386,7 @@
         <v>1868</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="N31" s="38"/>
     </row>
@@ -44394,7 +44394,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="247" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -44426,7 +44426,7 @@
         <v>1867</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N32" s="38"/>
     </row>
@@ -44434,7 +44434,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="245"/>
+      <c r="B33" s="252"/>
       <c r="C33" s="4" t="s">
         <v>1274</v>
       </c>
@@ -44464,7 +44464,7 @@
         <v>1867</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N33" s="38"/>
     </row>
@@ -44472,7 +44472,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="245"/>
+      <c r="B34" s="252"/>
       <c r="C34" s="4" t="s">
         <v>1277</v>
       </c>
@@ -44502,7 +44502,7 @@
         <v>1867</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N34" s="38"/>
     </row>
@@ -44510,7 +44510,7 @@
       <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="245"/>
+      <c r="B35" s="252"/>
       <c r="C35" s="4" t="s">
         <v>1280</v>
       </c>
@@ -44540,7 +44540,7 @@
         <v>1867</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N35" s="38"/>
     </row>
@@ -44663,10 +44663,10 @@
         <v>902</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="N38" s="38"/>
     </row>
@@ -44708,7 +44708,7 @@
         <v>1869</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="N39" s="38"/>
     </row>
@@ -44790,7 +44790,7 @@
         <v>1867</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="N41" s="38"/>
     </row>
@@ -44798,7 +44798,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="241" t="s">
+      <c r="B42" s="248" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -44826,7 +44826,7 @@
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="38" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N42" s="38"/>
     </row>
@@ -44834,7 +44834,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="244"/>
+      <c r="B43" s="251"/>
       <c r="C43" s="4" t="s">
         <v>1292</v>
       </c>
@@ -44860,7 +44860,7 @@
       </c>
       <c r="L43" s="38"/>
       <c r="M43" s="38" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N43" s="38"/>
     </row>
@@ -44868,7 +44868,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="244"/>
+      <c r="B44" s="251"/>
       <c r="C44" s="50" t="s">
         <v>1295</v>
       </c>
@@ -44894,7 +44894,7 @@
       </c>
       <c r="L44" s="38"/>
       <c r="M44" s="38" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="N44" s="38"/>
     </row>
@@ -45015,14 +45015,14 @@
         <v>1943</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="243" t="s">
+      <c r="B48" s="250" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -45060,7 +45060,7 @@
       <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="243"/>
+      <c r="B49" s="250"/>
       <c r="C49" s="4" t="s">
         <v>1311</v>
       </c>
@@ -45121,10 +45121,10 @@
         <v>1943</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="57" x14ac:dyDescent="0.25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>49</v>
       </c>
@@ -45132,13 +45132,13 @@
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D51" s="38" t="s">
         <v>1972</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="E51" s="4" t="s">
         <v>1973</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>1974</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>5</v>
@@ -45161,13 +45161,13 @@
         <v>21</v>
       </c>
       <c r="C52" s="219" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>1975</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="E52" s="4" t="s">
         <v>1976</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>1977</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>5</v>
@@ -45187,16 +45187,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="220" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D53" s="38" t="s">
         <v>1996</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D53" s="38" t="s">
+      <c r="E53" s="4" t="s">
         <v>1997</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>1998</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>5</v>
@@ -45885,22 +45885,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="253" t="s">
         <v>1864</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -45984,7 +45984,7 @@
         <v>1943</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
@@ -46184,16 +46184,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="214" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C9" s="214" t="s">
         <v>1986</v>
       </c>
-      <c r="C9" s="214" t="s">
-        <v>1987</v>
-      </c>
       <c r="D9" s="38" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E9" s="214" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
@@ -46227,7 +46227,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:J1"/>
@@ -46247,24 +46247,24 @@
     <col min="10" max="10" width="45.7109375" style="40" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="23.140625" style="5" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="40" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="238" t="s">
         <v>1321</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="248"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="255"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -46342,7 +46342,7 @@
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -46380,7 +46380,7 @@
         <v>1870</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>1965</v>
@@ -46423,11 +46423,11 @@
       <c r="L5" s="38" t="s">
         <v>1869</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>1971</v>
+      <c r="M5" s="4" t="s">
+        <v>1938</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
@@ -46467,7 +46467,7 @@
       <c r="L6" s="38" t="s">
         <v>1867</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="4" t="s">
         <v>1959</v>
       </c>
       <c r="N6" s="4"/>
@@ -46626,7 +46626,7 @@
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="N10" s="38"/>
     </row>
@@ -46661,11 +46661,11 @@
       <c r="L11" s="38" t="s">
         <v>1867</v>
       </c>
-      <c r="M11" s="38" t="s">
-        <v>1971</v>
+      <c r="M11" s="4" t="s">
+        <v>1938</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
@@ -46700,7 +46700,7 @@
         <v>1867</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>1965</v>
@@ -46737,11 +46737,11 @@
       <c r="L13" s="38" t="s">
         <v>1867</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>1971</v>
+      <c r="M13" s="4" t="s">
+        <v>1938</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
@@ -46774,7 +46774,7 @@
         <v>1870</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>1965</v>
@@ -46791,7 +46791,7 @@
         <v>1960</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>1884</v>
@@ -46809,11 +46809,11 @@
       <c r="L15" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M15" s="38" t="s">
-        <v>1971</v>
+      <c r="M15" s="4" t="s">
+        <v>1938</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
@@ -46845,8 +46845,8 @@
       <c r="L16" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M16" s="38" t="s">
-        <v>1194</v>
+      <c r="M16" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>1954</v>
@@ -46879,30 +46879,30 @@
       <c r="L17" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M17" s="38" t="s">
-        <v>1971</v>
+      <c r="M17" s="4" t="s">
+        <v>1938</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>16</v>
       </c>
-      <c r="B18" s="227" t="s">
+      <c r="B18" s="226" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>2013</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="38" t="s">
         <v>2014</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>2015</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>2014</v>
-      </c>
-      <c r="G18" s="224" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G18" s="223" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -46911,7 +46911,7 @@
       <c r="L18" s="38" t="s">
         <v>1870</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="4" t="s">
         <v>1940</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -46992,6 +46992,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -47198,42 +47233,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47250,29 +47275,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FED4436-EAD3-4D37-B1D6-3B020A3B4579}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0C66B0D-6462-4B87-A596-DDF64894880C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5710" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="2034">
   <si>
     <t>Category</t>
   </si>
@@ -6932,6 +6932,9 @@
   </si>
   <si>
     <t>Development completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready for </t>
   </si>
 </sst>
 </file>
@@ -15920,7 +15923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23732,16 +23735,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -37331,7 +37334,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -38568,7 +38571,9 @@
       <c r="L7" s="38" t="s">
         <v>1909</v>
       </c>
-      <c r="M7" s="38"/>
+      <c r="M7" s="38" t="s">
+        <v>2033</v>
+      </c>
       <c r="N7" s="38" t="s">
         <v>1965</v>
       </c>
@@ -46992,41 +46997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -47233,32 +47203,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47275,4 +47255,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73179364-FCF6-409A-8751-04537C03AD8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{333E2224-7BD6-4C8B-99C3-B1A568CF6569}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -39,18 +39,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Resident Services'!$A$2:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoadmapFeatures!$B$3:$E$37</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="5" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -115,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5954" uniqueCount="2022">
   <si>
     <t>Category</t>
   </si>
@@ -6893,12 +6888,24 @@
   <si>
     <t>Internal Analysis Pending</t>
   </si>
+  <si>
+    <t>Cancel appointments for change in Working Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Working hours change for a Registration Center </t>
+  </si>
+  <si>
+    <t>MOS-28249</t>
+  </si>
+  <si>
+    <t>Pre-registration portal to Support cancellation of appointments if working hours are changed for a Registration Cneter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7013,6 +7020,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -7456,7 +7469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8141,6 +8154,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8210,23 +8241,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15376,7 +15392,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15919,7 +15935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16294,18 +16310,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>1331</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="246"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -16755,7 +16771,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="247" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16787,7 +16803,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="248"/>
       <c r="C18" s="4" t="s">
         <v>1350</v>
       </c>
@@ -17126,18 +17142,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>1697</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="246"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
@@ -17175,7 +17191,7 @@
       <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="262" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -17201,7 +17217,7 @@
       <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="257"/>
+      <c r="B4" s="263"/>
       <c r="C4" s="4" t="s">
         <v>1701</v>
       </c>
@@ -17223,7 +17239,7 @@
       <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="262" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -17249,7 +17265,7 @@
       <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="258"/>
+      <c r="B6" s="264"/>
       <c r="C6" s="19" t="s">
         <v>1706</v>
       </c>
@@ -17273,7 +17289,7 @@
       <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="258"/>
+      <c r="B7" s="264"/>
       <c r="C7" s="19" t="s">
         <v>1709</v>
       </c>
@@ -17295,7 +17311,7 @@
       <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="258"/>
+      <c r="B8" s="264"/>
       <c r="C8" s="19" t="s">
         <v>1711</v>
       </c>
@@ -17317,7 +17333,7 @@
       <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="258"/>
+      <c r="B9" s="264"/>
       <c r="C9" s="19" t="s">
         <v>1713</v>
       </c>
@@ -17339,7 +17355,7 @@
       <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="258"/>
+      <c r="B10" s="264"/>
       <c r="C10" s="19" t="s">
         <v>1715</v>
       </c>
@@ -17361,7 +17377,7 @@
       <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="258"/>
+      <c r="B11" s="264"/>
       <c r="C11" s="19" t="s">
         <v>1717</v>
       </c>
@@ -17383,7 +17399,7 @@
       <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="258"/>
+      <c r="B12" s="264"/>
       <c r="C12" s="19" t="s">
         <v>1719</v>
       </c>
@@ -17405,7 +17421,7 @@
       <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="258"/>
+      <c r="B13" s="264"/>
       <c r="C13" s="19" t="s">
         <v>1721</v>
       </c>
@@ -17427,7 +17443,7 @@
       <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="258"/>
+      <c r="B14" s="264"/>
       <c r="C14" s="19" t="s">
         <v>1723</v>
       </c>
@@ -17451,7 +17467,7 @@
       <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="258"/>
+      <c r="B15" s="264"/>
       <c r="C15" s="19" t="s">
         <v>1726</v>
       </c>
@@ -17475,7 +17491,7 @@
       <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="257"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="19" t="s">
         <v>1728</v>
       </c>
@@ -17597,7 +17613,7 @@
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="256" t="s">
+      <c r="B21" s="262" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -17621,7 +17637,7 @@
       <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="258"/>
+      <c r="B22" s="264"/>
       <c r="C22" s="4" t="s">
         <v>1736</v>
       </c>
@@ -17643,7 +17659,7 @@
       <c r="A23" s="38">
         <v>21</v>
       </c>
-      <c r="B23" s="258"/>
+      <c r="B23" s="264"/>
       <c r="C23" s="4" t="s">
         <v>1738</v>
       </c>
@@ -17665,7 +17681,7 @@
       <c r="A24" s="38">
         <v>22</v>
       </c>
-      <c r="B24" s="258"/>
+      <c r="B24" s="264"/>
       <c r="C24" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17687,7 +17703,7 @@
       <c r="A25" s="38">
         <v>23</v>
       </c>
-      <c r="B25" s="258"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="4" t="s">
         <v>1742</v>
       </c>
@@ -17709,7 +17725,7 @@
       <c r="A26" s="38">
         <v>24</v>
       </c>
-      <c r="B26" s="257"/>
+      <c r="B26" s="263"/>
       <c r="C26" s="4" t="s">
         <v>1744</v>
       </c>
@@ -17731,7 +17747,7 @@
       <c r="A27" s="38">
         <v>25</v>
       </c>
-      <c r="B27" s="256" t="s">
+      <c r="B27" s="262" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -17755,7 +17771,7 @@
       <c r="A28" s="38">
         <v>26</v>
       </c>
-      <c r="B28" s="257"/>
+      <c r="B28" s="263"/>
       <c r="C28" s="4" t="s">
         <v>1748</v>
       </c>
@@ -17777,7 +17793,7 @@
       <c r="A29" s="38">
         <v>27</v>
       </c>
-      <c r="B29" s="256" t="s">
+      <c r="B29" s="262" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -17801,7 +17817,7 @@
       <c r="A30" s="38">
         <v>28</v>
       </c>
-      <c r="B30" s="257"/>
+      <c r="B30" s="263"/>
       <c r="C30" s="4" t="s">
         <v>1752</v>
       </c>
@@ -17823,7 +17839,7 @@
       <c r="A31" s="38">
         <v>29</v>
       </c>
-      <c r="B31" s="256" t="s">
+      <c r="B31" s="262" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -17847,7 +17863,7 @@
       <c r="A32" s="38">
         <v>30</v>
       </c>
-      <c r="B32" s="258"/>
+      <c r="B32" s="264"/>
       <c r="C32" s="4" t="s">
         <v>1756</v>
       </c>
@@ -17869,7 +17885,7 @@
       <c r="A33" s="38">
         <v>31</v>
       </c>
-      <c r="B33" s="258"/>
+      <c r="B33" s="264"/>
       <c r="C33" s="4" t="s">
         <v>1758</v>
       </c>
@@ -17891,7 +17907,7 @@
       <c r="A34" s="38">
         <v>32</v>
       </c>
-      <c r="B34" s="258"/>
+      <c r="B34" s="264"/>
       <c r="C34" s="4" t="s">
         <v>1760</v>
       </c>
@@ -17913,7 +17929,7 @@
       <c r="A35" s="38">
         <v>33</v>
       </c>
-      <c r="B35" s="257"/>
+      <c r="B35" s="263"/>
       <c r="C35" s="4" t="s">
         <v>1762</v>
       </c>
@@ -17935,7 +17951,7 @@
       <c r="A36" s="38">
         <v>34</v>
       </c>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="262" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -17959,7 +17975,7 @@
       <c r="A37" s="38">
         <v>35</v>
       </c>
-      <c r="B37" s="258"/>
+      <c r="B37" s="264"/>
       <c r="C37" s="4" t="s">
         <v>1766</v>
       </c>
@@ -17981,7 +17997,7 @@
       <c r="A38" s="38">
         <v>36</v>
       </c>
-      <c r="B38" s="258"/>
+      <c r="B38" s="264"/>
       <c r="C38" s="4" t="s">
         <v>1768</v>
       </c>
@@ -18003,7 +18019,7 @@
       <c r="A39" s="38">
         <v>37</v>
       </c>
-      <c r="B39" s="257"/>
+      <c r="B39" s="263"/>
       <c r="C39" s="4" t="s">
         <v>1770</v>
       </c>
@@ -18025,7 +18041,7 @@
       <c r="A40" s="38">
         <v>38</v>
       </c>
-      <c r="B40" s="256" t="s">
+      <c r="B40" s="262" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -18049,7 +18065,7 @@
       <c r="A41" s="38">
         <v>39</v>
       </c>
-      <c r="B41" s="257"/>
+      <c r="B41" s="263"/>
       <c r="C41" s="4" t="s">
         <v>1774</v>
       </c>
@@ -18095,7 +18111,7 @@
       <c r="A43" s="38">
         <v>41</v>
       </c>
-      <c r="B43" s="256" t="s">
+      <c r="B43" s="262" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -18119,7 +18135,7 @@
       <c r="A44" s="38">
         <v>42</v>
       </c>
-      <c r="B44" s="258"/>
+      <c r="B44" s="264"/>
       <c r="C44" s="4" t="s">
         <v>1779</v>
       </c>
@@ -18141,7 +18157,7 @@
       <c r="A45" s="38">
         <v>43</v>
       </c>
-      <c r="B45" s="258"/>
+      <c r="B45" s="264"/>
       <c r="C45" s="4" t="s">
         <v>1781</v>
       </c>
@@ -18163,7 +18179,7 @@
       <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="B46" s="258"/>
+      <c r="B46" s="264"/>
       <c r="C46" s="4" t="s">
         <v>1783</v>
       </c>
@@ -18187,7 +18203,7 @@
       <c r="A47" s="38">
         <v>45</v>
       </c>
-      <c r="B47" s="258"/>
+      <c r="B47" s="264"/>
       <c r="C47" s="4" t="s">
         <v>1786</v>
       </c>
@@ -18209,7 +18225,7 @@
       <c r="A48" s="38">
         <v>46</v>
       </c>
-      <c r="B48" s="258"/>
+      <c r="B48" s="264"/>
       <c r="C48" s="4" t="s">
         <v>1788</v>
       </c>
@@ -18231,7 +18247,7 @@
       <c r="A49" s="38">
         <v>47</v>
       </c>
-      <c r="B49" s="258"/>
+      <c r="B49" s="264"/>
       <c r="C49" s="4" t="s">
         <v>1790</v>
       </c>
@@ -18253,7 +18269,7 @@
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="258"/>
+      <c r="B50" s="264"/>
       <c r="C50" s="4" t="s">
         <v>1792</v>
       </c>
@@ -18277,7 +18293,7 @@
       <c r="A51" s="38">
         <v>49</v>
       </c>
-      <c r="B51" s="258"/>
+      <c r="B51" s="264"/>
       <c r="C51" s="4" t="s">
         <v>1794</v>
       </c>
@@ -18299,7 +18315,7 @@
       <c r="A52" s="38">
         <v>50</v>
       </c>
-      <c r="B52" s="258"/>
+      <c r="B52" s="264"/>
       <c r="C52" s="4" t="s">
         <v>1796</v>
       </c>
@@ -18321,7 +18337,7 @@
       <c r="A53" s="38">
         <v>51</v>
       </c>
-      <c r="B53" s="258"/>
+      <c r="B53" s="264"/>
       <c r="C53" s="4" t="s">
         <v>1798</v>
       </c>
@@ -18343,7 +18359,7 @@
       <c r="A54" s="38">
         <v>52</v>
       </c>
-      <c r="B54" s="257"/>
+      <c r="B54" s="263"/>
       <c r="C54" s="4" t="s">
         <v>1800</v>
       </c>
@@ -18376,16 +18392,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18397,7 +18413,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18422,20 +18438,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>1355</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="240"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="246"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="140" t="s">
@@ -18468,10 +18484,10 @@
       <c r="J2" s="145" t="s">
         <v>1356</v>
       </c>
-      <c r="K2" s="259" t="s">
+      <c r="K2" s="236" t="s">
         <v>1914</v>
       </c>
-      <c r="L2" s="263" t="s">
+      <c r="L2" s="240" t="s">
         <v>51</v>
       </c>
     </row>
@@ -18502,8 +18518,8 @@
         <v>1145</v>
       </c>
       <c r="J3" s="150"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="264" t="s">
+      <c r="K3" s="237"/>
+      <c r="L3" s="241" t="s">
         <v>572</v>
       </c>
     </row>
@@ -18534,7 +18550,7 @@
         <v>1145</v>
       </c>
       <c r="J4" s="232"/>
-      <c r="K4" s="261"/>
+      <c r="K4" s="238"/>
       <c r="L4" s="66" t="s">
         <v>572</v>
       </c>
@@ -18566,7 +18582,7 @@
         <v>1145</v>
       </c>
       <c r="J5" s="232"/>
-      <c r="K5" s="261"/>
+      <c r="K5" s="238"/>
       <c r="L5" s="66" t="s">
         <v>576</v>
       </c>
@@ -18598,7 +18614,7 @@
         <v>1145</v>
       </c>
       <c r="J6" s="232"/>
-      <c r="K6" s="261"/>
+      <c r="K6" s="238"/>
       <c r="L6" s="66" t="s">
         <v>576</v>
       </c>
@@ -18630,7 +18646,7 @@
         <v>1145</v>
       </c>
       <c r="J7" s="232"/>
-      <c r="K7" s="261"/>
+      <c r="K7" s="238"/>
       <c r="L7" s="66" t="s">
         <v>572</v>
       </c>
@@ -18662,7 +18678,7 @@
         <v>1145</v>
       </c>
       <c r="J8" s="232"/>
-      <c r="K8" s="261"/>
+      <c r="K8" s="238"/>
       <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -18694,7 +18710,7 @@
       <c r="J9" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K9" s="261" t="s">
+      <c r="K9" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L9" s="66"/>
@@ -18726,7 +18742,7 @@
         <v>1145</v>
       </c>
       <c r="J10" s="232"/>
-      <c r="K10" s="261"/>
+      <c r="K10" s="238"/>
       <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -18758,7 +18774,7 @@
       <c r="J11" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K11" s="261" t="s">
+      <c r="K11" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L11" s="66"/>
@@ -18790,7 +18806,7 @@
         <v>1145</v>
       </c>
       <c r="J12" s="232"/>
-      <c r="K12" s="261"/>
+      <c r="K12" s="238"/>
       <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -18822,7 +18838,7 @@
       <c r="J13" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K13" s="261" t="s">
+      <c r="K13" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L13" s="66"/>
@@ -18856,7 +18872,7 @@
       <c r="J14" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K14" s="261" t="s">
+      <c r="K14" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L14" s="66"/>
@@ -18890,7 +18906,7 @@
       <c r="J15" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K15" s="261" t="s">
+      <c r="K15" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L15" s="66"/>
@@ -18924,7 +18940,7 @@
       <c r="J16" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K16" s="261" t="s">
+      <c r="K16" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L16" s="66"/>
@@ -18958,7 +18974,7 @@
       <c r="J17" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K17" s="261" t="s">
+      <c r="K17" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L17" s="66"/>
@@ -18992,7 +19008,7 @@
       <c r="J18" s="75" t="s">
         <v>2012</v>
       </c>
-      <c r="K18" s="261" t="s">
+      <c r="K18" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L18" s="66"/>
@@ -19026,7 +19042,7 @@
       <c r="J19" s="75" t="s">
         <v>2012</v>
       </c>
-      <c r="K19" s="261" t="s">
+      <c r="K19" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L19" s="66"/>
@@ -19060,7 +19076,7 @@
       <c r="J20" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K20" s="261" t="s">
+      <c r="K20" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L20" s="66"/>
@@ -19094,7 +19110,7 @@
       <c r="J21" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K21" s="261" t="s">
+      <c r="K21" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L21" s="66"/>
@@ -19128,7 +19144,7 @@
       <c r="J22" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K22" s="261" t="s">
+      <c r="K22" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L22" s="66"/>
@@ -19162,7 +19178,7 @@
       <c r="J23" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K23" s="261" t="s">
+      <c r="K23" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L23" s="66"/>
@@ -19196,7 +19212,7 @@
       <c r="J24" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K24" s="261" t="s">
+      <c r="K24" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L24" s="66"/>
@@ -19230,7 +19246,7 @@
       <c r="J25" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K25" s="261" t="s">
+      <c r="K25" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L25" s="66"/>
@@ -19264,7 +19280,7 @@
       <c r="J26" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K26" s="261" t="s">
+      <c r="K26" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L26" s="66"/>
@@ -19296,7 +19312,7 @@
         <v>1145</v>
       </c>
       <c r="J27" s="232"/>
-      <c r="K27" s="261"/>
+      <c r="K27" s="238"/>
       <c r="L27" s="66"/>
     </row>
     <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -19328,7 +19344,7 @@
       <c r="J28" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K28" s="261" t="s">
+      <c r="K28" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L28" s="66"/>
@@ -19362,7 +19378,7 @@
       <c r="J29" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K29" s="261" t="s">
+      <c r="K29" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L29" s="66"/>
@@ -19394,7 +19410,7 @@
         <v>1145</v>
       </c>
       <c r="J30" s="75"/>
-      <c r="K30" s="261"/>
+      <c r="K30" s="238"/>
       <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -19426,7 +19442,7 @@
       <c r="J31" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K31" s="261" t="s">
+      <c r="K31" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L31" s="66"/>
@@ -19458,7 +19474,7 @@
         <v>1145</v>
       </c>
       <c r="J32" s="75"/>
-      <c r="K32" s="261"/>
+      <c r="K32" s="238"/>
       <c r="L32" s="66"/>
     </row>
     <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -19490,7 +19506,7 @@
       <c r="J33" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K33" s="261" t="s">
+      <c r="K33" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L33" s="66"/>
@@ -19524,7 +19540,7 @@
       <c r="J34" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K34" s="261" t="s">
+      <c r="K34" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L34" s="66"/>
@@ -19558,7 +19574,7 @@
       <c r="J35" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K35" s="261" t="s">
+      <c r="K35" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L35" s="66"/>
@@ -19590,7 +19606,7 @@
         <v>1145</v>
       </c>
       <c r="J36" s="75"/>
-      <c r="K36" s="261"/>
+      <c r="K36" s="238"/>
       <c r="L36" s="66"/>
     </row>
     <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -19622,7 +19638,7 @@
       <c r="J37" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K37" s="261" t="s">
+      <c r="K37" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L37" s="66"/>
@@ -19654,7 +19670,7 @@
         <v>1145</v>
       </c>
       <c r="J38" s="75"/>
-      <c r="K38" s="261"/>
+      <c r="K38" s="238"/>
       <c r="L38" s="66"/>
     </row>
     <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -19686,7 +19702,7 @@
       <c r="J39" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K39" s="261" t="s">
+      <c r="K39" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L39" s="66"/>
@@ -19720,7 +19736,7 @@
       <c r="J40" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K40" s="261" t="s">
+      <c r="K40" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L40" s="66"/>
@@ -19752,7 +19768,7 @@
         <v>1145</v>
       </c>
       <c r="J41" s="75"/>
-      <c r="K41" s="261"/>
+      <c r="K41" s="238"/>
       <c r="L41" s="66"/>
     </row>
     <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -19784,7 +19800,7 @@
       <c r="J42" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K42" s="261" t="s">
+      <c r="K42" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L42" s="66"/>
@@ -19816,7 +19832,7 @@
         <v>1145</v>
       </c>
       <c r="J43" s="232"/>
-      <c r="K43" s="261"/>
+      <c r="K43" s="238"/>
       <c r="L43" s="66" t="s">
         <v>572</v>
       </c>
@@ -19848,7 +19864,7 @@
         <v>1145</v>
       </c>
       <c r="J44" s="232"/>
-      <c r="K44" s="261"/>
+      <c r="K44" s="238"/>
       <c r="L44" s="66" t="s">
         <v>572</v>
       </c>
@@ -19880,7 +19896,7 @@
         <v>1145</v>
       </c>
       <c r="J45" s="232"/>
-      <c r="K45" s="261"/>
+      <c r="K45" s="238"/>
       <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -19910,7 +19926,7 @@
         <v>1145</v>
       </c>
       <c r="J46" s="232"/>
-      <c r="K46" s="261"/>
+      <c r="K46" s="238"/>
       <c r="L46" s="66"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -19942,7 +19958,7 @@
       <c r="J47" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K47" s="261" t="s">
+      <c r="K47" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L47" s="66"/>
@@ -19976,7 +19992,7 @@
       <c r="J48" s="75" t="s">
         <v>2012</v>
       </c>
-      <c r="K48" s="261" t="s">
+      <c r="K48" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L48" s="66"/>
@@ -20006,7 +20022,7 @@
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="232"/>
-      <c r="K49" s="261"/>
+      <c r="K49" s="238"/>
       <c r="L49" s="66"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -20038,7 +20054,7 @@
       <c r="J50" s="75" t="s">
         <v>2012</v>
       </c>
-      <c r="K50" s="261" t="s">
+      <c r="K50" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L50" s="66"/>
@@ -20072,7 +20088,7 @@
       <c r="J51" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K51" s="261" t="s">
+      <c r="K51" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L51" s="66"/>
@@ -20102,7 +20118,7 @@
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="232"/>
-      <c r="K52" s="261"/>
+      <c r="K52" s="238"/>
       <c r="L52" s="66"/>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -20132,7 +20148,7 @@
         <v>1145</v>
       </c>
       <c r="J53" s="232"/>
-      <c r="K53" s="261"/>
+      <c r="K53" s="238"/>
       <c r="L53" s="66"/>
     </row>
     <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20164,7 +20180,7 @@
       <c r="J54" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K54" s="261" t="s">
+      <c r="K54" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L54" s="66"/>
@@ -20198,7 +20214,7 @@
       <c r="J55" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K55" s="261" t="s">
+      <c r="K55" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L55" s="66"/>
@@ -20230,7 +20246,7 @@
         <v>1145</v>
       </c>
       <c r="J56" s="232"/>
-      <c r="K56" s="261"/>
+      <c r="K56" s="238"/>
       <c r="L56" s="66"/>
     </row>
     <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -20260,7 +20276,7 @@
         <v>1145</v>
       </c>
       <c r="J57" s="232"/>
-      <c r="K57" s="261"/>
+      <c r="K57" s="238"/>
       <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20292,7 +20308,7 @@
       <c r="J58" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K58" s="261" t="s">
+      <c r="K58" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L58" s="66"/>
@@ -20324,7 +20340,7 @@
         <v>1145</v>
       </c>
       <c r="J59" s="232"/>
-      <c r="K59" s="261"/>
+      <c r="K59" s="238"/>
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20356,7 +20372,7 @@
       <c r="J60" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K60" s="261" t="s">
+      <c r="K60" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L60" s="66"/>
@@ -20388,7 +20404,7 @@
         <v>1145</v>
       </c>
       <c r="J61" s="232"/>
-      <c r="K61" s="261"/>
+      <c r="K61" s="238"/>
       <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -20418,7 +20434,7 @@
         <v>1145</v>
       </c>
       <c r="J62" s="232"/>
-      <c r="K62" s="261"/>
+      <c r="K62" s="238"/>
       <c r="L62" s="66"/>
     </row>
     <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20450,7 +20466,7 @@
       <c r="J63" s="75" t="s">
         <v>2012</v>
       </c>
-      <c r="K63" s="261" t="s">
+      <c r="K63" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L63" s="66"/>
@@ -20482,7 +20498,7 @@
         <v>1145</v>
       </c>
       <c r="J64" s="232"/>
-      <c r="K64" s="261"/>
+      <c r="K64" s="238"/>
       <c r="L64" s="66"/>
     </row>
     <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20514,7 +20530,7 @@
       <c r="J65" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K65" s="261" t="s">
+      <c r="K65" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L65" s="66"/>
@@ -20548,7 +20564,7 @@
       <c r="J66" s="75" t="s">
         <v>2012</v>
       </c>
-      <c r="K66" s="261" t="s">
+      <c r="K66" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L66" s="66"/>
@@ -20580,7 +20596,7 @@
         <v>1145</v>
       </c>
       <c r="J67" s="232"/>
-      <c r="K67" s="261"/>
+      <c r="K67" s="238"/>
       <c r="L67" s="66" t="s">
         <v>572</v>
       </c>
@@ -20612,7 +20628,7 @@
         <v>1145</v>
       </c>
       <c r="J68" s="232"/>
-      <c r="K68" s="261"/>
+      <c r="K68" s="238"/>
       <c r="L68" s="66" t="s">
         <v>572</v>
       </c>
@@ -20642,7 +20658,7 @@
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="232"/>
-      <c r="K69" s="261"/>
+      <c r="K69" s="238"/>
       <c r="L69" s="66"/>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -20672,7 +20688,7 @@
         <v>1145</v>
       </c>
       <c r="J70" s="232"/>
-      <c r="K70" s="261"/>
+      <c r="K70" s="238"/>
       <c r="L70" s="66" t="s">
         <v>572</v>
       </c>
@@ -20704,7 +20720,7 @@
         <v>1145</v>
       </c>
       <c r="J71" s="232"/>
-      <c r="K71" s="261"/>
+      <c r="K71" s="238"/>
       <c r="L71" s="66"/>
     </row>
     <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20736,7 +20752,7 @@
       <c r="J72" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K72" s="261" t="s">
+      <c r="K72" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L72" s="66"/>
@@ -20768,7 +20784,7 @@
         <v>1145</v>
       </c>
       <c r="J73" s="232"/>
-      <c r="K73" s="261"/>
+      <c r="K73" s="238"/>
       <c r="L73" s="66"/>
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -20798,7 +20814,7 @@
         <v>1145</v>
       </c>
       <c r="J74" s="232"/>
-      <c r="K74" s="261"/>
+      <c r="K74" s="238"/>
       <c r="L74" s="66"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -20830,7 +20846,7 @@
       <c r="J75" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K75" s="261" t="s">
+      <c r="K75" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L75" s="66"/>
@@ -20862,7 +20878,7 @@
         <v>1145</v>
       </c>
       <c r="J76" s="232"/>
-      <c r="K76" s="261"/>
+      <c r="K76" s="238"/>
       <c r="L76" s="66"/>
     </row>
     <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -20894,7 +20910,7 @@
       <c r="J77" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K77" s="261" t="s">
+      <c r="K77" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L77" s="66"/>
@@ -20928,7 +20944,7 @@
       <c r="J78" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K78" s="261" t="s">
+      <c r="K78" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L78" s="66"/>
@@ -20960,7 +20976,7 @@
         <v>918</v>
       </c>
       <c r="J79" s="232"/>
-      <c r="K79" s="261"/>
+      <c r="K79" s="238"/>
       <c r="L79" s="66" t="s">
         <v>572</v>
       </c>
@@ -20994,7 +21010,7 @@
       <c r="J80" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K80" s="261" t="s">
+      <c r="K80" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L80" s="66"/>
@@ -21026,7 +21042,7 @@
         <v>939</v>
       </c>
       <c r="J81" s="232"/>
-      <c r="K81" s="261"/>
+      <c r="K81" s="238"/>
       <c r="L81" s="66" t="s">
         <v>698</v>
       </c>
@@ -21060,7 +21076,7 @@
       <c r="J82" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K82" s="261" t="s">
+      <c r="K82" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L82" s="66"/>
@@ -21092,7 +21108,7 @@
         <v>1145</v>
       </c>
       <c r="J83" s="232"/>
-      <c r="K83" s="261"/>
+      <c r="K83" s="238"/>
       <c r="L83" s="66"/>
     </row>
     <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -21124,7 +21140,7 @@
       <c r="J84" s="75" t="s">
         <v>2011</v>
       </c>
-      <c r="K84" s="261" t="s">
+      <c r="K84" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L84" s="66"/>
@@ -21156,7 +21172,7 @@
         <v>1145</v>
       </c>
       <c r="J85" s="232"/>
-      <c r="K85" s="261"/>
+      <c r="K85" s="238"/>
       <c r="L85" s="66"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -21188,7 +21204,7 @@
       <c r="J86" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K86" s="261" t="s">
+      <c r="K86" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L86" s="66"/>
@@ -21222,7 +21238,7 @@
       <c r="J87" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K87" s="261" t="s">
+      <c r="K87" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L87" s="66"/>
@@ -21254,7 +21270,7 @@
         <v>1145</v>
       </c>
       <c r="J88" s="232"/>
-      <c r="K88" s="261"/>
+      <c r="K88" s="238"/>
       <c r="L88" s="66"/>
     </row>
     <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -21286,7 +21302,7 @@
       <c r="J89" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K89" s="261" t="s">
+      <c r="K89" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L89" s="66"/>
@@ -21320,7 +21336,7 @@
       <c r="J90" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K90" s="261" t="s">
+      <c r="K90" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L90" s="66"/>
@@ -21352,7 +21368,7 @@
         <v>1145</v>
       </c>
       <c r="J91" s="232"/>
-      <c r="K91" s="261"/>
+      <c r="K91" s="238"/>
       <c r="L91" s="66"/>
     </row>
     <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -21382,7 +21398,7 @@
         <v>1145</v>
       </c>
       <c r="J92" s="232"/>
-      <c r="K92" s="261"/>
+      <c r="K92" s="238"/>
       <c r="L92" s="66"/>
     </row>
     <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -21414,7 +21430,7 @@
       <c r="J93" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K93" s="261" t="s">
+      <c r="K93" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L93" s="66"/>
@@ -21448,7 +21464,7 @@
       <c r="J94" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K94" s="261" t="s">
+      <c r="K94" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L94" s="66"/>
@@ -21482,7 +21498,7 @@
       <c r="J95" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K95" s="261" t="s">
+      <c r="K95" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L95" s="66"/>
@@ -21516,7 +21532,7 @@
       <c r="J96" s="232" t="s">
         <v>2014</v>
       </c>
-      <c r="K96" s="261" t="s">
+      <c r="K96" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L96" s="66"/>
@@ -21550,7 +21566,7 @@
       <c r="J97" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K97" s="261" t="s">
+      <c r="K97" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L97" s="66"/>
@@ -21584,7 +21600,7 @@
       <c r="J98" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K98" s="261" t="s">
+      <c r="K98" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L98" s="66"/>
@@ -21616,7 +21632,7 @@
         <v>1145</v>
       </c>
       <c r="J99" s="232"/>
-      <c r="K99" s="261"/>
+      <c r="K99" s="238"/>
       <c r="L99" s="66" t="s">
         <v>572</v>
       </c>
@@ -21650,7 +21666,7 @@
       <c r="J100" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K100" s="261" t="s">
+      <c r="K100" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L100" s="66" t="s">
@@ -21686,7 +21702,7 @@
       <c r="J101" s="232" t="s">
         <v>2013</v>
       </c>
-      <c r="K101" s="261" t="s">
+      <c r="K101" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L101" s="66"/>
@@ -21720,7 +21736,7 @@
       <c r="J102" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K102" s="261" t="s">
+      <c r="K102" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L102" s="66"/>
@@ -21754,7 +21770,7 @@
       <c r="J103" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K103" s="261" t="s">
+      <c r="K103" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L103" s="66"/>
@@ -21788,7 +21804,7 @@
       <c r="J104" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K104" s="261" t="s">
+      <c r="K104" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L104" s="66"/>
@@ -21820,7 +21836,7 @@
         <v>1145</v>
       </c>
       <c r="J105" s="232"/>
-      <c r="K105" s="261"/>
+      <c r="K105" s="238"/>
       <c r="L105" s="66" t="s">
         <v>572</v>
       </c>
@@ -21852,7 +21868,7 @@
         <v>1145</v>
       </c>
       <c r="J106" s="232"/>
-      <c r="K106" s="261"/>
+      <c r="K106" s="238"/>
       <c r="L106" s="66" t="s">
         <v>572</v>
       </c>
@@ -21886,7 +21902,7 @@
       <c r="J107" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K107" s="261" t="s">
+      <c r="K107" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L107" s="66"/>
@@ -21920,7 +21936,7 @@
       <c r="J108" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K108" s="261" t="s">
+      <c r="K108" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L108" s="66"/>
@@ -21954,7 +21970,7 @@
       <c r="J109" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K109" s="261" t="s">
+      <c r="K109" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L109" s="66"/>
@@ -21988,7 +22004,7 @@
       <c r="J110" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K110" s="261" t="s">
+      <c r="K110" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L110" s="66"/>
@@ -22022,7 +22038,7 @@
       <c r="J111" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K111" s="261" t="s">
+      <c r="K111" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L111" s="66"/>
@@ -22054,7 +22070,7 @@
         <v>1145</v>
       </c>
       <c r="J112" s="232"/>
-      <c r="K112" s="261"/>
+      <c r="K112" s="238"/>
       <c r="L112" s="66"/>
     </row>
     <row r="113" spans="1:12" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -22084,7 +22100,7 @@
         <v>1145</v>
       </c>
       <c r="J113" s="232"/>
-      <c r="K113" s="261"/>
+      <c r="K113" s="238"/>
       <c r="L113" s="66"/>
     </row>
     <row r="114" spans="1:12" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -22114,7 +22130,7 @@
         <v>1145</v>
       </c>
       <c r="J114" s="232"/>
-      <c r="K114" s="261"/>
+      <c r="K114" s="238"/>
       <c r="L114" s="66" t="s">
         <v>572</v>
       </c>
@@ -22146,7 +22162,7 @@
         <v>1145</v>
       </c>
       <c r="J115" s="232"/>
-      <c r="K115" s="261"/>
+      <c r="K115" s="238"/>
       <c r="L115" s="66" t="s">
         <v>572</v>
       </c>
@@ -22180,7 +22196,7 @@
       <c r="J116" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K116" s="261" t="s">
+      <c r="K116" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L116" s="66"/>
@@ -22212,7 +22228,7 @@
         <v>1145</v>
       </c>
       <c r="J117" s="232"/>
-      <c r="K117" s="261"/>
+      <c r="K117" s="238"/>
       <c r="L117" s="66"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -22244,7 +22260,7 @@
       <c r="J118" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K118" s="261" t="s">
+      <c r="K118" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L118" s="66"/>
@@ -22276,7 +22292,7 @@
         <v>1145</v>
       </c>
       <c r="J119" s="232"/>
-      <c r="K119" s="261"/>
+      <c r="K119" s="238"/>
       <c r="L119" s="66" t="s">
         <v>572</v>
       </c>
@@ -22308,7 +22324,7 @@
         <v>1145</v>
       </c>
       <c r="J120" s="232"/>
-      <c r="K120" s="261"/>
+      <c r="K120" s="238"/>
       <c r="L120" s="66" t="s">
         <v>572</v>
       </c>
@@ -22340,7 +22356,7 @@
         <v>1145</v>
       </c>
       <c r="J121" s="232"/>
-      <c r="K121" s="261"/>
+      <c r="K121" s="238"/>
       <c r="L121" s="66" t="s">
         <v>572</v>
       </c>
@@ -22372,7 +22388,7 @@
         <v>1145</v>
       </c>
       <c r="J122" s="232"/>
-      <c r="K122" s="261"/>
+      <c r="K122" s="238"/>
       <c r="L122" s="66" t="s">
         <v>572</v>
       </c>
@@ -22406,7 +22422,7 @@
       <c r="J123" s="232" t="s">
         <v>1373</v>
       </c>
-      <c r="K123" s="261" t="s">
+      <c r="K123" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L123" s="66"/>
@@ -22438,7 +22454,7 @@
         <v>1145</v>
       </c>
       <c r="J124" s="232"/>
-      <c r="K124" s="261"/>
+      <c r="K124" s="238"/>
       <c r="L124" s="66" t="s">
         <v>572</v>
       </c>
@@ -22470,7 +22486,7 @@
         <v>1145</v>
       </c>
       <c r="J125" s="232"/>
-      <c r="K125" s="261"/>
+      <c r="K125" s="238"/>
       <c r="L125" s="66"/>
     </row>
     <row r="126" spans="1:12" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -22500,7 +22516,7 @@
         <v>1145</v>
       </c>
       <c r="J126" s="232"/>
-      <c r="K126" s="261"/>
+      <c r="K126" s="238"/>
       <c r="L126" s="66"/>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -22530,7 +22546,7 @@
         <v>1145</v>
       </c>
       <c r="J127" s="232"/>
-      <c r="K127" s="261"/>
+      <c r="K127" s="238"/>
       <c r="L127" s="66"/>
     </row>
     <row r="128" spans="1:12" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -22560,7 +22576,7 @@
         <v>1145</v>
       </c>
       <c r="J128" s="232"/>
-      <c r="K128" s="261"/>
+      <c r="K128" s="238"/>
       <c r="L128" s="66"/>
     </row>
     <row r="129" spans="1:12" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -22590,7 +22606,7 @@
         <v>1145</v>
       </c>
       <c r="J129" s="232"/>
-      <c r="K129" s="261"/>
+      <c r="K129" s="238"/>
       <c r="L129" s="66"/>
     </row>
     <row r="130" spans="1:12" ht="28" hidden="1" x14ac:dyDescent="0.35">
@@ -22620,7 +22636,7 @@
         <v>1145</v>
       </c>
       <c r="J130" s="232"/>
-      <c r="K130" s="261"/>
+      <c r="K130" s="238"/>
       <c r="L130" s="66"/>
     </row>
     <row r="131" spans="1:12" ht="28" x14ac:dyDescent="0.35">
@@ -22652,7 +22668,7 @@
       <c r="J131" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K131" s="261" t="s">
+      <c r="K131" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L131" s="66"/>
@@ -22686,7 +22702,7 @@
       <c r="J132" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K132" s="261" t="s">
+      <c r="K132" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L132" s="66"/>
@@ -22720,7 +22736,7 @@
       <c r="J133" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K133" s="261" t="s">
+      <c r="K133" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L133" s="66"/>
@@ -22754,7 +22770,7 @@
       <c r="J134" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K134" s="261" t="s">
+      <c r="K134" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L134" s="66"/>
@@ -22788,7 +22804,7 @@
       <c r="J135" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K135" s="261" t="s">
+      <c r="K135" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L135" s="66"/>
@@ -22822,7 +22838,7 @@
       <c r="J136" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K136" s="261" t="s">
+      <c r="K136" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L136" s="66"/>
@@ -22856,7 +22872,7 @@
       <c r="J137" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K137" s="261" t="s">
+      <c r="K137" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L137" s="66"/>
@@ -22890,7 +22906,7 @@
       <c r="J138" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K138" s="261" t="s">
+      <c r="K138" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L138" s="66"/>
@@ -22924,7 +22940,7 @@
       <c r="J139" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K139" s="261" t="s">
+      <c r="K139" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L139" s="66"/>
@@ -22958,7 +22974,7 @@
       <c r="J140" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K140" s="261" t="s">
+      <c r="K140" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L140" s="66"/>
@@ -22992,7 +23008,7 @@
       <c r="J141" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K141" s="261" t="s">
+      <c r="K141" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L141" s="66"/>
@@ -23026,7 +23042,7 @@
       <c r="J142" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K142" s="261" t="s">
+      <c r="K142" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L142" s="66"/>
@@ -23060,7 +23076,7 @@
       <c r="J143" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K143" s="261" t="s">
+      <c r="K143" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L143" s="66"/>
@@ -23094,7 +23110,7 @@
       <c r="J144" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K144" s="261" t="s">
+      <c r="K144" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L144" s="66"/>
@@ -23128,7 +23144,7 @@
       <c r="J145" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K145" s="261" t="s">
+      <c r="K145" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L145" s="66"/>
@@ -23162,7 +23178,7 @@
       <c r="J146" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K146" s="261" t="s">
+      <c r="K146" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L146" s="66"/>
@@ -23196,7 +23212,7 @@
       <c r="J147" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K147" s="261" t="s">
+      <c r="K147" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L147" s="66"/>
@@ -23230,7 +23246,7 @@
       <c r="J148" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K148" s="261" t="s">
+      <c r="K148" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L148" s="66"/>
@@ -23264,7 +23280,7 @@
       <c r="J149" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K149" s="261" t="s">
+      <c r="K149" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L149" s="66"/>
@@ -23298,7 +23314,7 @@
       <c r="J150" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K150" s="261" t="s">
+      <c r="K150" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L150" s="66"/>
@@ -23332,7 +23348,7 @@
       <c r="J151" s="75" t="s">
         <v>2014</v>
       </c>
-      <c r="K151" s="261" t="s">
+      <c r="K151" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L151" s="66"/>
@@ -23366,7 +23382,7 @@
       <c r="J152" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K152" s="261" t="s">
+      <c r="K152" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L152" s="66"/>
@@ -23400,7 +23416,7 @@
       <c r="J153" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K153" s="261" t="s">
+      <c r="K153" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L153" s="66"/>
@@ -23432,7 +23448,7 @@
         <v>1145</v>
       </c>
       <c r="J154" s="232"/>
-      <c r="K154" s="261"/>
+      <c r="K154" s="238"/>
       <c r="L154" s="66"/>
     </row>
     <row r="155" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -23462,7 +23478,7 @@
         <v>1145</v>
       </c>
       <c r="J155" s="232"/>
-      <c r="K155" s="261"/>
+      <c r="K155" s="238"/>
       <c r="L155" s="66"/>
     </row>
     <row r="156" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -23494,7 +23510,7 @@
       <c r="J156" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K156" s="261" t="s">
+      <c r="K156" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L156" s="66"/>
@@ -23528,7 +23544,7 @@
       <c r="J157" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K157" s="261" t="s">
+      <c r="K157" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L157" s="66"/>
@@ -23562,7 +23578,7 @@
       <c r="J158" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K158" s="261" t="s">
+      <c r="K158" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L158" s="66"/>
@@ -23596,7 +23612,7 @@
       <c r="J159" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K159" s="261" t="s">
+      <c r="K159" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L159" s="66"/>
@@ -23630,7 +23646,7 @@
       <c r="J160" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="K160" s="261" t="s">
+      <c r="K160" s="238" t="s">
         <v>1915</v>
       </c>
       <c r="L160" s="66"/>
@@ -23662,7 +23678,7 @@
         <v>1145</v>
       </c>
       <c r="J161" s="232"/>
-      <c r="K161" s="261"/>
+      <c r="K161" s="238"/>
       <c r="L161" s="66"/>
     </row>
     <row r="162" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -23692,7 +23708,7 @@
         <v>1145</v>
       </c>
       <c r="J162" s="232"/>
-      <c r="K162" s="261"/>
+      <c r="K162" s="238"/>
       <c r="L162" s="66" t="s">
         <v>795</v>
       </c>
@@ -23724,7 +23740,7 @@
         <v>1145</v>
       </c>
       <c r="J163" s="232"/>
-      <c r="K163" s="261"/>
+      <c r="K163" s="238"/>
       <c r="L163" s="66"/>
     </row>
     <row r="164" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -23754,7 +23770,7 @@
         <v>1145</v>
       </c>
       <c r="J164" s="232"/>
-      <c r="K164" s="261"/>
+      <c r="K164" s="238"/>
       <c r="L164" s="66"/>
     </row>
     <row r="165" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -23784,7 +23800,7 @@
         <v>1145</v>
       </c>
       <c r="J165" s="232"/>
-      <c r="K165" s="261"/>
+      <c r="K165" s="238"/>
       <c r="L165" s="66"/>
     </row>
     <row r="166" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -23816,7 +23832,7 @@
       <c r="J166" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K166" s="261" t="s">
+      <c r="K166" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L166" s="66"/>
@@ -23850,7 +23866,7 @@
       <c r="J167" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K167" s="261" t="s">
+      <c r="K167" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L167" s="66"/>
@@ -23884,7 +23900,7 @@
       <c r="J168" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K168" s="261" t="s">
+      <c r="K168" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L168" s="66"/>
@@ -23918,7 +23934,7 @@
       <c r="J169" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K169" s="261" t="s">
+      <c r="K169" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L169" s="66"/>
@@ -23952,7 +23968,7 @@
       <c r="J170" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K170" s="261" t="s">
+      <c r="K170" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L170" s="66"/>
@@ -23986,7 +24002,7 @@
       <c r="J171" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K171" s="261" t="s">
+      <c r="K171" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L171" s="66"/>
@@ -24020,10 +24036,10 @@
       <c r="J172" s="232" t="s">
         <v>2012</v>
       </c>
-      <c r="K172" s="261" t="s">
+      <c r="K172" s="238" t="s">
         <v>1194</v>
       </c>
-      <c r="L172" s="262"/>
+      <c r="L172" s="239"/>
     </row>
     <row r="173" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A173" s="35">
@@ -24142,7 +24158,7 @@
       <c r="J176" s="135" t="s">
         <v>1827</v>
       </c>
-      <c r="K176" s="261" t="s">
+      <c r="K176" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L176" s="4"/>
@@ -24176,7 +24192,7 @@
       <c r="J177" s="181" t="s">
         <v>1827</v>
       </c>
-      <c r="K177" s="261" t="s">
+      <c r="K177" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L177" s="4"/>
@@ -24210,7 +24226,7 @@
       <c r="J178" s="181" t="s">
         <v>1827</v>
       </c>
-      <c r="K178" s="261" t="s">
+      <c r="K178" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L178" s="4"/>
@@ -24244,7 +24260,7 @@
       <c r="J179" s="181" t="s">
         <v>1827</v>
       </c>
-      <c r="K179" s="261" t="s">
+      <c r="K179" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L179" s="4"/>
@@ -24278,7 +24294,7 @@
       <c r="J180" s="181" t="s">
         <v>1827</v>
       </c>
-      <c r="K180" s="261" t="s">
+      <c r="K180" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L180" s="4"/>
@@ -24312,7 +24328,7 @@
       <c r="J181" s="181" t="s">
         <v>1827</v>
       </c>
-      <c r="K181" s="261" t="s">
+      <c r="K181" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L181" s="4"/>
@@ -24346,7 +24362,7 @@
       <c r="J182" s="180" t="s">
         <v>1827</v>
       </c>
-      <c r="K182" s="261" t="s">
+      <c r="K182" s="238" t="s">
         <v>1194</v>
       </c>
       <c r="L182" s="4"/>
@@ -24431,26 +24447,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="240"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="245"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="246"/>
     </row>
     <row r="3" spans="2:19" ht="70" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -26635,7 +26651,7 @@
       <c r="C68" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="236" t="s">
+      <c r="D68" s="242" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="115"/>
@@ -26669,7 +26685,7 @@
       <c r="C69" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="236"/>
+      <c r="D69" s="242"/>
       <c r="E69" s="115"/>
       <c r="F69" s="46" t="s">
         <v>225</v>
@@ -36434,12 +36450,12 @@
       <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="243" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="240"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="246"/>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -37981,10 +37997,10 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -38007,18 +38023,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="246"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -38539,7 +38555,7 @@
       <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="247" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -38572,7 +38588,7 @@
       <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="242"/>
+      <c r="B18" s="248"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -38603,7 +38619,7 @@
       <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="247" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -38636,7 +38652,7 @@
       <c r="A20" s="35">
         <v>17</v>
       </c>
-      <c r="B20" s="242"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38823,10 +38839,37 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="56" x14ac:dyDescent="0.35">
+      <c r="A26" s="39">
+        <v>23</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="265" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>2021</v>
+      </c>
       <c r="F26" s="40"/>
+      <c r="G26" s="40" t="s">
+        <v>5</v>
+      </c>
       <c r="H26" s="57"/>
       <c r="I26" s="40"/>
+      <c r="L26" s="40" t="s">
+        <v>1847</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>2017</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>1942</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F27" s="40"/>
@@ -38938,7 +38981,7 @@
     <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38973,18 +39016,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="240"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="246"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -39076,7 +39119,7 @@
       <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="250" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -39110,7 +39153,7 @@
       <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="245"/>
+      <c r="B5" s="251"/>
       <c r="C5" s="4" t="s">
         <v>974</v>
       </c>
@@ -39228,7 +39271,7 @@
       <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="250" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -39264,7 +39307,7 @@
       <c r="A9" s="35">
         <v>11</v>
       </c>
-      <c r="B9" s="245"/>
+      <c r="B9" s="251"/>
       <c r="C9" s="4" t="s">
         <v>984</v>
       </c>
@@ -39438,7 +39481,7 @@
       <c r="A14" s="35">
         <v>12</v>
       </c>
-      <c r="B14" s="244" t="s">
+      <c r="B14" s="250" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -39474,7 +39517,7 @@
       <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="245"/>
+      <c r="B15" s="251"/>
       <c r="C15" s="4" t="s">
         <v>1000</v>
       </c>
@@ -39754,7 +39797,7 @@
       <c r="A22" s="35">
         <v>20</v>
       </c>
-      <c r="B22" s="244" t="s">
+      <c r="B22" s="250" t="s">
         <v>1009</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -39794,7 +39837,7 @@
       <c r="A23" s="35">
         <v>21</v>
       </c>
-      <c r="B23" s="247"/>
+      <c r="B23" s="253"/>
       <c r="C23" s="4" t="s">
         <v>1013</v>
       </c>
@@ -39831,7 +39874,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="245"/>
+      <c r="B24" s="251"/>
       <c r="C24" s="4" t="s">
         <v>1016</v>
       </c>
@@ -40053,7 +40096,7 @@
       <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="244" t="s">
+      <c r="B30" s="250" t="s">
         <v>222</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -40089,7 +40132,7 @@
       <c r="A31" s="35">
         <v>29</v>
       </c>
-      <c r="B31" s="245"/>
+      <c r="B31" s="251"/>
       <c r="C31" s="4" t="s">
         <v>1029</v>
       </c>
@@ -40123,7 +40166,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="244" t="s">
+      <c r="B32" s="250" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -40159,7 +40202,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="245"/>
+      <c r="B33" s="251"/>
       <c r="C33" s="4" t="s">
         <v>1033</v>
       </c>
@@ -40455,7 +40498,7 @@
       <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B41" s="244" t="s">
+      <c r="B41" s="250" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -40491,7 +40534,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="245"/>
+      <c r="B42" s="251"/>
       <c r="C42" s="4" t="s">
         <v>1045</v>
       </c>
@@ -40561,7 +40604,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="244" t="s">
+      <c r="B44" s="250" t="s">
         <v>260</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -40597,7 +40640,7 @@
       <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="245"/>
+      <c r="B45" s="251"/>
       <c r="C45" s="4" t="s">
         <v>1052</v>
       </c>
@@ -40725,7 +40768,7 @@
       <c r="I48" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J48" s="246" t="s">
+      <c r="J48" s="252" t="s">
         <v>274</v>
       </c>
       <c r="K48" s="227" t="s">
@@ -40763,7 +40806,7 @@
       <c r="I49" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J49" s="246"/>
+      <c r="J49" s="252"/>
       <c r="K49" s="198" t="s">
         <v>1063</v>
       </c>
@@ -40799,7 +40842,7 @@
       <c r="I50" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J50" s="246"/>
+      <c r="J50" s="252"/>
       <c r="K50" s="198" t="s">
         <v>349</v>
       </c>
@@ -40835,7 +40878,7 @@
       <c r="I51" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J51" s="246"/>
+      <c r="J51" s="252"/>
       <c r="K51" s="198" t="s">
         <v>1070</v>
       </c>
@@ -40871,7 +40914,7 @@
       <c r="I52" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J52" s="246"/>
+      <c r="J52" s="252"/>
       <c r="K52" s="198" t="s">
         <v>1074</v>
       </c>
@@ -40907,7 +40950,7 @@
       <c r="I53" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J53" s="246"/>
+      <c r="J53" s="252"/>
       <c r="K53" s="198" t="s">
         <v>1063</v>
       </c>
@@ -40943,7 +40986,7 @@
       <c r="I54" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J54" s="246"/>
+      <c r="J54" s="252"/>
       <c r="K54" s="198" t="s">
         <v>1063</v>
       </c>
@@ -40979,7 +41022,7 @@
       <c r="I55" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J55" s="246"/>
+      <c r="J55" s="252"/>
       <c r="K55" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41011,7 +41054,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="81"/>
-      <c r="J56" s="246"/>
+      <c r="J56" s="252"/>
       <c r="K56" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41047,7 +41090,7 @@
       <c r="I57" s="81" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="246"/>
+      <c r="J57" s="252"/>
       <c r="K57" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41089,7 +41132,7 @@
       <c r="I58" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="243" t="s">
+      <c r="J58" s="249" t="s">
         <v>274</v>
       </c>
       <c r="K58" s="198" t="s">
@@ -41127,7 +41170,7 @@
       <c r="I59" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="243"/>
+      <c r="J59" s="249"/>
       <c r="K59" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41163,7 +41206,7 @@
       <c r="I60" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="243"/>
+      <c r="J60" s="249"/>
       <c r="K60" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41199,7 +41242,7 @@
       <c r="I61" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J61" s="243"/>
+      <c r="J61" s="249"/>
       <c r="K61" s="199" t="s">
         <v>66</v>
       </c>
@@ -41235,7 +41278,7 @@
       <c r="I62" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J62" s="243"/>
+      <c r="J62" s="249"/>
       <c r="K62" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41271,7 +41314,7 @@
       <c r="I63" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J63" s="243"/>
+      <c r="J63" s="249"/>
       <c r="K63" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41307,7 +41350,7 @@
       <c r="I64" s="38" t="s">
         <v>939</v>
       </c>
-      <c r="J64" s="243"/>
+      <c r="J64" s="249"/>
       <c r="K64" s="199" t="s">
         <v>1109</v>
       </c>
@@ -41343,7 +41386,7 @@
       <c r="I65" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J65" s="243"/>
+      <c r="J65" s="249"/>
       <c r="K65" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41375,7 +41418,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="38"/>
-      <c r="J66" s="243"/>
+      <c r="J66" s="249"/>
       <c r="K66" s="198" t="s">
         <v>1063</v>
       </c>
@@ -41407,7 +41450,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="38"/>
-      <c r="J67" s="243"/>
+      <c r="J67" s="249"/>
       <c r="K67" s="199" t="s">
         <v>1119</v>
       </c>
@@ -41449,7 +41492,7 @@
       <c r="I68" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="243"/>
+      <c r="J68" s="249"/>
       <c r="K68" s="199" t="s">
         <v>1123</v>
       </c>
@@ -41489,7 +41532,7 @@
       <c r="I69" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="243"/>
+      <c r="J69" s="249"/>
       <c r="K69" s="199" t="s">
         <v>1063</v>
       </c>
@@ -41525,7 +41568,7 @@
       <c r="I70" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="243"/>
+      <c r="J70" s="249"/>
       <c r="K70" s="199" t="s">
         <v>1063</v>
       </c>
@@ -41561,7 +41604,7 @@
       <c r="I71" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="243"/>
+      <c r="J71" s="249"/>
       <c r="K71" s="199" t="s">
         <v>1063</v>
       </c>
@@ -41597,7 +41640,7 @@
       <c r="I72" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J72" s="243"/>
+      <c r="J72" s="249"/>
       <c r="K72" s="199" t="s">
         <v>1063</v>
       </c>
@@ -41633,7 +41676,7 @@
       <c r="I73" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="J73" s="243"/>
+      <c r="J73" s="249"/>
       <c r="K73" s="199" t="s">
         <v>1063</v>
       </c>
@@ -41667,7 +41710,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="43"/>
-      <c r="J74" s="243"/>
+      <c r="J74" s="249"/>
       <c r="K74" s="199" t="s">
         <v>1063</v>
       </c>
@@ -41687,7 +41730,7 @@
       <c r="G75" s="80"/>
       <c r="H75" s="35"/>
       <c r="I75" s="43"/>
-      <c r="J75" s="243"/>
+      <c r="J75" s="249"/>
       <c r="K75" s="229"/>
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
@@ -42004,22 +42047,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="254" t="s">
         <v>1147</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -43824,22 +43867,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="254" t="s">
         <v>1221</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="252"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="258"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -44559,7 +44602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="112" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="126" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>18</v>
       </c>
@@ -44721,7 +44764,7 @@
       <c r="A24" s="35">
         <v>22</v>
       </c>
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="252" t="s">
         <v>399</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -44765,7 +44808,7 @@
       <c r="A25" s="35">
         <v>23</v>
       </c>
-      <c r="B25" s="250"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="58" t="s">
         <v>1254</v>
       </c>
@@ -44805,7 +44848,7 @@
       <c r="A26" s="35">
         <v>24</v>
       </c>
-      <c r="B26" s="251"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="22" t="s">
         <v>1257</v>
       </c>
@@ -44845,7 +44888,7 @@
       <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="251"/>
+      <c r="B27" s="257"/>
       <c r="C27" s="22" t="s">
         <v>1260</v>
       </c>
@@ -44885,7 +44928,7 @@
       <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="250"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="58" t="s">
         <v>1263</v>
       </c>
@@ -44925,7 +44968,7 @@
       <c r="A29" s="55">
         <v>27</v>
       </c>
-      <c r="B29" s="251"/>
+      <c r="B29" s="257"/>
       <c r="C29" s="22" t="s">
         <v>1266</v>
       </c>
@@ -45045,7 +45088,7 @@
       <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="252" t="s">
         <v>409</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -45085,7 +45128,7 @@
       <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="251"/>
+      <c r="B33" s="257"/>
       <c r="C33" s="4" t="s">
         <v>1274</v>
       </c>
@@ -45123,7 +45166,7 @@
       <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B34" s="251"/>
+      <c r="B34" s="257"/>
       <c r="C34" s="4" t="s">
         <v>1277</v>
       </c>
@@ -45161,7 +45204,7 @@
       <c r="A35" s="55">
         <v>33</v>
       </c>
-      <c r="B35" s="251"/>
+      <c r="B35" s="257"/>
       <c r="C35" s="4" t="s">
         <v>1280</v>
       </c>
@@ -45449,7 +45492,7 @@
       <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="247" t="s">
+      <c r="B42" s="253" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="49" t="s">
@@ -45485,7 +45528,7 @@
       <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="250"/>
+      <c r="B43" s="256"/>
       <c r="C43" s="4" t="s">
         <v>1292</v>
       </c>
@@ -45519,7 +45562,7 @@
       <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="250"/>
+      <c r="B44" s="256"/>
       <c r="C44" s="50" t="s">
         <v>1295</v>
       </c>
@@ -45673,7 +45716,7 @@
       <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="249" t="s">
+      <c r="B48" s="255" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -45711,7 +45754,7 @@
       <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="249"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="4" t="s">
         <v>1311</v>
       </c>
@@ -46536,22 +46579,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="258" t="s">
         <v>1841</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="252"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -46904,18 +46947,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="243" t="s">
         <v>1321</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="254"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="260"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -47643,12 +47686,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47859,35 +47919,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47912,18 +47964,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E705EBC5-CEC7-414E-A968-64406E81AF0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EDF148-F24F-4C4E-8932-E56B94016367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="12" r:id="rId1"/>
@@ -39,13 +39,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Resident Services'!$A$2:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoadmapFeatures!$B$3:$E$37</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -110,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="2019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="2020">
   <si>
     <t>Category</t>
   </si>
@@ -6890,6 +6895,9 @@
   </si>
   <si>
     <t>Pre-registration portal to Support cancellation of appointments if working hours are changed for a Registration Cneter</t>
+  </si>
+  <si>
+    <t>Approval Pending - Device Dependent</t>
   </si>
 </sst>
 </file>
@@ -15309,7 +15317,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -15852,7 +15860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18309,16 +18317,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -37917,7 +37925,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -38914,11 +38922,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -39549,7 +39557,7 @@
         <v>1840</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="N17" s="38"/>
     </row>
@@ -47560,15 +47568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -47775,6 +47774,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -47802,14 +47810,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47824,6 +47824,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
+++ b/_files/requirements/Pending_Backlog_Stories_25Jun19_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06ADE7EA-600F-46D6-9DEA-620B7CB1B4D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D69EE548-031C-439D-BD38-139F299721CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,14 +34,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Kernel!$A$2:$N$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Partner Management'!$A$2:$J$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Pre-registration'!$A$2:$N$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$N$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Registration Client'!$A$2:$N$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Registration Processor'!$A$2:$L$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Resident Services'!$A$2:$J$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoadmapFeatures!$B$3:$E$37</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5941" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5948" uniqueCount="2023">
   <si>
     <t>Category</t>
   </si>
@@ -6893,6 +6893,27 @@
   </si>
   <si>
     <t>Pre-registration portal to Support cancellation of appointments if working hours are changed for a Registration Centre</t>
+  </si>
+  <si>
+    <t>Service side validation</t>
+  </si>
+  <si>
+    <t>Registration client service side validation support</t>
+  </si>
+  <si>
+    <t>MOS-28145
+MOS-28144
+MOS-28143
+MOS-28142
+MOS-28141
+MOS-28140
+MOS-28139
+MOS-28138
+MOS-28137
+MOS-28136
+MOS-28135
+MOS-28131
+MOS-28132</t>
   </si>
 </sst>
 </file>
@@ -8052,6 +8073,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8067,17 +8091,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8107,6 +8125,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8114,9 +8138,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15266,7 +15287,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -16184,18 +16205,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="216"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="217"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -16645,7 +16666,7 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="217" t="s">
+      <c r="B17" s="229" t="s">
         <v>503</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -16677,7 +16698,7 @@
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="218"/>
+      <c r="B18" s="230"/>
       <c r="C18" s="4" t="s">
         <v>1346</v>
       </c>
@@ -17016,18 +17037,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>1693</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="216"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="217"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -17065,7 +17086,7 @@
       <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="231" t="s">
         <v>527</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -17091,7 +17112,7 @@
       <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="231"/>
+      <c r="B4" s="232"/>
       <c r="C4" s="4" t="s">
         <v>1697</v>
       </c>
@@ -17113,7 +17134,7 @@
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="231" t="s">
         <v>530</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -17139,7 +17160,7 @@
       <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="B6" s="232"/>
+      <c r="B6" s="233"/>
       <c r="C6" s="19" t="s">
         <v>1702</v>
       </c>
@@ -17163,7 +17184,7 @@
       <c r="A7" s="36">
         <v>5</v>
       </c>
-      <c r="B7" s="232"/>
+      <c r="B7" s="233"/>
       <c r="C7" s="19" t="s">
         <v>1705</v>
       </c>
@@ -17185,7 +17206,7 @@
       <c r="A8" s="36">
         <v>6</v>
       </c>
-      <c r="B8" s="232"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="19" t="s">
         <v>1707</v>
       </c>
@@ -17207,7 +17228,7 @@
       <c r="A9" s="36">
         <v>7</v>
       </c>
-      <c r="B9" s="232"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="19" t="s">
         <v>1709</v>
       </c>
@@ -17229,7 +17250,7 @@
       <c r="A10" s="36">
         <v>8</v>
       </c>
-      <c r="B10" s="232"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="19" t="s">
         <v>1711</v>
       </c>
@@ -17251,7 +17272,7 @@
       <c r="A11" s="36">
         <v>9</v>
       </c>
-      <c r="B11" s="232"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="19" t="s">
         <v>1713</v>
       </c>
@@ -17273,7 +17294,7 @@
       <c r="A12" s="36">
         <v>10</v>
       </c>
-      <c r="B12" s="232"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="19" t="s">
         <v>1715</v>
       </c>
@@ -17295,7 +17316,7 @@
       <c r="A13" s="36">
         <v>11</v>
       </c>
-      <c r="B13" s="232"/>
+      <c r="B13" s="233"/>
       <c r="C13" s="19" t="s">
         <v>1717</v>
       </c>
@@ -17317,7 +17338,7 @@
       <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="232"/>
+      <c r="B14" s="233"/>
       <c r="C14" s="19" t="s">
         <v>1719</v>
       </c>
@@ -17341,7 +17362,7 @@
       <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="232"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="19" t="s">
         <v>1722</v>
       </c>
@@ -17365,7 +17386,7 @@
       <c r="A16" s="36">
         <v>14</v>
       </c>
-      <c r="B16" s="231"/>
+      <c r="B16" s="232"/>
       <c r="C16" s="19" t="s">
         <v>1724</v>
       </c>
@@ -17487,7 +17508,7 @@
       <c r="A21" s="36">
         <v>19</v>
       </c>
-      <c r="B21" s="230" t="s">
+      <c r="B21" s="231" t="s">
         <v>545</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -17511,7 +17532,7 @@
       <c r="A22" s="36">
         <v>20</v>
       </c>
-      <c r="B22" s="232"/>
+      <c r="B22" s="233"/>
       <c r="C22" s="4" t="s">
         <v>1732</v>
       </c>
@@ -17533,7 +17554,7 @@
       <c r="A23" s="36">
         <v>21</v>
       </c>
-      <c r="B23" s="232"/>
+      <c r="B23" s="233"/>
       <c r="C23" s="4" t="s">
         <v>1734</v>
       </c>
@@ -17555,7 +17576,7 @@
       <c r="A24" s="36">
         <v>22</v>
       </c>
-      <c r="B24" s="232"/>
+      <c r="B24" s="233"/>
       <c r="C24" s="4" t="s">
         <v>1736</v>
       </c>
@@ -17577,7 +17598,7 @@
       <c r="A25" s="36">
         <v>23</v>
       </c>
-      <c r="B25" s="232"/>
+      <c r="B25" s="233"/>
       <c r="C25" s="4" t="s">
         <v>1738</v>
       </c>
@@ -17599,7 +17620,7 @@
       <c r="A26" s="36">
         <v>24</v>
       </c>
-      <c r="B26" s="231"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="4" t="s">
         <v>1740</v>
       </c>
@@ -17621,7 +17642,7 @@
       <c r="A27" s="36">
         <v>25</v>
       </c>
-      <c r="B27" s="230" t="s">
+      <c r="B27" s="231" t="s">
         <v>548</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -17645,7 +17666,7 @@
       <c r="A28" s="36">
         <v>26</v>
       </c>
-      <c r="B28" s="231"/>
+      <c r="B28" s="232"/>
       <c r="C28" s="4" t="s">
         <v>1744</v>
       </c>
@@ -17667,7 +17688,7 @@
       <c r="A29" s="36">
         <v>27</v>
       </c>
-      <c r="B29" s="230" t="s">
+      <c r="B29" s="231" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -17691,7 +17712,7 @@
       <c r="A30" s="36">
         <v>28</v>
       </c>
-      <c r="B30" s="231"/>
+      <c r="B30" s="232"/>
       <c r="C30" s="4" t="s">
         <v>1748</v>
       </c>
@@ -17713,7 +17734,7 @@
       <c r="A31" s="36">
         <v>29</v>
       </c>
-      <c r="B31" s="230" t="s">
+      <c r="B31" s="231" t="s">
         <v>553</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -17737,7 +17758,7 @@
       <c r="A32" s="36">
         <v>30</v>
       </c>
-      <c r="B32" s="232"/>
+      <c r="B32" s="233"/>
       <c r="C32" s="4" t="s">
         <v>1752</v>
       </c>
@@ -17759,7 +17780,7 @@
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="232"/>
+      <c r="B33" s="233"/>
       <c r="C33" s="4" t="s">
         <v>1754</v>
       </c>
@@ -17781,7 +17802,7 @@
       <c r="A34" s="36">
         <v>32</v>
       </c>
-      <c r="B34" s="232"/>
+      <c r="B34" s="233"/>
       <c r="C34" s="4" t="s">
         <v>1756</v>
       </c>
@@ -17803,7 +17824,7 @@
       <c r="A35" s="36">
         <v>33</v>
       </c>
-      <c r="B35" s="231"/>
+      <c r="B35" s="232"/>
       <c r="C35" s="4" t="s">
         <v>1758</v>
       </c>
@@ -17825,7 +17846,7 @@
       <c r="A36" s="36">
         <v>34</v>
       </c>
-      <c r="B36" s="230" t="s">
+      <c r="B36" s="231" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -17849,7 +17870,7 @@
       <c r="A37" s="36">
         <v>35</v>
       </c>
-      <c r="B37" s="232"/>
+      <c r="B37" s="233"/>
       <c r="C37" s="4" t="s">
         <v>1762</v>
       </c>
@@ -17871,7 +17892,7 @@
       <c r="A38" s="36">
         <v>36</v>
       </c>
-      <c r="B38" s="232"/>
+      <c r="B38" s="233"/>
       <c r="C38" s="4" t="s">
         <v>1764</v>
       </c>
@@ -17893,7 +17914,7 @@
       <c r="A39" s="36">
         <v>37</v>
       </c>
-      <c r="B39" s="231"/>
+      <c r="B39" s="232"/>
       <c r="C39" s="4" t="s">
         <v>1766</v>
       </c>
@@ -17915,7 +17936,7 @@
       <c r="A40" s="36">
         <v>38</v>
       </c>
-      <c r="B40" s="230" t="s">
+      <c r="B40" s="231" t="s">
         <v>559</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -17939,7 +17960,7 @@
       <c r="A41" s="36">
         <v>39</v>
       </c>
-      <c r="B41" s="231"/>
+      <c r="B41" s="232"/>
       <c r="C41" s="4" t="s">
         <v>1770</v>
       </c>
@@ -17985,7 +18006,7 @@
       <c r="A43" s="36">
         <v>41</v>
       </c>
-      <c r="B43" s="230" t="s">
+      <c r="B43" s="231" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -18009,7 +18030,7 @@
       <c r="A44" s="36">
         <v>42</v>
       </c>
-      <c r="B44" s="232"/>
+      <c r="B44" s="233"/>
       <c r="C44" s="4" t="s">
         <v>1775</v>
       </c>
@@ -18031,7 +18052,7 @@
       <c r="A45" s="36">
         <v>43</v>
       </c>
-      <c r="B45" s="232"/>
+      <c r="B45" s="233"/>
       <c r="C45" s="4" t="s">
         <v>1777</v>
       </c>
@@ -18053,7 +18074,7 @@
       <c r="A46" s="36">
         <v>44</v>
       </c>
-      <c r="B46" s="232"/>
+      <c r="B46" s="233"/>
       <c r="C46" s="4" t="s">
         <v>1779</v>
       </c>
@@ -18077,7 +18098,7 @@
       <c r="A47" s="36">
         <v>45</v>
       </c>
-      <c r="B47" s="232"/>
+      <c r="B47" s="233"/>
       <c r="C47" s="4" t="s">
         <v>1782</v>
       </c>
@@ -18099,7 +18120,7 @@
       <c r="A48" s="36">
         <v>46</v>
       </c>
-      <c r="B48" s="232"/>
+      <c r="B48" s="233"/>
       <c r="C48" s="4" t="s">
         <v>1784</v>
       </c>
@@ -18121,7 +18142,7 @@
       <c r="A49" s="36">
         <v>47</v>
       </c>
-      <c r="B49" s="232"/>
+      <c r="B49" s="233"/>
       <c r="C49" s="4" t="s">
         <v>1786</v>
       </c>
@@ -18143,7 +18164,7 @@
       <c r="A50" s="36">
         <v>48</v>
       </c>
-      <c r="B50" s="232"/>
+      <c r="B50" s="233"/>
       <c r="C50" s="4" t="s">
         <v>1788</v>
       </c>
@@ -18167,7 +18188,7 @@
       <c r="A51" s="36">
         <v>49</v>
       </c>
-      <c r="B51" s="232"/>
+      <c r="B51" s="233"/>
       <c r="C51" s="4" t="s">
         <v>1790</v>
       </c>
@@ -18189,7 +18210,7 @@
       <c r="A52" s="36">
         <v>50</v>
       </c>
-      <c r="B52" s="232"/>
+      <c r="B52" s="233"/>
       <c r="C52" s="4" t="s">
         <v>1792</v>
       </c>
@@ -18211,7 +18232,7 @@
       <c r="A53" s="36">
         <v>51</v>
       </c>
-      <c r="B53" s="232"/>
+      <c r="B53" s="233"/>
       <c r="C53" s="4" t="s">
         <v>1794</v>
       </c>
@@ -18233,7 +18254,7 @@
       <c r="A54" s="36">
         <v>52</v>
       </c>
-      <c r="B54" s="231"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="4" t="s">
         <v>1796</v>
       </c>
@@ -18266,16 +18287,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B36:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18312,20 +18333,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>1351</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="216"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+      <c r="L1" s="217"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="128" t="s">
@@ -24321,26 +24342,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="216"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="217"/>
     </row>
     <row r="3" spans="2:19" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -26525,7 +26546,7 @@
       <c r="C68" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="212" t="s">
+      <c r="D68" s="213" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="106"/>
@@ -26559,7 +26580,7 @@
       <c r="C69" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="212"/>
+      <c r="D69" s="213"/>
       <c r="E69" s="106"/>
       <c r="F69" s="44" t="s">
         <v>225</v>
@@ -36324,12 +36345,12 @@
       <c r="F1" s="38"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="216"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -37897,18 +37918,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="216"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="217"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -38464,7 +38485,7 @@
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="218" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -38500,7 +38521,7 @@
       <c r="A18" s="33">
         <v>16</v>
       </c>
-      <c r="B18" s="220"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="4" t="s">
         <v>954</v>
       </c>
@@ -38534,7 +38555,7 @@
       <c r="A19" s="33">
         <v>17</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="218" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -38570,7 +38591,7 @@
       <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="220"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="4" t="s">
         <v>960</v>
       </c>
@@ -38734,7 +38755,7 @@
       <c r="G24" s="36" t="s">
         <v>1940</v>
       </c>
-      <c r="H24" s="233"/>
+      <c r="H24" s="212"/>
       <c r="I24" s="36"/>
       <c r="J24" s="4"/>
       <c r="K24" s="36"/>
@@ -38831,13 +38852,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:J1"/>
+      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -38859,18 +38881,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="220" t="s">
         <v>966</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="206" t="s">
@@ -38958,7 +38980,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -38992,7 +39014,7 @@
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
     </row>
-    <row r="5" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -39066,7 +39088,7 @@
       </c>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>5</v>
       </c>
@@ -39102,7 +39124,7 @@
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -39136,7 +39158,7 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" s="24" customFormat="1" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="24" customFormat="1" ht="111.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>7</v>
       </c>
@@ -39170,7 +39192,7 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="111.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -39204,7 +39226,7 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>9</v>
       </c>
@@ -39240,7 +39262,7 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -39276,7 +39298,7 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="111.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>11</v>
       </c>
@@ -39312,7 +39334,7 @@
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -39710,7 +39732,7 @@
       </c>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>22</v>
       </c>
@@ -39744,7 +39766,7 @@
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
     </row>
-    <row r="25" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>23</v>
       </c>
@@ -39818,7 +39840,7 @@
       </c>
       <c r="N26" s="36"/>
     </row>
-    <row r="27" spans="1:14" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="24" customFormat="1" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>25</v>
       </c>
@@ -39854,7 +39876,7 @@
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>26</v>
       </c>
@@ -39890,7 +39912,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
     </row>
-    <row r="29" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>27</v>
       </c>
@@ -39924,7 +39946,7 @@
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>28</v>
       </c>
@@ -39960,7 +39982,7 @@
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
     </row>
-    <row r="31" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>29</v>
       </c>
@@ -39994,7 +40016,7 @@
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>30</v>
       </c>
@@ -40072,7 +40094,7 @@
       </c>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>32</v>
       </c>
@@ -40108,7 +40130,7 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
     </row>
-    <row r="35" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>33</v>
       </c>
@@ -40142,7 +40164,7 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>34</v>
       </c>
@@ -40220,7 +40242,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>36</v>
       </c>
@@ -40256,7 +40278,7 @@
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
-    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>37</v>
       </c>
@@ -40292,7 +40314,7 @@
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>38</v>
       </c>
@@ -40326,7 +40348,7 @@
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
     </row>
-    <row r="41" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>39</v>
       </c>
@@ -40362,7 +40384,7 @@
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>40</v>
       </c>
@@ -40398,7 +40420,7 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
     </row>
-    <row r="43" spans="1:14" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="98.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>41</v>
       </c>
@@ -40432,7 +40454,7 @@
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
     </row>
-    <row r="44" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>42</v>
       </c>
@@ -40468,7 +40490,7 @@
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
     </row>
-    <row r="45" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>43</v>
       </c>
@@ -40502,7 +40524,7 @@
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
     </row>
-    <row r="46" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>44</v>
       </c>
@@ -40540,7 +40562,7 @@
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
     </row>
-    <row r="47" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>45</v>
       </c>
@@ -40576,7 +40598,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="36"/>
     </row>
-    <row r="48" spans="1:14" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="98.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>46</v>
       </c>
@@ -40612,7 +40634,7 @@
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
     </row>
-    <row r="49" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>47</v>
       </c>
@@ -40648,7 +40670,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
     </row>
-    <row r="50" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>48</v>
       </c>
@@ -40684,7 +40706,7 @@
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>49</v>
       </c>
@@ -40720,7 +40742,7 @@
       <c r="M51" s="36"/>
       <c r="N51" s="36"/>
     </row>
-    <row r="52" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="56.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>50</v>
       </c>
@@ -40756,7 +40778,7 @@
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>51</v>
       </c>
@@ -40792,7 +40814,7 @@
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>52</v>
       </c>
@@ -40866,7 +40888,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>54</v>
       </c>
@@ -40894,7 +40916,7 @@
       <c r="I56" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J56" s="220" t="s">
+      <c r="J56" s="218" t="s">
         <v>274</v>
       </c>
       <c r="K56" s="204" t="s">
@@ -40904,7 +40926,7 @@
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
     </row>
-    <row r="57" spans="1:14" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <v>55</v>
       </c>
@@ -40932,7 +40954,7 @@
       <c r="I57" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J57" s="220"/>
+      <c r="J57" s="218"/>
       <c r="K57" s="204" t="s">
         <v>1059</v>
       </c>
@@ -40940,7 +40962,7 @@
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
     </row>
-    <row r="58" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>56</v>
       </c>
@@ -40968,7 +40990,7 @@
       <c r="I58" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="220"/>
+      <c r="J58" s="218"/>
       <c r="K58" s="204" t="s">
         <v>1059</v>
       </c>
@@ -40976,7 +40998,7 @@
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
     </row>
-    <row r="59" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>57</v>
       </c>
@@ -41004,7 +41026,7 @@
       <c r="I59" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J59" s="220"/>
+      <c r="J59" s="218"/>
       <c r="K59" s="204" t="s">
         <v>66</v>
       </c>
@@ -41012,7 +41034,7 @@
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
     </row>
-    <row r="60" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>58</v>
       </c>
@@ -41040,7 +41062,7 @@
       <c r="I60" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J60" s="220"/>
+      <c r="J60" s="218"/>
       <c r="K60" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41048,7 +41070,7 @@
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
     </row>
-    <row r="61" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>59</v>
       </c>
@@ -41076,7 +41098,7 @@
       <c r="I61" s="36" t="s">
         <v>939</v>
       </c>
-      <c r="J61" s="220"/>
+      <c r="J61" s="218"/>
       <c r="K61" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41084,7 +41106,7 @@
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
     </row>
-    <row r="62" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>60</v>
       </c>
@@ -41112,7 +41134,7 @@
       <c r="I62" s="36" t="s">
         <v>939</v>
       </c>
-      <c r="J62" s="220"/>
+      <c r="J62" s="218"/>
       <c r="K62" s="204" t="s">
         <v>1105</v>
       </c>
@@ -41120,7 +41142,7 @@
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
     </row>
-    <row r="63" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>61</v>
       </c>
@@ -41148,7 +41170,7 @@
       <c r="I63" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J63" s="220"/>
+      <c r="J63" s="218"/>
       <c r="K63" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41156,7 +41178,7 @@
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
     </row>
-    <row r="64" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>62</v>
       </c>
@@ -41182,7 +41204,7 @@
         <v>60</v>
       </c>
       <c r="I64" s="36"/>
-      <c r="J64" s="220"/>
+      <c r="J64" s="218"/>
       <c r="K64" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41216,7 +41238,7 @@
         <v>30</v>
       </c>
       <c r="I65" s="36"/>
-      <c r="J65" s="220"/>
+      <c r="J65" s="218"/>
       <c r="K65" s="204" t="s">
         <v>1115</v>
       </c>
@@ -41258,7 +41280,7 @@
       <c r="I66" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J66" s="220"/>
+      <c r="J66" s="218"/>
       <c r="K66" s="204" t="s">
         <v>1119</v>
       </c>
@@ -41270,7 +41292,7 @@
       </c>
       <c r="N66" s="36"/>
     </row>
-    <row r="67" spans="1:14" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <v>65</v>
       </c>
@@ -41298,7 +41320,7 @@
       <c r="I67" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J67" s="220"/>
+      <c r="J67" s="218"/>
       <c r="K67" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41306,7 +41328,7 @@
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
     </row>
-    <row r="68" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>66</v>
       </c>
@@ -41334,7 +41356,7 @@
       <c r="I68" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J68" s="220"/>
+      <c r="J68" s="218"/>
       <c r="K68" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41342,7 +41364,7 @@
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
     </row>
-    <row r="69" spans="1:14" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="153.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <v>67</v>
       </c>
@@ -41370,7 +41392,7 @@
       <c r="I69" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J69" s="220"/>
+      <c r="J69" s="218"/>
       <c r="K69" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41378,7 +41400,7 @@
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
     </row>
-    <row r="70" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>68</v>
       </c>
@@ -41406,7 +41428,7 @@
       <c r="I70" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J70" s="220"/>
+      <c r="J70" s="218"/>
       <c r="K70" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41414,7 +41436,7 @@
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
     </row>
-    <row r="71" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <v>69</v>
       </c>
@@ -41442,7 +41464,7 @@
       <c r="I71" s="36" t="s">
         <v>969</v>
       </c>
-      <c r="J71" s="220"/>
+      <c r="J71" s="218"/>
       <c r="K71" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41450,7 +41472,7 @@
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
     </row>
-    <row r="72" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>70</v>
       </c>
@@ -41476,7 +41498,7 @@
         <v>20</v>
       </c>
       <c r="I72" s="41"/>
-      <c r="J72" s="220"/>
+      <c r="J72" s="218"/>
       <c r="K72" s="204" t="s">
         <v>1059</v>
       </c>
@@ -41484,7 +41506,7 @@
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
     </row>
-    <row r="73" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <v>71</v>
       </c>
@@ -41496,13 +41518,13 @@
       <c r="G73" s="36"/>
       <c r="H73" s="33"/>
       <c r="I73" s="41"/>
-      <c r="J73" s="220"/>
+      <c r="J73" s="218"/>
       <c r="K73" s="64"/>
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
     </row>
-    <row r="74" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <v>72</v>
       </c>
@@ -41536,7 +41558,7 @@
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
     </row>
-    <row r="75" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
         <v>73</v>
       </c>
@@ -41572,7 +41594,7 @@
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
     </row>
-    <row r="76" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <v>74</v>
       </c>
@@ -41634,7 +41656,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <v>76</v>
       </c>
@@ -41694,7 +41716,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="27.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <v>78</v>
       </c>
@@ -41722,52 +41744,81 @@
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="33"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="36" t="s">
+        <v>1843</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="36" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
@@ -41789,7 +41840,14 @@
       <c r="B102" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N80" xr:uid="{A0A37014-D766-4FD4-9EBB-79A31998170E}"/>
+  <autoFilter ref="A2:N81" xr:uid="{A0A37014-D766-4FD4-9EBB-79A31998170E}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Vital"/>
+        <filter val="Vital/NA?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="J46:J55"/>
@@ -41840,22 +41898,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="220" t="s">
         <v>1143</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -42399,7 +42457,7 @@
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="141">
         <v>13</v>
       </c>
@@ -43660,22 +43718,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="220" t="s">
         <v>1217</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="226"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="225"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -44601,7 +44659,7 @@
       <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="223"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="56" t="s">
         <v>1250</v>
       </c>
@@ -44641,7 +44699,7 @@
       <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="224"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="22" t="s">
         <v>1253</v>
       </c>
@@ -44681,7 +44739,7 @@
       <c r="A27" s="33">
         <v>25</v>
       </c>
-      <c r="B27" s="224"/>
+      <c r="B27" s="223"/>
       <c r="C27" s="22" t="s">
         <v>1256</v>
       </c>
@@ -44721,7 +44779,7 @@
       <c r="A28" s="33">
         <v>26</v>
       </c>
-      <c r="B28" s="223"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="56" t="s">
         <v>1259</v>
       </c>
@@ -44761,7 +44819,7 @@
       <c r="A29" s="53">
         <v>27</v>
       </c>
-      <c r="B29" s="224"/>
+      <c r="B29" s="223"/>
       <c r="C29" s="22" t="s">
         <v>1262</v>
       </c>
@@ -44921,7 +44979,7 @@
       <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B33" s="224"/>
+      <c r="B33" s="223"/>
       <c r="C33" s="4" t="s">
         <v>1270</v>
       </c>
@@ -44959,7 +45017,7 @@
       <c r="A34" s="33">
         <v>32</v>
       </c>
-      <c r="B34" s="224"/>
+      <c r="B34" s="223"/>
       <c r="C34" s="4" t="s">
         <v>1273</v>
       </c>
@@ -44997,7 +45055,7 @@
       <c r="A35" s="53">
         <v>33</v>
       </c>
-      <c r="B35" s="224"/>
+      <c r="B35" s="223"/>
       <c r="C35" s="4" t="s">
         <v>1276</v>
       </c>
@@ -45285,7 +45343,7 @@
       <c r="A42" s="33">
         <v>40</v>
       </c>
-      <c r="B42" s="225" t="s">
+      <c r="B42" s="224" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="47" t="s">
@@ -45321,7 +45379,7 @@
       <c r="A43" s="33">
         <v>41</v>
       </c>
-      <c r="B43" s="223"/>
+      <c r="B43" s="222"/>
       <c r="C43" s="4" t="s">
         <v>1288</v>
       </c>
@@ -45355,7 +45413,7 @@
       <c r="A44" s="33">
         <v>42</v>
       </c>
-      <c r="B44" s="223"/>
+      <c r="B44" s="222"/>
       <c r="C44" s="48" t="s">
         <v>1291</v>
       </c>
@@ -45509,7 +45567,7 @@
       <c r="A48" s="33">
         <v>46</v>
       </c>
-      <c r="B48" s="222" t="s">
+      <c r="B48" s="221" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -45547,7 +45605,7 @@
       <c r="A49" s="33">
         <v>47</v>
       </c>
-      <c r="B49" s="222"/>
+      <c r="B49" s="221"/>
       <c r="C49" s="4" t="s">
         <v>1307</v>
       </c>
@@ -46372,22 +46430,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="225" t="s">
         <v>1837</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -46740,18 +46798,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>1317</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="228"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="227"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -47505,15 +47563,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -47720,6 +47769,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8EC3877-83FF-480B-8819-7751D3BFBA2F}">
   <ds:schemaRefs>
@@ -47738,14 +47796,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC7F7E23-FE37-4AB8-A4B3-5025B5D9E450}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47762,4 +47812,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4574461-DD7B-4995-B8CC-A8415FBC904F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>